--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>Blue items are drop-down selectors. Orange fields are inputs. Only type into the orange fields.</t>
+  </si>
+  <si>
+    <t>SRMFuel</t>
+  </si>
+  <si>
+    <t>Supports stock, CRP and WBI.</t>
   </si>
 </sst>
 </file>
@@ -494,16 +500,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -860,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IR18"/>
+  <dimension ref="A1:IR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -874,16 +880,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickTop="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B2"/>
@@ -892,172 +898,179 @@
       <c r="E2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3"/>
+      <c r="A3" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="9">
-        <v>290</v>
-      </c>
-      <c r="C5" s="9">
-        <v>16</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="9">
+        <v>290</v>
+      </c>
+      <c r="C6" s="9">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="6">
-        <f>B5*9.8066</f>
+    <row r="8" spans="1:6">
+      <c r="B8" s="6">
+        <f>B6*9.8066</f>
         <v>2843.9139999999998</v>
       </c>
-      <c r="C7" s="10">
-        <f>C5*1000/B7</f>
+      <c r="C8" s="10">
+        <f>C6*1000/B8</f>
         <v>5.6260491702632365</v>
       </c>
-      <c r="D7" s="10">
-        <f>C5*1000*B7/2</f>
+      <c r="D8" s="10">
+        <f>C6*1000*B8/2</f>
         <v>22751311.999999996</v>
       </c>
-      <c r="E7" s="10">
-        <f>D7/C7</f>
+      <c r="E8" s="10">
+        <f>D8/C8</f>
         <v>4043923.419697999</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6">
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="20.25" thickBot="1">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:6">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.25" thickBot="1">
+      <c r="A11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" thickTop="1">
-      <c r="A11" s="22" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickTop="1">
+      <c r="A12" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B12" s="11">
         <v>0.45</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C12" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>0</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="12">
-        <f>IFERROR(VLOOKUP(B12,Database!$A$2:$B$34,2,FALSE),"-")</f>
+      <c r="B14" s="12">
+        <f>IFERROR(VLOOKUP(B13,Database!$A$2:$B$35,2,FALSE),"-")</f>
         <v>5</v>
       </c>
-      <c r="C13" s="12">
-        <f>IFERROR(VLOOKUP(C12,Database!$A$2:$B$34,2,FALSE),"-")</f>
-        <v>5</v>
-      </c>
-      <c r="D13" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D12,Database!$A$2:$B$34,2,FALSE),"-")</f>
+      <c r="C14" s="12" t="str">
+        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$35,2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="E13" s="13">
+      <c r="D14" s="12" t="str">
+        <f>IFERROR(VLOOKUP(D13,Database!$A$2:$B$35,2,FALSE),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E14" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" thickTop="1">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:6" ht="16.5" thickTop="1">
+      <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="19">
-        <f t="shared" ref="B14:C14" si="0">IFERROR(($C$7/B13)*B11,"-")</f>
+      <c r="B15" s="17">
+        <f t="shared" ref="B15:C15" si="0">IFERROR(($C$8/B14)*B12,"-")</f>
         <v>0.50634442532369128</v>
       </c>
-      <c r="C14" s="19">
-        <f t="shared" si="0"/>
-        <v>0.61886540872895601</v>
-      </c>
-      <c r="D14" s="19" t="str">
-        <f>IFERROR(($C$7/D13)*D11,"-")</f>
+      <c r="C15" s="17" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="E14" s="19">
-        <f>SUM(B14:D14)*E11</f>
+      <c r="D15" s="17" t="str">
+        <f>IFERROR(($C$8/D14)*D12,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E15" s="17">
+        <f>SUM(B15:D15)*E12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
-    </row>
     <row r="18" spans="1:3">
-      <c r="C18"/>
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
@@ -1071,9 +1084,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$34</xm:f>
+            <xm:f>Database!$A$2:$A$35</xm:f>
           </x14:formula1>
-          <xm:sqref>B12:D12</xm:sqref>
+          <xm:sqref>B13:D13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1083,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV34"/>
+  <dimension ref="A1:IV35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1465,6 +1478,18 @@
       </c>
       <c r="C34" s="15">
         <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="14">
+        <f t="shared" ref="B35" si="2">C35*1000</f>
+        <v>7.5</v>
+      </c>
+      <c r="C35" s="15">
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1504,15 +1529,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -869,7 +869,7 @@
   <dimension ref="A1:IR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -932,10 +932,10 @@
         <v>72</v>
       </c>
       <c r="B6" s="9">
-        <v>290</v>
+        <v>570</v>
       </c>
       <c r="C6" s="9">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -961,19 +961,19 @@
     <row r="8" spans="1:6">
       <c r="B8" s="6">
         <f>B6*9.8066</f>
-        <v>2843.9139999999998</v>
+        <v>5589.7619999999997</v>
       </c>
       <c r="C8" s="10">
         <f>C6*1000/B8</f>
-        <v>5.6260491702632365</v>
+        <v>44.72462333816717</v>
       </c>
       <c r="D8" s="10">
         <f>C6*1000*B8/2</f>
-        <v>22751311.999999996</v>
+        <v>698720250</v>
       </c>
       <c r="E8" s="10">
         <f>D8/C8</f>
-        <v>4043923.419697999</v>
+        <v>15622719.608322</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -996,16 +996,16 @@
         <v>71</v>
       </c>
       <c r="B12" s="11">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
       <c r="C12" s="11">
-        <v>0.55000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="D12" s="11">
         <v>0</v>
       </c>
       <c r="E12" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1013,9 +1013,11 @@
         <v>70</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="s">
         <v>35</v>
@@ -1027,11 +1029,11 @@
       </c>
       <c r="B14" s="12">
         <f>IFERROR(VLOOKUP(B13,Database!$A$2:$B$35,2,FALSE),"-")</f>
+        <v>7.0849999999999996E-2</v>
+      </c>
+      <c r="C14" s="12">
+        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$35,2,FALSE),"-")</f>
         <v>5</v>
-      </c>
-      <c r="C14" s="12" t="str">
-        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$35,2,FALSE),"-")</f>
-        <v>-</v>
       </c>
       <c r="D14" s="12" t="str">
         <f>IFERROR(VLOOKUP(D13,Database!$A$2:$B$35,2,FALSE),"-")</f>
@@ -1047,11 +1049,11 @@
       </c>
       <c r="B15" s="17">
         <f t="shared" ref="B15:C15" si="0">IFERROR(($C$8/B14)*B12,"-")</f>
-        <v>0.50634442532369128</v>
-      </c>
-      <c r="C15" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <v>946.88687377912152</v>
+      </c>
+      <c r="C15" s="17">
+        <f t="shared" si="0"/>
+        <v>0.89449246676334337</v>
       </c>
       <c r="D15" s="17" t="str">
         <f>IFERROR(($C$8/D14)*D12,"-")</f>
@@ -1059,7 +1061,7 @@
       </c>
       <c r="E15" s="17">
         <f>SUM(B15:D15)*E12</f>
-        <v>0</v>
+        <v>947.7813662458849</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1098,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1191,7 +1193,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="14">
-        <f>C10*1000</f>
+        <f t="shared" ref="B10:B35" si="0">C10*1000</f>
         <v>1.784E-3</v>
       </c>
       <c r="C10" s="15">
@@ -1203,7 +1205,7 @@
         <v>44</v>
       </c>
       <c r="B11" s="14">
-        <f t="shared" ref="B11:B20" si="0">C11*1000</f>
+        <f t="shared" si="0"/>
         <v>10.97</v>
       </c>
       <c r="C11" s="15">
@@ -1323,7 +1325,7 @@
         <v>47</v>
       </c>
       <c r="B21" s="14">
-        <f>C21*1000</f>
+        <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
       <c r="C21" s="15">
@@ -1335,7 +1337,7 @@
         <v>50</v>
       </c>
       <c r="B22" s="14">
-        <f>C22*1000</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C22" s="15">
@@ -1346,6 +1348,7 @@
       <c r="A23" s="7" t="s">
         <v>67</v>
       </c>
+      <c r="B23" s="14"/>
       <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1">
@@ -1353,7 +1356,7 @@
         <v>55</v>
       </c>
       <c r="B24" s="14">
-        <f t="shared" ref="B24:B34" si="1">C24*1000</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C24" s="15">
@@ -1365,7 +1368,7 @@
         <v>62</v>
       </c>
       <c r="B25" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54.4</v>
       </c>
       <c r="C25" s="15">
@@ -1377,7 +1380,7 @@
         <v>56</v>
       </c>
       <c r="B26" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C26" s="15">
@@ -1389,7 +1392,7 @@
         <v>65</v>
       </c>
       <c r="B27" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="C27" s="15">
@@ -1401,7 +1404,7 @@
         <v>60</v>
       </c>
       <c r="B28" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.0108799999999993</v>
       </c>
       <c r="C28" s="15">
@@ -1413,7 +1416,7 @@
         <v>63</v>
       </c>
       <c r="B29" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C29" s="15">
@@ -1425,7 +1428,7 @@
         <v>57</v>
       </c>
       <c r="B30" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
       <c r="C30" s="15">
@@ -1437,7 +1440,7 @@
         <v>61</v>
       </c>
       <c r="B31" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7050000000000001</v>
       </c>
       <c r="C31" s="15">
@@ -1449,7 +1452,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.35399999999999998</v>
       </c>
       <c r="C32" s="15">
@@ -1461,7 +1464,7 @@
         <v>59</v>
       </c>
       <c r="B33" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.12805</v>
       </c>
       <c r="C33" s="15">
@@ -1473,7 +1476,7 @@
         <v>64</v>
       </c>
       <c r="B34" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.1000000000000005</v>
       </c>
       <c r="C34" s="15">
@@ -1485,7 +1488,7 @@
         <v>74</v>
       </c>
       <c r="B35" s="14">
-        <f t="shared" ref="B35" si="2">C35*1000</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="C35" s="15">
@@ -1493,7 +1496,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>$A$9:$A$22</formula1>
     </dataValidation>

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="2" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Sheet3"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Sheet1"</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterate="1"/>
+  <calcPr calcId="152511" iterate="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Outputs</t>
   </si>
   <si>
-    <t>Units/s</t>
-  </si>
-  <si>
     <t>XenonGas</t>
   </si>
   <si>
@@ -257,6 +254,18 @@
   </si>
   <si>
     <t>Supports stock, CRP and WBI.</t>
+  </si>
+  <si>
+    <t>Mass (kg/s)</t>
+  </si>
+  <si>
+    <t>Ratio (U/s)</t>
+  </si>
+  <si>
+    <t>Total flow (kg/s)</t>
+  </si>
+  <si>
+    <t>Units/s (in-game)</t>
   </si>
 </sst>
 </file>
@@ -482,7 +491,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -508,6 +517,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -869,17 +881,20 @@
   <dimension ref="A1:IR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="5" width="19.7109375" style="2" customWidth="1"/>
-    <col min="6" max="252" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16" style="2" customWidth="1"/>
+    <col min="9" max="252" width="9.140625" style="2"/>
     <col min="253" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" thickBot="1">
+    <row r="1" spans="1:8" ht="20.25" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
@@ -888,32 +903,32 @@
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1">
+    <row r="2" spans="1:8" ht="16.5" thickTop="1">
       <c r="A2" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -927,21 +942,21 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="9">
-        <v>570</v>
+        <v>455</v>
       </c>
       <c r="C6" s="9">
-        <v>250</v>
+        <v>2200</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -958,31 +973,31 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="B8" s="6">
         <f>B6*9.8066</f>
-        <v>5589.7619999999997</v>
+        <v>4462.0029999999997</v>
       </c>
       <c r="C8" s="10">
         <f>C6*1000/B8</f>
-        <v>44.72462333816717</v>
+        <v>493.0521113499924</v>
       </c>
       <c r="D8" s="10">
         <f>C6*1000*B8/2</f>
-        <v>698720250</v>
+        <v>4908203300</v>
       </c>
       <c r="E8" s="10">
         <f>D8/C8</f>
-        <v>15622719.608322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>9954735.3860045001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="20.25" thickBot="1">
+    <row r="11" spans="1:8" ht="20.25" thickBot="1">
       <c r="A11" s="21" t="s">
         <v>36</v>
       </c>
@@ -991,9 +1006,9 @@
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" thickTop="1">
+    <row r="12" spans="1:8" ht="16.5" thickTop="1">
       <c r="A12" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="11">
         <v>1.5</v>
@@ -1008,9 +1023,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>32</v>
@@ -1023,57 +1038,109 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1">
+    <row r="14" spans="1:8" ht="16.5" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="12">
-        <f>IFERROR(VLOOKUP(B13,Database!$A$2:$B$35,2,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(B13,Database!$A$2:$B$35,2,0),"-")</f>
         <v>7.0849999999999996E-2</v>
       </c>
       <c r="C14" s="12">
-        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$35,2,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$35,2,0),"-")</f>
         <v>5</v>
       </c>
       <c r="D14" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D13,Database!$A$2:$B$35,2,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(D13,Database!$A$2:$B$35,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E14" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.5" thickTop="1">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
+    <row r="15" spans="1:8" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A15" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="B15" s="17">
-        <f t="shared" ref="B15:C15" si="0">IFERROR(($C$8/B14)*B12,"-")</f>
-        <v>946.88687377912152</v>
+        <f>IFERROR(($C$8)*B12/SUM($B$17:$D$17),"-")</f>
+        <v>1219.87244571356</v>
       </c>
       <c r="C15" s="17">
-        <f t="shared" si="0"/>
-        <v>0.89449246676334337</v>
-      </c>
-      <c r="D15" s="17" t="str">
-        <f>IFERROR(($C$8/D14)*D12,"-")</f>
+        <f t="shared" ref="C15:D15" si="0">IFERROR(($C$8)*C12/SUM($B$17:$D$17),"-")</f>
+        <v>81.324829714237339</v>
+      </c>
+      <c r="D15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <f>C8*E12/SUM(B17:D17)</f>
+        <v>813.2482971423733</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickTop="1">
+      <c r="A16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="6">
+        <f>IFERROR(B14*B15,"-")</f>
+        <v>86.427962778805721</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" ref="C16:D16" si="1">IFERROR(C14*C15,"-")</f>
+        <v>406.62414857118671</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E15" s="17">
-        <f>SUM(B15:D15)*E12</f>
-        <v>947.7813662458849</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E16" s="6">
+        <f>E14*E15</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <f>SUM(B16:E16)</f>
+        <v>493.0521113499924</v>
+      </c>
+      <c r="H16" s="6" t="str">
+        <f>IF($C$8&gt;$G$16,"Input excesive",IF($C$8&lt;$G$16,"Output excessive","Equal"))</f>
+        <v>Equal</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="6">
+        <f>IFERROR(B12*B14,"-")</f>
+        <v>0.10627499999999999</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" ref="C17:D17" si="2">IFERROR(C12*C14,"-")</f>
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:5">
       <c r="C19"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
   <pageSetup firstPageNumber="4294967295" fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed" copies="0"/>
@@ -1100,9 +1167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -1141,7 +1206,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
@@ -1165,7 +1230,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2">
         <v>0.1</v>
@@ -1173,12 +1238,12 @@
     </row>
     <row r="8" spans="1:3" ht="18" thickBot="1">
       <c r="A8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickTop="1">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="14">
         <f>C9*1000</f>
@@ -1190,7 +1255,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="14">
         <f t="shared" ref="B10:B35" si="0">C10*1000</f>
@@ -1202,7 +1267,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="14">
         <f t="shared" si="0"/>
@@ -1214,7 +1279,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="14">
         <f t="shared" si="0"/>
@@ -1226,7 +1291,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="14">
         <f t="shared" si="0"/>
@@ -1238,7 +1303,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="14">
         <f t="shared" si="0"/>
@@ -1250,7 +1315,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="14">
         <f t="shared" si="0"/>
@@ -1262,7 +1327,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="14">
         <f t="shared" si="0"/>
@@ -1274,7 +1339,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="14">
         <f t="shared" si="0"/>
@@ -1286,7 +1351,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="14">
         <f t="shared" si="0"/>
@@ -1322,7 +1387,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="14">
         <f t="shared" si="0"/>
@@ -1334,7 +1399,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="14">
         <f t="shared" si="0"/>
@@ -1346,14 +1411,14 @@
     </row>
     <row r="23" spans="1:3" ht="18" thickBot="1">
       <c r="A23" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1">
       <c r="A24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="14">
         <f t="shared" si="0"/>
@@ -1365,7 +1430,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="14">
         <f t="shared" si="0"/>
@@ -1377,7 +1442,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="14">
         <f t="shared" si="0"/>
@@ -1389,7 +1454,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="14">
         <f t="shared" si="0"/>
@@ -1401,7 +1466,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="14">
         <f t="shared" si="0"/>
@@ -1413,7 +1478,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="14">
         <f t="shared" si="0"/>
@@ -1425,7 +1490,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="14">
         <f t="shared" si="0"/>
@@ -1437,7 +1502,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="14">
         <f t="shared" si="0"/>
@@ -1449,7 +1514,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="14">
         <f t="shared" si="0"/>
@@ -1461,7 +1526,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="14">
         <f t="shared" si="0"/>
@@ -1473,7 +1538,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="14">
         <f t="shared" si="0"/>
@@ -1485,7 +1550,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="14">
         <f t="shared" si="0"/>
@@ -1533,7 +1598,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="2" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Sheet3"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Sheet1"</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterate="1" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>Units/s (in-game)</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Ore</t>
   </si>
 </sst>
 </file>
@@ -516,10 +522,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -881,7 +887,7 @@
   <dimension ref="A1:IR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -947,10 +953,10 @@
         <v>71</v>
       </c>
       <c r="B6" s="9">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C6" s="9">
-        <v>2200</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -976,19 +982,19 @@
     <row r="8" spans="1:8">
       <c r="B8" s="6">
         <f>B6*9.8066</f>
-        <v>4462.0029999999997</v>
+        <v>4412.9699999999993</v>
       </c>
       <c r="C8" s="10">
         <f>C6*1000/B8</f>
-        <v>493.0521113499924</v>
+        <v>1.1330237912335686</v>
       </c>
       <c r="D8" s="10">
         <f>C6*1000*B8/2</f>
-        <v>4908203300</v>
+        <v>11032424.999999998</v>
       </c>
       <c r="E8" s="10">
         <f>D8/C8</f>
-        <v>9954735.3860045001</v>
+        <v>9737152.1104499958</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1011,16 +1017,16 @@
         <v>70</v>
       </c>
       <c r="B12" s="11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C12" s="11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="11">
         <v>0</v>
       </c>
       <c r="E12" s="11">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1028,11 +1034,9 @@
         <v>69</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>30</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="19" t="s">
         <v>35</v>
@@ -1043,15 +1047,15 @@
         <v>27</v>
       </c>
       <c r="B14" s="12">
-        <f>IFERROR(VLOOKUP(B13,Database!$A$2:$B$35,2,0),"-")</f>
-        <v>7.0849999999999996E-2</v>
-      </c>
-      <c r="C14" s="12">
-        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$35,2,0),"-")</f>
-        <v>5</v>
+        <f>IFERROR(VLOOKUP(B13,Database!$A$2:$B$37,2,0),"-")</f>
+        <v>12.5</v>
+      </c>
+      <c r="C14" s="12" t="str">
+        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$37,2,0),"-")</f>
+        <v>-</v>
       </c>
       <c r="D14" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D13,Database!$A$2:$B$35,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D13,Database!$A$2:$B$37,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E14" s="13">
@@ -1064,11 +1068,11 @@
       </c>
       <c r="B15" s="17">
         <f>IFERROR(($C$8)*B12/SUM($B$17:$D$17),"-")</f>
-        <v>1219.87244571356</v>
+        <v>9.0641903298685489E-2</v>
       </c>
       <c r="C15" s="17">
         <f t="shared" ref="C15:D15" si="0">IFERROR(($C$8)*C12/SUM($B$17:$D$17),"-")</f>
-        <v>81.324829714237339</v>
+        <v>0</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="0"/>
@@ -1076,12 +1080,12 @@
       </c>
       <c r="E15" s="17">
         <f>C8*E12/SUM(B17:D17)</f>
-        <v>813.2482971423733</v>
-      </c>
-      <c r="G15" s="23" t="s">
+        <v>7.2513522638948391</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" thickTop="1">
       <c r="A16" s="2" t="s">
@@ -1089,11 +1093,11 @@
       </c>
       <c r="B16" s="6">
         <f>IFERROR(B14*B15,"-")</f>
-        <v>86.427962778805721</v>
-      </c>
-      <c r="C16" s="6">
+        <v>1.1330237912335686</v>
+      </c>
+      <c r="C16" s="6" t="str">
         <f t="shared" ref="C16:D16" si="1">IFERROR(C14*C15,"-")</f>
-        <v>406.62414857118671</v>
+        <v>-</v>
       </c>
       <c r="D16" s="6" t="str">
         <f t="shared" si="1"/>
@@ -1105,7 +1109,7 @@
       </c>
       <c r="G16" s="17">
         <f>SUM(B16:E16)</f>
-        <v>493.0521113499924</v>
+        <v>1.1330237912335686</v>
       </c>
       <c r="H16" s="6" t="str">
         <f>IF($C$8&gt;$G$16,"Input excesive",IF($C$8&lt;$G$16,"Output excessive","Equal"))</f>
@@ -1118,11 +1122,11 @@
       </c>
       <c r="B17" s="6">
         <f>IFERROR(B12*B14,"-")</f>
-        <v>0.10627499999999999</v>
-      </c>
-      <c r="C17" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="C17" s="6" t="str">
         <f t="shared" ref="C17:D17" si="2">IFERROR(C12*C14,"-")</f>
-        <v>0.5</v>
+        <v>-</v>
       </c>
       <c r="D17" s="6" t="str">
         <f t="shared" si="2"/>
@@ -1153,7 +1157,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$35</xm:f>
+            <xm:f>Database!$A$2:$A$37</xm:f>
           </x14:formula1>
           <xm:sqref>B13:D13</xm:sqref>
         </x14:dataValidation>
@@ -1165,9 +1169,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV35"/>
+  <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -1222,348 +1228,368 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2">
-        <v>7.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" thickBot="1">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="1:3" ht="18" thickBot="1">
+      <c r="A9" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickTop="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:3" ht="16.5" thickTop="1">
+      <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="14">
-        <f>C9*1000</f>
+      <c r="B10" s="14">
+        <f>C10*1000</f>
         <v>1.0000000000000002E-6</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C10" s="15">
         <v>1.0000000000000001E-9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="14">
-        <f t="shared" ref="B10:B35" si="0">C10*1000</f>
-        <v>1.784E-3</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1.784E-6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" s="14">
-        <f t="shared" si="0"/>
-        <v>10.97</v>
+        <f t="shared" ref="B11:B37" si="0">C11*1000</f>
+        <v>1.784E-3</v>
       </c>
       <c r="C11" s="15">
-        <v>1.0970000000000001E-2</v>
+        <v>1.784E-6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B12" s="14">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>10.97</v>
       </c>
       <c r="C12" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>1.0970000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="14">
         <f t="shared" si="0"/>
-        <v>5.8</v>
+        <v>2.5</v>
       </c>
       <c r="C13" s="15">
-        <v>5.7999999999999996E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="14">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="C14" s="15">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B15" s="14">
         <f t="shared" si="0"/>
         <v>0.53399999999999992</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C15" s="15">
         <v>5.3399999999999997E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>0.70209999999999995</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C16" s="15">
         <v>7.0209999999999999E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="14">
-        <f t="shared" si="0"/>
-        <v>1.1732500000000001</v>
-      </c>
-      <c r="C16" s="15">
-        <v>1.17325E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="14">
         <f t="shared" si="0"/>
-        <v>0.16239999999999999</v>
+        <v>1.1732500000000001</v>
       </c>
       <c r="C17" s="15">
-        <v>1.6239999999999999E-4</v>
+        <v>1.17325E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18" s="14">
         <f t="shared" si="0"/>
-        <v>5.8999999999999997E-2</v>
+        <v>0.16239999999999999</v>
       </c>
       <c r="C18" s="15">
-        <v>5.8999999999999998E-5</v>
+        <v>1.6239999999999999E-4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B19" s="14">
         <f t="shared" si="0"/>
-        <v>7.0849999999999996E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C19" s="15">
-        <v>7.0850000000000001E-5</v>
+        <v>5.8999999999999998E-5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="14">
         <f t="shared" si="0"/>
-        <v>0.42560999999999999</v>
+        <v>7.0849999999999996E-2</v>
       </c>
       <c r="C20" s="15">
-        <v>4.2560999999999999E-4</v>
+        <v>7.0850000000000001E-5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B21" s="14">
         <f t="shared" si="0"/>
-        <v>7.8</v>
+        <v>0.42560999999999999</v>
       </c>
       <c r="C21" s="15">
-        <v>7.7999999999999996E-3</v>
+        <v>4.2560999999999999E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="14">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="C22" s="15">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B23" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C23" s="15">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1">
-      <c r="A23" s="7" t="s">
+    <row r="24" spans="1:3" ht="18" thickBot="1">
+      <c r="A24" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" thickTop="1">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickTop="1">
+      <c r="A25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B25" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C25" s="15">
         <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="14">
-        <f t="shared" si="0"/>
-        <v>54.4</v>
-      </c>
-      <c r="C25" s="15">
-        <v>5.4399999999999997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B26" s="14">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>54.4</v>
       </c>
       <c r="C26" s="15">
-        <v>5.0000000000000001E-3</v>
+        <v>5.4399999999999997E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B27" s="14">
         <f t="shared" si="0"/>
-        <v>6.0000000000000005E-2</v>
+        <v>5</v>
       </c>
       <c r="C27" s="15">
-        <v>6.0000000000000002E-5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B28" s="14">
         <f t="shared" si="0"/>
-        <v>5.0108799999999993</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="C28" s="15">
-        <v>5.0108799999999997E-3</v>
+        <v>6.0000000000000002E-5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B29" s="14">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>5.0108799999999993</v>
       </c>
       <c r="C29" s="15">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0108799999999997E-3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B30" s="14">
         <f t="shared" si="0"/>
-        <v>8.6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="15">
-        <v>8.6E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B31" s="14">
         <f t="shared" si="0"/>
-        <v>5.7050000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="C31" s="15">
-        <v>5.705E-3</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B32" s="14">
         <f t="shared" si="0"/>
-        <v>0.35399999999999998</v>
+        <v>5.7050000000000001</v>
       </c>
       <c r="C32" s="15">
-        <v>3.5399999999999999E-4</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="14">
         <f t="shared" si="0"/>
-        <v>2.12805</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="C33" s="15">
-        <v>2.1280499999999998E-3</v>
+        <v>3.5399999999999999E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B34" s="14">
         <f t="shared" si="0"/>
-        <v>4.1000000000000005</v>
+        <v>2.12805</v>
       </c>
       <c r="C34" s="15">
-        <v>4.1000000000000003E-3</v>
+        <v>2.1280499999999998E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="14">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="C35" s="15">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="14">
+        <f>C36*1000</f>
+        <v>12.5</v>
+      </c>
+      <c r="C36" s="15">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B37" s="14">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C37" s="15">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
-      <formula1>$A$9:$A$22</formula1>
+      <formula1>$A$10:$A$23</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
@@ -1597,15 +1623,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -178,9 +178,6 @@
     <t>LqdCO2</t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
     <t>LqdAmmonia</t>
   </si>
   <si>
@@ -272,6 +269,24 @@
   </si>
   <si>
     <t>Ore</t>
+  </si>
+  <si>
+    <t>FusionPellets</t>
+  </si>
+  <si>
+    <t>Water (CRP)</t>
+  </si>
+  <si>
+    <t>Water (WBI)</t>
+  </si>
+  <si>
+    <t>MetallicHydrogen</t>
+  </si>
+  <si>
+    <t>NuclearSaltWater</t>
+  </si>
+  <si>
+    <t>FissionPellets</t>
   </si>
 </sst>
 </file>
@@ -887,7 +902,7 @@
   <dimension ref="A1:IR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -911,7 +926,7 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1">
       <c r="A2" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -920,7 +935,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -950,13 +965,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="9">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="C6" s="9">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -982,19 +997,19 @@
     <row r="8" spans="1:8">
       <c r="B8" s="6">
         <f>B6*9.8066</f>
-        <v>4412.9699999999993</v>
+        <v>5883.96</v>
       </c>
       <c r="C8" s="10">
         <f>C6*1000/B8</f>
-        <v>1.1330237912335686</v>
+        <v>10.197214121102116</v>
       </c>
       <c r="D8" s="10">
         <f>C6*1000*B8/2</f>
-        <v>11032424.999999998</v>
+        <v>176518800</v>
       </c>
       <c r="E8" s="10">
         <f>D8/C8</f>
-        <v>9737152.1104499958</v>
+        <v>17310492.640799999</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1014,7 +1029,7 @@
     </row>
     <row r="12" spans="1:8" ht="16.5" thickTop="1">
       <c r="A12" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="11">
         <v>1</v>
@@ -1031,10 +1046,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -1047,15 +1062,15 @@
         <v>27</v>
       </c>
       <c r="B14" s="12">
-        <f>IFERROR(VLOOKUP(B13,Database!$A$2:$B$37,2,0),"-")</f>
-        <v>12.5</v>
+        <f>IFERROR(VLOOKUP(B13,Database!$A$2:$B$43,2,0),"-")</f>
+        <v>5</v>
       </c>
       <c r="C14" s="12" t="str">
-        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$37,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$43,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="D14" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D13,Database!$A$2:$B$37,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D13,Database!$A$2:$B$43,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E14" s="13">
@@ -1064,11 +1079,11 @@
     </row>
     <row r="15" spans="1:8" ht="18.75" thickTop="1" thickBot="1">
       <c r="A15" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="17">
         <f>IFERROR(($C$8)*B12/SUM($B$17:$D$17),"-")</f>
-        <v>9.0641903298685489E-2</v>
+        <v>2.0394428242204232</v>
       </c>
       <c r="C15" s="17">
         <f t="shared" ref="C15:D15" si="0">IFERROR(($C$8)*C12/SUM($B$17:$D$17),"-")</f>
@@ -1080,20 +1095,20 @@
       </c>
       <c r="E15" s="17">
         <f>C8*E12/SUM(B17:D17)</f>
-        <v>7.2513522638948391</v>
+        <v>163.15542593763385</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" thickTop="1">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="6">
         <f>IFERROR(B14*B15,"-")</f>
-        <v>1.1330237912335686</v>
+        <v>10.197214121102116</v>
       </c>
       <c r="C16" s="6" t="str">
         <f t="shared" ref="C16:D16" si="1">IFERROR(C14*C15,"-")</f>
@@ -1109,7 +1124,7 @@
       </c>
       <c r="G16" s="17">
         <f>SUM(B16:E16)</f>
-        <v>1.1330237912335686</v>
+        <v>10.197214121102116</v>
       </c>
       <c r="H16" s="6" t="str">
         <f>IF($C$8&gt;$G$16,"Input excesive",IF($C$8&lt;$G$16,"Output excessive","Equal"))</f>
@@ -1118,11 +1133,11 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="6">
         <f>IFERROR(B12*B14,"-")</f>
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="C17" s="6" t="str">
         <f t="shared" ref="C17:D17" si="2">IFERROR(C12*C14,"-")</f>
@@ -1157,7 +1172,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$37</xm:f>
+            <xm:f>Database!$A$2:$A$44</xm:f>
           </x14:formula1>
           <xm:sqref>B13:D13</xm:sqref>
         </x14:dataValidation>
@@ -1169,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV37"/>
+  <dimension ref="A1:IV44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1212,7 +1227,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
@@ -1228,7 +1243,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
@@ -1250,268 +1265,252 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" thickBot="1">
-      <c r="A9" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" thickTop="1">
-      <c r="A10" s="2" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9"/>
+    </row>
+    <row r="10" spans="1:3" ht="18" thickBot="1">
+      <c r="A10" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickTop="1">
+      <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="14">
-        <f>C10*1000</f>
+      <c r="B11" s="14">
+        <f>C11*1000</f>
         <v>1.0000000000000002E-6</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C11" s="15">
         <v>1.0000000000000001E-9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="14">
-        <f t="shared" ref="B11:B37" si="0">C11*1000</f>
-        <v>1.784E-3</v>
-      </c>
-      <c r="C11" s="15">
-        <v>1.784E-6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" s="14">
-        <f t="shared" si="0"/>
-        <v>10.97</v>
+        <f t="shared" ref="B12:B44" si="0">C12*1000</f>
+        <v>1.784E-3</v>
       </c>
       <c r="C12" s="15">
-        <v>1.0970000000000001E-2</v>
+        <v>1.784E-6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B13" s="14">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>10.97</v>
       </c>
       <c r="C13" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>1.0970000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B14" s="14">
         <f t="shared" si="0"/>
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="C14" s="15">
-        <v>5.7999999999999996E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B15" s="14">
         <f t="shared" si="0"/>
-        <v>0.53399999999999992</v>
+        <v>0.216</v>
       </c>
       <c r="C15" s="15">
-        <v>5.3399999999999997E-4</v>
+        <v>2.1599999999999999E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
-        <v>50</v>
+      <c r="A16" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B16" s="14">
         <f t="shared" si="0"/>
-        <v>0.70209999999999995</v>
+        <v>2.5</v>
       </c>
       <c r="C16" s="15">
-        <v>7.0209999999999999E-4</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B17" s="14">
         <f t="shared" si="0"/>
-        <v>1.1732500000000001</v>
+        <v>5.8</v>
       </c>
       <c r="C17" s="15">
-        <v>1.17325E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B18" s="14">
         <f t="shared" si="0"/>
-        <v>0.16239999999999999</v>
+        <v>0.53399999999999992</v>
       </c>
       <c r="C18" s="15">
-        <v>1.6239999999999999E-4</v>
+        <v>5.3399999999999997E-4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>51</v>
+      <c r="A19" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B19" s="14">
         <f t="shared" si="0"/>
-        <v>5.8999999999999997E-2</v>
+        <v>0.70209999999999995</v>
       </c>
       <c r="C19" s="15">
-        <v>5.8999999999999998E-5</v>
+        <v>7.0209999999999999E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B20" s="14">
         <f t="shared" si="0"/>
-        <v>7.0849999999999996E-2</v>
+        <v>1.1732500000000001</v>
       </c>
       <c r="C20" s="15">
-        <v>7.0850000000000001E-5</v>
+        <v>1.17325E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B21" s="14">
         <f t="shared" si="0"/>
-        <v>0.42560999999999999</v>
+        <v>0.16239999999999999</v>
       </c>
       <c r="C21" s="15">
-        <v>4.2560999999999999E-4</v>
+        <v>1.6239999999999999E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" s="14">
         <f t="shared" si="0"/>
-        <v>7.8</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C22" s="15">
-        <v>7.7999999999999996E-3</v>
+        <v>5.8999999999999998E-5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B23" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7.0849999999999996E-2</v>
       </c>
       <c r="C23" s="15">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" thickBot="1">
-      <c r="A24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="16"/>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" thickTop="1">
+        <v>7.0850000000000001E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="14">
+        <f t="shared" si="0"/>
+        <v>0.42560999999999999</v>
+      </c>
+      <c r="C24" s="15">
+        <v>4.2560999999999999E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B25" s="14">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="C25" s="15">
-        <v>5.0000000000000001E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B26" s="14">
         <f t="shared" si="0"/>
-        <v>54.4</v>
+        <v>7.085</v>
       </c>
       <c r="C26" s="15">
-        <v>5.4399999999999997E-2</v>
+        <v>7.0850000000000002E-3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>55</v>
+      <c r="A27" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="B27" s="14">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1.05</v>
       </c>
       <c r="C27" s="15">
-        <v>5.0000000000000001E-3</v>
+        <v>1.0499999999999999E-3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B28" s="14">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000005E-2</v>
+        <f>C28*1000</f>
+        <v>1</v>
       </c>
       <c r="C28" s="15">
-        <v>6.0000000000000002E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="14">
-        <f t="shared" si="0"/>
-        <v>5.0108799999999993</v>
-      </c>
-      <c r="C29" s="15">
-        <v>5.0108799999999997E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="14">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" ht="18" thickBot="1">
+      <c r="A30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickTop="1">
+      <c r="A31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C31" s="15">
         <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="14">
-        <f t="shared" si="0"/>
-        <v>8.6</v>
-      </c>
-      <c r="C31" s="15">
-        <v>8.6E-3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1520,76 +1519,160 @@
       </c>
       <c r="B32" s="14">
         <f t="shared" si="0"/>
-        <v>5.7050000000000001</v>
+        <v>54.4</v>
       </c>
       <c r="C32" s="15">
-        <v>5.705E-3</v>
+        <v>5.4399999999999997E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B33" s="14">
         <f t="shared" si="0"/>
-        <v>0.35399999999999998</v>
+        <v>5</v>
       </c>
       <c r="C33" s="15">
-        <v>3.5399999999999999E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B34" s="14">
         <f t="shared" si="0"/>
-        <v>2.12805</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="C34" s="15">
-        <v>2.1280499999999998E-3</v>
+        <v>6.0000000000000002E-5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B35" s="14">
         <f t="shared" si="0"/>
-        <v>4.1000000000000005</v>
+        <v>5.0108799999999993</v>
       </c>
       <c r="C35" s="15">
-        <v>4.1000000000000003E-3</v>
+        <v>5.0108799999999997E-3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B36" s="14">
-        <f>C36*1000</f>
-        <v>12.5</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C36" s="15">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B37" s="14">
         <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="C37" s="15">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="14">
+        <f t="shared" si="0"/>
+        <v>5.7050000000000001</v>
+      </c>
+      <c r="C38" s="15">
+        <v>5.705E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="14">
+        <f t="shared" si="0"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C39" s="15">
+        <v>3.5399999999999999E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="14">
+        <f t="shared" si="0"/>
+        <v>2.12805</v>
+      </c>
+      <c r="C40" s="15">
+        <v>2.1280499999999998E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="14">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="C41" s="15">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="14">
+        <f>C42*1000</f>
+        <v>12.5</v>
+      </c>
+      <c r="C42" s="15">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="14">
+        <f>C43*1000</f>
         <v>7.5</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C43" s="15">
         <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="14">
+        <f>C44*1000</f>
+        <v>5</v>
+      </c>
+      <c r="C44" s="15">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
-      <formula1>$A$10:$A$23</formula1>
+      <formula1>$A$11:$A$28</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
@@ -1624,7 +1707,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="2" r:id="rId1"/>
@@ -902,7 +902,7 @@
   <dimension ref="A1:IR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -968,10 +968,10 @@
         <v>70</v>
       </c>
       <c r="B6" s="9">
-        <v>600</v>
+        <v>370</v>
       </c>
       <c r="C6" s="9">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -997,19 +997,19 @@
     <row r="8" spans="1:8">
       <c r="B8" s="6">
         <f>B6*9.8066</f>
-        <v>5883.96</v>
+        <v>3628.442</v>
       </c>
       <c r="C8" s="10">
         <f>C6*1000/B8</f>
-        <v>10.197214121102116</v>
+        <v>35.82804961468311</v>
       </c>
       <c r="D8" s="10">
         <f>C6*1000*B8/2</f>
-        <v>176518800</v>
+        <v>235848730</v>
       </c>
       <c r="E8" s="10">
         <f>D8/C8</f>
-        <v>17310492.640799999</v>
+        <v>6582795.6736819996</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1049,7 +1049,7 @@
         <v>68</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -1062,15 +1062,15 @@
         <v>27</v>
       </c>
       <c r="B14" s="12">
-        <f>IFERROR(VLOOKUP(B13,Database!$A$2:$B$43,2,0),"-")</f>
-        <v>5</v>
+        <f>IFERROR(VLOOKUP(B13,Database!$A$2:$B$44,2,0),"-")</f>
+        <v>1</v>
       </c>
       <c r="C14" s="12" t="str">
-        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$43,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$44,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="D14" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D13,Database!$A$2:$B$43,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D13,Database!$A$2:$B$44,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E14" s="13">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B15" s="17">
         <f>IFERROR(($C$8)*B12/SUM($B$17:$D$17),"-")</f>
-        <v>2.0394428242204232</v>
+        <v>35.82804961468311</v>
       </c>
       <c r="C15" s="17">
         <f t="shared" ref="C15:D15" si="0">IFERROR(($C$8)*C12/SUM($B$17:$D$17),"-")</f>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="E15" s="17">
         <f>C8*E12/SUM(B17:D17)</f>
-        <v>163.15542593763385</v>
+        <v>2866.2439691746486</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>76</v>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B16" s="6">
         <f>IFERROR(B14*B15,"-")</f>
-        <v>10.197214121102116</v>
+        <v>35.82804961468311</v>
       </c>
       <c r="C16" s="6" t="str">
         <f t="shared" ref="C16:D16" si="1">IFERROR(C14*C15,"-")</f>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="G16" s="17">
         <f>SUM(B16:E16)</f>
-        <v>10.197214121102116</v>
+        <v>35.82804961468311</v>
       </c>
       <c r="H16" s="6" t="str">
         <f>IF($C$8&gt;$G$16,"Input excesive",IF($C$8&lt;$G$16,"Output excessive","Equal"))</f>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B17" s="6">
         <f>IFERROR(B12*B14,"-")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" s="6" t="str">
         <f t="shared" ref="C17:D17" si="2">IFERROR(C12*C14,"-")</f>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:IV44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1290,7 +1290,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="14">
-        <f t="shared" ref="B12:B44" si="0">C12*1000</f>
+        <f t="shared" ref="B12:B41" si="0">C12*1000</f>
         <v>1.784E-3</v>
       </c>
       <c r="C12" s="15">

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jadon\Documents\GitHub\RationalResources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RationalResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -287,6 +287,24 @@
   </si>
   <si>
     <t>FissionPellets</t>
+  </si>
+  <si>
+    <t>MMH</t>
+  </si>
+  <si>
+    <t>NTO</t>
+  </si>
+  <si>
+    <t>AZ50</t>
+  </si>
+  <si>
+    <t>LqdOxygen</t>
+  </si>
+  <si>
+    <t>UDMH</t>
+  </si>
+  <si>
+    <t>UH25</t>
   </si>
 </sst>
 </file>
@@ -902,7 +920,7 @@
   <dimension ref="A1:IR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1062,15 +1080,15 @@
         <v>27</v>
       </c>
       <c r="B14" s="12">
-        <f>IFERROR(VLOOKUP(B13,Database!$A$2:$B$44,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(B13,Database!$A$2:$B$50,2,0),"-")</f>
         <v>1</v>
       </c>
       <c r="C14" s="12" t="str">
-        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$44,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$50,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="D14" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D13,Database!$A$2:$B$44,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D13,Database!$A$2:$B$50,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E14" s="13">
@@ -1172,7 +1190,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$44</xm:f>
+            <xm:f>Database!$A$2:$A$50</xm:f>
           </x14:formula1>
           <xm:sqref>B13:D13</xm:sqref>
         </x14:dataValidation>
@@ -1184,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV44"/>
+  <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1290,7 +1308,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="14">
-        <f t="shared" ref="B12:B41" si="0">C12*1000</f>
+        <f t="shared" ref="B12:B47" si="0">C12*1000</f>
         <v>1.784E-3</v>
       </c>
       <c r="C12" s="15">
@@ -1299,380 +1317,452 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B13" s="14">
         <f t="shared" si="0"/>
-        <v>10.97</v>
+        <v>0.9</v>
       </c>
       <c r="C13" s="15">
-        <v>1.0970000000000001E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B14" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10.97</v>
       </c>
       <c r="C14" s="15">
-        <v>1E-3</v>
+        <v>1.0970000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B15" s="14">
         <f t="shared" si="0"/>
-        <v>0.216</v>
+        <v>1</v>
       </c>
       <c r="C15" s="15">
-        <v>2.1599999999999999E-4</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B16" s="14">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>0.216</v>
       </c>
       <c r="C16" s="15">
-        <v>2.5000000000000001E-3</v>
+        <v>2.1599999999999999E-4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="14">
         <f t="shared" si="0"/>
-        <v>5.8</v>
+        <v>2.5</v>
       </c>
       <c r="C17" s="15">
-        <v>5.7999999999999996E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="14">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="C18" s="15">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>0.53399999999999992</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C19" s="15">
         <v>5.3399999999999997E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B20" s="14">
         <f t="shared" si="0"/>
         <v>0.70209999999999995</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C20" s="15">
         <v>7.0209999999999999E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="14">
-        <f t="shared" si="0"/>
-        <v>1.1732500000000001</v>
-      </c>
-      <c r="C20" s="15">
-        <v>1.17325E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="14">
         <f t="shared" si="0"/>
-        <v>0.16239999999999999</v>
+        <v>1.1732500000000001</v>
       </c>
       <c r="C21" s="15">
-        <v>1.6239999999999999E-4</v>
+        <v>1.17325E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B22" s="14">
         <f t="shared" si="0"/>
-        <v>5.8999999999999997E-2</v>
+        <v>0.16239999999999999</v>
       </c>
       <c r="C22" s="15">
-        <v>5.8999999999999998E-5</v>
+        <v>1.6239999999999999E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B23" s="14">
         <f t="shared" si="0"/>
-        <v>7.0849999999999996E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C23" s="15">
-        <v>7.0850000000000001E-5</v>
+        <v>5.8999999999999998E-5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="14">
         <f t="shared" si="0"/>
-        <v>0.42560999999999999</v>
+        <v>7.0849999999999996E-2</v>
       </c>
       <c r="C24" s="15">
-        <v>4.2560999999999999E-4</v>
+        <v>7.0850000000000001E-5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B25" s="14">
         <f t="shared" si="0"/>
-        <v>7.8</v>
+        <v>0.42560999999999999</v>
       </c>
       <c r="C25" s="15">
-        <v>7.7999999999999996E-3</v>
+        <v>4.2560999999999999E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B26" s="14">
         <f t="shared" si="0"/>
-        <v>7.085</v>
+        <v>1.141</v>
       </c>
       <c r="C26" s="15">
-        <v>7.0850000000000002E-3</v>
+        <v>1.1410000000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="5" t="s">
-        <v>84</v>
+      <c r="A27" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B27" s="14">
         <f t="shared" si="0"/>
-        <v>1.05</v>
+        <v>7.8</v>
       </c>
       <c r="C27" s="15">
-        <v>1.0499999999999999E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B28" s="14">
-        <f>C28*1000</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>7.085</v>
       </c>
       <c r="C28" s="15">
-        <v>1E-3</v>
+        <v>7.0850000000000002E-3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" ht="18" thickBot="1">
-      <c r="A30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30"/>
-      <c r="C30" s="16"/>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" thickTop="1">
-      <c r="A31" s="2" t="s">
-        <v>53</v>
+      <c r="A29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="14">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="C29" s="15">
+        <v>8.8000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="14">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1.4499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="B31" s="14">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1.05</v>
       </c>
       <c r="C31" s="15">
-        <v>5.0000000000000001E-3</v>
+        <v>1.0499999999999999E-3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>60</v>
+      <c r="A32" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="B32" s="14">
         <f t="shared" si="0"/>
-        <v>54.4</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="C32" s="15">
-        <v>5.4399999999999997E-2</v>
+        <v>7.9100000000000004E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>54</v>
+      <c r="A33" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B33" s="14">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="C33" s="15">
-        <v>5.0000000000000001E-3</v>
+        <v>8.2899999999999998E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B34" s="14">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000005E-2</v>
+        <f>C34*1000</f>
+        <v>1</v>
       </c>
       <c r="C34" s="15">
-        <v>6.0000000000000002E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="14">
-        <f t="shared" si="0"/>
-        <v>5.0108799999999993</v>
-      </c>
-      <c r="C35" s="15">
-        <v>5.0108799999999997E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="14">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" ht="18" thickBot="1">
+      <c r="A36" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" thickTop="1">
+      <c r="A37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C37" s="15">
         <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="14">
-        <f t="shared" si="0"/>
-        <v>8.6</v>
-      </c>
-      <c r="C37" s="15">
-        <v>8.6E-3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="14">
         <f t="shared" si="0"/>
-        <v>5.7050000000000001</v>
+        <v>54.4</v>
       </c>
       <c r="C38" s="15">
-        <v>5.705E-3</v>
+        <v>5.4399999999999997E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B39" s="14">
         <f t="shared" si="0"/>
-        <v>0.35399999999999998</v>
+        <v>5</v>
       </c>
       <c r="C39" s="15">
-        <v>3.5399999999999999E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B40" s="14">
         <f t="shared" si="0"/>
-        <v>2.12805</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="C40" s="15">
-        <v>2.1280499999999998E-3</v>
+        <v>6.0000000000000002E-5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B41" s="14">
         <f t="shared" si="0"/>
-        <v>4.1000000000000005</v>
+        <v>5.0108799999999993</v>
       </c>
       <c r="C41" s="15">
-        <v>4.1000000000000003E-3</v>
+        <v>5.0108799999999997E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B42" s="14">
-        <f>C42*1000</f>
-        <v>12.5</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="C42" s="15">
-        <v>1.2500000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="14">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="C43" s="15">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="14">
+        <f t="shared" si="0"/>
+        <v>5.7050000000000001</v>
+      </c>
+      <c r="C44" s="15">
+        <v>5.705E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="14">
+        <f t="shared" si="0"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C45" s="15">
+        <v>3.5399999999999999E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="14">
+        <f t="shared" si="0"/>
+        <v>2.12805</v>
+      </c>
+      <c r="C46" s="15">
+        <v>2.1280499999999998E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="14">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="C47" s="15">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="14">
+        <f>C48*1000</f>
+        <v>12.5</v>
+      </c>
+      <c r="C48" s="15">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="14">
-        <f>C43*1000</f>
+      <c r="B49" s="14">
+        <f>C49*1000</f>
         <v>7.5</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C49" s="15">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="5" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="14">
-        <f>C44*1000</f>
+      <c r="B50" s="14">
+        <f>C50*1000</f>
         <v>5</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C50" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
-      <formula1>$A$11:$A$28</formula1>
+      <formula1>$A$11:$A$34</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView minimized="1" xWindow="12090" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="2" r:id="rId1"/>
@@ -920,7 +920,7 @@
   <dimension ref="A1:IR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -986,10 +986,10 @@
         <v>70</v>
       </c>
       <c r="B6" s="9">
-        <v>370</v>
+        <v>12000</v>
       </c>
       <c r="C6" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1015,19 +1015,19 @@
     <row r="8" spans="1:8">
       <c r="B8" s="6">
         <f>B6*9.8066</f>
-        <v>3628.442</v>
+        <v>117679.2</v>
       </c>
       <c r="C8" s="10">
         <f>C6*1000/B8</f>
-        <v>35.82804961468311</v>
+        <v>0.10197214121102115</v>
       </c>
       <c r="D8" s="10">
         <f>C6*1000*B8/2</f>
-        <v>235848730</v>
+        <v>706075200</v>
       </c>
       <c r="E8" s="10">
         <f>D8/C8</f>
-        <v>6582795.6736819996</v>
+        <v>6924197056.3199997</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1067,7 +1067,7 @@
         <v>68</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B14" s="12">
         <f>IFERROR(VLOOKUP(B13,Database!$A$2:$B$50,2,0),"-")</f>
-        <v>1</v>
+        <v>7.0849999999999996E-2</v>
       </c>
       <c r="C14" s="12" t="str">
         <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$50,2,0),"-")</f>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B15" s="17">
         <f>IFERROR(($C$8)*B12/SUM($B$17:$D$17),"-")</f>
-        <v>35.82804961468311</v>
+        <v>1.4392680481442648</v>
       </c>
       <c r="C15" s="17">
         <f t="shared" ref="C15:D15" si="0">IFERROR(($C$8)*C12/SUM($B$17:$D$17),"-")</f>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="E15" s="17">
         <f>C8*E12/SUM(B17:D17)</f>
-        <v>2866.2439691746486</v>
+        <v>12.953412433298382</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>76</v>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B16" s="6">
         <f>IFERROR(B14*B15,"-")</f>
-        <v>35.82804961468311</v>
+        <v>0.10197214121102116</v>
       </c>
       <c r="C16" s="6" t="str">
         <f t="shared" ref="C16:D16" si="1">IFERROR(C14*C15,"-")</f>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="G16" s="17">
         <f>SUM(B16:E16)</f>
-        <v>35.82804961468311</v>
+        <v>0.10197214121102116</v>
       </c>
       <c r="H16" s="6" t="str">
         <f>IF($C$8&gt;$G$16,"Input excesive",IF($C$8&lt;$G$16,"Output excessive","Equal"))</f>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B17" s="6">
         <f>IFERROR(B12*B14,"-")</f>
-        <v>1</v>
+        <v>7.0849999999999996E-2</v>
       </c>
       <c r="C17" s="6" t="str">
         <f t="shared" ref="C17:D17" si="2">IFERROR(C12*C14,"-")</f>

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="12090" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="16740" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -305,17 +305,84 @@
   </si>
   <si>
     <t>UH25</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Fraction</t>
+  </si>
+  <si>
+    <t>Do not input propellants that have "IgnoreForIsp = True"</t>
+  </si>
+  <si>
+    <t>Thrust</t>
+  </si>
+  <si>
+    <t>SCOOP LF</t>
+  </si>
+  <si>
+    <t>SCOOP LFO</t>
+  </si>
+  <si>
+    <t>WarpJet</t>
+  </si>
+  <si>
+    <t>SCOOP Jet</t>
+  </si>
+  <si>
+    <t>Nebula</t>
+  </si>
+  <si>
+    <t>J-81</t>
+  </si>
+  <si>
+    <t>Wrapper J</t>
+  </si>
+  <si>
+    <t>Bubble</t>
+  </si>
+  <si>
+    <t>EggDog</t>
+  </si>
+  <si>
+    <t>WJOpen</t>
+  </si>
+  <si>
+    <t>WJClosed</t>
+  </si>
+  <si>
+    <t>EC req</t>
+  </si>
+  <si>
+    <t>Real Fuels</t>
+  </si>
+  <si>
+    <t>Classic Stock</t>
+  </si>
+  <si>
+    <t>~ Re-input</t>
+  </si>
+  <si>
+    <t>EC Target</t>
+  </si>
+  <si>
+    <t>ARI-73</t>
+  </si>
+  <si>
+    <t>ARI-75</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -423,8 +490,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,8 +527,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -518,8 +599,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -529,8 +619,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -542,7 +633,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyAlignment="1"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="4" applyFont="1" applyAlignment="1"/>
@@ -552,6 +642,13 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="9" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="9"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -561,13 +658,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Explanatory Text" xfId="6" builtinId="53"/>
     <cellStyle name="Good" xfId="7" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="9" builtinId="18"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Linked Cell" xfId="5" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,33 +1020,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IR19"/>
+  <dimension ref="A1:IQ67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="5" width="19.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="15" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="252" width="9.140625" style="2"/>
-    <col min="253" max="16384" width="9.140625" style="5"/>
+    <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="2" customWidth="1"/>
+    <col min="13" max="251" width="9.140625" style="2"/>
+    <col min="252" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:15" ht="20.25" thickBot="1">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" thickTop="1">
+      <c r="A2" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B2"/>
@@ -951,8 +1058,8 @@
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:15">
+      <c r="A3" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B3"/>
@@ -960,224 +1067,1292 @@
       <c r="D3"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4"/>
+    <row r="4" spans="1:15">
+      <c r="A4" s="18" t="s">
+        <v>94</v>
+      </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="9">
-        <v>12000</v>
-      </c>
-      <c r="C6" s="9">
-        <v>12</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:15">
+      <c r="A7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="9">
+        <v>300</v>
+      </c>
+      <c r="C7" s="9">
+        <v>375</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" ht="18" thickBot="1">
+      <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="6">
-        <f>B6*9.8066</f>
-        <v>117679.2</v>
-      </c>
-      <c r="C8" s="10">
-        <f>C6*1000/B8</f>
-        <v>0.10197214121102115</v>
-      </c>
-      <c r="D8" s="10">
-        <f>C6*1000*B8/2</f>
-        <v>706075200</v>
-      </c>
-      <c r="E8" s="10">
-        <f>D8/C8</f>
-        <v>6924197056.3199997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G8" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" thickTop="1">
+      <c r="B9" s="6">
+        <f>B7*9.8066</f>
+        <v>2941.98</v>
+      </c>
+      <c r="C9" s="10">
+        <f>IFERROR(C7*1000/B9,0)</f>
+        <v>127.46517651377644</v>
+      </c>
+      <c r="D9" s="10">
+        <f>C7*1000*B9/2</f>
+        <v>551621250</v>
+      </c>
+      <c r="E9" s="10">
+        <f>IFERROR(D9/C9,0)</f>
+        <v>4327623.1601999998</v>
+      </c>
+      <c r="G9" s="16">
+        <f>SUM(B20:E20)</f>
+        <v>127.46517651377644</v>
+      </c>
+      <c r="H9" s="6" t="str">
+        <f>IF($C$9&gt;$G$9,"Input excesive",IF($C$9&lt;$G$9,"Output excessive","Equal"))</f>
+        <v>Equal</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C10" s="10">
+        <f>IFERROR(C7*1000/B10/B9,0)</f>
+        <v>84.976784342517618</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:15">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="C11" s="10">
+        <f>IFERROR(C7*1000/B11/B9,0)</f>
+        <v>106.22098042814703</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="C12" s="10">
+        <f>IFERROR(C7*1000/B12/B9,0)</f>
+        <v>34.450047706426062</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="C13" s="10">
+        <f>IFERROR(C7*1000/B13/B9,0)</f>
+        <v>95.838478581786774</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14" s="5"/>
+      <c r="M14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20.25" thickBot="1">
+      <c r="A15" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" thickTop="1">
-      <c r="A12" s="20" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A16" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B16" s="20">
         <v>1</v>
       </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
+      <c r="C16" s="20">
+        <v>0</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
+        <v>282.42950000000002</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N16" s="2">
+        <v>420</v>
+      </c>
+      <c r="O16" s="32">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
+      <c r="B17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A14" s="1" t="s">
+      <c r="G17" s="24">
+        <f>IFERROR(E19/I17,"-")</f>
+        <v>19.999958927887569</v>
+      </c>
+      <c r="H17" s="25">
+        <f>IFERROR(E16/G17,"-")</f>
+        <v>14.121504</v>
+      </c>
+      <c r="I17" s="31">
+        <v>360</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" s="2">
+        <v>3000</v>
+      </c>
+      <c r="N17" s="2">
+        <v>180</v>
+      </c>
+      <c r="O17" s="32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="12">
-        <f>IFERROR(VLOOKUP(B13,Database!$A$2:$B$50,2,0),"-")</f>
-        <v>7.0849999999999996E-2</v>
-      </c>
-      <c r="C14" s="12" t="str">
-        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$50,2,0),"-")</f>
+      <c r="B18" s="11">
+        <f>IFERROR(VLOOKUP(B17,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="11">
+        <f>IFERROR(VLOOKUP(C17,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="D18" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D17,Database!$A$2:$B$50,2,0),"-")</f>
         <v>-</v>
       </c>
-      <c r="D14" s="12" t="str">
-        <f>IFERROR(VLOOKUP(D13,Database!$A$2:$B$50,2,0),"-")</f>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>900</v>
+      </c>
+      <c r="N18" s="2">
+        <v>180</v>
+      </c>
+      <c r="O18" s="32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" thickTop="1">
+      <c r="A19" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="16">
+        <f>IFERROR($C$9*B16/SUM(B21:D21),"-")</f>
+        <v>25.493035302755288</v>
+      </c>
+      <c r="C19" s="16">
+        <f>IFERROR($C$9*C16/SUM(B21:D21),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <f>IFERROR($C$9*D16/SUM(B21:D21),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <f>IFERROR($C$9*E16/SUM(B21:D21),0)</f>
+        <v>7199.9852140395251</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" s="2">
+        <v>3000</v>
+      </c>
+      <c r="N19" s="2">
+        <v>300</v>
+      </c>
+      <c r="O19" s="32">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="6">
+        <f>IFERROR(B18*B19,"-")</f>
+        <v>127.46517651377644</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" ref="C20:D20" si="0">IFERROR(C18*C19,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="str">
+        <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A15" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="17">
-        <f>IFERROR(($C$8)*B12/SUM($B$17:$D$17),"-")</f>
-        <v>1.4392680481442648</v>
-      </c>
-      <c r="C15" s="17">
-        <f t="shared" ref="C15:D15" si="0">IFERROR(($C$8)*C12/SUM($B$17:$D$17),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
-        <f>C8*E12/SUM(B17:D17)</f>
-        <v>12.953412433298382</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickTop="1">
-      <c r="A16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="6">
-        <f>IFERROR(B14*B15,"-")</f>
-        <v>0.10197214121102116</v>
-      </c>
-      <c r="C16" s="6" t="str">
-        <f t="shared" ref="C16:D16" si="1">IFERROR(C14*C15,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D16" s="6" t="str">
+      <c r="E20" s="6">
+        <f>E18*E19</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" s="2">
+        <v>800</v>
+      </c>
+      <c r="N20" s="2">
+        <v>250</v>
+      </c>
+      <c r="O20" s="32">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="6">
+        <f>IFERROR(B16*B18,"-")</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" ref="C21:D21" si="1">IFERROR(C16*C18,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E16" s="6">
-        <f>E14*E15</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="17">
-        <f>SUM(B16:E16)</f>
-        <v>0.10197214121102116</v>
-      </c>
-      <c r="H16" s="6" t="str">
-        <f>IF($C$8&gt;$G$16,"Input excesive",IF($C$8&lt;$G$16,"Output excessive","Equal"))</f>
-        <v>Equal</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="6">
-        <f>IFERROR(B12*B14,"-")</f>
+      <c r="E21" s="6"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="2">
+        <v>800</v>
+      </c>
+      <c r="N21" s="2">
+        <v>500</v>
+      </c>
+      <c r="O21" s="32">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="5"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N22" s="2">
+        <v>210</v>
+      </c>
+      <c r="O22" s="32">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A23" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="20">
+        <v>1</v>
+      </c>
+      <c r="C23" s="20">
+        <v>0</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
+        <v>6.0030000000000001</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M23" s="2">
+        <v>450</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1250</v>
+      </c>
+      <c r="O23" s="32">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="24">
+        <f>IFERROR(E26/I24,"-")</f>
+        <v>19.999828919004678</v>
+      </c>
+      <c r="H24" s="25">
+        <f>IFERROR(E23/G24,"-")</f>
+        <v>0.30015256752000002</v>
+      </c>
+      <c r="I24" s="23">
+        <f>I17</f>
+        <v>360</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M24" s="2">
+        <v>300</v>
+      </c>
+      <c r="N24" s="2">
+        <v>375</v>
+      </c>
+      <c r="O24" s="32">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="11">
+        <f>IFERROR(VLOOKUP(B24,Database!$A$2:$B$50,2,0),"-")</f>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="C17" s="6" t="str">
-        <f t="shared" ref="C17:D17" si="2">IFERROR(C12*C14,"-")</f>
+      <c r="C25" s="11">
+        <f>IFERROR(VLOOKUP(C24,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="D25" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D24,Database!$A$2:$B$50,2,0),"-")</f>
         <v>-</v>
       </c>
-      <c r="D17" s="6" t="str">
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="30"/>
+      <c r="L25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M25" s="2">
+        <v>3000</v>
+      </c>
+      <c r="N25" s="2">
+        <v>375</v>
+      </c>
+      <c r="O25" s="32">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" thickTop="1">
+      <c r="A26" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="16">
+        <f>IFERROR($C$10*B23/SUM(B28:D28),"-")</f>
+        <v>1199.3900401202204</v>
+      </c>
+      <c r="C26" s="16">
+        <f>IFERROR($C$10*C23/SUM(B28:D28),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="16">
+        <f>IFERROR($C$10*D23/SUM(B28:D28),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <f>IFERROR($C$10*E23/SUM(B28:D28),0)</f>
+        <v>7199.9384108416843</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="6">
+        <f>IFERROR(B25*B26,"-")</f>
+        <v>84.976784342517618</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" ref="C27:D27" si="2">IFERROR(C25*C26,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="6" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="C19"/>
+      <c r="E27" s="6">
+        <f>E25*E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="6">
+        <f>IFERROR(B23*B25,"-")</f>
+        <v>7.0849999999999996E-2</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" ref="C28:D28" si="3">IFERROR(C23*C25,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A30" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="20">
+        <v>1</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0</v>
+      </c>
+      <c r="E30" s="21">
+        <v>0</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="17" t="str">
+        <f>C24</f>
+        <v>Oxidizer</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="24">
+        <f>IFERROR(E33/I31,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="25" t="str">
+        <f>IFERROR(E30/G31,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I31" s="23">
+        <f>I17</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="11">
+        <f>IFERROR(VLOOKUP(B31,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>0.42560999999999999</v>
+      </c>
+      <c r="C32" s="11">
+        <f>IFERROR(VLOOKUP(C31,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="D32" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D31,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A33" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="16">
+        <f>IFERROR($C$11*B30/SUM(B35:D35),"-")</f>
+        <v>249.57350726756192</v>
+      </c>
+      <c r="C33" s="16">
+        <f>IFERROR($C$11*C30/SUM(B35:D35),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="16">
+        <f>IFERROR($C$11*D30/SUM(B35:D35),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <f>IFERROR($C$11*E30/SUM(B35:D35),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="6">
+        <f>IFERROR(B32*B33,"-")</f>
+        <v>106.22098042814703</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" ref="C34:D34" si="4">IFERROR(C32*C33,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="E34" s="6">
+        <f>E32*E33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="6">
+        <f>IFERROR(B30*B32,"-")</f>
+        <v>0.42560999999999999</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" ref="C35:D35" si="5">IFERROR(C30*C32,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" thickBot="1">
+      <c r="A38" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A39" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="20">
+        <v>0.745</v>
+      </c>
+      <c r="C39" s="20">
+        <v>0.255</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0</v>
+      </c>
+      <c r="E39" s="21">
+        <v>0</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="24">
+        <f>IFERROR(E42/I40,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="25" t="str">
+        <f>IFERROR(E39/G40,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I40" s="23">
+        <f>I31</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="11">
+        <f>IFERROR(VLOOKUP(B40,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>7.0849999999999996E-2</v>
+      </c>
+      <c r="C41" s="11">
+        <f>IFERROR(VLOOKUP(C40,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>1.141</v>
+      </c>
+      <c r="D41" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D40,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A42" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="16">
+        <f>IFERROR($C$10*B39/SUM(B44:D44),"-")</f>
+        <v>184.17416256461308</v>
+      </c>
+      <c r="C42" s="16">
+        <f>IFERROR($C$10*C39/SUM(B44:D44),"-")</f>
+        <v>63.039478461713209</v>
+      </c>
+      <c r="D42" s="16">
+        <f>IFERROR($C$10*D39/SUM(B44:D44),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="16">
+        <f>IFERROR($C$10*E39/SUM(B44:D44),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="6">
+        <f>IFERROR(B41*B42,"-")</f>
+        <v>13.048739417702837</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" ref="C43:D43" si="6">IFERROR(C41*C42,"-")</f>
+        <v>71.92804492481477</v>
+      </c>
+      <c r="D43" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="E43" s="6">
+        <f>E41*E42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="6">
+        <f>IFERROR(B39*B41,"-")</f>
+        <v>5.2783249999999997E-2</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" ref="C44:D44" si="7">IFERROR(C39*C41,"-")</f>
+        <v>0.29095500000000002</v>
+      </c>
+      <c r="D44" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A46" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="20">
+        <v>0.434</v>
+      </c>
+      <c r="C46" s="20">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D46" s="20">
+        <v>0</v>
+      </c>
+      <c r="E46" s="21">
+        <v>0</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="17" t="str">
+        <f>C40</f>
+        <v>LqdOxygen</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="24">
+        <f>E49/I47</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="25" t="str">
+        <f>IFERROR(E46/G47,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I47" s="23">
+        <f>I31</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="11">
+        <f>IFERROR(VLOOKUP(B47,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>0.42560999999999999</v>
+      </c>
+      <c r="C48" s="11">
+        <f>IFERROR(VLOOKUP(C47,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>1.141</v>
+      </c>
+      <c r="D48" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D47,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A49" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="16">
+        <f>IFERROR($C$11*B46/SUM(B51:D51),"-")</f>
+        <v>55.507229724107567</v>
+      </c>
+      <c r="C49" s="16">
+        <f>IFERROR($C$11*C46/SUM(B51:D51),"-")</f>
+        <v>72.389612958167916</v>
+      </c>
+      <c r="D49" s="16">
+        <f>IFERROR($C$11*D46/SUM(B51:D51),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="16">
+        <f>IFERROR($C$11*E46/SUM(B51:D51),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="6">
+        <f>IFERROR(B48*B49,"-")</f>
+        <v>23.624432042877419</v>
+      </c>
+      <c r="C50" s="6">
+        <f t="shared" ref="C50:D50" si="8">IFERROR(C48*C49,"-")</f>
+        <v>82.5965483852696</v>
+      </c>
+      <c r="D50" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="E50" s="6">
+        <f>E48*E49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="6">
+        <f>IFERROR(B46*B48,"-")</f>
+        <v>0.18471473999999999</v>
+      </c>
+      <c r="C51" s="6">
+        <f t="shared" ref="C51:D51" si="9">IFERROR(C46*C48,"-")</f>
+        <v>0.64580599999999999</v>
+      </c>
+      <c r="D51" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="54" spans="1:9" ht="18" thickBot="1">
+      <c r="A54" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A55" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="20">
+        <v>1</v>
+      </c>
+      <c r="C55" s="20">
+        <v>0</v>
+      </c>
+      <c r="D55" s="20">
+        <v>0</v>
+      </c>
+      <c r="E55" s="21">
+        <v>3.6991999999999998</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="24">
+        <f>IFERROR(E58/I56,"-")</f>
+        <v>0.99998129688960513</v>
+      </c>
+      <c r="H56" s="25">
+        <f>IFERROR(E55/G56,"-")</f>
+        <v>3.6992691878400001</v>
+      </c>
+      <c r="I56" s="23">
+        <f>I24</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="11">
+        <f>IFERROR(VLOOKUP(B56,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C57" s="11">
+        <f>IFERROR(VLOOKUP(C56,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="D57" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D56,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A58" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="16">
+        <f>IFERROR($C$12*B55/SUM(B60:D60),"-")</f>
+        <v>97.316518944706402</v>
+      </c>
+      <c r="C58" s="16">
+        <f>IFERROR($C$12*C55/SUM(B60:D60),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="16">
+        <f>IFERROR($C$12*D55/SUM(B60:D60),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="16">
+        <f>IFERROR($C$12*E55/SUM(B60:D60),0)</f>
+        <v>359.99326688025786</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="6">
+        <f>IFERROR(B57*B58,"-")</f>
+        <v>34.450047706426062</v>
+      </c>
+      <c r="C59" s="6">
+        <f t="shared" ref="C59:D59" si="10">IFERROR(C57*C58,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D59" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
+      <c r="E59" s="6">
+        <f>E57*E58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="6">
+        <f>IFERROR(B55*B57,"-")</f>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C60" s="6">
+        <f t="shared" ref="C60:D60" si="11">IFERROR(C55*C57,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>-</v>
+      </c>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A62" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="20">
+        <v>1</v>
+      </c>
+      <c r="C62" s="20">
+        <v>0</v>
+      </c>
+      <c r="D62" s="20">
+        <v>0</v>
+      </c>
+      <c r="E62" s="21">
+        <v>0</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="24">
+        <f>IFERROR(E65/I63,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="25" t="str">
+        <f>IFERROR(E62/G63,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I63" s="23">
+        <f>I31</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="11">
+        <f>IFERROR(VLOOKUP(B63,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>2.12805</v>
+      </c>
+      <c r="C64" s="11">
+        <f>IFERROR(VLOOKUP(C63,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="D64" s="11" t="str">
+        <f>IFERROR(VLOOKUP(D63,Database!$A$2:$B$50,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.5" thickTop="1">
+      <c r="A65" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="16">
+        <f>IFERROR($C$13*B62/SUM(B67:D67),"-")</f>
+        <v>45.035820860311915</v>
+      </c>
+      <c r="C65" s="16">
+        <f>IFERROR($C$13*C62/SUM(B67:D67),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="16">
+        <f>IFERROR($C$13*D62/SUM(B67:D67),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="16">
+        <f>IFERROR($C$13*E62/SUM(B67:D67),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="6">
+        <f>IFERROR(B64*B65,"-")</f>
+        <v>95.838478581786774</v>
+      </c>
+      <c r="C66" s="6">
+        <f t="shared" ref="C66:D66" si="12">IFERROR(C64*C65,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>-</v>
+      </c>
+      <c r="E66" s="6">
+        <f>E64*E65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="6">
+        <f>IFERROR(B62*B64,"-")</f>
+        <v>2.12805</v>
+      </c>
+      <c r="C67" s="6">
+        <f t="shared" ref="C67:D67" si="13">IFERROR(C62*C64,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="E67" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A11:E11"/>
+  <mergeCells count="7">
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="K20:K23"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="K24:K25"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
   <pageSetup firstPageNumber="4294967295" fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed" copies="0"/>
@@ -1192,7 +2367,7 @@
           <x14:formula1>
             <xm:f>Database!$A$2:$A$50</xm:f>
           </x14:formula1>
-          <xm:sqref>B13:D13</xm:sqref>
+          <xm:sqref>B17:D17 B24:D24 B31:D31 B56:D56 B63:D63 B40:D40 B47:D47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1204,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1295,11 +2470,11 @@
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <f>C11*1000</f>
         <v>1.0000000000000002E-6</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
@@ -1307,11 +2482,11 @@
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <f t="shared" ref="B12:B47" si="0">C12*1000</f>
         <v>1.784E-3</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>1.784E-6</v>
       </c>
     </row>
@@ -1319,11 +2494,11 @@
       <c r="A13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -1331,11 +2506,11 @@
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <f t="shared" si="0"/>
         <v>10.97</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>1.0970000000000001E-2</v>
       </c>
     </row>
@@ -1343,11 +2518,11 @@
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>1E-3</v>
       </c>
     </row>
@@ -1355,11 +2530,11 @@
       <c r="A16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <f t="shared" si="0"/>
         <v>0.216</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>2.1599999999999999E-4</v>
       </c>
     </row>
@@ -1367,11 +2542,11 @@
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
@@ -1379,11 +2554,11 @@
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
@@ -1391,11 +2566,11 @@
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <f t="shared" si="0"/>
         <v>0.53399999999999992</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>5.3399999999999997E-4</v>
       </c>
     </row>
@@ -1403,11 +2578,11 @@
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <f t="shared" si="0"/>
         <v>0.70209999999999995</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>7.0209999999999999E-4</v>
       </c>
     </row>
@@ -1415,11 +2590,11 @@
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <f t="shared" si="0"/>
         <v>1.1732500000000001</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>1.17325E-3</v>
       </c>
     </row>
@@ -1427,11 +2602,11 @@
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <f t="shared" si="0"/>
         <v>0.16239999999999999</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>1.6239999999999999E-4</v>
       </c>
     </row>
@@ -1439,11 +2614,11 @@
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <f t="shared" si="0"/>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>5.8999999999999998E-5</v>
       </c>
     </row>
@@ -1451,11 +2626,11 @@
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <f t="shared" si="0"/>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>7.0850000000000001E-5</v>
       </c>
     </row>
@@ -1463,11 +2638,11 @@
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <f t="shared" si="0"/>
         <v>0.42560999999999999</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <v>4.2560999999999999E-4</v>
       </c>
     </row>
@@ -1475,11 +2650,11 @@
       <c r="A26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <f t="shared" si="0"/>
         <v>1.141</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>1.1410000000000001E-3</v>
       </c>
     </row>
@@ -1487,11 +2662,11 @@
       <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
@@ -1499,11 +2674,11 @@
       <c r="A28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <f t="shared" si="0"/>
         <v>7.085</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="14">
         <v>7.0850000000000002E-3</v>
       </c>
     </row>
@@ -1511,11 +2686,11 @@
       <c r="A29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="14">
         <v>8.8000000000000003E-4</v>
       </c>
     </row>
@@ -1523,11 +2698,11 @@
       <c r="A30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="14">
         <v>1.4499999999999999E-3</v>
       </c>
     </row>
@@ -1535,11 +2710,11 @@
       <c r="A31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <v>1.0499999999999999E-3</v>
       </c>
     </row>
@@ -1547,11 +2722,11 @@
       <c r="A32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <f t="shared" si="0"/>
         <v>0.79100000000000004</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="14">
         <v>7.9100000000000004E-4</v>
       </c>
     </row>
@@ -1559,11 +2734,11 @@
       <c r="A33" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="13">
         <f t="shared" si="0"/>
         <v>0.82899999999999996</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="14">
         <v>8.2899999999999998E-4</v>
       </c>
     </row>
@@ -1571,11 +2746,11 @@
       <c r="A34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <f>C34*1000</f>
         <v>1</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="14">
         <v>1E-3</v>
       </c>
     </row>
@@ -1589,17 +2764,17 @@
         <v>65</v>
       </c>
       <c r="B36"/>
-      <c r="C36" s="16"/>
+      <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" thickTop="1">
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -1607,11 +2782,11 @@
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <f t="shared" si="0"/>
         <v>54.4</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="14">
         <v>5.4399999999999997E-2</v>
       </c>
     </row>
@@ -1619,11 +2794,11 @@
       <c r="A39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -1631,11 +2806,11 @@
       <c r="A40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <f t="shared" si="0"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="14">
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
@@ -1643,11 +2818,11 @@
       <c r="A41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <f t="shared" si="0"/>
         <v>5.0108799999999993</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="14">
         <v>5.0108799999999997E-3</v>
       </c>
     </row>
@@ -1655,11 +2830,11 @@
       <c r="A42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -1667,11 +2842,11 @@
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="13">
         <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="14">
         <v>8.6E-3</v>
       </c>
     </row>
@@ -1679,11 +2854,11 @@
       <c r="A44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="13">
         <f t="shared" si="0"/>
         <v>5.7050000000000001</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="14">
         <v>5.705E-3</v>
       </c>
     </row>
@@ -1691,11 +2866,11 @@
       <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="13">
         <f t="shared" si="0"/>
         <v>0.35399999999999998</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="14">
         <v>3.5399999999999999E-4</v>
       </c>
     </row>
@@ -1703,11 +2878,11 @@
       <c r="A46" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="13">
         <f t="shared" si="0"/>
         <v>2.12805</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="14">
         <v>2.1280499999999998E-3</v>
       </c>
     </row>
@@ -1715,11 +2890,11 @@
       <c r="A47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="13">
         <f t="shared" si="0"/>
         <v>4.1000000000000005</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="14">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -1727,11 +2902,11 @@
       <c r="A48" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="13">
         <f>C48*1000</f>
         <v>12.5</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="14">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
@@ -1739,11 +2914,11 @@
       <c r="A49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <f>C49*1000</f>
         <v>7.5</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
@@ -1751,11 +2926,11 @@
       <c r="A50" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <f>C50*1000</f>
         <v>5</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -1796,15 +2971,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -9,27 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="17670" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="2" r:id="rId1"/>
-    <sheet name="Database" sheetId="3" r:id="rId2"/>
-    <sheet name="Samples" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Database" sheetId="3" r:id="rId3"/>
+    <sheet name="Samples" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Sheet2"</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Sheet3"</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Sheet1"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Sheet3"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="3">"Sheet1"</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="125">
   <si>
     <t>name</t>
   </si>
@@ -371,18 +372,53 @@
   </si>
   <si>
     <t>ARI-75</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Lightcraft</t>
+  </si>
+  <si>
+    <t>Thrust (N)</t>
+  </si>
+  <si>
+    <t>ElectricCharge (kW or kWh)</t>
+  </si>
+  <si>
+    <t>Thrust (Vac, kN)</t>
+  </si>
+  <si>
+    <t>TWR</t>
+  </si>
+  <si>
+    <t>Weight (t)</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Isp (s)</t>
+  </si>
+  <si>
+    <t>Extra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -498,6 +534,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Sans"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -534,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -608,8 +657,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -620,8 +678,9 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -649,23 +708,36 @@
     <xf numFmtId="166" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="9"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Comma" xfId="10" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="6" builtinId="53"/>
     <cellStyle name="Good" xfId="7" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -1022,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IQ67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1041,13 +1113,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickTop="1">
       <c r="A2" s="18" t="s">
@@ -1127,10 +1199,10 @@
       <c r="E8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickTop="1">
       <c r="B9" s="6">
@@ -1223,13 +1295,13 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -1271,7 +1343,7 @@
       <c r="N16" s="2">
         <v>420</v>
       </c>
-      <c r="O16" s="32">
+      <c r="O16" s="28">
         <v>300</v>
       </c>
     </row>
@@ -1297,7 +1369,7 @@
         <f>IFERROR(E16/G17,"-")</f>
         <v>14.121504</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="27">
         <v>360</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -1309,7 +1381,7 @@
       <c r="N17" s="2">
         <v>180</v>
       </c>
-      <c r="O17" s="32">
+      <c r="O17" s="28">
         <v>150</v>
       </c>
     </row>
@@ -1338,7 +1410,7 @@
       <c r="N18" s="2">
         <v>180</v>
       </c>
-      <c r="O18" s="32">
+      <c r="O18" s="28">
         <v>150</v>
       </c>
     </row>
@@ -1374,7 +1446,7 @@
       <c r="N19" s="2">
         <v>300</v>
       </c>
-      <c r="O19" s="32">
+      <c r="O19" s="28">
         <v>864</v>
       </c>
     </row>
@@ -1398,7 +1470,7 @@
         <f>E18*E19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="31" t="s">
         <v>97</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -1410,7 +1482,7 @@
       <c r="N20" s="2">
         <v>250</v>
       </c>
-      <c r="O20" s="32">
+      <c r="O20" s="28">
         <v>180</v>
       </c>
     </row>
@@ -1431,7 +1503,7 @@
         <v>-</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="K21" s="30"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="2" t="s">
         <v>102</v>
       </c>
@@ -1441,7 +1513,7 @@
       <c r="N21" s="2">
         <v>500</v>
       </c>
-      <c r="O21" s="32">
+      <c r="O21" s="28">
         <v>450</v>
       </c>
     </row>
@@ -1450,7 +1522,7 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="K22" s="30"/>
+      <c r="K22" s="31"/>
       <c r="L22" s="2" t="s">
         <v>103</v>
       </c>
@@ -1460,7 +1532,7 @@
       <c r="N22" s="2">
         <v>210</v>
       </c>
-      <c r="O22" s="32">
+      <c r="O22" s="28">
         <v>900</v>
       </c>
     </row>
@@ -1489,7 +1561,7 @@
       <c r="I23" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="30"/>
+      <c r="K23" s="31"/>
       <c r="L23" s="2" t="s">
         <v>104</v>
       </c>
@@ -1499,7 +1571,7 @@
       <c r="N23" s="2">
         <v>1250</v>
       </c>
-      <c r="O23" s="32">
+      <c r="O23" s="28">
         <v>900</v>
       </c>
     </row>
@@ -1529,7 +1601,7 @@
         <f>I17</f>
         <v>360</v>
       </c>
-      <c r="K24" s="30" t="s">
+      <c r="K24" s="31" t="s">
         <v>98</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -1541,7 +1613,7 @@
       <c r="N24" s="2">
         <v>375</v>
       </c>
-      <c r="O24" s="32">
+      <c r="O24" s="28">
         <v>360</v>
       </c>
     </row>
@@ -1564,7 +1636,7 @@
       <c r="E25" s="12">
         <v>0</v>
       </c>
-      <c r="K25" s="30"/>
+      <c r="K25" s="31"/>
       <c r="L25" s="2" t="s">
         <v>106</v>
       </c>
@@ -1574,7 +1646,7 @@
       <c r="N25" s="2">
         <v>375</v>
       </c>
-      <c r="O25" s="32">
+      <c r="O25" s="28">
         <v>720</v>
       </c>
     </row>
@@ -1778,13 +1850,13 @@
       <c r="E35" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="18" thickBot="1">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -2062,13 +2134,13 @@
       <c r="E51" s="6"/>
     </row>
     <row r="54" spans="1:9" ht="18" thickBot="1">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
@@ -2377,10 +2449,216 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="5" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2"/>
+      <c r="B2" s="36">
+        <v>825</v>
+      </c>
+      <c r="C2" s="41">
+        <v>60</v>
+      </c>
+      <c r="J2" s="40">
+        <v>299792458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2"/>
+      <c r="B4" s="33">
+        <f>B2*9.8066</f>
+        <v>8090.4449999999997</v>
+      </c>
+      <c r="C4" s="33">
+        <f>IFERROR(C2*1000/B4,0)</f>
+        <v>7.4161557244379024</v>
+      </c>
+      <c r="D4" s="33">
+        <f>C2*1000*B4/2</f>
+        <v>242713350</v>
+      </c>
+      <c r="E4" s="33">
+        <f>IFERROR(D4/C4,0)</f>
+        <v>32727650.149012499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="J6" s="5">
+        <v>450000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="J7" s="5">
+        <f>1000*3000*600</f>
+        <v>1800000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="37">
+        <v>825</v>
+      </c>
+      <c r="C9" s="38">
+        <f>(C11*B11)/1000</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="33">
+        <f>B9*9.8066</f>
+        <v>8090.4449999999997</v>
+      </c>
+      <c r="C11" s="33">
+        <f>D11/E11</f>
+        <v>7.4161557244379024</v>
+      </c>
+      <c r="D11" s="37">
+        <v>242713350</v>
+      </c>
+      <c r="E11" s="33">
+        <f>IFERROR((B11^2)/2,0)</f>
+        <v>32727650.149012499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="42"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="35">
+        <v>3</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="34">
+        <f>C9/(B14*9.80655)</f>
+        <v>2.0394532225910234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="39">
+        <v>1000000000</v>
+      </c>
+      <c r="C18" s="34">
+        <f>(B18/J2)</f>
+        <v>3.3356409519815204</v>
+      </c>
+      <c r="D18" s="34">
+        <f>B18/1000</f>
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2949,12 +3227,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2971,15 +3249,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="135">
   <si>
     <t>name</t>
   </si>
@@ -405,18 +405,50 @@
   </si>
   <si>
     <t>Extra</t>
+  </si>
+  <si>
+    <t>% c</t>
+  </si>
+  <si>
+    <t>Reactor to engine</t>
+  </si>
+  <si>
+    <t>Esp (J/kg)</t>
+  </si>
+  <si>
+    <t>Kerosene</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Ethanol75</t>
+  </si>
+  <si>
+    <t>LqdNitrogen</t>
+  </si>
+  <si>
+    <t>Fuel Ratio</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -680,7 +712,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -710,6 +742,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="9"/>
     <xf numFmtId="1" fontId="3" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -719,21 +764,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3"/>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -1094,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IQ67"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1113,13 +1150,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickTop="1">
       <c r="A2" s="18" t="s">
@@ -1174,10 +1211,10 @@
         <v>70</v>
       </c>
       <c r="B7" s="9">
-        <v>300</v>
+        <v>4248</v>
       </c>
       <c r="C7" s="9">
-        <v>375</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1197,33 +1234,33 @@
         <v>37</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickTop="1">
       <c r="B9" s="6">
         <f>B7*9.8066</f>
-        <v>2941.98</v>
+        <v>41658.436799999996</v>
       </c>
       <c r="C9" s="10">
         <f>IFERROR(C7*1000/B9,0)</f>
-        <v>127.46517651377644</v>
+        <v>0.60011853349235611</v>
       </c>
       <c r="D9" s="10">
         <f>C7*1000*B9/2</f>
-        <v>551621250</v>
+        <v>520730459.99999994</v>
       </c>
       <c r="E9" s="10">
         <f>IFERROR(D9/C9,0)</f>
-        <v>4327623.1601999998</v>
+        <v>867712678.30979705</v>
       </c>
       <c r="G9" s="16">
         <f>SUM(B20:E20)</f>
-        <v>127.46517651377644</v>
+        <v>0.60011853349235611</v>
       </c>
       <c r="H9" s="6" t="str">
         <f>IF($C$9&gt;$G$9,"Input excesive",IF($C$9&lt;$G$9,"Output excessive","Equal"))</f>
@@ -1239,7 +1276,7 @@
       </c>
       <c r="C10" s="10">
         <f>IFERROR(C7*1000/B10/B9,0)</f>
-        <v>84.976784342517618</v>
+        <v>0.40007902232823744</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -1252,7 +1289,7 @@
       </c>
       <c r="C11" s="10">
         <f>IFERROR(C7*1000/B11/B9,0)</f>
-        <v>106.22098042814703</v>
+        <v>0.50009877791029689</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -1265,7 +1302,7 @@
       </c>
       <c r="C12" s="10">
         <f>IFERROR(C7*1000/B12/B9,0)</f>
-        <v>34.450047706426062</v>
+        <v>0.16219419824117734</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -1278,7 +1315,7 @@
       </c>
       <c r="C13" s="10">
         <f>IFERROR(C7*1000/B13/B9,0)</f>
-        <v>95.838478581786774</v>
+        <v>0.45121694247545574</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -1295,13 +1332,13 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -1314,13 +1351,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D16" s="20">
         <v>0</v>
       </c>
       <c r="E16" s="21">
-        <v>282.42950000000002</v>
+        <v>0</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>93</v>
@@ -1355,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="18" t="s">
@@ -1363,14 +1400,14 @@
       </c>
       <c r="G17" s="24">
         <f>IFERROR(E19/I17,"-")</f>
-        <v>19.999958927887569</v>
-      </c>
-      <c r="H17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25" t="str">
         <f>IFERROR(E16/G17,"-")</f>
-        <v>14.121504</v>
+        <v>-</v>
       </c>
       <c r="I17" s="27">
-        <v>360</v>
+        <v>9</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>112</v>
@@ -1390,15 +1427,15 @@
         <v>27</v>
       </c>
       <c r="B18" s="11">
-        <f>IFERROR(VLOOKUP(B17,Database!$A$2:$B$50,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(B17,Database!$A$2:$B$54,2,0),"-")</f>
         <v>5</v>
       </c>
       <c r="C18" s="11">
-        <f>IFERROR(VLOOKUP(C17,Database!$A$2:$B$50,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(C17,Database!$A$2:$B$54,2,0),"-")</f>
         <v>5</v>
       </c>
       <c r="D18" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D17,Database!$A$2:$B$50,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D17,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E18" s="12">
@@ -1420,11 +1457,11 @@
       </c>
       <c r="B19" s="16">
         <f>IFERROR($C$9*B16/SUM(B21:D21),"-")</f>
-        <v>25.493035302755288</v>
+        <v>7.5014816686544512E-3</v>
       </c>
       <c r="C19" s="16">
         <f>IFERROR($C$9*C16/SUM(B21:D21),"-")</f>
-        <v>0</v>
+        <v>0.11252222502981676</v>
       </c>
       <c r="D19" s="16">
         <f>IFERROR($C$9*D16/SUM(B21:D21),"-")</f>
@@ -1432,7 +1469,7 @@
       </c>
       <c r="E19" s="16">
         <f>IFERROR($C$9*E16/SUM(B21:D21),0)</f>
-        <v>7199.9852140395251</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>96</v>
@@ -1456,11 +1493,11 @@
       </c>
       <c r="B20" s="6">
         <f>IFERROR(B18*B19,"-")</f>
-        <v>127.46517651377644</v>
+        <v>3.7507408343272257E-2</v>
       </c>
       <c r="C20" s="6">
         <f t="shared" ref="C20:D20" si="0">IFERROR(C18*C19,"-")</f>
-        <v>0</v>
+        <v>0.56261112514908385</v>
       </c>
       <c r="D20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1470,7 +1507,7 @@
         <f>E18*E19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="44" t="s">
         <v>97</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -1496,14 +1533,14 @@
       </c>
       <c r="C21" s="6">
         <f t="shared" ref="C21:D21" si="1">IFERROR(C16*C18,"-")</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D21" s="6" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="K21" s="31"/>
+      <c r="K21" s="44"/>
       <c r="L21" s="2" t="s">
         <v>102</v>
       </c>
@@ -1522,7 +1559,7 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="K22" s="31"/>
+      <c r="K22" s="44"/>
       <c r="L22" s="2" t="s">
         <v>103</v>
       </c>
@@ -1541,10 +1578,10 @@
         <v>69</v>
       </c>
       <c r="B23" s="20">
-        <v>1</v>
+        <v>6.0979999999999999</v>
       </c>
       <c r="C23" s="20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D23" s="20">
         <v>0</v>
@@ -1561,7 +1598,7 @@
       <c r="I23" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="31"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="2" t="s">
         <v>104</v>
       </c>
@@ -1580,10 +1617,10 @@
         <v>68</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="18" t="s">
@@ -1591,17 +1628,17 @@
       </c>
       <c r="G24" s="24">
         <f>IFERROR(E26/I24,"-")</f>
-        <v>19.999828919004678</v>
+        <v>3.3356438382644077E-3</v>
       </c>
       <c r="H24" s="25">
         <f>IFERROR(E23/G24,"-")</f>
-        <v>0.30015256752000002</v>
+        <v>1799.6525681601138</v>
       </c>
       <c r="I24" s="23">
         <f>I17</f>
-        <v>360</v>
-      </c>
-      <c r="K24" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="44" t="s">
         <v>98</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -1622,21 +1659,21 @@
         <v>27</v>
       </c>
       <c r="B25" s="11">
-        <f>IFERROR(VLOOKUP(B24,Database!$A$2:$B$50,2,0),"-")</f>
-        <v>7.0849999999999996E-2</v>
+        <f>IFERROR(VLOOKUP(B24,Database!$A$2:$B$54,2,0),"-")</f>
+        <v>0.82</v>
       </c>
       <c r="C25" s="11">
-        <f>IFERROR(VLOOKUP(C24,Database!$A$2:$B$50,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(C24,Database!$A$2:$B$54,2,0),"-")</f>
         <v>5</v>
       </c>
       <c r="D25" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D24,Database!$A$2:$B$50,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D24,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E25" s="12">
         <v>0</v>
       </c>
-      <c r="K25" s="31"/>
+      <c r="K25" s="44"/>
       <c r="L25" s="2" t="s">
         <v>106</v>
       </c>
@@ -1656,11 +1693,11 @@
       </c>
       <c r="B26" s="16">
         <f>IFERROR($C$10*B23/SUM(B28:D28),"-")</f>
-        <v>1199.3900401202204</v>
+        <v>3.0495886245481791E-2</v>
       </c>
       <c r="C26" s="16">
         <f>IFERROR($C$10*C23/SUM(B28:D28),"-")</f>
-        <v>0</v>
+        <v>7.5014479121388464E-2</v>
       </c>
       <c r="D26" s="16">
         <f>IFERROR($C$10*D23/SUM(B28:D28),"-")</f>
@@ -1668,7 +1705,7 @@
       </c>
       <c r="E26" s="16">
         <f>IFERROR($C$10*E23/SUM(B28:D28),0)</f>
-        <v>7199.9384108416843</v>
+        <v>3.002079454437967E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1677,11 +1714,11 @@
       </c>
       <c r="B27" s="6">
         <f>IFERROR(B25*B26,"-")</f>
-        <v>84.976784342517618</v>
+        <v>2.5006626721295066E-2</v>
       </c>
       <c r="C27" s="6">
         <f t="shared" ref="C27:D27" si="2">IFERROR(C25*C26,"-")</f>
-        <v>0</v>
+        <v>0.37507239560694233</v>
       </c>
       <c r="D27" s="6" t="str">
         <f t="shared" si="2"/>
@@ -1698,11 +1735,11 @@
       </c>
       <c r="B28" s="6">
         <f>IFERROR(B23*B25,"-")</f>
-        <v>7.0849999999999996E-2</v>
+        <v>5.0003599999999997</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" ref="C28:D28" si="3">IFERROR(C23*C25,"-")</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D28" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1745,13 +1782,8 @@
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="17" t="str">
-        <f>C24</f>
-        <v>Oxidizer</v>
-      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="18" t="s">
         <v>35</v>
@@ -1766,23 +1798,23 @@
       </c>
       <c r="I31" s="23">
         <f>I17</f>
-        <v>360</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="11">
-        <f>IFERROR(VLOOKUP(B31,Database!$A$2:$B$50,2,0),"-")</f>
-        <v>0.42560999999999999</v>
-      </c>
-      <c r="C32" s="11">
-        <f>IFERROR(VLOOKUP(C31,Database!$A$2:$B$50,2,0),"-")</f>
-        <v>5</v>
+      <c r="B32" s="11" t="str">
+        <f>IFERROR(VLOOKUP(B31,Database!$A$2:$B$54,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C32" s="11" t="str">
+        <f>IFERROR(VLOOKUP(C31,Database!$A$2:$B$54,2,0),"-")</f>
+        <v>-</v>
       </c>
       <c r="D32" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D31,Database!$A$2:$B$50,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D31,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E32" s="12">
@@ -1793,17 +1825,17 @@
       <c r="A33" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="16" t="str">
         <f>IFERROR($C$11*B30/SUM(B35:D35),"-")</f>
-        <v>249.57350726756192</v>
-      </c>
-      <c r="C33" s="16">
+        <v>-</v>
+      </c>
+      <c r="C33" s="16" t="str">
         <f>IFERROR($C$11*C30/SUM(B35:D35),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="16">
+        <v>-</v>
+      </c>
+      <c r="D33" s="16" t="str">
         <f>IFERROR($C$11*D30/SUM(B35:D35),"-")</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="E33" s="16">
         <f>IFERROR($C$11*E30/SUM(B35:D35),0)</f>
@@ -1814,13 +1846,13 @@
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="6" t="str">
         <f>IFERROR(B32*B33,"-")</f>
-        <v>106.22098042814703</v>
-      </c>
-      <c r="C34" s="6">
+        <v>-</v>
+      </c>
+      <c r="C34" s="6" t="str">
         <f t="shared" ref="C34:D34" si="4">IFERROR(C32*C33,"-")</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="D34" s="6" t="str">
         <f t="shared" si="4"/>
@@ -1835,13 +1867,13 @@
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="6" t="str">
         <f>IFERROR(B30*B32,"-")</f>
-        <v>0.42560999999999999</v>
-      </c>
-      <c r="C35" s="6">
+        <v>-</v>
+      </c>
+      <c r="C35" s="6" t="str">
         <f t="shared" ref="C35:D35" si="5">IFERROR(C30*C32,"-")</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="D35" s="6" t="str">
         <f t="shared" si="5"/>
@@ -1850,13 +1882,13 @@
       <c r="E35" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="18" thickBot="1">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -1891,12 +1923,8 @@
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18" t="s">
         <v>35</v>
@@ -1911,23 +1939,23 @@
       </c>
       <c r="I40" s="23">
         <f>I31</f>
-        <v>360</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="11">
-        <f>IFERROR(VLOOKUP(B40,Database!$A$2:$B$50,2,0),"-")</f>
-        <v>7.0849999999999996E-2</v>
-      </c>
-      <c r="C41" s="11">
-        <f>IFERROR(VLOOKUP(C40,Database!$A$2:$B$50,2,0),"-")</f>
-        <v>1.141</v>
+      <c r="B41" s="11" t="str">
+        <f>IFERROR(VLOOKUP(B40,Database!$A$2:$B$54,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C41" s="11" t="str">
+        <f>IFERROR(VLOOKUP(C40,Database!$A$2:$B$54,2,0),"-")</f>
+        <v>-</v>
       </c>
       <c r="D41" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D40,Database!$A$2:$B$50,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D40,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E41" s="12">
@@ -1938,17 +1966,17 @@
       <c r="A42" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="16" t="str">
         <f>IFERROR($C$10*B39/SUM(B44:D44),"-")</f>
-        <v>184.17416256461308</v>
-      </c>
-      <c r="C42" s="16">
+        <v>-</v>
+      </c>
+      <c r="C42" s="16" t="str">
         <f>IFERROR($C$10*C39/SUM(B44:D44),"-")</f>
-        <v>63.039478461713209</v>
-      </c>
-      <c r="D42" s="16">
+        <v>-</v>
+      </c>
+      <c r="D42" s="16" t="str">
         <f>IFERROR($C$10*D39/SUM(B44:D44),"-")</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="E42" s="16">
         <f>IFERROR($C$10*E39/SUM(B44:D44),0)</f>
@@ -1959,13 +1987,13 @@
       <c r="A43" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="6" t="str">
         <f>IFERROR(B41*B42,"-")</f>
-        <v>13.048739417702837</v>
-      </c>
-      <c r="C43" s="6">
+        <v>-</v>
+      </c>
+      <c r="C43" s="6" t="str">
         <f t="shared" ref="C43:D43" si="6">IFERROR(C41*C42,"-")</f>
-        <v>71.92804492481477</v>
+        <v>-</v>
       </c>
       <c r="D43" s="6" t="str">
         <f t="shared" si="6"/>
@@ -1980,13 +2008,13 @@
       <c r="A44" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="6" t="str">
         <f>IFERROR(B39*B41,"-")</f>
-        <v>5.2783249999999997E-2</v>
-      </c>
-      <c r="C44" s="6">
+        <v>-</v>
+      </c>
+      <c r="C44" s="6" t="str">
         <f t="shared" ref="C44:D44" si="7">IFERROR(C39*C41,"-")</f>
-        <v>0.29095500000000002</v>
+        <v>-</v>
       </c>
       <c r="D44" s="6" t="str">
         <f t="shared" si="7"/>
@@ -2029,13 +2057,8 @@
       <c r="A47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="17" t="str">
-        <f>C40</f>
-        <v>LqdOxygen</v>
-      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="17"/>
       <c r="E47" s="18" t="s">
         <v>35</v>
@@ -2050,23 +2073,23 @@
       </c>
       <c r="I47" s="23">
         <f>I31</f>
-        <v>360</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="11">
-        <f>IFERROR(VLOOKUP(B47,Database!$A$2:$B$50,2,0),"-")</f>
-        <v>0.42560999999999999</v>
-      </c>
-      <c r="C48" s="11">
-        <f>IFERROR(VLOOKUP(C47,Database!$A$2:$B$50,2,0),"-")</f>
-        <v>1.141</v>
+      <c r="B48" s="11" t="str">
+        <f>IFERROR(VLOOKUP(B47,Database!$A$2:$B$54,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C48" s="11" t="str">
+        <f>IFERROR(VLOOKUP(C47,Database!$A$2:$B$54,2,0),"-")</f>
+        <v>-</v>
       </c>
       <c r="D48" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D47,Database!$A$2:$B$50,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D47,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E48" s="12">
@@ -2077,17 +2100,17 @@
       <c r="A49" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="16" t="str">
         <f>IFERROR($C$11*B46/SUM(B51:D51),"-")</f>
-        <v>55.507229724107567</v>
-      </c>
-      <c r="C49" s="16">
+        <v>-</v>
+      </c>
+      <c r="C49" s="16" t="str">
         <f>IFERROR($C$11*C46/SUM(B51:D51),"-")</f>
-        <v>72.389612958167916</v>
-      </c>
-      <c r="D49" s="16">
+        <v>-</v>
+      </c>
+      <c r="D49" s="16" t="str">
         <f>IFERROR($C$11*D46/SUM(B51:D51),"-")</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="E49" s="16">
         <f>IFERROR($C$11*E46/SUM(B51:D51),0)</f>
@@ -2098,13 +2121,13 @@
       <c r="A50" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="6" t="str">
         <f>IFERROR(B48*B49,"-")</f>
-        <v>23.624432042877419</v>
-      </c>
-      <c r="C50" s="6">
+        <v>-</v>
+      </c>
+      <c r="C50" s="6" t="str">
         <f t="shared" ref="C50:D50" si="8">IFERROR(C48*C49,"-")</f>
-        <v>82.5965483852696</v>
+        <v>-</v>
       </c>
       <c r="D50" s="6" t="str">
         <f t="shared" si="8"/>
@@ -2119,13 +2142,13 @@
       <c r="A51" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="6" t="str">
         <f>IFERROR(B46*B48,"-")</f>
-        <v>0.18471473999999999</v>
-      </c>
-      <c r="C51" s="6">
+        <v>-</v>
+      </c>
+      <c r="C51" s="6" t="str">
         <f t="shared" ref="C51:D51" si="9">IFERROR(C46*C48,"-")</f>
-        <v>0.64580599999999999</v>
+        <v>-</v>
       </c>
       <c r="D51" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2134,13 +2157,13 @@
       <c r="E51" s="6"/>
     </row>
     <row r="54" spans="1:9" ht="18" thickBot="1">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
@@ -2187,15 +2210,15 @@
       </c>
       <c r="G56" s="24">
         <f>IFERROR(E58/I56,"-")</f>
-        <v>0.99998129688960513</v>
+        <v>0.18832039489446428</v>
       </c>
       <c r="H56" s="25">
         <f>IFERROR(E55/G56,"-")</f>
-        <v>3.6992691878400001</v>
+        <v>19.643119387430399</v>
       </c>
       <c r="I56" s="23">
         <f>I24</f>
-        <v>360</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -2203,15 +2226,15 @@
         <v>27</v>
       </c>
       <c r="B57" s="11">
-        <f>IFERROR(VLOOKUP(B56,Database!$A$2:$B$50,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(B56,Database!$A$2:$B$54,2,0),"-")</f>
         <v>0.35399999999999998</v>
       </c>
       <c r="C57" s="11">
-        <f>IFERROR(VLOOKUP(C56,Database!$A$2:$B$50,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(C56,Database!$A$2:$B$54,2,0),"-")</f>
         <v>5</v>
       </c>
       <c r="D57" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D56,Database!$A$2:$B$50,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D56,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E57" s="12">
@@ -2224,7 +2247,7 @@
       </c>
       <c r="B58" s="16">
         <f>IFERROR($C$12*B55/SUM(B60:D60),"-")</f>
-        <v>97.316518944706402</v>
+        <v>0.45817570124626372</v>
       </c>
       <c r="C58" s="16">
         <f>IFERROR($C$12*C55/SUM(B60:D60),"-")</f>
@@ -2236,7 +2259,7 @@
       </c>
       <c r="E58" s="16">
         <f>IFERROR($C$12*E55/SUM(B60:D60),0)</f>
-        <v>359.99326688025786</v>
+        <v>1.6948835540501785</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2245,7 +2268,7 @@
       </c>
       <c r="B59" s="6">
         <f>IFERROR(B57*B58,"-")</f>
-        <v>34.450047706426062</v>
+        <v>0.16219419824117734</v>
       </c>
       <c r="C59" s="6">
         <f t="shared" ref="C59:D59" si="10">IFERROR(C57*C58,"-")</f>
@@ -2333,7 +2356,7 @@
       </c>
       <c r="I63" s="23">
         <f>I31</f>
-        <v>360</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -2341,15 +2364,15 @@
         <v>27</v>
       </c>
       <c r="B64" s="11">
-        <f>IFERROR(VLOOKUP(B63,Database!$A$2:$B$50,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(B63,Database!$A$2:$B$54,2,0),"-")</f>
         <v>2.12805</v>
       </c>
       <c r="C64" s="11">
-        <f>IFERROR(VLOOKUP(C63,Database!$A$2:$B$50,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(C63,Database!$A$2:$B$54,2,0),"-")</f>
         <v>5</v>
       </c>
       <c r="D64" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D63,Database!$A$2:$B$50,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D63,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E64" s="12">
@@ -2362,7 +2385,7 @@
       </c>
       <c r="B65" s="16">
         <f>IFERROR($C$13*B62/SUM(B67:D67),"-")</f>
-        <v>45.035820860311915</v>
+        <v>0.21203305489789043</v>
       </c>
       <c r="C65" s="16">
         <f>IFERROR($C$13*C62/SUM(B67:D67),"-")</f>
@@ -2383,7 +2406,7 @@
       </c>
       <c r="B66" s="6">
         <f>IFERROR(B64*B65,"-")</f>
-        <v>95.838478581786774</v>
+        <v>0.45121694247545574</v>
       </c>
       <c r="C66" s="6">
         <f t="shared" ref="C66:D66" si="12">IFERROR(C64*C65,"-")</f>
@@ -2437,9 +2460,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$50</xm:f>
+            <xm:f>Database!$A$2:$A$54</xm:f>
           </x14:formula1>
-          <xm:sqref>B17:D17 B24:D24 B31:D31 B56:D56 B63:D63 B40:D40 B47:D47</xm:sqref>
+          <xm:sqref>B17:D17 B24:D24 B31:D31 B40:D40 B47:D47 B56:D56 B63:D63</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2449,15 +2472,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="26" style="5" customWidth="1"/>
@@ -2484,13 +2507,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2"/>
-      <c r="B2" s="36">
+      <c r="B2" s="32">
         <v>825</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="36">
         <v>60</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="35">
         <v>299792458</v>
       </c>
     </row>
@@ -2511,19 +2534,19 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2"/>
-      <c r="B4" s="33">
+      <c r="B4" s="29">
         <f>B2*9.8066</f>
         <v>8090.4449999999997</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="29">
         <f>IFERROR(C2*1000/B4,0)</f>
         <v>7.4161557244379024</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="29">
         <f>C2*1000*B4/2</f>
         <v>242713350</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="29">
         <f>IFERROR(D4/C4,0)</f>
         <v>32727650.149012499</v>
       </c>
@@ -2551,10 +2574,10 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="37">
+      <c r="B9" s="33">
         <v>825</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="34">
         <f>(C11*B11)/1000</f>
         <v>60</v>
       </c>
@@ -2570,31 +2593,40 @@
         <v>37</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="33">
+      <c r="B11" s="29">
         <f>B9*9.8066</f>
         <v>8090.4449999999997</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="29">
         <f>D11/E11</f>
         <v>7.4161557244379024</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="33">
         <v>242713350</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="29">
         <f>IFERROR((B11^2)/2,0)</f>
         <v>32727650.149012499</v>
       </c>
+      <c r="G11" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="42"/>
+      <c r="C12" s="45"/>
+      <c r="G12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="5" t="s">
@@ -2606,18 +2638,44 @@
       <c r="D13" s="5" t="s">
         <v>119</v>
       </c>
+      <c r="G13" s="31">
+        <v>6.5619999999999998E-2</v>
+      </c>
+      <c r="H13" s="31">
+        <v>0.30642999999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="35">
+      <c r="B14" s="31">
         <v>3</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="34">
+      <c r="C14" s="31"/>
+      <c r="D14" s="30">
         <f>C9/(B14*9.80655)</f>
         <v>2.0394532225910234</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="H14" s="5">
+        <f>1/(G13+H13)</f>
+        <v>2.6878107781212202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="G15" s="47">
+        <f>G13*H14</f>
+        <v>0.17637414326031445</v>
+      </c>
+      <c r="H15" s="47">
+        <f>H13*H14</f>
+        <v>0.82362585673968547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="H16" s="5">
+        <f>G15+H15</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
         <v>115</v>
       </c>
@@ -2631,17 +2689,75 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="39">
+    <row r="18" spans="1:5">
+      <c r="B18" s="40">
         <v>1000000000</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="30">
         <f>(B18/J2)</f>
         <v>3.3356409519815204</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="30">
         <f>B18/1000</f>
         <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="38">
+        <f>B24/9.8066</f>
+        <v>906348.21623351518</v>
+      </c>
+      <c r="C22" s="31">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="38">
+        <f>(2*E24)^0.5</f>
+        <v>8888194.4173155893</v>
+      </c>
+      <c r="C24" s="39">
+        <f>IFERROR(C22*1000/B24,0)</f>
+        <v>1.3501054811112287E-2</v>
+      </c>
+      <c r="E24" s="37">
+        <v>39500000000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="41">
+        <f>B24/299792458</f>
+        <v>2.9647825287571407E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2655,10 +2771,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV50"/>
+  <dimension ref="A1:IV54"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2761,7 +2877,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="13">
-        <f t="shared" ref="B12:B47" si="0">C12*1000</f>
+        <f t="shared" ref="B12:B51" si="0">C12*1000</f>
         <v>1.784E-3</v>
       </c>
       <c r="C12" s="14">
@@ -2794,428 +2910,476 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="B15" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="C15" s="14">
-        <v>1E-3</v>
+        <v>7.8899999999999999E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B16" s="13">
         <f t="shared" si="0"/>
-        <v>0.216</v>
+        <v>0.84175</v>
       </c>
       <c r="C16" s="14">
-        <v>2.1599999999999999E-4</v>
+        <v>8.4175000000000005E-4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B17" s="13">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="C17" s="14">
-        <v>2.5000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B18" s="13">
         <f t="shared" si="0"/>
-        <v>5.8</v>
+        <v>0.216</v>
       </c>
       <c r="C18" s="14">
-        <v>5.7999999999999996E-3</v>
+        <v>2.1599999999999999E-4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B19" s="13">
         <f t="shared" si="0"/>
-        <v>0.53399999999999992</v>
+        <v>2.5</v>
       </c>
       <c r="C19" s="14">
-        <v>5.3399999999999997E-4</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="5" t="s">
-        <v>49</v>
+      <c r="A20" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B20" s="13">
         <f t="shared" si="0"/>
-        <v>0.70209999999999995</v>
+        <v>5.8</v>
       </c>
       <c r="C20" s="14">
-        <v>7.0209999999999999E-4</v>
+        <v>5.7999999999999996E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="B21" s="13">
         <f t="shared" si="0"/>
-        <v>1.1732500000000001</v>
+        <v>0.82</v>
       </c>
       <c r="C21" s="14">
-        <v>1.17325E-3</v>
+        <v>8.1999999999999998E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B22" s="13">
         <f t="shared" si="0"/>
-        <v>0.16239999999999999</v>
+        <v>0.53399999999999992</v>
       </c>
       <c r="C22" s="14">
-        <v>1.6239999999999999E-4</v>
+        <v>5.3399999999999997E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>50</v>
+      <c r="A23" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B23" s="13">
         <f t="shared" si="0"/>
-        <v>5.8999999999999997E-2</v>
+        <v>0.70209999999999995</v>
       </c>
       <c r="C23" s="14">
-        <v>5.8999999999999998E-5</v>
+        <v>7.0209999999999999E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B24" s="13">
         <f t="shared" si="0"/>
-        <v>7.0849999999999996E-2</v>
+        <v>1.1732500000000001</v>
       </c>
       <c r="C24" s="14">
-        <v>7.0850000000000001E-5</v>
+        <v>1.17325E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B25" s="13">
         <f t="shared" si="0"/>
-        <v>0.42560999999999999</v>
+        <v>0.16239999999999999</v>
       </c>
       <c r="C25" s="14">
-        <v>4.2560999999999999E-4</v>
+        <v>1.6239999999999999E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B26" s="13">
         <f t="shared" si="0"/>
-        <v>1.141</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C26" s="14">
-        <v>1.1410000000000001E-3</v>
+        <v>5.8999999999999998E-5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B27" s="13">
         <f t="shared" si="0"/>
-        <v>7.8</v>
+        <v>7.0849999999999996E-2</v>
       </c>
       <c r="C27" s="14">
-        <v>7.7999999999999996E-3</v>
+        <v>7.0850000000000001E-5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B28" s="13">
         <f t="shared" si="0"/>
-        <v>7.085</v>
+        <v>0.42560999999999999</v>
       </c>
       <c r="C28" s="14">
-        <v>7.0850000000000002E-3</v>
+        <v>4.2560999999999999E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B29" s="13">
         <f t="shared" si="0"/>
-        <v>0.88</v>
+        <v>1.141</v>
       </c>
       <c r="C29" s="14">
-        <v>8.8000000000000003E-4</v>
+        <v>1.1410000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="B30" s="13">
         <f t="shared" si="0"/>
-        <v>1.45</v>
+        <v>0.82490700000000006</v>
       </c>
       <c r="C30" s="14">
-        <v>1.4499999999999999E-3</v>
+        <v>8.2490700000000005E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
-        <v>84</v>
+      <c r="A31" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B31" s="13">
         <f t="shared" si="0"/>
-        <v>1.05</v>
+        <v>7.8</v>
       </c>
       <c r="C31" s="14">
-        <v>1.0499999999999999E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>90</v>
+      <c r="A32" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B32" s="13">
         <f t="shared" si="0"/>
-        <v>0.79100000000000004</v>
+        <v>7.085</v>
       </c>
       <c r="C32" s="14">
-        <v>7.9100000000000004E-4</v>
+        <v>7.0850000000000002E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
-        <v>91</v>
+      <c r="A33" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B33" s="13">
         <f t="shared" si="0"/>
-        <v>0.82899999999999996</v>
+        <v>0.88</v>
       </c>
       <c r="C33" s="14">
-        <v>8.2899999999999998E-4</v>
+        <v>8.8000000000000003E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B34" s="13">
-        <f>C34*1000</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1.45</v>
       </c>
       <c r="C34" s="14">
-        <v>1E-3</v>
+        <v>1.4499999999999999E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" ht="18" thickBot="1">
-      <c r="A36" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36"/>
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" thickTop="1">
-      <c r="A37" s="2" t="s">
-        <v>53</v>
+      <c r="A35" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="C35" s="14">
+        <v>1.0499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="13">
+        <f t="shared" si="0"/>
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="C36" s="14">
+        <v>7.9100000000000004E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B37" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="C37" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>8.2899999999999998E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B38" s="13">
-        <f t="shared" si="0"/>
-        <v>54.4</v>
+        <f>C38*1000</f>
+        <v>1</v>
       </c>
       <c r="C38" s="14">
-        <v>5.4399999999999997E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="13">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" ht="18" thickBot="1">
+      <c r="A40" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" thickTop="1">
+      <c r="A41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C41" s="14">
         <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="13">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="C40" s="14">
-        <v>6.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="13">
-        <f t="shared" si="0"/>
-        <v>5.0108799999999993</v>
-      </c>
-      <c r="C41" s="14">
-        <v>5.0108799999999997E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>54.4</v>
       </c>
       <c r="C42" s="14">
-        <v>5.0000000000000001E-3</v>
+        <v>5.4399999999999997E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="13">
         <f t="shared" si="0"/>
-        <v>8.6</v>
+        <v>5</v>
       </c>
       <c r="C43" s="14">
-        <v>8.6E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B44" s="13">
         <f t="shared" si="0"/>
-        <v>5.7050000000000001</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="C44" s="14">
-        <v>5.705E-3</v>
+        <v>6.0000000000000002E-5</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45" s="13">
         <f t="shared" si="0"/>
-        <v>0.35399999999999998</v>
+        <v>5.0108799999999993</v>
       </c>
       <c r="C45" s="14">
-        <v>3.5399999999999999E-4</v>
+        <v>5.0108799999999997E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B46" s="13">
         <f t="shared" si="0"/>
-        <v>2.12805</v>
+        <v>5</v>
       </c>
       <c r="C46" s="14">
-        <v>2.1280499999999998E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B47" s="13">
         <f t="shared" si="0"/>
-        <v>4.1000000000000005</v>
+        <v>8.6</v>
       </c>
       <c r="C47" s="14">
-        <v>4.1000000000000003E-3</v>
+        <v>8.6E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B48" s="13">
-        <f>C48*1000</f>
-        <v>12.5</v>
+        <f t="shared" si="0"/>
+        <v>5.7050000000000001</v>
       </c>
       <c r="C48" s="14">
-        <v>1.2500000000000001E-2</v>
+        <v>5.705E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="13">
+        <f t="shared" si="0"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C49" s="14">
+        <v>3.5399999999999999E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="13">
+        <f t="shared" si="0"/>
+        <v>2.12805</v>
+      </c>
+      <c r="C50" s="14">
+        <v>2.1280499999999998E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="13">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="C51" s="14">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="13">
+        <f>C52*1000</f>
+        <v>12.5</v>
+      </c>
+      <c r="C52" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="13">
-        <f>C49*1000</f>
+      <c r="B53" s="13">
+        <f>C53*1000</f>
         <v>7.5</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C53" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="5" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="13">
-        <f>C50*1000</f>
+      <c r="B54" s="13">
+        <f>C54*1000</f>
         <v>5</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C54" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
-      <formula1>$A$11:$A$34</formula1>
+      <formula1>$A$11:$A$38</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
@@ -3249,15 +3413,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -9,28 +9,182 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="1"/>
+    <workbookView xWindow="17670" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Calculator" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Database" sheetId="3" r:id="rId3"/>
-    <sheet name="Samples" sheetId="1" r:id="rId4"/>
+    <sheet name="Engine Config Calc" sheetId="2" r:id="rId1"/>
+    <sheet name="Database" sheetId="3" r:id="rId2"/>
+    <sheet name="Samples" sheetId="1" r:id="rId3"/>
+    <sheet name="Energy calcs" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Sheet3"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Sheet2"</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Sheet3"</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="3">"Sheet1"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Sheet1"</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jadon Wade</author>
+  </authors>
+  <commentList>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Inlet gas temperature</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Molar gas constant</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Molar mass</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Isentropic heat expansion factor. Dry air usually 1.398; scalar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Exhaust pressure at nozzle exit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Inlet gas pressure</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="236">
   <si>
     <t>name</t>
   </si>
@@ -407,9 +561,6 @@
     <t>Extra</t>
   </si>
   <si>
-    <t>% c</t>
-  </si>
-  <si>
     <t>Reactor to engine</t>
   </si>
   <si>
@@ -435,13 +586,351 @@
   </si>
   <si>
     <t>#2</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Ve</t>
+  </si>
+  <si>
+    <t>(1-(Pe^Z)/P)</t>
+  </si>
+  <si>
+    <t>(2y/y-1)</t>
+  </si>
+  <si>
+    <t>(T*R)/M</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Pe</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Exhaust gas velocity</t>
+  </si>
+  <si>
+    <t>Alumina</t>
+  </si>
+  <si>
+    <t>Al2O3</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CarbonDioxide</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CarbonMonoxide</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Chlorine</t>
+  </si>
+  <si>
+    <t>Cl2</t>
+  </si>
+  <si>
+    <t>Depleted [Fuel/Uranium]</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Deuterium</t>
+  </si>
+  <si>
+    <t>D / 2H</t>
+  </si>
+  <si>
+    <t>Dirt</t>
+  </si>
+  <si>
+    <t>Sand (SiO2)</t>
+  </si>
+  <si>
+    <t>C2H6O</t>
+  </si>
+  <si>
+    <t>C2H6O[3] + H2O[1]</t>
+  </si>
+  <si>
+    <t>ExoticMinerals</t>
+  </si>
+  <si>
+    <t>Xenotime (YPO4)</t>
+  </si>
+  <si>
+    <t>Fluorine</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>D+He3</t>
+  </si>
+  <si>
+    <t>Glykerol</t>
+  </si>
+  <si>
+    <t>Glycerol (C3H8O3)</t>
+  </si>
+  <si>
+    <t>Gypsum</t>
+  </si>
+  <si>
+    <t>Gypsum (CaSO4+2H2O)</t>
+  </si>
+  <si>
+    <t>Helium-3</t>
+  </si>
+  <si>
+    <t>3He</t>
+  </si>
+  <si>
+    <t>Helium</t>
+  </si>
+  <si>
+    <t>He / 4He</t>
+  </si>
+  <si>
+    <t>HTP</t>
+  </si>
+  <si>
+    <t>H2O2</t>
+  </si>
+  <si>
+    <t>Hydrates</t>
+  </si>
+  <si>
+    <t>Ferrihydrite (Fe2O3+0.5(H2O))</t>
+  </si>
+  <si>
+    <t>Hydrazine</t>
+  </si>
+  <si>
+    <t>N2H4</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Dodecane (C12H26)</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>LqdCO</t>
+  </si>
+  <si>
+    <t>LqdHe</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>MetallicOre</t>
+  </si>
+  <si>
+    <t>Hematite (Fe2O3)</t>
+  </si>
+  <si>
+    <t>MetalOre</t>
+  </si>
+  <si>
+    <t>Iron (Fe)</t>
+  </si>
+  <si>
+    <t>Methane</t>
+  </si>
+  <si>
+    <t>Minerals</t>
+  </si>
+  <si>
+    <t>Quartz (SiO2)</t>
+  </si>
+  <si>
+    <r>
+      <t>CH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Sans"/>
+      </rPr>
+      <t>(NH)NH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Monazite</t>
+  </si>
+  <si>
+    <t>Lanthanum var (LaPO4)</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>N2O4</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <t>RareMetals</t>
+  </si>
+  <si>
+    <t>Platinum (Pt)</t>
+  </si>
+  <si>
+    <t>Silicates</t>
+  </si>
+  <si>
+    <t>Radical Metasilicate (SiO3)</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Spodumene</t>
+  </si>
+  <si>
+    <t>LiAl(SiO3)2</t>
+  </si>
+  <si>
+    <t>Uraninite</t>
+  </si>
+  <si>
+    <t>UO2</t>
+  </si>
+  <si>
+    <t>H2NN(CH3)2</t>
+  </si>
+  <si>
+    <t>Hydrazine + UDMH (25:75)</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>Chem Symbol</t>
+  </si>
+  <si>
+    <t>Moles</t>
+  </si>
+  <si>
+    <t>Molar mass</t>
+  </si>
+  <si>
+    <t>Isp (Ns)</t>
+  </si>
+  <si>
+    <t>LH2</t>
+  </si>
+  <si>
+    <t>RRNF Ratios</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Fresh Air</t>
+  </si>
+  <si>
+    <t>Thrust mult</t>
+  </si>
+  <si>
+    <t>Thrust mult exp</t>
+  </si>
+  <si>
+    <t>Ve (%c)</t>
+  </si>
+  <si>
+    <t>(Stale/Comp) Atm</t>
+  </si>
+  <si>
+    <t>Energy Calculators</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="19">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -449,8 +938,20 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="General\ &quot;J/mol-1 /K-1&quot;"/>
+    <numFmt numFmtId="171" formatCode="0\ &quot;K&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;g/mol&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00\ &quot;m/s&quot;"/>
+    <numFmt numFmtId="181" formatCode="0\ &quot;atm&quot;"/>
+    <numFmt numFmtId="182" formatCode="0.00\ &quot;Pa&quot;"/>
+    <numFmt numFmtId="186" formatCode="0.00\ &quot;Ns&quot;"/>
+    <numFmt numFmtId="187" formatCode="0.00\ &quot;g/mol&quot;"/>
+    <numFmt numFmtId="189" formatCode="0.000\ &quot;kg/mol&quot;"/>
+    <numFmt numFmtId="197" formatCode="0.0\ &quot;kN&quot;"/>
+    <numFmt numFmtId="199" formatCode="0\ &quot;Ns&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00&quot;x&quot;"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -579,6 +1080,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -699,7 +1248,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -711,8 +1260,9 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -755,6 +1305,7 @@
     <xf numFmtId="169" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,9 +1321,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="186" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="189" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="197" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="199" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="200" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="197" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="197" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="197" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Comma" xfId="10" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="6" builtinId="53"/>
@@ -783,6 +1369,7 @@
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Linked Cell" xfId="5" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="11"/>
     <cellStyle name="Output" xfId="8" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1131,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IQ67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1150,13 +1737,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickTop="1">
       <c r="A2" s="18" t="s">
@@ -1234,12 +1821,12 @@
         <v>37</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="42"/>
+      <c r="H8" s="43"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickTop="1">
       <c r="B9" s="6">
@@ -1332,13 +1919,13 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -1507,7 +2094,7 @@
         <f>E18*E19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="K20" s="45" t="s">
         <v>97</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -1540,7 +2127,7 @@
         <v>-</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="K21" s="44"/>
+      <c r="K21" s="45"/>
       <c r="L21" s="2" t="s">
         <v>102</v>
       </c>
@@ -1559,7 +2146,7 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="K22" s="44"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="2" t="s">
         <v>103</v>
       </c>
@@ -1598,7 +2185,7 @@
       <c r="I23" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="44"/>
+      <c r="K23" s="45"/>
       <c r="L23" s="2" t="s">
         <v>104</v>
       </c>
@@ -1617,7 +2204,7 @@
         <v>68</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>67</v>
@@ -1638,7 +2225,7 @@
         <f>I17</f>
         <v>9</v>
       </c>
-      <c r="K24" s="44" t="s">
+      <c r="K24" s="45" t="s">
         <v>98</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -1673,7 +2260,7 @@
       <c r="E25" s="12">
         <v>0</v>
       </c>
-      <c r="K25" s="44"/>
+      <c r="K25" s="45"/>
       <c r="L25" s="2" t="s">
         <v>106</v>
       </c>
@@ -1882,13 +2469,13 @@
       <c r="E35" s="6"/>
     </row>
     <row r="38" spans="1:9" ht="18" thickBot="1">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -2157,13 +2744,13 @@
       <c r="E51" s="6"/>
     </row>
     <row r="54" spans="1:9" ht="18" thickBot="1">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
@@ -2472,309 +3059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:IV78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="5" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="5"/>
-    <col min="10" max="10" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2"/>
-      <c r="B2" s="32">
-        <v>825</v>
-      </c>
-      <c r="C2" s="36">
-        <v>60</v>
-      </c>
-      <c r="J2" s="35">
-        <v>299792458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3"/>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2"/>
-      <c r="B4" s="29">
-        <f>B2*9.8066</f>
-        <v>8090.4449999999997</v>
-      </c>
-      <c r="C4" s="29">
-        <f>IFERROR(C2*1000/B4,0)</f>
-        <v>7.4161557244379024</v>
-      </c>
-      <c r="D4" s="29">
-        <f>C2*1000*B4/2</f>
-        <v>242713350</v>
-      </c>
-      <c r="E4" s="29">
-        <f>IFERROR(D4/C4,0)</f>
-        <v>32727650.149012499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="J6" s="5">
-        <v>450000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="J7" s="5">
-        <f>1000*3000*600</f>
-        <v>1800000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="33">
-        <v>825</v>
-      </c>
-      <c r="C9" s="34">
-        <f>(C11*B11)/1000</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="29">
-        <f>B9*9.8066</f>
-        <v>8090.4449999999997</v>
-      </c>
-      <c r="C11" s="29">
-        <f>D11/E11</f>
-        <v>7.4161557244379024</v>
-      </c>
-      <c r="D11" s="33">
-        <v>242713350</v>
-      </c>
-      <c r="E11" s="29">
-        <f>IFERROR((B11^2)/2,0)</f>
-        <v>32727650.149012499</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="45"/>
-      <c r="G12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="31">
-        <v>6.5619999999999998E-2</v>
-      </c>
-      <c r="H13" s="31">
-        <v>0.30642999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="31">
-        <v>3</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="30">
-        <f>C9/(B14*9.80655)</f>
-        <v>2.0394532225910234</v>
-      </c>
-      <c r="H14" s="5">
-        <f>1/(G13+H13)</f>
-        <v>2.6878107781212202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="G15" s="47">
-        <f>G13*H14</f>
-        <v>0.17637414326031445</v>
-      </c>
-      <c r="H15" s="47">
-        <f>H13*H14</f>
-        <v>0.82362585673968547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="H16" s="5">
-        <f>G15+H15</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="B18" s="40">
-        <v>1000000000</v>
-      </c>
-      <c r="C18" s="30">
-        <f>(B18/J2)</f>
-        <v>3.3356409519815204</v>
-      </c>
-      <c r="D18" s="30">
-        <f>B18/1000</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="38">
-        <f>B24/9.8066</f>
-        <v>906348.21623351518</v>
-      </c>
-      <c r="C22" s="31">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="B24" s="38">
-        <f>(2*E24)^0.5</f>
-        <v>8888194.4173155893</v>
-      </c>
-      <c r="C24" s="39">
-        <f>IFERROR(C22*1000/B24,0)</f>
-        <v>1.3501054811112287E-2</v>
-      </c>
-      <c r="E24" s="37">
-        <v>39500000000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" s="41">
-        <f>B24/299792458</f>
-        <v>2.9647825287571407E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B12:C12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV54"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2783,84 +3071,207 @@
     <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="12.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="256" width="9.140625" style="2"/>
+    <col min="7" max="7" width="23.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="15.5703125" style="2" customWidth="1"/>
+    <col min="11" max="256" width="9.140625" style="2"/>
     <col min="257" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" thickBot="1">
+    <row r="1" spans="1:10" ht="20.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickTop="1">
+      <c r="G1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickTop="1">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="G2" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="49">
+        <v>1</v>
+      </c>
+      <c r="J2" s="50">
+        <v>101.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="G3" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="49">
+        <v>1</v>
+      </c>
+      <c r="J3" s="50">
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="G4" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" s="49">
+        <v>1</v>
+      </c>
+      <c r="J4" s="50">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="G5" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="49">
+        <v>1</v>
+      </c>
+      <c r="J5" s="50">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="G6" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="49">
+        <v>1</v>
+      </c>
+      <c r="J6" s="50">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="G7" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="49">
+        <v>1</v>
+      </c>
+      <c r="J7" s="50">
+        <v>44.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="G8" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="49">
+        <v>1</v>
+      </c>
+      <c r="J8" s="50">
+        <v>28.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9"/>
-    </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1">
+      <c r="G9" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="49">
+        <v>1</v>
+      </c>
+      <c r="J9" s="50">
+        <v>35.450000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" thickBot="1">
       <c r="A10" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" thickTop="1">
+      <c r="G10" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" s="49">
+        <v>1</v>
+      </c>
+      <c r="J10" s="50">
+        <v>238.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickTop="1">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -2871,8 +3282,20 @@
       <c r="C11" s="14">
         <v>1.0000000000000001E-9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="G11" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" s="49">
+        <v>1</v>
+      </c>
+      <c r="J11" s="50">
+        <v>2.0139999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>45</v>
       </c>
@@ -2883,8 +3306,20 @@
       <c r="C12" s="14">
         <v>1.784E-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="G12" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="49">
+        <v>1</v>
+      </c>
+      <c r="J12" s="50">
+        <v>60.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>88</v>
       </c>
@@ -2895,8 +3330,20 @@
       <c r="C13" s="14">
         <v>8.9999999999999998E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="G13" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="49">
+        <v>1</v>
+      </c>
+      <c r="J13" s="50">
+        <v>238.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -2907,10 +3354,22 @@
       <c r="C14" s="14">
         <v>1.0970000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="G14" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" s="49">
+        <v>1</v>
+      </c>
+      <c r="J14" s="50">
+        <v>46.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="13">
         <f t="shared" si="0"/>
@@ -2919,10 +3378,22 @@
       <c r="C15" s="14">
         <v>7.8899999999999999E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="G15" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" s="49">
+        <v>1</v>
+      </c>
+      <c r="J15" s="50">
+        <v>61.206800000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="13">
         <f t="shared" si="0"/>
@@ -2931,8 +3402,20 @@
       <c r="C16" s="14">
         <v>8.4175000000000005E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="G16" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" s="49">
+        <v>1</v>
+      </c>
+      <c r="J16" s="50">
+        <v>183.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>85</v>
       </c>
@@ -2943,8 +3426,20 @@
       <c r="C17" s="14">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="G17" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" s="49">
+        <v>1</v>
+      </c>
+      <c r="J17" s="50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
         <v>80</v>
       </c>
@@ -2955,8 +3450,21 @@
       <c r="C18" s="14">
         <v>2.1599999999999999E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="G18" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" s="49">
+        <v>1</v>
+      </c>
+      <c r="J18" s="50">
+        <f>5.03</f>
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -2967,8 +3475,20 @@
       <c r="C19" s="14">
         <v>2.5000000000000001E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="G19" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" s="49">
+        <v>1</v>
+      </c>
+      <c r="J19" s="50">
+        <v>92.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2979,10 +3499,22 @@
       <c r="C20" s="14">
         <v>5.7999999999999996E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="G20" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" s="49">
+        <v>1</v>
+      </c>
+      <c r="J20" s="50">
+        <v>172.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="13">
         <f t="shared" si="0"/>
@@ -2991,8 +3523,20 @@
       <c r="C21" s="14">
         <v>8.1999999999999998E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="G21" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="49">
+        <v>1</v>
+      </c>
+      <c r="J21" s="50">
+        <v>3.016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -3003,8 +3547,20 @@
       <c r="C22" s="14">
         <v>5.3399999999999997E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="G22" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22" s="49">
+        <v>1</v>
+      </c>
+      <c r="J22" s="50">
+        <v>4.0019999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
@@ -3015,8 +3571,20 @@
       <c r="C23" s="14">
         <v>7.0209999999999999E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="G23" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" s="49">
+        <v>1</v>
+      </c>
+      <c r="J23" s="50">
+        <v>34.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -3027,8 +3595,20 @@
       <c r="C24" s="14">
         <v>1.17325E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="G24" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" s="49">
+        <v>1</v>
+      </c>
+      <c r="J24" s="50">
+        <v>168.69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -3039,8 +3619,21 @@
       <c r="C25" s="14">
         <v>1.6239999999999999E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="G25" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="I25" s="49">
+        <v>1</v>
+      </c>
+      <c r="J25" s="50">
+        <f>(14.007*2)+(1.008*4)</f>
+        <v>32.045999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -3051,8 +3644,20 @@
       <c r="C26" s="14">
         <v>5.8999999999999998E-5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="G26" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="I26" s="49">
+        <v>1</v>
+      </c>
+      <c r="J26" s="50">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3668,20 @@
       <c r="C27" s="14">
         <v>7.0850000000000001E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="G27" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27" s="49">
+        <v>1</v>
+      </c>
+      <c r="J27" s="50">
+        <v>170.34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -3075,8 +3692,20 @@
       <c r="C28" s="14">
         <v>4.2560999999999999E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="G28" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="I28" s="49">
+        <v>1</v>
+      </c>
+      <c r="J28" s="50">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -3087,10 +3716,22 @@
       <c r="C29" s="14">
         <v>1.1410000000000001E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="G29" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="I29" s="49">
+        <v>1</v>
+      </c>
+      <c r="J29" s="50">
+        <v>17.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="13">
         <f t="shared" si="0"/>
@@ -3099,8 +3740,20 @@
       <c r="C30" s="14">
         <v>8.2490700000000005E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="G30" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30" s="49">
+        <v>1</v>
+      </c>
+      <c r="J30" s="50">
+        <v>28.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>46</v>
       </c>
@@ -3111,8 +3764,20 @@
       <c r="C31" s="14">
         <v>7.7999999999999996E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="G31" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" s="49">
+        <v>1</v>
+      </c>
+      <c r="J31" s="50">
+        <v>44.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
         <v>83</v>
       </c>
@@ -3123,8 +3788,20 @@
       <c r="C32" s="14">
         <v>7.0850000000000002E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="G32" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="49">
+        <v>1</v>
+      </c>
+      <c r="J32" s="50">
+        <v>2.0139999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
         <v>86</v>
       </c>
@@ -3135,8 +3812,20 @@
       <c r="C33" s="14">
         <v>8.8000000000000003E-4</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="G33" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="I33" s="49">
+        <v>1</v>
+      </c>
+      <c r="J33" s="50">
+        <v>3.016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
         <v>87</v>
       </c>
@@ -3147,8 +3836,20 @@
       <c r="C34" s="14">
         <v>1.4499999999999999E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="G34" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="I34" s="49">
+        <v>1</v>
+      </c>
+      <c r="J34" s="50">
+        <v>4.0019999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="5" t="s">
         <v>84</v>
       </c>
@@ -3159,8 +3860,20 @@
       <c r="C35" s="14">
         <v>1.0499999999999999E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="G35" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="I35" s="49">
+        <v>1</v>
+      </c>
+      <c r="J35" s="50">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="5" t="s">
         <v>90</v>
       </c>
@@ -3171,8 +3884,20 @@
       <c r="C36" s="14">
         <v>7.9100000000000004E-4</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="G36" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" s="49">
+        <v>1</v>
+      </c>
+      <c r="J36" s="50">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="5" t="s">
         <v>91</v>
       </c>
@@ -3183,8 +3908,20 @@
       <c r="C37" s="14">
         <v>8.2899999999999998E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="G37" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="51">
+        <v>1</v>
+      </c>
+      <c r="J37" s="50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
@@ -3195,20 +3932,57 @@
       <c r="C38" s="14">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="G38" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="I38" s="49">
+        <v>1</v>
+      </c>
+      <c r="J38" s="50">
+        <v>28.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" ht="18" thickBot="1">
+      <c r="G39" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="I39" s="49">
+        <v>1</v>
+      </c>
+      <c r="J39" s="50">
+        <f>J35</f>
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="18" thickBot="1">
       <c r="A40" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B40"/>
       <c r="C40" s="15"/>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" thickTop="1">
+      <c r="G40" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="I40" s="49">
+        <v>1</v>
+      </c>
+      <c r="J40" s="50">
+        <v>159.69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" thickTop="1">
       <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
@@ -3219,8 +3993,21 @@
       <c r="C41" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="G41" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="H41" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="I41" s="49">
+        <v>1</v>
+      </c>
+      <c r="J41" s="50">
+        <f>55.845*2</f>
+        <v>111.69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
         <v>60</v>
       </c>
@@ -3231,8 +4018,21 @@
       <c r="C42" s="14">
         <v>5.4399999999999997E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="G42" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="I42" s="49">
+        <v>1</v>
+      </c>
+      <c r="J42" s="50">
+        <f>55.845*2</f>
+        <v>111.69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
@@ -3243,8 +4043,21 @@
       <c r="C43" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="G43" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="H43" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="I43" s="49">
+        <v>1</v>
+      </c>
+      <c r="J43" s="50">
+        <f>12.02+4*1.008</f>
+        <v>16.052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
@@ -3255,8 +4068,21 @@
       <c r="C44" s="14">
         <v>6.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="G44" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="H44" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" s="49">
+        <v>1</v>
+      </c>
+      <c r="J44" s="50">
+        <f>(28.086*2)+(16*2)</f>
+        <v>88.171999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="18.75">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
@@ -3267,8 +4093,20 @@
       <c r="C45" s="14">
         <v>5.0108799999999997E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="G45" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="I45" s="49">
+        <v>1</v>
+      </c>
+      <c r="J45" s="50">
+        <v>46.07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
         <v>61</v>
       </c>
@@ -3279,8 +4117,20 @@
       <c r="C46" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="G46" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="I46" s="49">
+        <v>1</v>
+      </c>
+      <c r="J46" s="50">
+        <v>233.88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -3291,8 +4141,21 @@
       <c r="C47" s="14">
         <v>8.6E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="G47" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="H47" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="I47" s="49">
+        <v>1</v>
+      </c>
+      <c r="J47" s="50">
+        <f>14.007*2</f>
+        <v>28.013999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
         <v>59</v>
       </c>
@@ -3303,8 +4166,20 @@
       <c r="C48" s="14">
         <v>5.705E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="G48" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="I48" s="49">
+        <v>1</v>
+      </c>
+      <c r="J48" s="50">
+        <v>92.04</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
         <v>56</v>
       </c>
@@ -3315,8 +4190,20 @@
       <c r="C49" s="14">
         <v>3.5399999999999999E-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="G49" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="H49" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="49">
+        <v>1</v>
+      </c>
+      <c r="J49" s="50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
@@ -3327,8 +4214,20 @@
       <c r="C50" s="14">
         <v>2.1280499999999998E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="G50" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="H50" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="I50" s="49">
+        <v>1</v>
+      </c>
+      <c r="J50" s="50">
+        <v>30.97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
         <v>62</v>
       </c>
@@ -3339,8 +4238,21 @@
       <c r="C51" s="14">
         <v>4.1000000000000003E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="G51" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="I51" s="49">
+        <v>1</v>
+      </c>
+      <c r="J51" s="50">
+        <f>195.078</f>
+        <v>195.078</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
         <v>78</v>
       </c>
@@ -3351,8 +4263,20 @@
       <c r="C52" s="14">
         <v>1.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="G52" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="H52" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="I52" s="49">
+        <v>1</v>
+      </c>
+      <c r="J52" s="50">
+        <v>76.08</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
         <v>72</v>
       </c>
@@ -3363,8 +4287,20 @@
       <c r="C53" s="14">
         <v>7.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="G53" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="H53" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="I53" s="49">
+        <v>1</v>
+      </c>
+      <c r="J53" s="50">
+        <v>28.09</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="5" t="s">
         <v>82</v>
       </c>
@@ -3375,6 +4311,81 @@
       <c r="C54" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="G54" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="H54" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="I54" s="49">
+        <v>1</v>
+      </c>
+      <c r="J54" s="50">
+        <v>186.09</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="G55" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="H55" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="I55" s="49">
+        <v>1</v>
+      </c>
+      <c r="J55" s="50">
+        <v>270.02999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="G56" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="I56" s="49">
+        <v>1</v>
+      </c>
+      <c r="J56" s="50">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="G57" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="I57" s="49">
+        <v>1</v>
+      </c>
+      <c r="J57" s="50">
+        <f>SUM(($D$38*0.25)+($D$82*0.75))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="G58" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="H58" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="I58" s="49">
+        <v>1</v>
+      </c>
+      <c r="J58" s="50">
+        <v>18.02</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10">
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="50"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
@@ -3391,7 +4402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV16"/>
   <sheetViews>
@@ -3413,15 +4424,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -3838,4 +4849,768 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="22" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="5" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.25" thickBot="1">
+      <c r="A1" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" thickTop="1" thickBot="1">
+      <c r="A2" s="74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" thickTop="1">
+      <c r="B3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4"/>
+      <c r="B4" s="32">
+        <v>825</v>
+      </c>
+      <c r="C4" s="36">
+        <v>60</v>
+      </c>
+      <c r="J4" s="35">
+        <v>299792458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5"/>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2"/>
+      <c r="B6" s="29">
+        <f>B4*9.8066</f>
+        <v>8090.4449999999997</v>
+      </c>
+      <c r="C6" s="29">
+        <f>IFERROR(C4*1000/B6,0)</f>
+        <v>7.4161557244379024</v>
+      </c>
+      <c r="D6" s="29">
+        <f>C4*1000*B6/2</f>
+        <v>242713350</v>
+      </c>
+      <c r="E6" s="29">
+        <f>IFERROR(D6/C6,0)</f>
+        <v>32727650.149012499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="J7" s="5">
+        <v>450000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="J8" s="5">
+        <f>1000*3000*600</f>
+        <v>1800000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" thickBot="1">
+      <c r="A9" s="74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickTop="1">
+      <c r="B10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="33">
+        <v>825</v>
+      </c>
+      <c r="C11" s="34">
+        <f>(C13*B13)/1000</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="29">
+        <f>B11*9.8066</f>
+        <v>8090.4449999999997</v>
+      </c>
+      <c r="C13" s="29">
+        <f>D13/E13</f>
+        <v>7.4161557244379024</v>
+      </c>
+      <c r="D13" s="33">
+        <v>242713350</v>
+      </c>
+      <c r="E13" s="29">
+        <f>IFERROR((B13^2)/2,0)</f>
+        <v>32727650.149012499</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="G14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="31">
+        <v>6.5619999999999998E-2</v>
+      </c>
+      <c r="H15" s="31">
+        <v>0.30642999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="31">
+        <v>3</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="30">
+        <f>C11/(B16*9.80655)</f>
+        <v>2.0394532225910234</v>
+      </c>
+      <c r="H16" s="5">
+        <f>1/(G15+H15)</f>
+        <v>2.6878107781212202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="G17" s="42">
+        <f>G15*H16</f>
+        <v>0.17637414326031445</v>
+      </c>
+      <c r="H17" s="42">
+        <f>H15*H16</f>
+        <v>0.82362585673968547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="H18" s="5">
+        <f>G17+H17</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18" thickBot="1">
+      <c r="A19" s="74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickTop="1">
+      <c r="B20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="40">
+        <v>1000000000</v>
+      </c>
+      <c r="C21" s="30">
+        <f>(B21/J4)</f>
+        <v>3.3356409519815204</v>
+      </c>
+      <c r="D21" s="30">
+        <f>B21/1000</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" thickBot="1">
+      <c r="A24" s="74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickTop="1">
+      <c r="B25" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="38">
+        <f>B28/9.8066</f>
+        <v>906348.21623351518</v>
+      </c>
+      <c r="C26" s="31">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="38">
+        <f>(2*E28)^0.5</f>
+        <v>8888194.4173155893</v>
+      </c>
+      <c r="C28" s="39">
+        <f>IFERROR(C26*1000/B28,0)</f>
+        <v>1.3501054811112287E-2</v>
+      </c>
+      <c r="D28" s="38">
+        <f>C26*B28</f>
+        <v>1066583330.0778707</v>
+      </c>
+      <c r="E28" s="37">
+        <v>39500000000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="41">
+        <f>B28/299792458</f>
+        <v>2.9647825287571407E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18" thickBot="1">
+      <c r="A33" s="74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickTop="1"/>
+    <row r="35" spans="1:9">
+      <c r="B35" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="52">
+        <v>2130</v>
+      </c>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="53">
+        <v>8.3144621000000001</v>
+      </c>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B37" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="60">
+        <f>IFERROR(VLOOKUP(C37,Database!$G$2:$J$58,4,FALSE),"-")</f>
+        <v>2.02</v>
+      </c>
+      <c r="E37" s="61">
+        <f>D37/1000</f>
+        <v>2.0200000000000001E-3</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B38" s="58"/>
+      <c r="C38" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="60">
+        <f>IFERROR(VLOOKUP(C38,Database!$G$2:$J$58,4,FALSE),"-")</f>
+        <v>18.02</v>
+      </c>
+      <c r="E38" s="61">
+        <f>D38/1000</f>
+        <v>1.8020000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B39" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="18">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="D39" s="23">
+        <f>(C39-1)/C39</f>
+        <v>0.284692417739628</v>
+      </c>
+      <c r="E39" s="48"/>
+    </row>
+    <row r="40" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B40" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="54">
+        <v>1E-3</v>
+      </c>
+      <c r="D40" s="55">
+        <f>C40*101320</f>
+        <v>101.32000000000001</v>
+      </c>
+      <c r="E40" s="48"/>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B41" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="54">
+        <v>75</v>
+      </c>
+      <c r="D41" s="55">
+        <f>C41*101320</f>
+        <v>7599000</v>
+      </c>
+      <c r="E41" s="48"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" thickTop="1">
+      <c r="B42" s="58"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="B43" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="56">
+        <f>(C35*C36)/E37</f>
+        <v>8767229.8381188121</v>
+      </c>
+      <c r="D43" s="48"/>
+      <c r="E43" s="56">
+        <f>(C35*C36)/E38</f>
+        <v>982786.03068812436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="B44" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="56">
+        <f>(2*C39)/(C39-1)</f>
+        <v>7.0251256281407048</v>
+      </c>
+      <c r="D44" s="48"/>
+      <c r="E44"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="B45" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="56">
+        <f>1-(D40^D39)/D41</f>
+        <v>0.99999950993942432</v>
+      </c>
+      <c r="D45" s="48"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46" s="58"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="57">
+        <f>(C43*C44*C45)^0.5</f>
+        <v>7847.9845081588201</v>
+      </c>
+      <c r="D47" s="48"/>
+      <c r="E47" s="57">
+        <f>(E43*C44*C45)^0.5</f>
+        <v>2627.5829097655283</v>
+      </c>
+      <c r="G47" s="63"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="B48" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="59">
+        <f>C47/9.80655</f>
+        <v>800.27986480044672</v>
+      </c>
+      <c r="D48" s="48"/>
+      <c r="E48" s="59">
+        <f>E47/9.80655</f>
+        <v>267.94162164732023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="E51" s="62"/>
+    </row>
+    <row r="52" spans="1:6" ht="18" thickBot="1">
+      <c r="A52" s="74" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" thickTop="1"/>
+    <row r="54" spans="1:6">
+      <c r="C54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="D55" s="69">
+        <v>60</v>
+      </c>
+      <c r="E55" s="70">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="E57" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" thickBot="1">
+      <c r="B58" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" s="67">
+        <v>800</v>
+      </c>
+      <c r="D58" s="73">
+        <f>D55</f>
+        <v>60</v>
+      </c>
+      <c r="E58" s="71">
+        <f>($C$58/C58)^$E$55</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" thickTop="1">
+      <c r="B59" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" s="67">
+        <v>606</v>
+      </c>
+      <c r="D59" s="72">
+        <f>$D$55*(($C$58/C59)^$E$55)</f>
+        <v>73.894867118770051</v>
+      </c>
+      <c r="E59" s="71">
+        <f>($C$58/C59)^$E$55</f>
+        <v>1.2315811186461676</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="B60" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="67">
+        <v>400</v>
+      </c>
+      <c r="D60" s="72">
+        <f>$D$55*(($C$58/C60)^$E$55)</f>
+        <v>100.90756983044574</v>
+      </c>
+      <c r="E60" s="71">
+        <f>($C$58/C60)^$E$55</f>
+        <v>1.681792830507429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="B61" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="67">
+        <v>253</v>
+      </c>
+      <c r="D61" s="72">
+        <f>$D$55*(($C$58/C61)^$E$55)</f>
+        <v>142.27491989040757</v>
+      </c>
+      <c r="E61" s="71">
+        <f>($C$58/C61)^$E$55</f>
+        <v>2.3712486648401261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" s="67">
+        <v>370</v>
+      </c>
+      <c r="D62" s="72">
+        <f>$D$55*(($C$58/C62)^$E$55)</f>
+        <v>106.98365906113423</v>
+      </c>
+      <c r="E62" s="71">
+        <f>($C$58/C62)^$E$55</f>
+        <v>1.7830609843522371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="B63" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="67">
+        <v>283</v>
+      </c>
+      <c r="D63" s="72">
+        <f>$D$55*(($C$58/C63)^$E$55)</f>
+        <v>130.80637609525397</v>
+      </c>
+      <c r="E63" s="71">
+        <f>($C$58/C63)^$E$55</f>
+        <v>2.1801062682542329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="67">
+        <v>253</v>
+      </c>
+      <c r="D64" s="72">
+        <f>$D$55*(($C$58/C64)^$E$55)</f>
+        <v>142.27491989040757</v>
+      </c>
+      <c r="E64" s="71">
+        <f>($C$58/C64)^$E$55</f>
+        <v>2.3712486648401261</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="C65" s="67"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="68"/>
+    </row>
+    <row r="66" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B66" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="67">
+        <v>800</v>
+      </c>
+      <c r="D66" s="73">
+        <f>D55</f>
+        <v>60</v>
+      </c>
+      <c r="E66" s="71">
+        <f>($C$58/C66)^$E$55</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="16.5" thickTop="1">
+      <c r="B67" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="67">
+        <v>606</v>
+      </c>
+      <c r="D67" s="72">
+        <f>$D$55*(($C$66/C67)^$E$55)</f>
+        <v>73.894867118770051</v>
+      </c>
+      <c r="E67" s="71">
+        <f>($C$66/C67)^$E$55</f>
+        <v>1.2315811186461676</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" s="67">
+        <v>253</v>
+      </c>
+      <c r="D68" s="72">
+        <f>$D$55*(($C$66/C68)^$E$55)</f>
+        <v>142.27491989040757</v>
+      </c>
+      <c r="E68" s="71">
+        <f>($C$66/C68)^$E$55</f>
+        <v>2.3712486648401261</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="C69" s="67">
+        <v>370</v>
+      </c>
+      <c r="D69" s="72">
+        <f>$D$55*(($C$66/C69)^$E$55)</f>
+        <v>106.98365906113423</v>
+      </c>
+      <c r="E69" s="71">
+        <f>($C$66/C69)^$E$55</f>
+        <v>1.7830609843522371</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="C70" s="67">
+        <v>283</v>
+      </c>
+      <c r="D70" s="72">
+        <f>$D$55*(($C$66/C70)^$E$55)</f>
+        <v>130.80637609525397</v>
+      </c>
+      <c r="E70" s="71">
+        <f>($C$66/C70)^$E$55</f>
+        <v>2.1801062682542329</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="67">
+        <v>253</v>
+      </c>
+      <c r="D71" s="72">
+        <f>$D$55*(($C$66/C71)^$E$55)</f>
+        <v>142.27491989040757</v>
+      </c>
+      <c r="E71" s="71">
+        <f>($C$66/C71)^$E$55</f>
+        <v>2.3712486648401261</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database!$G$2:$G$58</xm:f>
+          </x14:formula1>
+          <xm:sqref>C37:C38</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="3"/>
+    <workbookView xWindow="17670" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Engine Config Calc" sheetId="2" r:id="rId1"/>
@@ -35,6 +35,429 @@
     <author>Jadon Wade</author>
   </authors>
   <commentList>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+[Specific impulse]
+The conventional format for rocket fuel efficiency. "Newton-seconds"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+[Exhaust velocity]
+The speed of the reaction products leaving the engine. This is more important than Ns Isp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Total propellant mass flow into combustion chamber</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Net mass-energy released through the engine. Treat it as thermal mass/energy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+[Specific energy]
+Energy density per unit mass of fuel reacting</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Reference multipliers for Isp to buffer against annoying and near-unplayable dV with some part mods</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If Isp goes up, mass flow must go down. The opposite is true.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If EC value is not where I want it to be, express its offset as a fraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Derived from offset fraction. Put this into input field to cancel the offset</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The in-game value that I want to get</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jadon Wade</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Get important stats from thrust and Isp of an arbitrary propellant</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Light speed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Earth standard acceleration (by gravity)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Get missing values/specs from Thruster power and Isp on the many engine type entries on Project Rho/ Atomic Rockets website</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Get effective thrust and EC demand from a sample lightcraft driver laser wattage</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If a given fusion or oxidating reactor was built open-ended for use with a thermal nozzle, get engine-related stats from the reaction's energy density and a desired thrust</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Exhaust velocity of a given chemical passed through a nuclear thermal chamber with a given chember temperature, chamber pressure and ideal ambient pressure.
+Does not account for other properties of the chemical such as Specific Heat [Hsp] so may not be reliable for NTR configs for just any chemical.
+Adapted from formula on fxsolver.com</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B35" authorId="0" shapeId="0">
       <text>
         <r>
@@ -151,7 +574,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Exhaust pressure at nozzle exit</t>
+Exhaust pressure at nozzle exit. What the ideal atmospheric pressure around the engine should be</t>
         </r>
       </text>
     </comment>
@@ -175,7 +598,79 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Inlet gas pressure</t>
+Inlet gas pressure (or reaction chamber pressure)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A54" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Reference table of choice propellants and Isp based on a NASA PDF. Unfortunately, these don't line up with the Exhaust gas velocity calculator above, therefore, the disclaimer in the comment there</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E56" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Exchange of thrust for Isp isn't always linear so dampen the climb rate of the thrust multipliers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+For Classic Stock Resources; Angelo Kerman's mods.</t>
         </r>
       </text>
     </comment>
@@ -184,7 +679,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="235">
   <si>
     <t>name</t>
   </si>
@@ -255,12 +750,6 @@
     <t>Isp</t>
   </si>
   <si>
-    <t>Engine</t>
-  </si>
-  <si>
-    <t>Thrust (Vac)</t>
-  </si>
-  <si>
     <t>Flow (kg/s)</t>
   </si>
   <si>
@@ -510,9 +999,6 @@
     <t>EC req</t>
   </si>
   <si>
-    <t>Real Fuels</t>
-  </si>
-  <si>
     <t>Classic Stock</t>
   </si>
   <si>
@@ -534,18 +1020,12 @@
     <t>Lightcraft</t>
   </si>
   <si>
-    <t>Thrust (N)</t>
-  </si>
-  <si>
     <t>ElectricCharge (kW or kWh)</t>
   </si>
   <si>
     <t>Thrust (Vac, kN)</t>
   </si>
   <si>
-    <t>TWR</t>
-  </si>
-  <si>
     <t>Weight (t)</t>
   </si>
   <si>
@@ -555,9 +1035,6 @@
     <t>Advanced</t>
   </si>
   <si>
-    <t>Isp (s)</t>
-  </si>
-  <si>
     <t>Extra</t>
   </si>
   <si>
@@ -579,30 +1056,15 @@
     <t>LqdNitrogen</t>
   </si>
   <si>
-    <t>Fuel Ratio</t>
-  </si>
-  <si>
-    <t>#1</t>
-  </si>
-  <si>
-    <t>#2</t>
-  </si>
-  <si>
     <t>Hydrogen</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>Ve</t>
-  </si>
-  <si>
     <t>(1-(Pe^Z)/P)</t>
   </si>
   <si>
-    <t>(2y/y-1)</t>
-  </si>
-  <si>
     <t>(T*R)/M</t>
   </si>
   <si>
@@ -610,9 +1072,6 @@
   </si>
   <si>
     <t>Pe</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>M</t>
@@ -925,12 +1384,45 @@
   <si>
     <t>Energy Calculators</t>
   </si>
+  <si>
+    <t>γ</t>
+  </si>
+  <si>
+    <t>(2γ/γ-1)</t>
+  </si>
+  <si>
+    <t>ɡ0</t>
+  </si>
+  <si>
+    <t>Thrust (kN)</t>
+  </si>
+  <si>
+    <t>Engine Spec</t>
+  </si>
+  <si>
+    <t>More Propellants</t>
+  </si>
+  <si>
+    <t>OPT stuff…</t>
+  </si>
+  <si>
+    <t>γ-1/γ</t>
+  </si>
+  <si>
+    <t>CRP</t>
+  </si>
+  <si>
+    <t>Engine count</t>
+  </si>
+  <si>
+    <t>TWR per engine</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="19">
+  <numFmts count="17">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -941,17 +1433,15 @@
     <numFmt numFmtId="170" formatCode="General\ &quot;J/mol-1 /K-1&quot;"/>
     <numFmt numFmtId="171" formatCode="0\ &quot;K&quot;"/>
     <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;g/mol&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.00\ &quot;m/s&quot;"/>
-    <numFmt numFmtId="181" formatCode="0\ &quot;atm&quot;"/>
-    <numFmt numFmtId="182" formatCode="0.00\ &quot;Pa&quot;"/>
-    <numFmt numFmtId="186" formatCode="0.00\ &quot;Ns&quot;"/>
-    <numFmt numFmtId="187" formatCode="0.00\ &quot;g/mol&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.000\ &quot;kg/mol&quot;"/>
-    <numFmt numFmtId="197" formatCode="0.0\ &quot;kN&quot;"/>
-    <numFmt numFmtId="199" formatCode="0\ &quot;Ns&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="174" formatCode="0\ &quot;atm&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00\ &quot;g/mol&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.000\ &quot;kg/mol&quot;"/>
+    <numFmt numFmtId="181" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="191" formatCode="0.00000\ &quot;m/s^2&quot;"/>
+    <numFmt numFmtId="194" formatCode="#,###\ &quot;m/s&quot;"/>
+    <numFmt numFmtId="202" formatCode="#,##0.00\ &quot;Pa&quot;"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1128,6 +1618,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Sans"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1248,7 +1744,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1261,6 +1757,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1272,7 +1769,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyAlignment="1"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1290,7 +1786,6 @@
     <xf numFmtId="166" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="9"/>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4"/>
@@ -1298,29 +1793,12 @@
     <xf numFmtId="43" fontId="3" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="3" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1333,32 +1811,51 @@
     </xf>
     <xf numFmtId="171" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="11" applyFont="1"/>
-    <xf numFmtId="186" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="197" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="199" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="200" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="197" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="197" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="197" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="191" fontId="17" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="194" fontId="17" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="202" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="181" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Comma" xfId="10" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="6" builtinId="53"/>
@@ -1366,6 +1863,7 @@
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="9" builtinId="18"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Linked Cell" xfId="5" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1715,11 +2213,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IQ67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IQ68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1737,17 +2235,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A1" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="A1" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickTop="1">
-      <c r="A2" s="18" t="s">
-        <v>71</v>
+      <c r="A2" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -1755,8 +2253,8 @@
       <c r="E2"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="18" t="s">
-        <v>73</v>
+      <c r="A3" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -1764,8 +2262,8 @@
       <c r="E3"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="18" t="s">
-        <v>94</v>
+      <c r="A4" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -1781,27 +2279,27 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="9">
-        <v>4248</v>
-      </c>
-      <c r="C7" s="9">
-        <v>25</v>
+      <c r="A7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="30">
+        <v>800</v>
+      </c>
+      <c r="C7" s="30">
+        <v>60</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1809,1232 +2307,1236 @@
     </row>
     <row r="8" spans="1:15" ht="18" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="43"/>
+        <v>120</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickTop="1">
-      <c r="B9" s="6">
-        <f>B7*9.8066</f>
-        <v>41658.436799999996</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="27">
+        <f>B7*9.80665</f>
+        <v>7845.32</v>
+      </c>
+      <c r="C9" s="9">
         <f>IFERROR(C7*1000/B9,0)</f>
-        <v>0.60011853349235611</v>
-      </c>
-      <c r="D9" s="10">
+        <v>7.6478715973344622</v>
+      </c>
+      <c r="D9" s="27">
         <f>C7*1000*B9/2</f>
-        <v>520730459.99999994</v>
-      </c>
-      <c r="E9" s="10">
+        <v>235359600</v>
+      </c>
+      <c r="E9" s="27">
         <f>IFERROR(D9/C9,0)</f>
-        <v>867712678.30979705</v>
-      </c>
-      <c r="G9" s="16">
-        <f>SUM(B20:E20)</f>
-        <v>0.60011853349235611</v>
+        <v>30774522.951199997</v>
+      </c>
+      <c r="G9" s="15">
+        <f>SUM(B21:E21)</f>
+        <v>7.6478715973344622</v>
       </c>
       <c r="H9" s="6" t="str">
         <f>IF($C$9&gt;$G$9,"Input excesive",IF($C$9&lt;$G$9,"Output excessive","Equal"))</f>
         <v>Equal</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C10" s="10">
-        <f>IFERROR(C7*1000/B10/B9,0)</f>
-        <v>0.40007902232823744</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
+    <row r="10" spans="1:15" customFormat="1" ht="12.75"/>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="C11" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="C11" s="9">
         <f>IFERROR(C7*1000/B11/B9,0)</f>
-        <v>0.50009877791029689</v>
+        <v>5.0985810648896415</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="C12" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="C12" s="9">
         <f>IFERROR(C7*1000/B12/B9,0)</f>
-        <v>0.16219419824117734</v>
+        <v>6.3732263311120514</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="C13" s="9">
+        <f>IFERROR(C7*1000/B13/B9,0)</f>
+        <v>2.0669923236039085</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2">
         <v>1.33</v>
       </c>
-      <c r="C13" s="10">
-        <f>IFERROR(C7*1000/B13/B9,0)</f>
-        <v>0.45121694247545574</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="C14" s="9">
+        <f>IFERROR(C7*1000/B14/B9,0)</f>
+        <v>5.7502793964920764</v>
+      </c>
       <c r="E14" s="5"/>
-      <c r="M14" s="2" t="s">
+      <c r="K14" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" s="5"/>
+      <c r="M15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O14" s="2" t="s">
+      <c r="N15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20.25" thickBot="1">
+      <c r="A16" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1</v>
+      </c>
+      <c r="C17" s="19">
+        <v>15</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="20">
+        <v>94.143360000000001</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A15" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A16" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="20">
-        <v>1</v>
-      </c>
-      <c r="C16" s="20">
-        <v>15</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0</v>
-      </c>
-      <c r="E16" s="21">
-        <v>0</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="I17" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="2">
         <v>4000</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N17" s="2">
         <v>420</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O17" s="26">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="24">
-        <f>IFERROR(E19/I17,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="25" t="str">
-        <f>IFERROR(E16/G17,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="I17" s="27">
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="23">
+        <f>IFERROR(E20/I18,"-")</f>
+        <v>0.9999949014189351</v>
+      </c>
+      <c r="H18" s="24">
+        <f>IFERROR(E17/G18,"-")</f>
+        <v>94.143839999999997</v>
+      </c>
+      <c r="I18" s="69">
         <v>9</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="L18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M18" s="2">
         <v>3000</v>
-      </c>
-      <c r="N17" s="2">
-        <v>180</v>
-      </c>
-      <c r="O17" s="28">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="11">
-        <f>IFERROR(VLOOKUP(B17,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>5</v>
-      </c>
-      <c r="C18" s="11">
-        <f>IFERROR(VLOOKUP(C17,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>5</v>
-      </c>
-      <c r="D18" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D17,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>900</v>
       </c>
       <c r="N18" s="2">
         <v>180</v>
       </c>
-      <c r="O18" s="28">
+      <c r="O18" s="26">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="16.5" thickTop="1">
-      <c r="A19" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="16">
-        <f>IFERROR($C$9*B16/SUM(B21:D21),"-")</f>
-        <v>7.5014816686544512E-3</v>
-      </c>
-      <c r="C19" s="16">
-        <f>IFERROR($C$9*C16/SUM(B21:D21),"-")</f>
-        <v>0.11252222502981676</v>
-      </c>
-      <c r="D19" s="16">
-        <f>IFERROR($C$9*D16/SUM(B21:D21),"-")</f>
+    <row r="19" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="10">
+        <f>IFERROR(VLOOKUP(B18,Database!$A$2:$B$54,2,0),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="C19" s="10">
+        <f>IFERROR(VLOOKUP(C18,Database!$A$2:$B$54,2,0),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="D19" s="10" t="str">
+        <f>IFERROR(VLOOKUP(D18,Database!$A$2:$B$54,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="E19" s="16">
-        <f>IFERROR($C$9*E16/SUM(B21:D21),0)</f>
+      <c r="M19" s="2">
+        <v>900</v>
+      </c>
+      <c r="N19" s="2">
+        <v>180</v>
+      </c>
+      <c r="O19" s="26">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" thickTop="1">
+      <c r="A20" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="15">
+        <f>IFERROR($C$9*B17/SUM(B22:D22),"-")</f>
+        <v>9.559839496668078E-2</v>
+      </c>
+      <c r="C20" s="15">
+        <f>IFERROR($C$9*C17/SUM(B22:D22),"-")</f>
+        <v>1.4339759245002117</v>
+      </c>
+      <c r="D20" s="15">
+        <f>IFERROR($C$9*D17/SUM(B22:D22),"-")</f>
         <v>0</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="E20" s="15">
+        <f>IFERROR($C$9*E17/SUM(B22:D22),0)</f>
+        <v>8.9999541127704159</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="2">
         <v>3000</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N20" s="2">
         <v>300</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O20" s="26">
         <v>864</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="6">
-        <f>IFERROR(B18*B19,"-")</f>
-        <v>3.7507408343272257E-2</v>
-      </c>
-      <c r="C20" s="6">
-        <f t="shared" ref="C20:D20" si="0">IFERROR(C18*C19,"-")</f>
-        <v>0.56261112514908385</v>
-      </c>
-      <c r="D20" s="6" t="str">
+    <row r="21" spans="1:15">
+      <c r="A21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="6">
+        <f>IFERROR(B19*B20,"-")</f>
+        <v>0.47799197483340389</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" ref="C21:D21" si="0">IFERROR(C19*C20,"-")</f>
+        <v>7.1698796225010586</v>
+      </c>
+      <c r="D21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="E20" s="6">
-        <f>E18*E19</f>
+      <c r="E21" s="6">
+        <f>E19*E20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="K21" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" s="2">
         <v>800</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N21" s="2">
         <v>250</v>
       </c>
-      <c r="O20" s="28">
+      <c r="O21" s="26">
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="6">
+        <f>IFERROR(B17*B19,"-")</f>
+        <v>5</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" ref="C22:D22" si="1">IFERROR(C17*C19,"-")</f>
         <v>75</v>
       </c>
-      <c r="B21" s="6">
-        <f>IFERROR(B16*B18,"-")</f>
-        <v>5</v>
-      </c>
-      <c r="C21" s="6">
-        <f t="shared" ref="C21:D21" si="1">IFERROR(C16*C18,"-")</f>
-        <v>75</v>
-      </c>
-      <c r="D21" s="6" t="str">
+      <c r="D22" s="6" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="2" t="s">
+      <c r="E22" s="6"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="2">
+        <v>800</v>
+      </c>
+      <c r="N22" s="2">
+        <v>500</v>
+      </c>
+      <c r="O22" s="26">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="5"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" s="2">
+        <v>4000</v>
+      </c>
+      <c r="N23" s="2">
+        <v>210</v>
+      </c>
+      <c r="O23" s="26">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A24" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
+      <c r="E24" s="20">
+        <v>5</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="60"/>
+      <c r="L24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="2">
-        <v>800</v>
-      </c>
-      <c r="N21" s="2">
-        <v>500</v>
-      </c>
-      <c r="O21" s="28">
+      <c r="M24" s="2">
         <v>450</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="5"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="2" t="s">
+      <c r="N24" s="2">
+        <v>1250</v>
+      </c>
+      <c r="O24" s="26">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="23">
+        <f>IFERROR(E27/I25,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="24" t="str">
+        <f>IFERROR(E24/G25,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I25" s="22">
+        <f>I18</f>
+        <v>9</v>
+      </c>
+      <c r="K25" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M22" s="2">
-        <v>4000</v>
-      </c>
-      <c r="N22" s="2">
-        <v>210</v>
-      </c>
-      <c r="O22" s="28">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A23" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="20">
-        <v>6.0979999999999999</v>
-      </c>
-      <c r="C23" s="20">
-        <v>15</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0</v>
-      </c>
-      <c r="E23" s="21">
-        <v>6.0030000000000001</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="45"/>
-      <c r="L23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M23" s="2">
-        <v>450</v>
-      </c>
-      <c r="N23" s="2">
-        <v>1250</v>
-      </c>
-      <c r="O23" s="28">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="24">
-        <f>IFERROR(E26/I24,"-")</f>
-        <v>3.3356438382644077E-3</v>
-      </c>
-      <c r="H24" s="25">
-        <f>IFERROR(E23/G24,"-")</f>
-        <v>1799.6525681601138</v>
-      </c>
-      <c r="I24" s="23">
-        <f>I17</f>
-        <v>9</v>
-      </c>
-      <c r="K24" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="M25" s="2">
         <v>300</v>
-      </c>
-      <c r="N24" s="2">
-        <v>375</v>
-      </c>
-      <c r="O24" s="28">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="11">
-        <f>IFERROR(VLOOKUP(B24,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>0.82</v>
-      </c>
-      <c r="C25" s="11">
-        <f>IFERROR(VLOOKUP(C24,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>5</v>
-      </c>
-      <c r="D25" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D24,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="K25" s="45"/>
-      <c r="L25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M25" s="2">
-        <v>3000</v>
       </c>
       <c r="N25" s="2">
         <v>375</v>
       </c>
-      <c r="O25" s="28">
+      <c r="O25" s="26">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <f>IFERROR(VLOOKUP(B25,Database!$A$2:$B$54,2,0),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="C26" s="10">
+        <f>IFERROR(VLOOKUP(C25,Database!$A$2:$B$54,2,0),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="D26" s="10" t="str">
+        <f>IFERROR(VLOOKUP(D25,Database!$A$2:$B$54,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="60"/>
+      <c r="L26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M26" s="2">
+        <v>3000</v>
+      </c>
+      <c r="N26" s="2">
+        <v>375</v>
+      </c>
+      <c r="O26" s="26">
         <v>720</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16.5" thickTop="1">
-      <c r="A26" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="16">
-        <f>IFERROR($C$10*B23/SUM(B28:D28),"-")</f>
-        <v>3.0495886245481791E-2</v>
-      </c>
-      <c r="C26" s="16">
-        <f>IFERROR($C$10*C23/SUM(B28:D28),"-")</f>
-        <v>7.5014479121388464E-2</v>
-      </c>
-      <c r="D26" s="16">
-        <f>IFERROR($C$10*D23/SUM(B28:D28),"-")</f>
+    <row r="27" spans="1:15" ht="16.5" thickTop="1">
+      <c r="A27" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="15" t="str">
+        <f>IFERROR($C$9*B24/SUM(B29:D29),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C27" s="15" t="str">
+        <f>IFERROR($C$9*C24/SUM(B29:D29),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D27" s="15" t="str">
+        <f>IFERROR($C$9*D24/SUM(B29:D29),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E27" s="15">
+        <f>IFERROR($C$9*E24/SUM(B29:D29),0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="16">
-        <f>IFERROR($C$10*E23/SUM(B28:D28),0)</f>
-        <v>3.002079454437967E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="6">
-        <f>IFERROR(B25*B26,"-")</f>
-        <v>2.5006626721295066E-2</v>
-      </c>
-      <c r="C27" s="6">
-        <f t="shared" ref="C27:D27" si="2">IFERROR(C25*C26,"-")</f>
-        <v>0.37507239560694233</v>
-      </c>
-      <c r="D27" s="6" t="str">
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="6" t="str">
+        <f>IFERROR(B26*B27,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C28" s="6" t="str">
+        <f t="shared" ref="C28:D28" si="2">IFERROR(C26*C27,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D28" s="6" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E27" s="6">
-        <f>E25*E26</f>
+      <c r="E28" s="6">
+        <f>E26*E27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="6">
-        <f>IFERROR(B23*B25,"-")</f>
-        <v>5.0003599999999997</v>
-      </c>
-      <c r="C28" s="6">
-        <f t="shared" ref="C28:D28" si="3">IFERROR(C23*C25,"-")</f>
-        <v>75</v>
-      </c>
-      <c r="D28" s="6" t="str">
+    <row r="29" spans="1:15">
+      <c r="A29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="6">
+        <f>IFERROR(B24*B26,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" ref="C29:D29" si="3">IFERROR(C24*C26,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="6" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-    </row>
-    <row r="30" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A30" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="20">
-        <v>1</v>
-      </c>
-      <c r="C30" s="20">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A31" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="19">
         <v>0</v>
       </c>
-      <c r="D30" s="20">
+      <c r="C31" s="19">
         <v>0</v>
       </c>
-      <c r="E30" s="21">
+      <c r="D31" s="19">
         <v>0</v>
       </c>
-      <c r="G30" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="24">
-        <f>IFERROR(E33/I31,"-")</f>
+      <c r="E31" s="20">
+        <v>5</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="23">
+        <f>IFERROR(E34/I32,"-")</f>
         <v>0</v>
       </c>
-      <c r="H31" s="25" t="str">
-        <f>IFERROR(E30/G31,"-")</f>
+      <c r="H32" s="24" t="str">
+        <f>IFERROR(E31/G32,"-")</f>
         <v>-</v>
       </c>
-      <c r="I31" s="23">
-        <f>I17</f>
+      <c r="I32" s="22">
+        <f>I18</f>
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B31,Database!$A$2:$B$54,2,0),"-")</f>
+    <row r="33" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="10" t="str">
+        <f>IFERROR(VLOOKUP(B32,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
-      <c r="C32" s="11" t="str">
-        <f>IFERROR(VLOOKUP(C31,Database!$A$2:$B$54,2,0),"-")</f>
+      <c r="C33" s="10" t="str">
+        <f>IFERROR(VLOOKUP(C32,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
-      <c r="D32" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D31,Database!$A$2:$B$54,2,0),"-")</f>
+      <c r="D33" s="10" t="str">
+        <f>IFERROR(VLOOKUP(D32,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E33" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A33" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="16" t="str">
-        <f>IFERROR($C$11*B30/SUM(B35:D35),"-")</f>
+    <row r="34" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A34" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="15" t="str">
+        <f>IFERROR($C$9*B31/SUM(B36:D36),"-")</f>
         <v>-</v>
       </c>
-      <c r="C33" s="16" t="str">
-        <f>IFERROR($C$11*C30/SUM(B35:D35),"-")</f>
+      <c r="C34" s="15" t="str">
+        <f>IFERROR($C$9*C31/SUM(B36:D36),"-")</f>
         <v>-</v>
       </c>
-      <c r="D33" s="16" t="str">
-        <f>IFERROR($C$11*D30/SUM(B35:D35),"-")</f>
+      <c r="D34" s="15" t="str">
+        <f>IFERROR($C$9*D31/SUM(B36:D36),"-")</f>
         <v>-</v>
       </c>
-      <c r="E33" s="16">
-        <f>IFERROR($C$11*E30/SUM(B35:D35),0)</f>
+      <c r="E34" s="15">
+        <f>IFERROR($C$12*E31/SUM(B36:D36),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="6" t="str">
-        <f>IFERROR(B32*B33,"-")</f>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="6" t="str">
+        <f>IFERROR(B33*B34,"-")</f>
         <v>-</v>
       </c>
-      <c r="C34" s="6" t="str">
-        <f t="shared" ref="C34:D34" si="4">IFERROR(C32*C33,"-")</f>
+      <c r="C35" s="6" t="str">
+        <f t="shared" ref="C35:D35" si="4">IFERROR(C33*C34,"-")</f>
         <v>-</v>
       </c>
-      <c r="D34" s="6" t="str">
+      <c r="D35" s="6" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E34" s="6">
-        <f>E32*E33</f>
+      <c r="E35" s="6">
+        <f>E33*E34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="6" t="str">
-        <f>IFERROR(B30*B32,"-")</f>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="6" t="str">
+        <f>IFERROR(B31*B33,"-")</f>
         <v>-</v>
       </c>
-      <c r="C35" s="6" t="str">
-        <f t="shared" ref="C35:D35" si="5">IFERROR(C30*C32,"-")</f>
+      <c r="C36" s="6" t="str">
+        <f t="shared" ref="C36:D36" si="5">IFERROR(C31*C33,"-")</f>
         <v>-</v>
       </c>
-      <c r="D35" s="6" t="str">
+      <c r="D36" s="6" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="38" spans="1:9" ht="18" thickBot="1">
-      <c r="A38" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-    </row>
-    <row r="39" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A39" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="20">
+      <c r="E36" s="6"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" thickBot="1">
+      <c r="A39" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A40" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="19">
         <v>0.745</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C40" s="19">
         <v>0.255</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D40" s="19">
         <v>0</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E40" s="20">
         <v>0</v>
       </c>
-      <c r="G39" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H39" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="24">
-        <f>IFERROR(E42/I40,"-")</f>
+      <c r="G40" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="23">
+        <f>IFERROR(E43/I41,"-")</f>
         <v>0</v>
       </c>
-      <c r="H40" s="25" t="str">
-        <f>IFERROR(E39/G40,"-")</f>
+      <c r="H41" s="24" t="str">
+        <f>IFERROR(E40/G41,"-")</f>
         <v>-</v>
       </c>
-      <c r="I40" s="23">
-        <f>I31</f>
+      <c r="I41" s="22">
+        <f>I32</f>
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B40,Database!$A$2:$B$54,2,0),"-")</f>
+    <row r="42" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="10" t="str">
+        <f>IFERROR(VLOOKUP(B41,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
-      <c r="C41" s="11" t="str">
-        <f>IFERROR(VLOOKUP(C40,Database!$A$2:$B$54,2,0),"-")</f>
+      <c r="C42" s="10" t="str">
+        <f>IFERROR(VLOOKUP(C41,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
-      <c r="D41" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D40,Database!$A$2:$B$54,2,0),"-")</f>
+      <c r="D42" s="10" t="str">
+        <f>IFERROR(VLOOKUP(D41,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E42" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A42" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="16" t="str">
-        <f>IFERROR($C$10*B39/SUM(B44:D44),"-")</f>
+    <row r="43" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A43" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="15" t="str">
+        <f>IFERROR($C$9*B40/SUM(B45:D45),"-")</f>
         <v>-</v>
       </c>
-      <c r="C42" s="16" t="str">
-        <f>IFERROR($C$10*C39/SUM(B44:D44),"-")</f>
+      <c r="C43" s="15" t="str">
+        <f>IFERROR($C$9*C40/SUM(B45:D45),"-")</f>
         <v>-</v>
       </c>
-      <c r="D42" s="16" t="str">
-        <f>IFERROR($C$10*D39/SUM(B44:D44),"-")</f>
+      <c r="D43" s="15" t="str">
+        <f>IFERROR($C$9*D40/SUM(B45:D45),"-")</f>
         <v>-</v>
       </c>
-      <c r="E42" s="16">
-        <f>IFERROR($C$10*E39/SUM(B44:D44),0)</f>
+      <c r="E43" s="15">
+        <f>IFERROR($C$11*E40/SUM(B45:D45),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="6" t="str">
-        <f>IFERROR(B41*B42,"-")</f>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="6" t="str">
+        <f>IFERROR(B42*B43,"-")</f>
         <v>-</v>
       </c>
-      <c r="C43" s="6" t="str">
-        <f t="shared" ref="C43:D43" si="6">IFERROR(C41*C42,"-")</f>
+      <c r="C44" s="6" t="str">
+        <f t="shared" ref="C44:D44" si="6">IFERROR(C42*C43,"-")</f>
         <v>-</v>
       </c>
-      <c r="D43" s="6" t="str">
+      <c r="D44" s="6" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="E43" s="6">
-        <f>E41*E42</f>
+      <c r="E44" s="6">
+        <f>E42*E43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="6" t="str">
-        <f>IFERROR(B39*B41,"-")</f>
+    <row r="45" spans="1:9">
+      <c r="A45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="6" t="str">
+        <f>IFERROR(B40*B42,"-")</f>
         <v>-</v>
       </c>
-      <c r="C44" s="6" t="str">
-        <f t="shared" ref="C44:D44" si="7">IFERROR(C39*C41,"-")</f>
+      <c r="C45" s="6" t="str">
+        <f t="shared" ref="C45:D45" si="7">IFERROR(C40*C42,"-")</f>
         <v>-</v>
       </c>
-      <c r="D44" s="6" t="str">
+      <c r="D45" s="6" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A46" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="20">
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A47" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="19">
         <v>0.434</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C47" s="19">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D47" s="19">
         <v>0</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E47" s="20">
         <v>0</v>
       </c>
-      <c r="G46" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" s="24">
-        <f>E49/I47</f>
+      <c r="G47" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="23">
+        <f>E50/I48</f>
         <v>0</v>
       </c>
-      <c r="H47" s="25" t="str">
-        <f>IFERROR(E46/G47,"-")</f>
+      <c r="H48" s="24" t="str">
+        <f>IFERROR(E47/G48,"-")</f>
         <v>-</v>
       </c>
-      <c r="I47" s="23">
-        <f>I31</f>
+      <c r="I48" s="22">
+        <f>I32</f>
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B47,Database!$A$2:$B$54,2,0),"-")</f>
+    <row r="49" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="10" t="str">
+        <f>IFERROR(VLOOKUP(B48,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
-      <c r="C48" s="11" t="str">
-        <f>IFERROR(VLOOKUP(C47,Database!$A$2:$B$54,2,0),"-")</f>
+      <c r="C49" s="10" t="str">
+        <f>IFERROR(VLOOKUP(C48,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
-      <c r="D48" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D47,Database!$A$2:$B$54,2,0),"-")</f>
+      <c r="D49" s="10" t="str">
+        <f>IFERROR(VLOOKUP(D48,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E49" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A49" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="16" t="str">
-        <f>IFERROR($C$11*B46/SUM(B51:D51),"-")</f>
+    <row r="50" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A50" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="15" t="str">
+        <f>IFERROR($C$9*B47/SUM(B52:D52),"-")</f>
         <v>-</v>
       </c>
-      <c r="C49" s="16" t="str">
-        <f>IFERROR($C$11*C46/SUM(B51:D51),"-")</f>
+      <c r="C50" s="15" t="str">
+        <f>IFERROR($C$9*C47/SUM(B52:D52),"-")</f>
         <v>-</v>
       </c>
-      <c r="D49" s="16" t="str">
-        <f>IFERROR($C$11*D46/SUM(B51:D51),"-")</f>
+      <c r="D50" s="15" t="str">
+        <f>IFERROR($C$9*D47/SUM(B52:D52),"-")</f>
         <v>-</v>
       </c>
-      <c r="E49" s="16">
-        <f>IFERROR($C$11*E46/SUM(B51:D51),0)</f>
+      <c r="E50" s="15">
+        <f>IFERROR($C$12*E47/SUM(B52:D52),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="6" t="str">
-        <f>IFERROR(B48*B49,"-")</f>
+    <row r="51" spans="1:9">
+      <c r="A51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="6" t="str">
+        <f>IFERROR(B49*B50,"-")</f>
         <v>-</v>
       </c>
-      <c r="C50" s="6" t="str">
-        <f t="shared" ref="C50:D50" si="8">IFERROR(C48*C49,"-")</f>
+      <c r="C51" s="6" t="str">
+        <f t="shared" ref="C51:D51" si="8">IFERROR(C49*C50,"-")</f>
         <v>-</v>
       </c>
-      <c r="D50" s="6" t="str">
+      <c r="D51" s="6" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E50" s="6">
-        <f>E48*E49</f>
+      <c r="E51" s="6">
+        <f>E49*E50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="6" t="str">
-        <f>IFERROR(B46*B48,"-")</f>
+    <row r="52" spans="1:9">
+      <c r="A52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="6" t="str">
+        <f>IFERROR(B47*B49,"-")</f>
         <v>-</v>
       </c>
-      <c r="C51" s="6" t="str">
-        <f t="shared" ref="C51:D51" si="9">IFERROR(C46*C48,"-")</f>
+      <c r="C52" s="6" t="str">
+        <f t="shared" ref="C52:D52" si="9">IFERROR(C47*C49,"-")</f>
         <v>-</v>
       </c>
-      <c r="D51" s="6" t="str">
+      <c r="D52" s="6" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="54" spans="1:9" ht="18" thickBot="1">
-      <c r="A54" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-    </row>
-    <row r="55" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A55" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="20">
-        <v>1</v>
-      </c>
-      <c r="C55" s="20">
+      <c r="E52" s="6"/>
+    </row>
+    <row r="55" spans="1:9" ht="18" thickBot="1">
+      <c r="A55" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A56" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="19">
+        <v>3</v>
+      </c>
+      <c r="C56" s="19">
+        <v>1</v>
+      </c>
+      <c r="D56" s="19">
         <v>0</v>
       </c>
-      <c r="D55" s="20">
+      <c r="E56" s="20">
         <v>0</v>
       </c>
-      <c r="E55" s="21">
-        <v>3.6991999999999998</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I55" s="26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56" s="24">
-        <f>IFERROR(E58/I56,"-")</f>
-        <v>0.18832039489446428</v>
-      </c>
-      <c r="H56" s="25">
-        <f>IFERROR(E55/G56,"-")</f>
-        <v>19.643119387430399</v>
-      </c>
-      <c r="I56" s="23">
-        <f>I24</f>
+      <c r="G56" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I56" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="23">
+        <f>IFERROR(E59/I57,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="24" t="str">
+        <f>IFERROR(E56/G57,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I57" s="22">
+        <f>I25</f>
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="11">
-        <f>IFERROR(VLOOKUP(B56,Database!$A$2:$B$54,2,0),"-")</f>
+    <row r="58" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="10">
+        <f>IFERROR(VLOOKUP(B57,Database!$A$2:$B$54,2,0),"-")</f>
         <v>0.35399999999999998</v>
       </c>
-      <c r="C57" s="11">
-        <f>IFERROR(VLOOKUP(C56,Database!$A$2:$B$54,2,0),"-")</f>
+      <c r="C58" s="10">
+        <f>IFERROR(VLOOKUP(C57,Database!$A$2:$B$54,2,0),"-")</f>
         <v>5</v>
       </c>
-      <c r="D57" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D56,Database!$A$2:$B$54,2,0),"-")</f>
+      <c r="D58" s="10" t="str">
+        <f>IFERROR(VLOOKUP(D57,Database!$A$2:$B$54,2,0),"-")</f>
         <v>-</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E58" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A58" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="16">
-        <f>IFERROR($C$12*B55/SUM(B60:D60),"-")</f>
-        <v>0.45817570124626372</v>
-      </c>
-      <c r="C58" s="16">
-        <f>IFERROR($C$12*C55/SUM(B60:D60),"-")</f>
+    <row r="59" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A59" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="15">
+        <f>IFERROR($C$13*B56/SUM(B61:D61),"-")</f>
+        <v>1.0229259272206739</v>
+      </c>
+      <c r="C59" s="15">
+        <f>IFERROR($C$13*C56/SUM(B61:D61),"-")</f>
+        <v>0.340975309073558</v>
+      </c>
+      <c r="D59" s="15">
+        <f>IFERROR($C$13*D56/SUM(B61:D61),"-")</f>
         <v>0</v>
       </c>
-      <c r="D58" s="16">
-        <f>IFERROR($C$12*D55/SUM(B60:D60),"-")</f>
+      <c r="E59" s="15">
+        <f>IFERROR($C$13*E56/SUM(B61:D61),0)</f>
         <v>0</v>
       </c>
-      <c r="E58" s="16">
-        <f>IFERROR($C$12*E55/SUM(B60:D60),0)</f>
-        <v>1.6948835540501785</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="6">
-        <f>IFERROR(B57*B58,"-")</f>
-        <v>0.16219419824117734</v>
-      </c>
-      <c r="C59" s="6">
-        <f t="shared" ref="C59:D59" si="10">IFERROR(C57*C58,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="D59" s="6" t="str">
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="6">
+        <f>IFERROR(B58*B59,"-")</f>
+        <v>0.36211577823611851</v>
+      </c>
+      <c r="C60" s="6">
+        <f t="shared" ref="C60:D60" si="10">IFERROR(C58*C59,"-")</f>
+        <v>1.7048765453677901</v>
+      </c>
+      <c r="D60" s="6" t="str">
         <f t="shared" si="10"/>
         <v>-</v>
       </c>
-      <c r="E59" s="6">
-        <f>E57*E58</f>
+      <c r="E60" s="6">
+        <f>E58*E59</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="6">
-        <f>IFERROR(B55*B57,"-")</f>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="C60" s="6">
-        <f t="shared" ref="C60:D60" si="11">IFERROR(C55*C57,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="D60" s="6" t="str">
+    <row r="61" spans="1:9">
+      <c r="A61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="6">
+        <f>IFERROR(B56*B58,"-")</f>
+        <v>1.0619999999999998</v>
+      </c>
+      <c r="C61" s="6">
+        <f t="shared" ref="C61:D61" si="11">IFERROR(C56*C58,"-")</f>
+        <v>5</v>
+      </c>
+      <c r="D61" s="6" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-    </row>
-    <row r="62" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A62" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="20">
-        <v>1</v>
-      </c>
-      <c r="C62" s="20">
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A63" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="19">
+        <v>3</v>
+      </c>
+      <c r="C63" s="19">
+        <v>1</v>
+      </c>
+      <c r="D63" s="19">
         <v>0</v>
       </c>
-      <c r="D62" s="20">
+      <c r="E63" s="20">
         <v>0</v>
       </c>
-      <c r="E62" s="21">
+      <c r="G63" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I63" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="16"/>
+      <c r="E64" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" s="23">
+        <f>IFERROR(E66/I64,"-")</f>
         <v>0</v>
       </c>
-      <c r="G62" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H62" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I62" s="26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" s="24">
-        <f>IFERROR(E65/I63,"-")</f>
+      <c r="H64" s="24" t="str">
+        <f>IFERROR(E63/G64,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I64" s="22">
+        <f>I32</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="10">
+        <f>IFERROR(VLOOKUP(B64,Database!$A$2:$B$54,2,0),"-")</f>
+        <v>2.12805</v>
+      </c>
+      <c r="C65" s="10">
+        <f>IFERROR(VLOOKUP(C64,Database!$A$2:$B$54,2,0),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="D65" s="10" t="str">
+        <f>IFERROR(VLOOKUP(D64,Database!$A$2:$B$54,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E65" s="11">
         <v>0</v>
       </c>
-      <c r="H63" s="25" t="str">
-        <f>IFERROR(E62/G63,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="I63" s="23">
-        <f>I31</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A64" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64" s="11">
-        <f>IFERROR(VLOOKUP(B63,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>2.12805</v>
-      </c>
-      <c r="C64" s="11">
-        <f>IFERROR(VLOOKUP(C63,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>5</v>
-      </c>
-      <c r="D64" s="11" t="str">
-        <f>IFERROR(VLOOKUP(D63,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E64" s="12">
+    </row>
+    <row r="66" spans="1:5" ht="16.5" thickTop="1">
+      <c r="A66" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="15">
+        <f>IFERROR($C$14*B63/SUM(B68:D68),"-")</f>
+        <v>1.5153382720252482</v>
+      </c>
+      <c r="C66" s="15">
+        <f>IFERROR($C$14*C63/SUM(B68:D68),"-")</f>
+        <v>0.50511275734174943</v>
+      </c>
+      <c r="D66" s="15">
+        <f>IFERROR($C$14*D63/SUM(B68:D68),"-")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="16.5" thickTop="1">
-      <c r="A65" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" s="16">
-        <f>IFERROR($C$13*B62/SUM(B67:D67),"-")</f>
-        <v>0.21203305489789043</v>
-      </c>
-      <c r="C65" s="16">
-        <f>IFERROR($C$13*C62/SUM(B67:D67),"-")</f>
+      <c r="E66" s="15">
+        <f>IFERROR($C$14*E63/SUM(B68:D68),0)</f>
         <v>0</v>
       </c>
-      <c r="D65" s="16">
-        <f>IFERROR($C$13*D62/SUM(B67:D67),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="16">
-        <f>IFERROR($C$13*E62/SUM(B67:D67),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="6">
-        <f>IFERROR(B64*B65,"-")</f>
-        <v>0.45121694247545574</v>
-      </c>
-      <c r="C66" s="6">
-        <f t="shared" ref="C66:D66" si="12">IFERROR(C64*C65,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="6" t="str">
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="6">
+        <f>IFERROR(B65*B66,"-")</f>
+        <v>3.2247156097833294</v>
+      </c>
+      <c r="C67" s="6">
+        <f t="shared" ref="C67:D67" si="12">IFERROR(C65*C66,"-")</f>
+        <v>2.525563786708747</v>
+      </c>
+      <c r="D67" s="6" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E66" s="6">
-        <f>E64*E65</f>
+      <c r="E67" s="6">
+        <f>E65*E66</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="6">
-        <f>IFERROR(B62*B64,"-")</f>
-        <v>2.12805</v>
-      </c>
-      <c r="C67" s="6">
-        <f t="shared" ref="C67:D67" si="13">IFERROR(C62*C64,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="D67" s="6" t="str">
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="6">
+        <f>IFERROR(B63*B65,"-")</f>
+        <v>6.38415</v>
+      </c>
+      <c r="C68" s="6">
+        <f t="shared" ref="C68:D68" si="13">IFERROR(C63*C65,"-")</f>
+        <v>5</v>
+      </c>
+      <c r="D68" s="6" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
-      <c r="E67" s="6"/>
+      <c r="E68" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="K21:K24"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:E39"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K25:K26"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
   <pageSetup firstPageNumber="4294967295" fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed" copies="0"/>
@@ -3042,6 +3544,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -3049,7 +3552,7 @@
           <x14:formula1>
             <xm:f>Database!$A$2:$A$54</xm:f>
           </x14:formula1>
-          <xm:sqref>B17:D17 B24:D24 B31:D31 B40:D40 B47:D47 B56:D56 B63:D63</xm:sqref>
+          <xm:sqref>B18:D18 B25:D25 B32:D32 B41:D41 B48:D48 B57:D57 B64:D64</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3061,15 +3564,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV78"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="23.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="12.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="23.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="22" style="2" customWidth="1"/>
@@ -3081,867 +3584,867 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1">
       <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickTop="1">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="49">
-        <v>1</v>
-      </c>
-      <c r="J2" s="50">
+      <c r="G2" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="40">
+        <v>1</v>
+      </c>
+      <c r="J2" s="41">
         <v>101.96</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" s="49">
-        <v>1</v>
-      </c>
-      <c r="J3" s="50">
+      <c r="G3" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="40">
+        <v>1</v>
+      </c>
+      <c r="J3" s="41">
         <v>26.98</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="I4" s="49">
-        <v>1</v>
-      </c>
-      <c r="J4" s="50">
+      <c r="G4" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="40">
+        <v>1</v>
+      </c>
+      <c r="J4" s="41">
         <v>17.03</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="I5" s="49">
-        <v>1</v>
-      </c>
-      <c r="J5" s="50">
+      <c r="G5" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="40">
+        <v>1</v>
+      </c>
+      <c r="J5" s="41">
         <v>39.950000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="I6" s="49">
-        <v>1</v>
-      </c>
-      <c r="J6" s="50">
+      <c r="G6" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="40">
+        <v>1</v>
+      </c>
+      <c r="J6" s="41">
         <v>12.01</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2">
         <v>7.5</v>
       </c>
-      <c r="G7" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" s="49">
-        <v>1</v>
-      </c>
-      <c r="J7" s="50">
+      <c r="G7" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="40">
+        <v>1</v>
+      </c>
+      <c r="J7" s="41">
         <v>44.01</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
         <v>0.1</v>
       </c>
-      <c r="G8" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="I8" s="49">
-        <v>1</v>
-      </c>
-      <c r="J8" s="50">
+      <c r="G8" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="40">
+        <v>1</v>
+      </c>
+      <c r="J8" s="41">
         <v>28.01</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9"/>
-      <c r="G9" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="I9" s="49">
-        <v>1</v>
-      </c>
-      <c r="J9" s="50">
+      <c r="G9" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" s="40">
+        <v>1</v>
+      </c>
+      <c r="J9" s="41">
         <v>35.450000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" thickBot="1">
       <c r="A10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="I10" s="49">
-        <v>1</v>
-      </c>
-      <c r="J10" s="50">
+        <v>62</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="40">
+        <v>1</v>
+      </c>
+      <c r="J10" s="41">
         <v>238.03</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1">
       <c r="A11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="13">
+        <v>42</v>
+      </c>
+      <c r="B11" s="12">
         <f>C11*1000</f>
         <v>1.0000000000000002E-6</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="G11" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="H11" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="I11" s="49">
-        <v>1</v>
-      </c>
-      <c r="J11" s="50">
+      <c r="G11" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="40">
+        <v>1</v>
+      </c>
+      <c r="J11" s="41">
         <v>2.0139999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="13">
+        <v>43</v>
+      </c>
+      <c r="B12" s="12">
         <f t="shared" ref="B12:B51" si="0">C12*1000</f>
         <v>1.784E-3</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>1.784E-6</v>
       </c>
-      <c r="G12" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="I12" s="49">
-        <v>1</v>
-      </c>
-      <c r="J12" s="50">
+      <c r="G12" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="40">
+        <v>1</v>
+      </c>
+      <c r="J12" s="41">
         <v>60.08</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="13">
+        <v>86</v>
+      </c>
+      <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="G13" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="I13" s="49">
-        <v>1</v>
-      </c>
-      <c r="J13" s="50">
+      <c r="G13" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="40">
+        <v>1</v>
+      </c>
+      <c r="J13" s="41">
         <v>238.03</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="13">
+        <v>41</v>
+      </c>
+      <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>10.97</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>1.0970000000000001E-2</v>
       </c>
-      <c r="G14" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="I14" s="49">
-        <v>1</v>
-      </c>
-      <c r="J14" s="50">
+      <c r="G14" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="40">
+        <v>1</v>
+      </c>
+      <c r="J14" s="41">
         <v>46.07</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="13">
+        <v>122</v>
+      </c>
+      <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>0.78900000000000003</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>7.8899999999999999E-4</v>
       </c>
-      <c r="G15" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" s="49">
-        <v>1</v>
-      </c>
-      <c r="J15" s="50">
+      <c r="G15" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="40">
+        <v>1</v>
+      </c>
+      <c r="J15" s="41">
         <v>61.206800000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="13">
+        <v>123</v>
+      </c>
+      <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>0.84175</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>8.4175000000000005E-4</v>
       </c>
-      <c r="G16" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="I16" s="49">
-        <v>1</v>
-      </c>
-      <c r="J16" s="50">
+      <c r="G16" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="40">
+        <v>1</v>
+      </c>
+      <c r="J16" s="41">
         <v>183.88</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="13">
+        <v>83</v>
+      </c>
+      <c r="B17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G17" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="I17" s="49">
-        <v>1</v>
-      </c>
-      <c r="J17" s="50">
+      <c r="G17" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="40">
+        <v>1</v>
+      </c>
+      <c r="J17" s="41">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="13">
+        <v>78</v>
+      </c>
+      <c r="B18" s="12">
         <f t="shared" si="0"/>
         <v>0.216</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>2.1599999999999999E-4</v>
       </c>
-      <c r="G18" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="I18" s="49">
-        <v>1</v>
-      </c>
-      <c r="J18" s="50">
+      <c r="G18" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" s="40">
+        <v>1</v>
+      </c>
+      <c r="J18" s="41">
         <f>5.03</f>
         <v>5.03</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="13">
+        <v>49</v>
+      </c>
+      <c r="B19" s="12">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G19" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="I19" s="49">
-        <v>1</v>
-      </c>
-      <c r="J19" s="50">
+      <c r="G19" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" s="40">
+        <v>1</v>
+      </c>
+      <c r="J19" s="41">
         <v>92.09</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="13">
+        <v>50</v>
+      </c>
+      <c r="B20" s="12">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="G20" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="I20" s="49">
-        <v>1</v>
-      </c>
-      <c r="J20" s="50">
+      <c r="G20" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="I20" s="40">
+        <v>1</v>
+      </c>
+      <c r="J20" s="41">
         <v>172.14</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="13">
+        <v>121</v>
+      </c>
+      <c r="B21" s="12">
         <f t="shared" si="0"/>
         <v>0.82</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>8.1999999999999998E-4</v>
       </c>
-      <c r="G21" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" s="49">
-        <v>1</v>
-      </c>
-      <c r="J21" s="50">
+      <c r="G21" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="40">
+        <v>1</v>
+      </c>
+      <c r="J21" s="41">
         <v>3.016</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="13">
+        <v>40</v>
+      </c>
+      <c r="B22" s="12">
         <f t="shared" si="0"/>
         <v>0.53399999999999992</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>5.3399999999999997E-4</v>
       </c>
-      <c r="G22" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="I22" s="49">
-        <v>1</v>
-      </c>
-      <c r="J22" s="50">
+      <c r="G22" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="40">
+        <v>1</v>
+      </c>
+      <c r="J22" s="41">
         <v>4.0019999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="13">
+        <v>47</v>
+      </c>
+      <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>0.70209999999999995</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>7.0209999999999999E-4</v>
       </c>
-      <c r="G23" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="H23" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="I23" s="49">
-        <v>1</v>
-      </c>
-      <c r="J23" s="50">
+      <c r="G23" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="40">
+        <v>1</v>
+      </c>
+      <c r="J23" s="41">
         <v>34.01</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="13">
+        <v>46</v>
+      </c>
+      <c r="B24" s="12">
         <f t="shared" si="0"/>
         <v>1.1732500000000001</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>1.17325E-3</v>
       </c>
-      <c r="G24" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="I24" s="49">
-        <v>1</v>
-      </c>
-      <c r="J24" s="50">
+      <c r="G24" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="I24" s="40">
+        <v>1</v>
+      </c>
+      <c r="J24" s="41">
         <v>168.69</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="13">
+        <v>45</v>
+      </c>
+      <c r="B25" s="12">
         <f t="shared" si="0"/>
         <v>0.16239999999999999</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>1.6239999999999999E-4</v>
       </c>
-      <c r="G25" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="I25" s="49">
-        <v>1</v>
-      </c>
-      <c r="J25" s="50">
+      <c r="G25" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="I25" s="40">
+        <v>1</v>
+      </c>
+      <c r="J25" s="41">
         <f>(14.007*2)+(1.008*4)</f>
         <v>32.045999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="13">
+        <v>48</v>
+      </c>
+      <c r="B26" s="12">
         <f t="shared" si="0"/>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>5.8999999999999998E-5</v>
       </c>
-      <c r="G26" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="I26" s="49">
-        <v>1</v>
-      </c>
-      <c r="J26" s="50">
+      <c r="G26" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" s="40">
+        <v>1</v>
+      </c>
+      <c r="J26" s="41">
         <v>2.02</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="13">
+        <v>30</v>
+      </c>
+      <c r="B27" s="12">
         <f t="shared" si="0"/>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>7.0850000000000001E-5</v>
       </c>
-      <c r="G27" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="I27" s="49">
-        <v>1</v>
-      </c>
-      <c r="J27" s="50">
+      <c r="G27" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="I27" s="40">
+        <v>1</v>
+      </c>
+      <c r="J27" s="41">
         <v>170.34</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="13">
+        <v>31</v>
+      </c>
+      <c r="B28" s="12">
         <f t="shared" si="0"/>
         <v>0.42560999999999999</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>4.2560999999999999E-4</v>
       </c>
-      <c r="G28" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="I28" s="49">
-        <v>1</v>
-      </c>
-      <c r="J28" s="50">
+      <c r="G28" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I28" s="40">
+        <v>1</v>
+      </c>
+      <c r="J28" s="41">
         <v>6.94</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="13">
+        <v>87</v>
+      </c>
+      <c r="B29" s="12">
         <f t="shared" si="0"/>
         <v>1.141</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>1.1410000000000001E-3</v>
       </c>
-      <c r="G29" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="I29" s="49">
-        <v>1</v>
-      </c>
-      <c r="J29" s="50">
+      <c r="G29" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="I29" s="40">
+        <v>1</v>
+      </c>
+      <c r="J29" s="41">
         <v>17.03</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="13">
+        <v>124</v>
+      </c>
+      <c r="B30" s="12">
         <f t="shared" si="0"/>
         <v>0.82490700000000006</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>8.2490700000000005E-4</v>
       </c>
-      <c r="G30" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="H30" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="I30" s="49">
-        <v>1</v>
-      </c>
-      <c r="J30" s="50">
+      <c r="G30" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30" s="40">
+        <v>1</v>
+      </c>
+      <c r="J30" s="41">
         <v>28.01</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="13">
+        <v>44</v>
+      </c>
+      <c r="B31" s="12">
         <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="G31" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="I31" s="49">
-        <v>1</v>
-      </c>
-      <c r="J31" s="50">
+      <c r="G31" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="40">
+        <v>1</v>
+      </c>
+      <c r="J31" s="41">
         <v>44.01</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="13">
+        <v>81</v>
+      </c>
+      <c r="B32" s="12">
         <f t="shared" si="0"/>
         <v>7.085</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <v>7.0850000000000002E-3</v>
       </c>
-      <c r="G32" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="I32" s="49">
-        <v>1</v>
-      </c>
-      <c r="J32" s="50">
+      <c r="G32" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="I32" s="40">
+        <v>1</v>
+      </c>
+      <c r="J32" s="41">
         <v>2.0139999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="13">
+        <v>84</v>
+      </c>
+      <c r="B33" s="12">
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="13">
         <v>8.8000000000000003E-4</v>
       </c>
-      <c r="G33" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="I33" s="49">
-        <v>1</v>
-      </c>
-      <c r="J33" s="50">
+      <c r="G33" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="I33" s="40">
+        <v>1</v>
+      </c>
+      <c r="J33" s="41">
         <v>3.016</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="13">
+        <v>85</v>
+      </c>
+      <c r="B34" s="12">
         <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="13">
         <v>1.4499999999999999E-3</v>
       </c>
-      <c r="G34" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="H34" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="I34" s="49">
-        <v>1</v>
-      </c>
-      <c r="J34" s="50">
+      <c r="G34" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="I34" s="40">
+        <v>1</v>
+      </c>
+      <c r="J34" s="41">
         <v>4.0019999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="13">
+        <v>82</v>
+      </c>
+      <c r="B35" s="12">
         <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="13">
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="G35" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="I35" s="49">
-        <v>1</v>
-      </c>
-      <c r="J35" s="50">
+      <c r="G35" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="I35" s="40">
+        <v>1</v>
+      </c>
+      <c r="J35" s="41">
         <v>2.02</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="13">
+        <v>88</v>
+      </c>
+      <c r="B36" s="12">
         <f t="shared" si="0"/>
         <v>0.79100000000000004</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="13">
         <v>7.9100000000000004E-4</v>
       </c>
-      <c r="G36" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="I36" s="49">
-        <v>1</v>
-      </c>
-      <c r="J36" s="50">
+      <c r="G36" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="I36" s="40">
+        <v>1</v>
+      </c>
+      <c r="J36" s="41">
         <v>16.05</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="13">
+        <v>89</v>
+      </c>
+      <c r="B37" s="12">
         <f t="shared" si="0"/>
         <v>0.82899999999999996</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <v>8.2899999999999998E-4</v>
       </c>
-      <c r="G37" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="I37" s="51">
-        <v>1</v>
-      </c>
-      <c r="J37" s="50">
+      <c r="G37" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="I37" s="42">
+        <v>1</v>
+      </c>
+      <c r="J37" s="41">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="13">
+        <v>79</v>
+      </c>
+      <c r="B38" s="12">
         <f>C38*1000</f>
         <v>1</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G38" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="H38" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="I38" s="49">
-        <v>1</v>
-      </c>
-      <c r="J38" s="50">
+      <c r="G38" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="I38" s="40">
+        <v>1</v>
+      </c>
+      <c r="J38" s="41">
         <v>28.01</v>
       </c>
     </row>
@@ -3949,443 +4452,443 @@
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="G39" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="H39" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="I39" s="49">
-        <v>1</v>
-      </c>
-      <c r="J39" s="50">
+      <c r="G39" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="I39" s="40">
+        <v>1</v>
+      </c>
+      <c r="J39" s="41">
         <f>J35</f>
         <v>2.02</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1">
       <c r="A40" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B40"/>
-      <c r="C40" s="15"/>
-      <c r="G40" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="H40" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="I40" s="49">
-        <v>1</v>
-      </c>
-      <c r="J40" s="50">
+      <c r="C40" s="14"/>
+      <c r="G40" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" s="40">
+        <v>1</v>
+      </c>
+      <c r="J40" s="41">
         <v>159.69</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" thickTop="1">
       <c r="A41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="13">
+        <v>51</v>
+      </c>
+      <c r="B41" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G41" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="H41" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="I41" s="49">
-        <v>1</v>
-      </c>
-      <c r="J41" s="50">
+      <c r="G41" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="I41" s="40">
+        <v>1</v>
+      </c>
+      <c r="J41" s="41">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="13">
+        <v>58</v>
+      </c>
+      <c r="B42" s="12">
         <f t="shared" si="0"/>
         <v>54.4</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="13">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="G42" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="I42" s="49">
-        <v>1</v>
-      </c>
-      <c r="J42" s="50">
+      <c r="G42" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="I42" s="40">
+        <v>1</v>
+      </c>
+      <c r="J42" s="41">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="13">
+        <v>52</v>
+      </c>
+      <c r="B43" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G43" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="H43" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="I43" s="49">
-        <v>1</v>
-      </c>
-      <c r="J43" s="50">
+      <c r="G43" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="I43" s="40">
+        <v>1</v>
+      </c>
+      <c r="J43" s="41">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="13">
+        <v>61</v>
+      </c>
+      <c r="B44" s="12">
         <f t="shared" si="0"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="13">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="G44" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="H44" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="I44" s="49">
-        <v>1</v>
-      </c>
-      <c r="J44" s="50">
+      <c r="G44" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="I44" s="40">
+        <v>1</v>
+      </c>
+      <c r="J44" s="41">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18.75">
       <c r="A45" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="13">
+        <v>56</v>
+      </c>
+      <c r="B45" s="12">
         <f t="shared" si="0"/>
         <v>5.0108799999999993</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="13">
         <v>5.0108799999999997E-3</v>
       </c>
-      <c r="G45" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="H45" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="I45" s="49">
-        <v>1</v>
-      </c>
-      <c r="J45" s="50">
+      <c r="G45" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="I45" s="40">
+        <v>1</v>
+      </c>
+      <c r="J45" s="41">
         <v>46.07</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="13">
+        <v>59</v>
+      </c>
+      <c r="B46" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G46" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="H46" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="I46" s="49">
-        <v>1</v>
-      </c>
-      <c r="J46" s="50">
+      <c r="G46" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="I46" s="40">
+        <v>1</v>
+      </c>
+      <c r="J46" s="41">
         <v>233.88</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="13">
+        <v>53</v>
+      </c>
+      <c r="B47" s="12">
         <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="13">
         <v>8.6E-3</v>
       </c>
-      <c r="G47" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="H47" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="I47" s="49">
-        <v>1</v>
-      </c>
-      <c r="J47" s="50">
+      <c r="G47" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="I47" s="40">
+        <v>1</v>
+      </c>
+      <c r="J47" s="41">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="13">
+        <v>57</v>
+      </c>
+      <c r="B48" s="12">
         <f t="shared" si="0"/>
         <v>5.7050000000000001</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="13">
         <v>5.705E-3</v>
       </c>
-      <c r="G48" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="H48" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="I48" s="49">
-        <v>1</v>
-      </c>
-      <c r="J48" s="50">
+      <c r="G48" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="I48" s="40">
+        <v>1</v>
+      </c>
+      <c r="J48" s="41">
         <v>92.04</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="13">
+        <v>54</v>
+      </c>
+      <c r="B49" s="12">
         <f t="shared" si="0"/>
         <v>0.35399999999999998</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="13">
         <v>3.5399999999999999E-4</v>
       </c>
-      <c r="G49" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="H49" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="I49" s="49">
-        <v>1</v>
-      </c>
-      <c r="J49" s="50">
+      <c r="G49" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="H49" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="I49" s="40">
+        <v>1</v>
+      </c>
+      <c r="J49" s="41">
         <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="13">
+        <v>55</v>
+      </c>
+      <c r="B50" s="12">
         <f t="shared" si="0"/>
         <v>2.12805</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="13">
         <v>2.1280499999999998E-3</v>
       </c>
-      <c r="G50" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="H50" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="I50" s="49">
-        <v>1</v>
-      </c>
-      <c r="J50" s="50">
+      <c r="G50" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="I50" s="40">
+        <v>1</v>
+      </c>
+      <c r="J50" s="41">
         <v>30.97</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="13">
+        <v>60</v>
+      </c>
+      <c r="B51" s="12">
         <f t="shared" si="0"/>
         <v>4.1000000000000005</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="13">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="G51" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="H51" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="I51" s="49">
-        <v>1</v>
-      </c>
-      <c r="J51" s="50">
+      <c r="G51" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" s="40">
+        <v>1</v>
+      </c>
+      <c r="J51" s="41">
         <f>195.078</f>
         <v>195.078</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="13">
+        <v>76</v>
+      </c>
+      <c r="B52" s="12">
         <f>C52*1000</f>
         <v>12.5</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="13">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G52" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="H52" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="I52" s="49">
-        <v>1</v>
-      </c>
-      <c r="J52" s="50">
+      <c r="G52" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="H52" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="I52" s="40">
+        <v>1</v>
+      </c>
+      <c r="J52" s="41">
         <v>76.08</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="13">
+        <v>70</v>
+      </c>
+      <c r="B53" s="12">
         <f>C53*1000</f>
         <v>7.5</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="13">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G53" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="H53" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="I53" s="49">
-        <v>1</v>
-      </c>
-      <c r="J53" s="50">
+      <c r="G53" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H53" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="I53" s="40">
+        <v>1</v>
+      </c>
+      <c r="J53" s="41">
         <v>28.09</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="13">
+        <v>80</v>
+      </c>
+      <c r="B54" s="12">
         <f>C54*1000</f>
         <v>5</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G54" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="H54" s="49" t="s">
-        <v>217</v>
-      </c>
-      <c r="I54" s="49">
-        <v>1</v>
-      </c>
-      <c r="J54" s="50">
+      <c r="G54" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="I54" s="40">
+        <v>1</v>
+      </c>
+      <c r="J54" s="41">
         <v>186.09</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="G55" s="49" t="s">
-        <v>218</v>
-      </c>
-      <c r="H55" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="I55" s="49">
-        <v>1</v>
-      </c>
-      <c r="J55" s="50">
+      <c r="G55" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="I55" s="40">
+        <v>1</v>
+      </c>
+      <c r="J55" s="41">
         <v>270.02999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="G56" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="H56" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="I56" s="49">
-        <v>1</v>
-      </c>
-      <c r="J56" s="50">
+      <c r="G56" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="I56" s="40">
+        <v>1</v>
+      </c>
+      <c r="J56" s="41">
         <v>60.1</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="G57" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="H57" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="I57" s="49">
-        <v>1</v>
-      </c>
-      <c r="J57" s="50">
+      <c r="G57" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="I57" s="40">
+        <v>1</v>
+      </c>
+      <c r="J57" s="41">
         <f>SUM(($D$38*0.25)+($D$82*0.75))</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="G58" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="H58" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="I58" s="49">
-        <v>1</v>
-      </c>
-      <c r="J58" s="50">
+      <c r="G58" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="I58" s="40">
+        <v>1</v>
+      </c>
+      <c r="J58" s="41">
         <v>18.02</v>
       </c>
     </row>
     <row r="78" spans="7:10">
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="50"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="41"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
@@ -4424,15 +4927,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="A1" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -4853,10 +5356,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4864,48 +5367,48 @@
     <col min="1" max="1" width="22" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="5" customWidth="1"/>
     <col min="8" max="10" width="9.140625" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1">
-      <c r="A1" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="A1" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A2" s="74" t="s">
-        <v>121</v>
+      <c r="A2" s="57" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickTop="1">
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="5" t="s">
         <v>114</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4"/>
-      <c r="B4" s="32">
+      <c r="B4" s="30">
         <v>825</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="33">
         <v>60</v>
       </c>
-      <c r="J4" s="35">
+      <c r="G4" s="65">
         <v>299792458</v>
       </c>
     </row>
@@ -4915,65 +5418,68 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2"/>
-      <c r="B6" s="29">
-        <f>B4*9.8066</f>
-        <v>8090.4449999999997</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="B6" s="27">
+        <f>B4*G7</f>
+        <v>8090.4862499999999</v>
+      </c>
+      <c r="C6" s="27">
         <f>IFERROR(C4*1000/B6,0)</f>
-        <v>7.4161557244379024</v>
-      </c>
-      <c r="D6" s="29">
+        <v>7.4161179125667509</v>
+      </c>
+      <c r="D6" s="27">
         <f>C4*1000*B6/2</f>
-        <v>242713350</v>
-      </c>
-      <c r="E6" s="29">
+        <v>242714587.5</v>
+      </c>
+      <c r="E6" s="27">
         <f>IFERROR(D6/C6,0)</f>
-        <v>32727650.149012499</v>
+        <v>32727983.880719531</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="J7" s="5">
-        <v>450000000</v>
-      </c>
+      <c r="G7" s="64">
+        <v>9.8066499999999994</v>
+      </c>
+      <c r="J7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="J8" s="5">
-        <f>1000*3000*600</f>
-        <v>1800000000</v>
-      </c>
+      <c r="J8"/>
     </row>
     <row r="9" spans="1:10" ht="18" thickBot="1">
-      <c r="A9" s="74" t="s">
-        <v>122</v>
-      </c>
+      <c r="A9" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1">
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="J10"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="33">
+      <c r="B11" s="31">
         <v>825</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="32">
         <f>(C13*B13)/1000</f>
-        <v>60</v>
+        <v>59.999694085136106</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4981,142 +5487,125 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="29">
-        <f>B11*9.8066</f>
-        <v>8090.4449999999997</v>
-      </c>
-      <c r="C13" s="29">
+      <c r="B13" s="27">
+        <f>B11*G7</f>
+        <v>8090.4862499999999</v>
+      </c>
+      <c r="C13" s="27">
         <f>D13/E13</f>
-        <v>7.4161557244379024</v>
-      </c>
-      <c r="D13" s="33">
+        <v>7.4160801008883865</v>
+      </c>
+      <c r="D13" s="31">
         <v>242713350</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="27">
         <f>IFERROR((B13^2)/2,0)</f>
-        <v>32727650.149012499</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>32727983.880719531</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="G14" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="B14" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="31">
-        <v>6.5619999999999998E-2</v>
-      </c>
-      <c r="H15" s="31">
-        <v>0.30642999999999998</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="31">
-        <v>3</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="30">
-        <f>C11/(B16*9.80655)</f>
-        <v>2.0394532225910234</v>
-      </c>
-      <c r="H16" s="5">
-        <f>1/(G15+H15)</f>
-        <v>2.6878107781212202</v>
-      </c>
+      <c r="B16" s="29">
+        <v>1</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28">
+        <f>C11/(B16*G7)</f>
+        <v>6.1182660832329194</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="G17" s="42">
-        <f>G15*H16</f>
-        <v>0.17637414326031445</v>
-      </c>
-      <c r="H17" s="42">
-        <f>H15*H16</f>
-        <v>0.82362585673968547</v>
-      </c>
+      <c r="G17"/>
+      <c r="H17"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="H18" s="5">
-        <f>G17+H17</f>
-        <v>0.99999999999999989</v>
-      </c>
+      <c r="G18"/>
+      <c r="H18"/>
     </row>
     <row r="19" spans="1:8" ht="18" thickBot="1">
-      <c r="A19" s="74" t="s">
-        <v>115</v>
+      <c r="A19" s="57" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5" thickTop="1">
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="40">
+      <c r="B21" s="37">
         <v>1000000000</v>
       </c>
-      <c r="C21" s="30">
-        <f>(B21/J4)</f>
-        <v>3.3356409519815204</v>
-      </c>
-      <c r="D21" s="30">
+      <c r="C21" s="70">
+        <f>(B21/G4/1000)</f>
+        <v>3.3356409519815205E-3</v>
+      </c>
+      <c r="D21" s="66">
         <f>B21/1000</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" thickBot="1">
-      <c r="A24" s="74" t="s">
-        <v>125</v>
+      <c r="A24" s="57" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickTop="1">
       <c r="B25" s="5" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="38">
+      <c r="B26" s="35">
         <f>B28/9.8066</f>
         <v>906348.21623351518</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="29">
         <v>120</v>
       </c>
     </row>
@@ -5125,85 +5614,87 @@
         <v>3</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="38">
+      <c r="B28" s="35">
         <f>(2*E28)^0.5</f>
         <v>8888194.4173155893</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="36">
         <f>IFERROR(C26*1000/B28,0)</f>
         <v>1.3501054811112287E-2</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="35">
         <f>C26*B28</f>
         <v>1066583330.0778707</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="34">
         <v>39500000000000</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" s="5" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="41">
-        <f>B28/299792458</f>
+      <c r="B30" s="38">
+        <f>B28/G4</f>
         <v>2.9647825287571407E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" thickBot="1">
-      <c r="A33" s="74" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickTop="1"/>
+      <c r="A33" s="57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A34" s="72"/>
+    </row>
     <row r="35" spans="1:9">
-      <c r="B35" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="52">
+      <c r="B35" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="43">
         <v>2130</v>
       </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
       <c r="F35"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="B36" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="53">
+      <c r="B36" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="44">
         <v>8.3144621000000001</v>
       </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
       <c r="F36"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B37" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="60">
+      <c r="B37" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="48">
         <f>IFERROR(VLOOKUP(C37,Database!$G$2:$J$58,4,FALSE),"-")</f>
         <v>2.02</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E37" s="49">
         <f>D37/1000</f>
         <v>2.0200000000000001E-3</v>
       </c>
@@ -5211,384 +5702,412 @@
       <c r="G37"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B38" s="58"/>
-      <c r="C38" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="60">
+      <c r="B38" s="47"/>
+      <c r="C38" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="48">
         <f>IFERROR(VLOOKUP(C38,Database!$G$2:$J$58,4,FALSE),"-")</f>
         <v>18.02</v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="49">
         <f>D38/1000</f>
         <v>1.8020000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B39" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="18">
+    <row r="39" spans="1:9" ht="16.5" thickTop="1">
+      <c r="B39" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="17">
         <v>1.3979999999999999</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39"/>
+      <c r="E39" s="39"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B40" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="45">
+        <v>0</v>
+      </c>
+      <c r="D40" s="71">
+        <f>IFERROR(C40*101320,101.32)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="39"/>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B41" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="45">
+        <v>500</v>
+      </c>
+      <c r="D41" s="71">
+        <f>C41*101320</f>
+        <v>50660000</v>
+      </c>
+      <c r="E41" s="39"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" thickTop="1">
+      <c r="B42" s="47"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="B43" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="46">
+        <f>(C35*C36)/E37</f>
+        <v>8767229.8381188121</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="46">
+        <f>(C35*C36)/E38</f>
+        <v>982786.03068812436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="B44" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" s="46">
+        <f>(2*C39)/(C39-1)</f>
+        <v>7.0251256281407048</v>
+      </c>
+      <c r="D44" s="39"/>
+      <c r="E44"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="B45" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" s="46">
         <f>(C39-1)/C39</f>
         <v>0.284692417739628</v>
       </c>
-      <c r="E39" s="48"/>
-    </row>
-    <row r="40" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B40" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="54">
-        <v>1E-3</v>
-      </c>
-      <c r="D40" s="55">
-        <f>C40*101320</f>
-        <v>101.32000000000001</v>
-      </c>
-      <c r="E40" s="48"/>
-    </row>
-    <row r="41" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B41" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" s="54">
-        <v>75</v>
-      </c>
-      <c r="D41" s="55">
-        <f>C41*101320</f>
-        <v>7599000</v>
-      </c>
-      <c r="E41" s="48"/>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" thickTop="1">
-      <c r="B42" s="58"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="58" t="s">
+      <c r="D45" s="39"/>
+      <c r="E45"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="46">
+        <f>1-((D40/D41)^C45)</f>
+        <v>1</v>
+      </c>
+      <c r="D46" s="39"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:9" customFormat="1" ht="12.75"/>
+    <row r="48" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B48" s="47"/>
+      <c r="C48" s="22" t="str">
+        <f>C37</f>
+        <v>LqdHydrogen</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="22" t="str">
+        <f>C38</f>
+        <v>Water (CRP)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="16.5" thickTop="1">
+      <c r="B49" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="67">
+        <f>(C43*C44*C46)^0.5</f>
+        <v>7847.9864311534302</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="67">
+        <f>(E43*C44*C46)^0.5</f>
+        <v>2627.5835536031618</v>
+      </c>
+      <c r="G49" s="51"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="B50" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="67">
+        <f>C49/9.80655</f>
+        <v>800.28006089332439</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="67">
+        <f>E49/9.80655</f>
+        <v>267.94168730115706</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="E53" s="50"/>
+    </row>
+    <row r="54" spans="1:7" ht="18" thickBot="1">
+      <c r="A54" s="57" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" thickTop="1"/>
+    <row r="56" spans="1:7">
+      <c r="C56" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="D57" s="55">
+        <v>60</v>
+      </c>
+      <c r="E57" s="73">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="B59" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="16.5" thickBot="1">
+      <c r="B60" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" s="75">
+        <v>800</v>
+      </c>
+      <c r="D60" s="74">
+        <f>D57</f>
+        <v>60</v>
+      </c>
+      <c r="E60" s="56">
+        <f t="shared" ref="E60:E66" si="0">($C$60/C60)^$E$57</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16.5" thickTop="1">
+      <c r="B61" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="75">
+        <v>606</v>
+      </c>
+      <c r="D61" s="68">
+        <f t="shared" ref="D61:D66" si="1">$D$57*(($C$60/C61)^$E$57)</f>
+        <v>73.894867118770051</v>
+      </c>
+      <c r="E61" s="56">
+        <f t="shared" si="0"/>
+        <v>1.2315811186461676</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="B62" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="56">
-        <f>(C35*C36)/E37</f>
-        <v>8767229.8381188121</v>
-      </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="56">
-        <f>(C35*C36)/E38</f>
-        <v>982786.03068812436</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="B44" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="56">
-        <f>(2*C39)/(C39-1)</f>
-        <v>7.0251256281407048</v>
-      </c>
-      <c r="D44" s="48"/>
-      <c r="E44"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="B45" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="56">
-        <f>1-(D40^D39)/D41</f>
-        <v>0.99999950993942432</v>
-      </c>
-      <c r="D45" s="48"/>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" s="58"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="B47" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="57">
-        <f>(C43*C44*C45)^0.5</f>
-        <v>7847.9845081588201</v>
-      </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="57">
-        <f>(E43*C44*C45)^0.5</f>
-        <v>2627.5829097655283</v>
-      </c>
-      <c r="G47" s="63"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="B48" s="58" t="s">
-        <v>226</v>
-      </c>
-      <c r="C48" s="59">
-        <f>C47/9.80655</f>
-        <v>800.27986480044672</v>
-      </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="59">
-        <f>E47/9.80655</f>
-        <v>267.94162164732023</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="E51" s="62"/>
-    </row>
-    <row r="52" spans="1:6" ht="18" thickBot="1">
-      <c r="A52" s="74" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="16.5" thickTop="1"/>
-    <row r="54" spans="1:6">
-      <c r="C54" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="D55" s="69">
+      <c r="C62" s="75">
+        <v>400</v>
+      </c>
+      <c r="D62" s="68">
+        <f t="shared" si="1"/>
+        <v>100.90756983044574</v>
+      </c>
+      <c r="E62" s="56">
+        <f t="shared" si="0"/>
+        <v>1.681792830507429</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="B63" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="75">
+        <v>253</v>
+      </c>
+      <c r="D63" s="68">
+        <f t="shared" si="1"/>
+        <v>142.27491989040757</v>
+      </c>
+      <c r="E63" s="56">
+        <f t="shared" si="0"/>
+        <v>2.3712486648401261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="B64" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="75">
+        <v>370</v>
+      </c>
+      <c r="D64" s="68">
+        <f t="shared" si="1"/>
+        <v>106.98365906113423</v>
+      </c>
+      <c r="E64" s="56">
+        <f t="shared" si="0"/>
+        <v>1.7830609843522371</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="75">
+        <v>283</v>
+      </c>
+      <c r="D65" s="68">
+        <f t="shared" si="1"/>
+        <v>130.80637609525397</v>
+      </c>
+      <c r="E65" s="56">
+        <f t="shared" si="0"/>
+        <v>2.1801062682542329</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="75">
+        <v>253</v>
+      </c>
+      <c r="D66" s="68">
+        <f t="shared" si="1"/>
+        <v>142.27491989040757</v>
+      </c>
+      <c r="E66" s="56">
+        <f t="shared" si="0"/>
+        <v>2.3712486648401261</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="C67" s="75"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="54"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="75"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="54"/>
+    </row>
+    <row r="69" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B69" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="75">
+        <v>800</v>
+      </c>
+      <c r="D69" s="74">
+        <f>D57</f>
         <v>60</v>
       </c>
-      <c r="E55" s="70">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="E57" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B58" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="C58" s="67">
-        <v>800</v>
-      </c>
-      <c r="D58" s="73">
-        <f>D55</f>
-        <v>60</v>
-      </c>
-      <c r="E58" s="71">
-        <f>($C$58/C58)^$E$55</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="16.5" thickTop="1">
-      <c r="B59" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="C59" s="67">
+      <c r="E69" s="56">
+        <f>($C$60/C69)^$E$57</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="16.5" thickTop="1">
+      <c r="B70" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="75">
         <v>606</v>
       </c>
-      <c r="D59" s="72">
-        <f>$D$55*(($C$58/C59)^$E$55)</f>
+      <c r="D70" s="68">
+        <f>$D$57*(($C$69/C70)^$E$57)</f>
         <v>73.894867118770051</v>
       </c>
-      <c r="E59" s="71">
-        <f>($C$58/C59)^$E$55</f>
+      <c r="E70" s="56">
+        <f>($C$69/C70)^$E$57</f>
         <v>1.2315811186461676</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="B60" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="67">
-        <v>400</v>
-      </c>
-      <c r="D60" s="72">
-        <f>$D$55*(($C$58/C60)^$E$55)</f>
-        <v>100.90756983044574</v>
-      </c>
-      <c r="E60" s="71">
-        <f>($C$58/C60)^$E$55</f>
-        <v>1.681792830507429</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="B61" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61" s="67">
+    <row r="71" spans="2:5">
+      <c r="B71" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="75">
         <v>253</v>
       </c>
-      <c r="D61" s="72">
-        <f>$D$55*(($C$58/C61)^$E$55)</f>
+      <c r="D71" s="68">
+        <f>$D$57*(($C$69/C71)^$E$57)</f>
         <v>142.27491989040757</v>
       </c>
-      <c r="E61" s="71">
-        <f>($C$58/C61)^$E$55</f>
+      <c r="E71" s="56">
+        <f>($C$69/C71)^$E$57</f>
         <v>2.3712486648401261</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="B62" s="64" t="s">
+    <row r="72" spans="2:5">
+      <c r="B72" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" s="75">
+        <v>370</v>
+      </c>
+      <c r="D72" s="68">
+        <f>$D$57*(($C$69/C72)^$E$57)</f>
+        <v>106.98365906113423</v>
+      </c>
+      <c r="E72" s="56">
+        <f>($C$69/C72)^$E$57</f>
+        <v>1.7830609843522371</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="C62" s="67">
-        <v>370</v>
-      </c>
-      <c r="D62" s="72">
-        <f>$D$55*(($C$58/C62)^$E$55)</f>
-        <v>106.98365906113423</v>
-      </c>
-      <c r="E62" s="71">
-        <f>($C$58/C62)^$E$55</f>
-        <v>1.7830609843522371</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="B63" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" s="67">
+      <c r="C73" s="75">
         <v>283</v>
       </c>
-      <c r="D63" s="72">
-        <f>$D$55*(($C$58/C63)^$E$55)</f>
+      <c r="D73" s="68">
+        <f>$D$57*(($C$69/C73)^$E$57)</f>
         <v>130.80637609525397</v>
       </c>
-      <c r="E63" s="71">
-        <f>($C$58/C63)^$E$55</f>
+      <c r="E73" s="56">
+        <f>($C$69/C73)^$E$57</f>
         <v>2.1801062682542329</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="B64" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="C64" s="67">
+    <row r="74" spans="2:5">
+      <c r="B74" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="75">
         <v>253</v>
       </c>
-      <c r="D64" s="72">
-        <f>$D$55*(($C$58/C64)^$E$55)</f>
+      <c r="D74" s="68">
+        <f>$D$57*(($C$69/C74)^$E$57)</f>
         <v>142.27491989040757</v>
       </c>
-      <c r="E64" s="71">
-        <f>($C$58/C64)^$E$55</f>
-        <v>2.3712486648401261</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="C65" s="67"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="68"/>
-    </row>
-    <row r="66" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B66" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="67">
-        <v>800</v>
-      </c>
-      <c r="D66" s="73">
-        <f>D55</f>
-        <v>60</v>
-      </c>
-      <c r="E66" s="71">
-        <f>($C$58/C66)^$E$55</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="16.5" thickTop="1">
-      <c r="B67" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="67">
-        <v>606</v>
-      </c>
-      <c r="D67" s="72">
-        <f>$D$55*(($C$66/C67)^$E$55)</f>
-        <v>73.894867118770051</v>
-      </c>
-      <c r="E67" s="71">
-        <f>($C$66/C67)^$E$55</f>
-        <v>1.2315811186461676</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="C68" s="67">
-        <v>253</v>
-      </c>
-      <c r="D68" s="72">
-        <f>$D$55*(($C$66/C68)^$E$55)</f>
-        <v>142.27491989040757</v>
-      </c>
-      <c r="E68" s="71">
-        <f>($C$66/C68)^$E$55</f>
-        <v>2.3712486648401261</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="C69" s="67">
-        <v>370</v>
-      </c>
-      <c r="D69" s="72">
-        <f>$D$55*(($C$66/C69)^$E$55)</f>
-        <v>106.98365906113423</v>
-      </c>
-      <c r="E69" s="71">
-        <f>($C$66/C69)^$E$55</f>
-        <v>1.7830609843522371</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" s="64" t="s">
-        <v>234</v>
-      </c>
-      <c r="C70" s="67">
-        <v>283</v>
-      </c>
-      <c r="D70" s="72">
-        <f>$D$55*(($C$66/C70)^$E$55)</f>
-        <v>130.80637609525397</v>
-      </c>
-      <c r="E70" s="71">
-        <f>($C$66/C70)^$E$55</f>
-        <v>2.1801062682542329</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="67">
-        <v>253</v>
-      </c>
-      <c r="D71" s="72">
-        <f>$D$55*(($C$66/C71)^$E$55)</f>
-        <v>142.27491989040757</v>
-      </c>
-      <c r="E71" s="71">
-        <f>($C$66/C71)^$E$55</f>
+      <c r="E74" s="56">
+        <f>($C$69/C74)^$E$57</f>
         <v>2.3712486648401261</v>
       </c>
     </row>

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="17670" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Engine Config Calc" sheetId="2" r:id="rId1"/>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0" shapeId="0">
+    <comment ref="A25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0" shapeId="0">
+    <comment ref="A34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -458,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B35" authorId="0" shapeId="0">
+    <comment ref="B36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -482,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0" shapeId="0">
+    <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -506,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0">
+    <comment ref="B38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -530,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="0" shapeId="0">
+    <comment ref="B40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="0" shapeId="0">
+    <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -578,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0" shapeId="0">
+    <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -602,7 +602,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A54" authorId="0" shapeId="0">
+    <comment ref="A55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -626,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="0" shapeId="0">
+    <comment ref="E57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -650,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0" shapeId="0">
+    <comment ref="B69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -674,12 +674,132 @@
         </r>
       </text>
     </comment>
+    <comment ref="B82" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Total heat production of a given reactor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B83" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Temperature of hot reservoir or power source</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B84" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Temperature of cold reservoir or radiator</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B85" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Work; useful energy; ElectricCharge produced; heat destroyed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B86" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ratio of Temps differential</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="241">
   <si>
     <t>name</t>
   </si>
@@ -1400,9 +1520,6 @@
     <t>Engine Spec</t>
   </si>
   <si>
-    <t>More Propellants</t>
-  </si>
-  <si>
     <t>OPT stuff…</t>
   </si>
   <si>
@@ -1416,6 +1533,27 @@
   </si>
   <si>
     <t>TWR per engine</t>
+  </si>
+  <si>
+    <t>Isp (s)</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Tc</t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
+    <t>Rt</t>
+  </si>
+  <si>
+    <t>Carnot cycle generator</t>
   </si>
 </sst>
 </file>
@@ -1429,17 +1567,17 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="General\ &quot;J/mol-1 /K-1&quot;"/>
     <numFmt numFmtId="171" formatCode="0\ &quot;K&quot;"/>
     <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;g/mol&quot;"/>
-    <numFmt numFmtId="174" formatCode="0\ &quot;atm&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.00\ &quot;g/mol&quot;"/>
-    <numFmt numFmtId="178" formatCode="0.000\ &quot;kg/mol&quot;"/>
-    <numFmt numFmtId="181" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="191" formatCode="0.00000\ &quot;m/s^2&quot;"/>
-    <numFmt numFmtId="194" formatCode="#,###\ &quot;m/s&quot;"/>
-    <numFmt numFmtId="202" formatCode="#,##0.00\ &quot;Pa&quot;"/>
+    <numFmt numFmtId="173" formatCode="0\ &quot;atm&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00\ &quot;g/mol&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.000\ &quot;kg/mol&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00000\ &quot;m/s^2&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,###\ &quot;m/s&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00\ &quot;Pa&quot;"/>
+    <numFmt numFmtId="186" formatCode="#,###\ &quot;kW&quot;"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1660,7 +1798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1734,15 +1872,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1759,7 +1888,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1796,7 +1925,6 @@
     <xf numFmtId="167" fontId="3" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="11"/>
@@ -1811,19 +1939,31 @@
     </xf>
     <xf numFmtId="171" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="11" applyFont="1"/>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1836,24 +1976,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="191" fontId="17" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="194" fontId="17" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="13" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="202" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="12"/>
-    <xf numFmtId="181" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="186" fontId="3" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -2214,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IQ68"/>
+  <dimension ref="A1:IQ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2235,13 +2366,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickTop="1">
       <c r="A2" s="17" t="s">
@@ -2282,7 +2413,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>227</v>
@@ -2299,7 +2430,7 @@
         <v>800</v>
       </c>
       <c r="C7" s="30">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -2321,10 +2452,10 @@
       <c r="E8" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="58"/>
+      <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickTop="1">
       <c r="B9" s="27">
@@ -2333,19 +2464,19 @@
       </c>
       <c r="C9" s="9">
         <f>IFERROR(C7*1000/B9,0)</f>
-        <v>7.6478715973344622</v>
+        <v>15.295743194668924</v>
       </c>
       <c r="D9" s="27">
-        <f>C7*1000*B9/2</f>
-        <v>235359600</v>
+        <f>C7*1000*B9</f>
+        <v>941438400</v>
       </c>
       <c r="E9" s="27">
         <f>IFERROR(D9/C9,0)</f>
-        <v>30774522.951199997</v>
+        <v>61549045.902399994</v>
       </c>
       <c r="G9" s="15">
         <f>SUM(B21:E21)</f>
-        <v>7.6478715973344622</v>
+        <v>15.295743194668926</v>
       </c>
       <c r="H9" s="6" t="str">
         <f>IF($C$9&gt;$G$9,"Input excesive",IF($C$9&lt;$G$9,"Output excessive","Equal"))</f>
@@ -2362,7 +2493,7 @@
       </c>
       <c r="C11" s="9">
         <f>IFERROR(C7*1000/B11/B9,0)</f>
-        <v>5.0985810648896415</v>
+        <v>10.197162129779283</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -2375,7 +2506,7 @@
       </c>
       <c r="C12" s="9">
         <f>IFERROR(C7*1000/B12/B9,0)</f>
-        <v>6.3732263311120514</v>
+        <v>12.746452662224103</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -2388,7 +2519,7 @@
       </c>
       <c r="C13" s="9">
         <f>IFERROR(C7*1000/B13/B9,0)</f>
-        <v>2.0669923236039085</v>
+        <v>4.133984647207817</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -2401,11 +2532,11 @@
       </c>
       <c r="C14" s="9">
         <f>IFERROR(C7*1000/B14/B9,0)</f>
-        <v>5.7502793964920764</v>
+        <v>11.500558792984153</v>
       </c>
       <c r="E14" s="5"/>
       <c r="K14" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2421,13 +2552,13 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -2440,13 +2571,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D17" s="19">
         <v>0</v>
       </c>
       <c r="E17" s="20">
-        <v>94.143360000000001</v>
+        <v>13.7705</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>91</v>
@@ -2478,25 +2609,23 @@
         <v>66</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>65</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="23">
         <f>IFERROR(E20/I18,"-")</f>
-        <v>0.9999949014189351</v>
+        <v>1.0000001503213618</v>
       </c>
       <c r="H18" s="24">
         <f>IFERROR(E17/G18,"-")</f>
-        <v>94.143839999999997</v>
-      </c>
-      <c r="I18" s="69">
-        <v>9</v>
+        <v>13.770497929999999</v>
+      </c>
+      <c r="I18" s="62">
+        <v>300</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>109</v>
@@ -2516,15 +2645,15 @@
         <v>25</v>
       </c>
       <c r="B19" s="10">
-        <f>IFERROR(VLOOKUP(B18,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>5</v>
-      </c>
-      <c r="C19" s="10">
-        <f>IFERROR(VLOOKUP(C18,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>5</v>
+        <f>IFERROR(VLOOKUP(B18,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>0.70209999999999995</v>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f>IFERROR(VLOOKUP(C18,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>-</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D18,Database!$A$2:$B$54,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D18,Database!$A$2:$B$55,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E19" s="11">
@@ -2546,11 +2675,11 @@
       </c>
       <c r="B20" s="15">
         <f>IFERROR($C$9*B17/SUM(B22:D22),"-")</f>
-        <v>9.559839496668078E-2</v>
+        <v>21.785704592891221</v>
       </c>
       <c r="C20" s="15">
         <f>IFERROR($C$9*C17/SUM(B22:D22),"-")</f>
-        <v>1.4339759245002117</v>
+        <v>0</v>
       </c>
       <c r="D20" s="15">
         <f>IFERROR($C$9*D17/SUM(B22:D22),"-")</f>
@@ -2558,7 +2687,7 @@
       </c>
       <c r="E20" s="15">
         <f>IFERROR($C$9*E17/SUM(B22:D22),0)</f>
-        <v>8.9999541127704159</v>
+        <v>300.00004509640854</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>94</v>
@@ -2582,11 +2711,11 @@
       </c>
       <c r="B21" s="6">
         <f>IFERROR(B19*B20,"-")</f>
-        <v>0.47799197483340389</v>
-      </c>
-      <c r="C21" s="6">
+        <v>15.295743194668926</v>
+      </c>
+      <c r="C21" s="6" t="str">
         <f t="shared" ref="C21:D21" si="0">IFERROR(C19*C20,"-")</f>
-        <v>7.1698796225010586</v>
+        <v>-</v>
       </c>
       <c r="D21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2596,7 +2725,7 @@
         <f>E19*E20</f>
         <v>0</v>
       </c>
-      <c r="K21" s="60" t="s">
+      <c r="K21" s="71" t="s">
         <v>95</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -2618,18 +2747,18 @@
       </c>
       <c r="B22" s="6">
         <f>IFERROR(B17*B19,"-")</f>
-        <v>5</v>
-      </c>
-      <c r="C22" s="6">
+        <v>0.70209999999999995</v>
+      </c>
+      <c r="C22" s="6" t="str">
         <f t="shared" ref="C22:D22" si="1">IFERROR(C17*C19,"-")</f>
-        <v>75</v>
+        <v>-</v>
       </c>
       <c r="D22" s="6" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="K22" s="60"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="2" t="s">
         <v>100</v>
       </c>
@@ -2648,7 +2777,7 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="K23" s="60"/>
+      <c r="K23" s="71"/>
       <c r="L23" s="2" t="s">
         <v>101</v>
       </c>
@@ -2662,881 +2791,1031 @@
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:15">
+      <c r="A24" s="5"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="K24" s="71"/>
+      <c r="O24" s="26"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A25" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B25" s="19">
+        <v>1</v>
+      </c>
+      <c r="C25" s="19">
         <v>0</v>
       </c>
-      <c r="C24" s="19">
+      <c r="D25" s="19">
         <v>0</v>
       </c>
-      <c r="D24" s="19">
-        <v>0</v>
-      </c>
-      <c r="E24" s="20">
-        <v>5</v>
-      </c>
-      <c r="G24" s="25" t="s">
+      <c r="E25" s="20">
+        <v>16.179099999999998</v>
+      </c>
+      <c r="G25" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H25" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I25" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="2" t="s">
+      <c r="K25" s="71"/>
+      <c r="L25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M25" s="2">
         <v>450</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N25" s="2">
         <v>1250</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O25" s="26">
         <v>900</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17" t="s">
+      <c r="B26" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="23">
-        <f>IFERROR(E27/I25,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="24" t="str">
-        <f>IFERROR(E24/G25,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="I25" s="22">
+      <c r="G26" s="23">
+        <f>IFERROR(E28/I26,"-")</f>
+        <v>0.99999700459513596</v>
+      </c>
+      <c r="H26" s="24">
+        <f>IFERROR(E25/G26,"-")</f>
+        <v>16.179148463099999</v>
+      </c>
+      <c r="I26" s="22">
         <f>I18</f>
-        <v>9</v>
-      </c>
-      <c r="K25" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="K26" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M26" s="2">
         <v>300</v>
-      </c>
-      <c r="N25" s="2">
-        <v>375</v>
-      </c>
-      <c r="O25" s="26">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="10">
-        <f>IFERROR(VLOOKUP(B25,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>5</v>
-      </c>
-      <c r="C26" s="10">
-        <f>IFERROR(VLOOKUP(C25,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>5</v>
-      </c>
-      <c r="D26" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D25,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-      <c r="K26" s="60"/>
-      <c r="L26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M26" s="2">
-        <v>3000</v>
       </c>
       <c r="N26" s="2">
         <v>375</v>
       </c>
       <c r="O26" s="26">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10">
+        <f>IFERROR(VLOOKUP(B26,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>0.82490700000000006</v>
+      </c>
+      <c r="C27" s="10" t="str">
+        <f>IFERROR(VLOOKUP(C26,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D27" s="10" t="str">
+        <f>IFERROR(VLOOKUP(D26,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="71"/>
+      <c r="L27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M27" s="2">
+        <v>3000</v>
+      </c>
+      <c r="N27" s="2">
+        <v>375</v>
+      </c>
+      <c r="O27" s="26">
         <v>720</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="16.5" thickTop="1">
-      <c r="A27" s="18" t="s">
+    <row r="28" spans="1:15" ht="16.5" thickTop="1">
+      <c r="A28" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="15" t="str">
-        <f>IFERROR($C$9*B24/SUM(B29:D29),"-")</f>
+      <c r="B28" s="15">
+        <f>IFERROR($C$9*B25/SUM(B30:D30),"-")</f>
+        <v>18.542385013909353</v>
+      </c>
+      <c r="C28" s="15">
+        <f>IFERROR($C$9*C25/SUM(B30:D30),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="15">
+        <f>IFERROR($C$9*D25/SUM(B30:D30),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <f>IFERROR($C$9*E25/SUM(B30:D30),0)</f>
+        <v>299.99910137854079</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="6">
+        <f>IFERROR(B27*B28,"-")</f>
+        <v>15.295743194668924</v>
+      </c>
+      <c r="C29" s="6" t="str">
+        <f t="shared" ref="C29:D29" si="2">IFERROR(C27*C28,"-")</f>
         <v>-</v>
       </c>
-      <c r="C27" s="15" t="str">
-        <f>IFERROR($C$9*C24/SUM(B29:D29),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D27" s="15" t="str">
-        <f>IFERROR($C$9*D24/SUM(B29:D29),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E27" s="15">
-        <f>IFERROR($C$9*E24/SUM(B29:D29),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="6" t="str">
-        <f>IFERROR(B26*B27,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C28" s="6" t="str">
-        <f t="shared" ref="C28:D28" si="2">IFERROR(C26*C27,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D28" s="6" t="str">
+      <c r="D29" s="6" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="E28" s="6">
-        <f>E26*E27</f>
+      <c r="E29" s="6">
+        <f>E27*E28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:15">
+      <c r="A30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="6">
-        <f>IFERROR(B24*B26,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="6">
-        <f t="shared" ref="C29:D29" si="3">IFERROR(C24*C26,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="str">
+      <c r="B30" s="6">
+        <f>IFERROR(B25*B27,"-")</f>
+        <v>0.82490700000000006</v>
+      </c>
+      <c r="C30" s="6" t="str">
+        <f t="shared" ref="C30:D30" si="3">IFERROR(C25*C27,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D30" s="6" t="str">
         <f t="shared" si="3"/>
         <v>-</v>
       </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-    </row>
-    <row r="31" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A31" s="18" t="s">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A33" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B33" s="19">
+        <v>1</v>
+      </c>
+      <c r="C33" s="19">
         <v>0</v>
       </c>
-      <c r="C31" s="19">
+      <c r="D33" s="19">
         <v>0</v>
       </c>
-      <c r="D31" s="19">
+      <c r="E33" s="20">
+        <v>8.3475999999999999</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="23">
+        <f>IFERROR(E36/I34,"-")</f>
+        <v>0.99999800985110254</v>
+      </c>
+      <c r="H34" s="24">
+        <f>IFERROR(E33/G34,"-")</f>
+        <v>8.3476166129999978</v>
+      </c>
+      <c r="I34" s="22">
+        <f>I18</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="10">
+        <f>IFERROR(VLOOKUP(B34,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>0.42560999999999999</v>
+      </c>
+      <c r="C35" s="10" t="str">
+        <f>IFERROR(VLOOKUP(C34,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D35" s="10" t="str">
+        <f>IFERROR(VLOOKUP(D34,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E35" s="11">
         <v>0</v>
       </c>
-      <c r="E31" s="20">
-        <v>5</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="23">
-        <f>IFERROR(E34/I32,"-")</f>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A36" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="15">
+        <f>IFERROR($C$9*B33/SUM(B38:D38),"-")</f>
+        <v>35.938401810739705</v>
+      </c>
+      <c r="C36" s="15">
+        <f>IFERROR($C$9*C33/SUM(B38:D38),"-")</f>
         <v>0</v>
       </c>
-      <c r="H32" s="24" t="str">
-        <f>IFERROR(E31/G32,"-")</f>
+      <c r="D36" s="15">
+        <f>IFERROR($C$9*D33/SUM(B38:D38),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="15">
+        <f>IFERROR($C$9*E33/SUM(B38:D38),0)</f>
+        <v>299.99940295533077</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="6">
+        <f>IFERROR(B35*B36,"-")</f>
+        <v>15.295743194668926</v>
+      </c>
+      <c r="C37" s="6" t="str">
+        <f t="shared" ref="C37:D37" si="4">IFERROR(C35*C36,"-")</f>
         <v>-</v>
       </c>
-      <c r="I32" s="22">
-        <f>I18</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="10" t="str">
-        <f>IFERROR(VLOOKUP(B32,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C33" s="10" t="str">
-        <f>IFERROR(VLOOKUP(C32,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D33" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D32,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E33" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A34" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="15" t="str">
-        <f>IFERROR($C$9*B31/SUM(B36:D36),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C34" s="15" t="str">
-        <f>IFERROR($C$9*C31/SUM(B36:D36),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D34" s="15" t="str">
-        <f>IFERROR($C$9*D31/SUM(B36:D36),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E34" s="15">
-        <f>IFERROR($C$12*E31/SUM(B36:D36),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="6" t="str">
-        <f>IFERROR(B33*B34,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C35" s="6" t="str">
-        <f t="shared" ref="C35:D35" si="4">IFERROR(C33*C34,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D35" s="6" t="str">
+      <c r="D37" s="6" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="E35" s="6">
-        <f>E33*E34</f>
+      <c r="E37" s="6">
+        <f>E35*E36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="2" t="s">
+    <row r="38" spans="1:9">
+      <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="6" t="str">
-        <f>IFERROR(B31*B33,"-")</f>
+      <c r="B38" s="6">
+        <f>IFERROR(B33*B35,"-")</f>
+        <v>0.42560999999999999</v>
+      </c>
+      <c r="C38" s="6" t="str">
+        <f t="shared" ref="C38:D38" si="5">IFERROR(C33*C35,"-")</f>
         <v>-</v>
       </c>
-      <c r="C36" s="6" t="str">
-        <f t="shared" ref="C36:D36" si="5">IFERROR(C31*C33,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D36" s="6" t="str">
+      <c r="D38" s="6" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="39" spans="1:9" ht="18" thickBot="1">
-      <c r="A39" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-    </row>
-    <row r="40" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A40" s="18" t="s">
+      <c r="E38" s="6"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A41" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="19">
-        <v>0.745</v>
-      </c>
-      <c r="C40" s="19">
-        <v>0.255</v>
-      </c>
-      <c r="D40" s="19">
+      <c r="B41" s="19">
+        <v>1</v>
+      </c>
+      <c r="C41" s="19">
         <v>0</v>
       </c>
-      <c r="E40" s="20">
+      <c r="D41" s="19">
         <v>0</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="E41" s="20">
+        <v>1</v>
+      </c>
+      <c r="G41" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H41" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I41" s="21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17" t="s">
+      <c r="B42" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="23">
-        <f>IFERROR(E43/I41,"-")</f>
+      <c r="G42" s="23">
+        <f>IFERROR(E44/I42,"-")</f>
+        <v>5.0985810648896415E-2</v>
+      </c>
+      <c r="H42" s="24">
+        <f>IFERROR(E41/G42,"-")</f>
+        <v>19.613299999999999</v>
+      </c>
+      <c r="I42" s="22">
+        <f>I34</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="10">
+        <f>IFERROR(VLOOKUP(B42,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="10" t="str">
+        <f>IFERROR(VLOOKUP(C42,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D43" s="10" t="str">
+        <f>IFERROR(VLOOKUP(D42,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E43" s="11">
         <v>0</v>
       </c>
-      <c r="H41" s="24" t="str">
-        <f>IFERROR(E40/G41,"-")</f>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A44" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="15">
+        <f>IFERROR($C$9*B41/SUM(B46:D46),"-")</f>
+        <v>15.295743194668924</v>
+      </c>
+      <c r="C44" s="15">
+        <f>IFERROR($C$9*C41/SUM(B46:D46),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="15">
+        <f>IFERROR($C$9*D41/SUM(B46:D46),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="15">
+        <f>IFERROR($C$9*E41/SUM(B46:D46),0)</f>
+        <v>15.295743194668924</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="6">
+        <f>IFERROR(B43*B44,"-")</f>
+        <v>15.295743194668924</v>
+      </c>
+      <c r="C45" s="6" t="str">
+        <f t="shared" ref="C45:D45" si="6">IFERROR(C43*C44,"-")</f>
         <v>-</v>
       </c>
-      <c r="I41" s="22">
-        <f>I32</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="10" t="str">
-        <f>IFERROR(VLOOKUP(B41,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C42" s="10" t="str">
-        <f>IFERROR(VLOOKUP(C41,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D42" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D41,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A43" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="15" t="str">
-        <f>IFERROR($C$9*B40/SUM(B45:D45),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C43" s="15" t="str">
-        <f>IFERROR($C$9*C40/SUM(B45:D45),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D43" s="15" t="str">
-        <f>IFERROR($C$9*D40/SUM(B45:D45),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E43" s="15">
-        <f>IFERROR($C$11*E40/SUM(B45:D45),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="6" t="str">
-        <f>IFERROR(B42*B43,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C44" s="6" t="str">
-        <f t="shared" ref="C44:D44" si="6">IFERROR(C42*C43,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D44" s="6" t="str">
+      <c r="D45" s="6" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="E44" s="6">
-        <f>E42*E43</f>
+      <c r="E45" s="6">
+        <f>E43*E44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:9">
+      <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="6" t="str">
-        <f>IFERROR(B40*B42,"-")</f>
+      <c r="B46" s="6">
+        <f>IFERROR(B41*B43,"-")</f>
+        <v>1</v>
+      </c>
+      <c r="C46" s="6" t="str">
+        <f t="shared" ref="C46:D46" si="7">IFERROR(C41*C43,"-")</f>
         <v>-</v>
       </c>
-      <c r="C45" s="6" t="str">
-        <f t="shared" ref="C45:D45" si="7">IFERROR(C40*C42,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D45" s="6" t="str">
+      <c r="D46" s="6" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A47" s="18" t="s">
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A49" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="19">
-        <v>0.434</v>
-      </c>
-      <c r="C47" s="19">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="D47" s="19">
+      <c r="B49" s="19">
+        <v>1</v>
+      </c>
+      <c r="C49" s="19">
         <v>0</v>
       </c>
-      <c r="E47" s="20">
+      <c r="D49" s="19">
         <v>0</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="E49" s="20">
+        <v>1</v>
+      </c>
+      <c r="G49" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H49" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I49" s="21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A48" s="1" t="s">
+    <row r="50" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="17" t="s">
+      <c r="B50" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G48" s="23">
-        <f>E50/I48</f>
+      <c r="G50" s="23">
+        <f>E52/I50</f>
+        <v>4.3456902321667511E-2</v>
+      </c>
+      <c r="H50" s="24">
+        <f>IFERROR(E49/G50,"-")</f>
+        <v>23.011304225000003</v>
+      </c>
+      <c r="I50" s="22">
+        <f>I34</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="10">
+        <f>IFERROR(VLOOKUP(B50,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>1.1732500000000001</v>
+      </c>
+      <c r="C51" s="10" t="str">
+        <f>IFERROR(VLOOKUP(C50,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D51" s="10" t="str">
+        <f>IFERROR(VLOOKUP(D50,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E51" s="11">
         <v>0</v>
       </c>
-      <c r="H48" s="24" t="str">
-        <f>IFERROR(E47/G48,"-")</f>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A52" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="15">
+        <f>IFERROR($C$9*B49/SUM(B54:D54),"-")</f>
+        <v>13.037070696500253</v>
+      </c>
+      <c r="C52" s="15">
+        <f>IFERROR($C$9*C49/SUM(B54:D54),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="15">
+        <f>IFERROR($C$9*D49/SUM(B54:D54),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="15">
+        <f>IFERROR($C$9*E49/SUM(B54:D54),0)</f>
+        <v>13.037070696500253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="6">
+        <f>IFERROR(B51*B52,"-")</f>
+        <v>15.295743194668923</v>
+      </c>
+      <c r="C53" s="6" t="str">
+        <f t="shared" ref="C53:D53" si="8">IFERROR(C51*C52,"-")</f>
         <v>-</v>
       </c>
-      <c r="I48" s="22">
-        <f>I32</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="10" t="str">
-        <f>IFERROR(VLOOKUP(B48,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C49" s="10" t="str">
-        <f>IFERROR(VLOOKUP(C48,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D49" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D48,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E49" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A50" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="15" t="str">
-        <f>IFERROR($C$9*B47/SUM(B52:D52),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C50" s="15" t="str">
-        <f>IFERROR($C$9*C47/SUM(B52:D52),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D50" s="15" t="str">
-        <f>IFERROR($C$9*D47/SUM(B52:D52),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E50" s="15">
-        <f>IFERROR($C$12*E47/SUM(B52:D52),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="6" t="str">
-        <f>IFERROR(B49*B50,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C51" s="6" t="str">
-        <f t="shared" ref="C51:D51" si="8">IFERROR(C49*C50,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D51" s="6" t="str">
+      <c r="D53" s="6" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
       </c>
-      <c r="E51" s="6">
-        <f>E49*E50</f>
+      <c r="E53" s="6">
+        <f>E51*E52</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="2" t="s">
+    <row r="54" spans="1:9">
+      <c r="A54" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="6" t="str">
-        <f>IFERROR(B47*B49,"-")</f>
+      <c r="B54" s="6">
+        <f>IFERROR(B49*B51,"-")</f>
+        <v>1.1732500000000001</v>
+      </c>
+      <c r="C54" s="6" t="str">
+        <f t="shared" ref="C54:D54" si="9">IFERROR(C49*C51,"-")</f>
         <v>-</v>
       </c>
-      <c r="C52" s="6" t="str">
-        <f t="shared" ref="C52:D52" si="9">IFERROR(C47*C49,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D52" s="6" t="str">
+      <c r="D54" s="6" t="str">
         <f t="shared" si="9"/>
         <v>-</v>
       </c>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="55" spans="1:9" ht="18" thickBot="1">
-      <c r="A55" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-    </row>
-    <row r="56" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A56" s="18" t="s">
+      <c r="E54" s="6"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A57" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="19">
-        <v>3</v>
-      </c>
-      <c r="C56" s="19">
-        <v>1</v>
-      </c>
-      <c r="D56" s="19">
+      <c r="B57" s="19">
+        <v>1</v>
+      </c>
+      <c r="C57" s="19">
         <v>0</v>
       </c>
-      <c r="E56" s="20">
+      <c r="D57" s="19">
         <v>0</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="E57" s="20">
+        <v>1</v>
+      </c>
+      <c r="G57" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="H56" s="25" t="s">
+      <c r="H57" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="I56" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A57" s="1" t="s">
+      <c r="I57" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="17" t="s">
+      <c r="B58" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G57" s="23">
-        <f>IFERROR(E59/I57,"-")</f>
+      <c r="G58" s="23">
+        <f>E60/I58</f>
+        <v>4.3456902321667511E-2</v>
+      </c>
+      <c r="H58" s="24">
+        <f>IFERROR(E57/G58,"-")</f>
+        <v>23.011304225000003</v>
+      </c>
+      <c r="I58" s="22">
+        <f>I42</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="10">
+        <f>IFERROR(VLOOKUP(B58,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>1.1732500000000001</v>
+      </c>
+      <c r="C59" s="10" t="str">
+        <f>IFERROR(VLOOKUP(C58,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D59" s="10" t="str">
+        <f>IFERROR(VLOOKUP(D58,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E59" s="11">
         <v>0</v>
       </c>
-      <c r="H57" s="24" t="str">
-        <f>IFERROR(E56/G57,"-")</f>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A60" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="15">
+        <f>IFERROR($C$9*B57/SUM(B62:D62),"-")</f>
+        <v>13.037070696500253</v>
+      </c>
+      <c r="C60" s="15">
+        <f>IFERROR($C$9*C57/SUM(B62:D62),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="15">
+        <f>IFERROR($C$9*D57/SUM(B62:D62),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="15">
+        <f>IFERROR($C$9*E57/SUM(B62:D62),0)</f>
+        <v>13.037070696500253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="6">
+        <f>IFERROR(B59*B60,"-")</f>
+        <v>15.295743194668923</v>
+      </c>
+      <c r="C61" s="6" t="str">
+        <f t="shared" ref="C61:D61" si="10">IFERROR(C59*C60,"-")</f>
         <v>-</v>
       </c>
-      <c r="I57" s="22">
-        <f>I25</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" s="10">
-        <f>IFERROR(VLOOKUP(B57,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="C58" s="10">
-        <f>IFERROR(VLOOKUP(C57,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>5</v>
-      </c>
-      <c r="D58" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D57,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A59" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="15">
-        <f>IFERROR($C$13*B56/SUM(B61:D61),"-")</f>
-        <v>1.0229259272206739</v>
-      </c>
-      <c r="C59" s="15">
-        <f>IFERROR($C$13*C56/SUM(B61:D61),"-")</f>
-        <v>0.340975309073558</v>
-      </c>
-      <c r="D59" s="15">
-        <f>IFERROR($C$13*D56/SUM(B61:D61),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="15">
-        <f>IFERROR($C$13*E56/SUM(B61:D61),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="6">
-        <f>IFERROR(B58*B59,"-")</f>
-        <v>0.36211577823611851</v>
-      </c>
-      <c r="C60" s="6">
-        <f t="shared" ref="C60:D60" si="10">IFERROR(C58*C59,"-")</f>
-        <v>1.7048765453677901</v>
-      </c>
-      <c r="D60" s="6" t="str">
+      <c r="D61" s="6" t="str">
         <f t="shared" si="10"/>
         <v>-</v>
       </c>
-      <c r="E60" s="6">
-        <f>E58*E59</f>
+      <c r="E61" s="6">
+        <f>E59*E60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:9">
+      <c r="A62" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="6">
-        <f>IFERROR(B56*B58,"-")</f>
-        <v>1.0619999999999998</v>
-      </c>
-      <c r="C61" s="6">
-        <f t="shared" ref="C61:D61" si="11">IFERROR(C56*C58,"-")</f>
-        <v>5</v>
-      </c>
-      <c r="D61" s="6" t="str">
+      <c r="B62" s="6">
+        <f>IFERROR(B57*B59,"-")</f>
+        <v>1.1732500000000001</v>
+      </c>
+      <c r="C62" s="6" t="str">
+        <f t="shared" ref="C62:D62" si="11">IFERROR(C57*C59,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D62" s="6" t="str">
         <f t="shared" si="11"/>
         <v>-</v>
       </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A63" s="18" t="s">
+      <c r="E62" s="6"/>
+    </row>
+    <row r="64" spans="1:9" ht="18" thickBot="1">
+      <c r="A64" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A65" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B65" s="19">
         <v>3</v>
       </c>
-      <c r="C63" s="19">
-        <v>1</v>
-      </c>
-      <c r="D63" s="19">
+      <c r="C65" s="19">
+        <v>1</v>
+      </c>
+      <c r="D65" s="19">
         <v>0</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E65" s="20">
         <v>0</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="G65" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="H63" s="25" t="s">
+      <c r="H65" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="I63" s="25" t="s">
+      <c r="I65" s="25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A64" s="1" t="s">
+    <row r="66" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="16" t="s">
+      <c r="B66" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="16"/>
-      <c r="E64" s="17" t="s">
+      <c r="D66" s="16"/>
+      <c r="E66" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G64" s="23">
-        <f>IFERROR(E66/I64,"-")</f>
+      <c r="G66" s="23">
+        <f>IFERROR(E68/I66,"-")</f>
         <v>0</v>
       </c>
-      <c r="H64" s="24" t="str">
-        <f>IFERROR(E63/G64,"-")</f>
+      <c r="H66" s="24" t="str">
+        <f>IFERROR(E65/G66,"-")</f>
         <v>-</v>
       </c>
-      <c r="I64" s="22">
-        <f>I32</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A65" s="1" t="s">
+      <c r="I66" s="22">
+        <f>I26</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="10">
-        <f>IFERROR(VLOOKUP(B64,Database!$A$2:$B$54,2,0),"-")</f>
-        <v>2.12805</v>
-      </c>
-      <c r="C65" s="10">
-        <f>IFERROR(VLOOKUP(C64,Database!$A$2:$B$54,2,0),"-")</f>
+      <c r="B67" s="10">
+        <f>IFERROR(VLOOKUP(B66,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C67" s="10">
+        <f>IFERROR(VLOOKUP(C66,Database!$A$2:$B$55,2,0),"-")</f>
         <v>5</v>
       </c>
-      <c r="D65" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D64,Database!$A$2:$B$54,2,0),"-")</f>
+      <c r="D67" s="10" t="str">
+        <f>IFERROR(VLOOKUP(D66,Database!$A$2:$B$55,2,0),"-")</f>
         <v>-</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E67" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16.5" thickTop="1">
-      <c r="A66" s="18" t="s">
+    <row r="68" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A68" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="15">
-        <f>IFERROR($C$14*B63/SUM(B68:D68),"-")</f>
-        <v>1.5153382720252482</v>
-      </c>
-      <c r="C66" s="15">
-        <f>IFERROR($C$14*C63/SUM(B68:D68),"-")</f>
-        <v>0.50511275734174943</v>
-      </c>
-      <c r="D66" s="15">
-        <f>IFERROR($C$14*D63/SUM(B68:D68),"-")</f>
+      <c r="B68" s="15">
+        <f>IFERROR($C$13*B65/SUM(B70:D70),"-")</f>
+        <v>2.0458518544413478</v>
+      </c>
+      <c r="C68" s="15">
+        <f>IFERROR($C$13*C65/SUM(B70:D70),"-")</f>
+        <v>0.68195061814711599</v>
+      </c>
+      <c r="D68" s="15">
+        <f>IFERROR($C$13*D65/SUM(B70:D70),"-")</f>
         <v>0</v>
       </c>
-      <c r="E66" s="15">
-        <f>IFERROR($C$14*E63/SUM(B68:D68),0)</f>
+      <c r="E68" s="15">
+        <f>IFERROR($C$13*E65/SUM(B70:D70),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2" t="s">
+    <row r="69" spans="1:9">
+      <c r="A69" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="6">
-        <f>IFERROR(B65*B66,"-")</f>
-        <v>3.2247156097833294</v>
-      </c>
-      <c r="C67" s="6">
-        <f t="shared" ref="C67:D67" si="12">IFERROR(C65*C66,"-")</f>
-        <v>2.525563786708747</v>
-      </c>
-      <c r="D67" s="6" t="str">
+      <c r="B69" s="6">
+        <f>IFERROR(B67*B68,"-")</f>
+        <v>0.72423155647223703</v>
+      </c>
+      <c r="C69" s="6">
+        <f t="shared" ref="C69:D69" si="12">IFERROR(C67*C68,"-")</f>
+        <v>3.4097530907355802</v>
+      </c>
+      <c r="D69" s="6" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="E67" s="6">
-        <f>E65*E66</f>
+      <c r="E69" s="6">
+        <f>E67*E68</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="2" t="s">
+    <row r="70" spans="1:9">
+      <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="6">
-        <f>IFERROR(B63*B65,"-")</f>
-        <v>6.38415</v>
-      </c>
-      <c r="C68" s="6">
-        <f t="shared" ref="C68:D68" si="13">IFERROR(C63*C65,"-")</f>
+      <c r="B70" s="6">
+        <f>IFERROR(B65*B67,"-")</f>
+        <v>1.0619999999999998</v>
+      </c>
+      <c r="C70" s="6">
+        <f t="shared" ref="C70:D70" si="13">IFERROR(C65*C67,"-")</f>
         <v>5</v>
       </c>
-      <c r="D68" s="6" t="str">
+      <c r="D70" s="6" t="str">
         <f t="shared" si="13"/>
         <v>-</v>
       </c>
-      <c r="E68" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A72" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="19">
+        <v>3</v>
+      </c>
+      <c r="C72" s="19">
+        <v>1</v>
+      </c>
+      <c r="D72" s="19">
+        <v>0</v>
+      </c>
+      <c r="E72" s="20">
+        <v>0</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I72" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="16"/>
+      <c r="E73" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="23">
+        <f>IFERROR(E75/I73,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="24" t="str">
+        <f>IFERROR(E72/G73,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I73" s="22">
+        <f>I34</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="10">
+        <f>IFERROR(VLOOKUP(B73,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>2.12805</v>
+      </c>
+      <c r="C74" s="10">
+        <f>IFERROR(VLOOKUP(C73,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="D74" s="10" t="str">
+        <f>IFERROR(VLOOKUP(D73,Database!$A$2:$B$55,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E74" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A75" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="15">
+        <f>IFERROR($C$14*B72/SUM(B77:D77),"-")</f>
+        <v>3.0306765440504964</v>
+      </c>
+      <c r="C75" s="15">
+        <f>IFERROR($C$14*C72/SUM(B77:D77),"-")</f>
+        <v>1.0102255146834989</v>
+      </c>
+      <c r="D75" s="15">
+        <f>IFERROR($C$14*D72/SUM(B77:D77),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="15">
+        <f>IFERROR($C$14*E72/SUM(B77:D77),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="6">
+        <f>IFERROR(B74*B75,"-")</f>
+        <v>6.4494312195666588</v>
+      </c>
+      <c r="C76" s="6">
+        <f t="shared" ref="C76:D76" si="14">IFERROR(C74*C75,"-")</f>
+        <v>5.0511275734174941</v>
+      </c>
+      <c r="D76" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>-</v>
+      </c>
+      <c r="E76" s="6">
+        <f>E74*E75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="6">
+        <f>IFERROR(B72*B74,"-")</f>
+        <v>6.38415</v>
+      </c>
+      <c r="C77" s="6">
+        <f t="shared" ref="C77:D77" si="15">IFERROR(C72*C74,"-")</f>
+        <v>5</v>
+      </c>
+      <c r="D77" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>-</v>
+      </c>
+      <c r="E77" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A55:E55"/>
+  <mergeCells count="6">
+    <mergeCell ref="A64:E64"/>
     <mergeCell ref="A16:E16"/>
-    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="K21:K25"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A39:E39"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K26:K27"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
   <pageSetup firstPageNumber="4294967295" fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed" copies="0"/>
@@ -3550,9 +3829,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$54</xm:f>
+            <xm:f>Database!$A$2:$A$55</xm:f>
           </x14:formula1>
-          <xm:sqref>B18:D18 B25:D25 B32:D32 B41:D41 B48:D48 B57:D57 B64:D64</xm:sqref>
+          <xm:sqref>B58:D58 B73:D73 B66:D66 B50:D50 B42:D42 B34:D34 B26:D26 B18:D18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3564,8 +3843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3609,16 +3888,16 @@
       <c r="B2" s="2">
         <v>5</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="40">
-        <v>1</v>
-      </c>
-      <c r="J2" s="41">
+      <c r="I2" s="39">
+        <v>1</v>
+      </c>
+      <c r="J2" s="40">
         <v>101.96</v>
       </c>
     </row>
@@ -3629,16 +3908,16 @@
       <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="40">
-        <v>1</v>
-      </c>
-      <c r="J3" s="41">
+      <c r="I3" s="39">
+        <v>1</v>
+      </c>
+      <c r="J3" s="40">
         <v>26.98</v>
       </c>
     </row>
@@ -3649,16 +3928,16 @@
       <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="40">
-        <v>1</v>
-      </c>
-      <c r="J4" s="41">
+      <c r="I4" s="39">
+        <v>1</v>
+      </c>
+      <c r="J4" s="40">
         <v>17.03</v>
       </c>
     </row>
@@ -3669,16 +3948,16 @@
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="40">
-        <v>1</v>
-      </c>
-      <c r="J5" s="41">
+      <c r="I5" s="39">
+        <v>1</v>
+      </c>
+      <c r="J5" s="40">
         <v>39.950000000000003</v>
       </c>
     </row>
@@ -3689,16 +3968,16 @@
       <c r="B6" s="2">
         <v>10</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="I6" s="40">
-        <v>1</v>
-      </c>
-      <c r="J6" s="41">
+      <c r="I6" s="39">
+        <v>1</v>
+      </c>
+      <c r="J6" s="40">
         <v>12.01</v>
       </c>
     </row>
@@ -3709,16 +3988,16 @@
       <c r="B7" s="2">
         <v>7.5</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="I7" s="40">
-        <v>1</v>
-      </c>
-      <c r="J7" s="41">
+      <c r="I7" s="39">
+        <v>1</v>
+      </c>
+      <c r="J7" s="40">
         <v>44.01</v>
       </c>
     </row>
@@ -3729,31 +4008,31 @@
       <c r="B8" s="2">
         <v>0.1</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="40">
-        <v>1</v>
-      </c>
-      <c r="J8" s="41">
+      <c r="I8" s="39">
+        <v>1</v>
+      </c>
+      <c r="J8" s="40">
         <v>28.01</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9"/>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="40">
-        <v>1</v>
-      </c>
-      <c r="J9" s="41">
+      <c r="I9" s="39">
+        <v>1</v>
+      </c>
+      <c r="J9" s="40">
         <v>35.450000000000003</v>
       </c>
     </row>
@@ -3761,16 +4040,16 @@
       <c r="A10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="40">
-        <v>1</v>
-      </c>
-      <c r="J10" s="41">
+      <c r="I10" s="39">
+        <v>1</v>
+      </c>
+      <c r="J10" s="40">
         <v>238.03</v>
       </c>
     </row>
@@ -3785,16 +4064,16 @@
       <c r="C11" s="13">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="40">
-        <v>1</v>
-      </c>
-      <c r="J11" s="41">
+      <c r="I11" s="39">
+        <v>1</v>
+      </c>
+      <c r="J11" s="40">
         <v>2.0139999999999998</v>
       </c>
     </row>
@@ -3809,16 +4088,16 @@
       <c r="C12" s="13">
         <v>1.784E-6</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="I12" s="40">
-        <v>1</v>
-      </c>
-      <c r="J12" s="41">
+      <c r="I12" s="39">
+        <v>1</v>
+      </c>
+      <c r="J12" s="40">
         <v>60.08</v>
       </c>
     </row>
@@ -3833,16 +4112,16 @@
       <c r="C13" s="13">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="I13" s="40">
-        <v>1</v>
-      </c>
-      <c r="J13" s="41">
+      <c r="I13" s="39">
+        <v>1</v>
+      </c>
+      <c r="J13" s="40">
         <v>238.03</v>
       </c>
     </row>
@@ -3857,16 +4136,16 @@
       <c r="C14" s="13">
         <v>1.0970000000000001E-2</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="I14" s="40">
-        <v>1</v>
-      </c>
-      <c r="J14" s="41">
+      <c r="I14" s="39">
+        <v>1</v>
+      </c>
+      <c r="J14" s="40">
         <v>46.07</v>
       </c>
     </row>
@@ -3881,16 +4160,16 @@
       <c r="C15" s="13">
         <v>7.8899999999999999E-4</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="40">
-        <v>1</v>
-      </c>
-      <c r="J15" s="41">
+      <c r="I15" s="39">
+        <v>1</v>
+      </c>
+      <c r="J15" s="40">
         <v>61.206800000000001</v>
       </c>
     </row>
@@ -3905,16 +4184,16 @@
       <c r="C16" s="13">
         <v>8.4175000000000005E-4</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="I16" s="40">
-        <v>1</v>
-      </c>
-      <c r="J16" s="41">
+      <c r="I16" s="39">
+        <v>1</v>
+      </c>
+      <c r="J16" s="40">
         <v>183.88</v>
       </c>
     </row>
@@ -3929,16 +4208,16 @@
       <c r="C17" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="40">
-        <v>1</v>
-      </c>
-      <c r="J17" s="41">
+      <c r="I17" s="39">
+        <v>1</v>
+      </c>
+      <c r="J17" s="40">
         <v>19</v>
       </c>
     </row>
@@ -3953,16 +4232,16 @@
       <c r="C18" s="13">
         <v>2.1599999999999999E-4</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="40">
-        <v>1</v>
-      </c>
-      <c r="J18" s="41">
+      <c r="I18" s="39">
+        <v>1</v>
+      </c>
+      <c r="J18" s="40">
         <f>5.03</f>
         <v>5.03</v>
       </c>
@@ -3978,16 +4257,16 @@
       <c r="C19" s="13">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="I19" s="40">
-        <v>1</v>
-      </c>
-      <c r="J19" s="41">
+      <c r="I19" s="39">
+        <v>1</v>
+      </c>
+      <c r="J19" s="40">
         <v>92.09</v>
       </c>
     </row>
@@ -4002,16 +4281,16 @@
       <c r="C20" s="13">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="I20" s="40">
-        <v>1</v>
-      </c>
-      <c r="J20" s="41">
+      <c r="I20" s="39">
+        <v>1</v>
+      </c>
+      <c r="J20" s="40">
         <v>172.14</v>
       </c>
     </row>
@@ -4026,16 +4305,16 @@
       <c r="C21" s="13">
         <v>8.1999999999999998E-4</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="I21" s="40">
-        <v>1</v>
-      </c>
-      <c r="J21" s="41">
+      <c r="I21" s="39">
+        <v>1</v>
+      </c>
+      <c r="J21" s="40">
         <v>3.016</v>
       </c>
     </row>
@@ -4050,16 +4329,16 @@
       <c r="C22" s="13">
         <v>5.3399999999999997E-4</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="40">
-        <v>1</v>
-      </c>
-      <c r="J22" s="41">
+      <c r="I22" s="39">
+        <v>1</v>
+      </c>
+      <c r="J22" s="40">
         <v>4.0019999999999998</v>
       </c>
     </row>
@@ -4074,826 +4353,833 @@
       <c r="C23" s="13">
         <v>7.0209999999999999E-4</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="I23" s="40">
-        <v>1</v>
-      </c>
-      <c r="J23" s="41">
+      <c r="I23" s="39">
+        <v>1</v>
+      </c>
+      <c r="J23" s="40">
         <v>34.01</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="B24" s="12">
         <f t="shared" si="0"/>
-        <v>1.1732500000000001</v>
+        <v>0.79</v>
       </c>
       <c r="C24" s="13">
-        <v>1.17325E-3</v>
-      </c>
-      <c r="G24" s="40" t="s">
+        <v>7.9000000000000001E-4</v>
+      </c>
+      <c r="G24" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="H24" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="I24" s="40">
-        <v>1</v>
-      </c>
-      <c r="J24" s="41">
+      <c r="I24" s="39">
+        <v>1</v>
+      </c>
+      <c r="J24" s="40">
         <v>168.69</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="12">
-        <f t="shared" si="0"/>
-        <v>0.16239999999999999</v>
+        <f>C25*1000</f>
+        <v>1.1732500000000001</v>
       </c>
       <c r="C25" s="13">
-        <v>1.6239999999999999E-4</v>
-      </c>
-      <c r="G25" s="40" t="s">
+        <v>1.17325E-3</v>
+      </c>
+      <c r="G25" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="I25" s="40">
-        <v>1</v>
-      </c>
-      <c r="J25" s="41">
+      <c r="I25" s="39">
+        <v>1</v>
+      </c>
+      <c r="J25" s="40">
         <f>(14.007*2)+(1.008*4)</f>
         <v>32.045999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" s="12">
-        <f t="shared" si="0"/>
-        <v>5.8999999999999997E-2</v>
+        <f>C26*1000</f>
+        <v>0.16239999999999999</v>
       </c>
       <c r="C26" s="13">
-        <v>5.8999999999999998E-5</v>
-      </c>
-      <c r="G26" s="40" t="s">
+        <v>1.6239999999999999E-4</v>
+      </c>
+      <c r="G26" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="I26" s="40">
-        <v>1</v>
-      </c>
-      <c r="J26" s="41">
+      <c r="I26" s="39">
+        <v>1</v>
+      </c>
+      <c r="J26" s="40">
         <v>2.02</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B27" s="12">
-        <f t="shared" si="0"/>
-        <v>7.0849999999999996E-2</v>
+        <f>C27*1000</f>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C27" s="13">
-        <v>7.0850000000000001E-5</v>
-      </c>
-      <c r="G27" s="40" t="s">
+        <v>5.8999999999999998E-5</v>
+      </c>
+      <c r="G27" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="I27" s="40">
-        <v>1</v>
-      </c>
-      <c r="J27" s="41">
+      <c r="I27" s="39">
+        <v>1</v>
+      </c>
+      <c r="J27" s="40">
         <v>170.34</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="12">
-        <f t="shared" si="0"/>
-        <v>0.42560999999999999</v>
+        <f>C28*1000</f>
+        <v>7.0849999999999996E-2</v>
       </c>
       <c r="C28" s="13">
-        <v>4.2560999999999999E-4</v>
-      </c>
-      <c r="G28" s="40" t="s">
+        <v>7.0850000000000001E-5</v>
+      </c>
+      <c r="G28" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="I28" s="40">
-        <v>1</v>
-      </c>
-      <c r="J28" s="41">
+      <c r="I28" s="39">
+        <v>1</v>
+      </c>
+      <c r="J28" s="40">
         <v>6.94</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="B29" s="12">
-        <f t="shared" si="0"/>
-        <v>1.141</v>
+        <f>C29*1000</f>
+        <v>0.42560999999999999</v>
       </c>
       <c r="C29" s="13">
-        <v>1.1410000000000001E-3</v>
-      </c>
-      <c r="G29" s="40" t="s">
+        <v>4.2560999999999999E-4</v>
+      </c>
+      <c r="G29" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="H29" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="I29" s="40">
-        <v>1</v>
-      </c>
-      <c r="J29" s="41">
+      <c r="I29" s="39">
+        <v>1</v>
+      </c>
+      <c r="J29" s="40">
         <v>17.03</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="B30" s="12">
-        <f t="shared" si="0"/>
-        <v>0.82490700000000006</v>
+        <f>C30*1000</f>
+        <v>1.141</v>
       </c>
       <c r="C30" s="13">
-        <v>8.2490700000000005E-4</v>
-      </c>
-      <c r="G30" s="40" t="s">
+        <v>1.1410000000000001E-3</v>
+      </c>
+      <c r="G30" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="I30" s="40">
-        <v>1</v>
-      </c>
-      <c r="J30" s="41">
+      <c r="I30" s="39">
+        <v>1</v>
+      </c>
+      <c r="J30" s="40">
         <v>28.01</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B31" s="12">
-        <f t="shared" si="0"/>
-        <v>7.8</v>
+        <f>C31*1000</f>
+        <v>0.82490700000000006</v>
       </c>
       <c r="C31" s="13">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="G31" s="40" t="s">
+        <v>8.2490700000000005E-4</v>
+      </c>
+      <c r="G31" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="40" t="s">
+      <c r="H31" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="I31" s="40">
-        <v>1</v>
-      </c>
-      <c r="J31" s="41">
+      <c r="I31" s="39">
+        <v>1</v>
+      </c>
+      <c r="J31" s="40">
         <v>44.01</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B32" s="12">
-        <f t="shared" si="0"/>
-        <v>7.085</v>
+        <f>C32*1000</f>
+        <v>7.8</v>
       </c>
       <c r="C32" s="13">
-        <v>7.0850000000000002E-3</v>
-      </c>
-      <c r="G32" s="40" t="s">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="G32" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="40" t="s">
+      <c r="H32" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="I32" s="40">
-        <v>1</v>
-      </c>
-      <c r="J32" s="41">
+      <c r="I32" s="39">
+        <v>1</v>
+      </c>
+      <c r="J32" s="40">
         <v>2.0139999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B33" s="12">
-        <f t="shared" si="0"/>
-        <v>0.88</v>
+        <f>C33*1000</f>
+        <v>7.085</v>
       </c>
       <c r="C33" s="13">
-        <v>8.8000000000000003E-4</v>
-      </c>
-      <c r="G33" s="40" t="s">
+        <v>7.0850000000000002E-3</v>
+      </c>
+      <c r="G33" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="40" t="s">
+      <c r="H33" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="I33" s="40">
-        <v>1</v>
-      </c>
-      <c r="J33" s="41">
+      <c r="I33" s="39">
+        <v>1</v>
+      </c>
+      <c r="J33" s="40">
         <v>3.016</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="12">
+        <f>C34*1000</f>
+        <v>0.88</v>
+      </c>
+      <c r="C34" s="13">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="I34" s="39">
+        <v>1</v>
+      </c>
+      <c r="J34" s="40">
+        <v>4.0019999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="12">
-        <f t="shared" si="0"/>
+      <c r="B35" s="12">
+        <f>C35*1000</f>
         <v>1.45</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C35" s="13">
         <v>1.4499999999999999E-3</v>
       </c>
-      <c r="G34" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="I34" s="40">
-        <v>1</v>
-      </c>
-      <c r="J34" s="41">
-        <v>4.0019999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="12">
-        <f t="shared" si="0"/>
-        <v>1.05</v>
-      </c>
-      <c r="C35" s="13">
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="G35" s="40" t="s">
+      <c r="G35" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="40" t="s">
+      <c r="H35" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="I35" s="40">
-        <v>1</v>
-      </c>
-      <c r="J35" s="41">
+      <c r="I35" s="39">
+        <v>1</v>
+      </c>
+      <c r="J35" s="40">
         <v>2.02</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B36" s="12">
-        <f t="shared" si="0"/>
-        <v>0.79100000000000004</v>
+        <f>C36*1000</f>
+        <v>1.05</v>
       </c>
       <c r="C36" s="13">
-        <v>7.9100000000000004E-4</v>
-      </c>
-      <c r="G36" s="40" t="s">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="G36" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="40" t="s">
+      <c r="H36" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="I36" s="40">
-        <v>1</v>
-      </c>
-      <c r="J36" s="41">
+      <c r="I36" s="39">
+        <v>1</v>
+      </c>
+      <c r="J36" s="40">
         <v>16.05</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="12">
+        <f>C37*1000</f>
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="C37" s="13">
+        <v>7.9100000000000004E-4</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="I37" s="41">
+        <v>1</v>
+      </c>
+      <c r="J37" s="40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="B37" s="12">
-        <f t="shared" si="0"/>
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="C37" s="13">
-        <v>8.2899999999999998E-4</v>
-      </c>
-      <c r="G37" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="I37" s="42">
-        <v>1</v>
-      </c>
-      <c r="J37" s="41">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="B38" s="12">
         <f>C38*1000</f>
-        <v>1</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="C38" s="13">
+        <v>8.2899999999999998E-4</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="I38" s="39">
+        <v>1</v>
+      </c>
+      <c r="J38" s="40">
+        <v>28.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="12">
+        <f>C39*1000</f>
+        <v>1</v>
+      </c>
+      <c r="C39" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G38" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="I38" s="40">
-        <v>1</v>
-      </c>
-      <c r="J38" s="41">
-        <v>28.01</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="G39" s="40" t="s">
+      <c r="G39" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="H39" s="40" t="s">
+      <c r="H39" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="I39" s="40">
-        <v>1</v>
-      </c>
-      <c r="J39" s="41">
+      <c r="I39" s="39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="40">
         <f>J35</f>
         <v>2.02</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="18" thickBot="1">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:10">
+      <c r="G40" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" s="39">
+        <v>1</v>
+      </c>
+      <c r="J40" s="40">
+        <v>159.69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="18" thickBot="1">
+      <c r="A41" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B40"/>
-      <c r="C40" s="14"/>
-      <c r="G40" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="I40" s="40">
-        <v>1</v>
-      </c>
-      <c r="J40" s="41">
-        <v>159.69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="16.5" thickTop="1">
-      <c r="A41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C41" s="13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G41" s="40" t="s">
+      <c r="B41"/>
+      <c r="C41" s="14"/>
+      <c r="G41" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="H41" s="40" t="s">
+      <c r="H41" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="I41" s="40">
-        <v>1</v>
-      </c>
-      <c r="J41" s="41">
+      <c r="I41" s="39">
+        <v>1</v>
+      </c>
+      <c r="J41" s="40">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" ht="16.5" thickTop="1">
       <c r="A42" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B42" s="12">
-        <f t="shared" si="0"/>
-        <v>54.4</v>
+        <f>C42*1000</f>
+        <v>5</v>
       </c>
       <c r="C42" s="13">
-        <v>5.4399999999999997E-2</v>
-      </c>
-      <c r="G42" s="40" t="s">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G42" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="40" t="s">
+      <c r="H42" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="I42" s="40">
-        <v>1</v>
-      </c>
-      <c r="J42" s="41">
+      <c r="I42" s="39">
+        <v>1</v>
+      </c>
+      <c r="J42" s="40">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B43" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>C43*1000</f>
+        <v>54.4</v>
       </c>
       <c r="C43" s="13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G43" s="40" t="s">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="G43" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="H43" s="40" t="s">
+      <c r="H43" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="I43" s="40">
-        <v>1</v>
-      </c>
-      <c r="J43" s="41">
+      <c r="I43" s="39">
+        <v>1</v>
+      </c>
+      <c r="J43" s="40">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B44" s="12">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000005E-2</v>
+        <f>C44*1000</f>
+        <v>5</v>
       </c>
       <c r="C44" s="13">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="G44" s="40" t="s">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G44" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="H44" s="40" t="s">
+      <c r="H44" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="I44" s="40">
-        <v>1</v>
-      </c>
-      <c r="J44" s="41">
+      <c r="I44" s="39">
+        <v>1</v>
+      </c>
+      <c r="J44" s="40">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18.75">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B45" s="12">
-        <f t="shared" si="0"/>
-        <v>5.0108799999999993</v>
+        <f>C45*1000</f>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="C45" s="13">
-        <v>5.0108799999999997E-3</v>
-      </c>
-      <c r="G45" s="40" t="s">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="G45" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="I45" s="40">
-        <v>1</v>
-      </c>
-      <c r="J45" s="41">
+      <c r="I45" s="39">
+        <v>1</v>
+      </c>
+      <c r="J45" s="40">
         <v>46.07</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B46" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>C46*1000</f>
+        <v>5.0108799999999993</v>
       </c>
       <c r="C46" s="13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G46" s="40" t="s">
+        <v>5.0108799999999997E-3</v>
+      </c>
+      <c r="G46" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="I46" s="40">
-        <v>1</v>
-      </c>
-      <c r="J46" s="41">
+      <c r="I46" s="39">
+        <v>1</v>
+      </c>
+      <c r="J46" s="40">
         <v>233.88</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B47" s="12">
-        <f t="shared" si="0"/>
-        <v>8.6</v>
+        <f>C47*1000</f>
+        <v>5</v>
       </c>
       <c r="C47" s="13">
-        <v>8.6E-3</v>
-      </c>
-      <c r="G47" s="40" t="s">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G47" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="H47" s="40" t="s">
+      <c r="H47" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="I47" s="40">
-        <v>1</v>
-      </c>
-      <c r="J47" s="41">
+      <c r="I47" s="39">
+        <v>1</v>
+      </c>
+      <c r="J47" s="40">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B48" s="12">
-        <f t="shared" si="0"/>
-        <v>5.7050000000000001</v>
+        <f>C48*1000</f>
+        <v>8.6</v>
       </c>
       <c r="C48" s="13">
-        <v>5.705E-3</v>
-      </c>
-      <c r="G48" s="40" t="s">
+        <v>8.6E-3</v>
+      </c>
+      <c r="G48" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="H48" s="40" t="s">
+      <c r="H48" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="I48" s="40">
-        <v>1</v>
-      </c>
-      <c r="J48" s="41">
+      <c r="I48" s="39">
+        <v>1</v>
+      </c>
+      <c r="J48" s="40">
         <v>92.04</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B49" s="12">
-        <f t="shared" si="0"/>
-        <v>0.35399999999999998</v>
+        <f>C49*1000</f>
+        <v>5.7050000000000001</v>
       </c>
       <c r="C49" s="13">
-        <v>3.5399999999999999E-4</v>
-      </c>
-      <c r="G49" s="40" t="s">
+        <v>5.705E-3</v>
+      </c>
+      <c r="G49" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="H49" s="40" t="s">
+      <c r="H49" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="I49" s="40">
-        <v>1</v>
-      </c>
-      <c r="J49" s="41">
+      <c r="I49" s="39">
+        <v>1</v>
+      </c>
+      <c r="J49" s="40">
         <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" si="0"/>
-        <v>2.12805</v>
+        <f>C50*1000</f>
+        <v>0.35399999999999998</v>
       </c>
       <c r="C50" s="13">
-        <v>2.1280499999999998E-3</v>
-      </c>
-      <c r="G50" s="40" t="s">
+        <v>3.5399999999999999E-4</v>
+      </c>
+      <c r="G50" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="H50" s="40" t="s">
+      <c r="H50" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="I50" s="40">
-        <v>1</v>
-      </c>
-      <c r="J50" s="41">
+      <c r="I50" s="39">
+        <v>1</v>
+      </c>
+      <c r="J50" s="40">
         <v>30.97</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B51" s="12">
-        <f t="shared" si="0"/>
-        <v>4.1000000000000005</v>
+        <f>C51*1000</f>
+        <v>2.12805</v>
       </c>
       <c r="C51" s="13">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="G51" s="40" t="s">
+        <v>2.1280499999999998E-3</v>
+      </c>
+      <c r="G51" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="H51" s="40" t="s">
+      <c r="H51" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="I51" s="40">
-        <v>1</v>
-      </c>
-      <c r="J51" s="41">
+      <c r="I51" s="39">
+        <v>1</v>
+      </c>
+      <c r="J51" s="40">
         <f>195.078</f>
         <v>195.078</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B52" s="12">
         <f>C52*1000</f>
-        <v>12.5</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="C52" s="13">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G52" s="40" t="s">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="G52" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="H52" s="40" t="s">
+      <c r="H52" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="I52" s="40">
-        <v>1</v>
-      </c>
-      <c r="J52" s="41">
+      <c r="I52" s="39">
+        <v>1</v>
+      </c>
+      <c r="J52" s="40">
         <v>76.08</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B53" s="12">
         <f>C53*1000</f>
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="C53" s="13">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="G53" s="40" t="s">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G53" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="H53" s="40" t="s">
+      <c r="H53" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="I53" s="40">
-        <v>1</v>
-      </c>
-      <c r="J53" s="41">
+      <c r="I53" s="39">
+        <v>1</v>
+      </c>
+      <c r="J53" s="40">
         <v>28.09</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="5" t="s">
-        <v>80</v>
+      <c r="A54" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B54" s="12">
         <f>C54*1000</f>
+        <v>7.5</v>
+      </c>
+      <c r="C54" s="13">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G54" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="H54" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="I54" s="39">
+        <v>1</v>
+      </c>
+      <c r="J54" s="40">
+        <v>186.09</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="12">
+        <f>C55*1000</f>
         <v>5</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C55" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G54" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="H54" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="I54" s="40">
-        <v>1</v>
-      </c>
-      <c r="J54" s="41">
-        <v>186.09</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="G55" s="40" t="s">
+      <c r="G55" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="H55" s="40" t="s">
+      <c r="H55" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="I55" s="40">
-        <v>1</v>
-      </c>
-      <c r="J55" s="41">
+      <c r="I55" s="39">
+        <v>1</v>
+      </c>
+      <c r="J55" s="40">
         <v>270.02999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="G56" s="40" t="s">
+      <c r="G56" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="H56" s="40" t="s">
+      <c r="H56" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="I56" s="40">
-        <v>1</v>
-      </c>
-      <c r="J56" s="41">
+      <c r="I56" s="39">
+        <v>1</v>
+      </c>
+      <c r="J56" s="40">
         <v>60.1</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="G57" s="40" t="s">
+      <c r="G57" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="H57" s="40" t="s">
+      <c r="H57" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="I57" s="40">
-        <v>1</v>
-      </c>
-      <c r="J57" s="41">
+      <c r="I57" s="39">
+        <v>1</v>
+      </c>
+      <c r="J57" s="40">
         <f>SUM(($D$38*0.25)+($D$82*0.75))</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="G58" s="40" t="s">
+      <c r="G58" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="H58" s="40" t="s">
+      <c r="H58" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="I58" s="40">
-        <v>1</v>
-      </c>
-      <c r="J58" s="41">
+      <c r="I58" s="39">
+        <v>1</v>
+      </c>
+      <c r="J58" s="40">
         <v>18.02</v>
       </c>
     </row>
     <row r="78" spans="7:10">
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="41"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="40"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
-      <formula1>$A$11:$A$38</formula1>
+      <formula1>$A$11:$A$39</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
@@ -4910,7 +5196,7 @@
   <dimension ref="A1:IV16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4927,15 +5213,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -5356,19 +5642,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="22" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="5" customWidth="1"/>
+    <col min="2" max="5" width="20" style="5" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="5" customWidth="1"/>
     <col min="8" max="10" width="9.140625" style="5" customWidth="1"/>
@@ -5376,22 +5659,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickTop="1">
       <c r="B3" s="2" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>114</v>
@@ -5403,12 +5686,12 @@
     <row r="4" spans="1:10">
       <c r="A4"/>
       <c r="B4" s="30">
-        <v>825</v>
+        <v>960</v>
       </c>
       <c r="C4" s="33">
-        <v>60</v>
-      </c>
-      <c r="G4" s="65">
+        <v>300</v>
+      </c>
+      <c r="G4" s="58">
         <v>299792458</v>
       </c>
     </row>
@@ -5431,26 +5714,26 @@
       <c r="A6" s="2"/>
       <c r="B6" s="27">
         <f>B4*G7</f>
-        <v>8090.4862499999999</v>
-      </c>
-      <c r="C6" s="27">
+        <v>9414.384</v>
+      </c>
+      <c r="C6" s="74">
         <f>IFERROR(C4*1000/B6,0)</f>
-        <v>7.4161179125667509</v>
+        <v>31.866131655560256</v>
       </c>
       <c r="D6" s="27">
-        <f>C4*1000*B6/2</f>
-        <v>242714587.5</v>
+        <f>C4*1000*B6</f>
+        <v>2824315200</v>
       </c>
       <c r="E6" s="27">
         <f>IFERROR(D6/C6,0)</f>
-        <v>32727983.880719531</v>
+        <v>88630626.099455997</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="G7" s="64">
+      <c r="G7" s="57">
         <v>9.8066499999999994</v>
       </c>
       <c r="J7"/>
@@ -5459,14 +5742,14 @@
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10" ht="18" thickBot="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>117</v>
       </c>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1">
       <c r="B10" s="2" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>114</v>
@@ -5475,11 +5758,11 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="31">
-        <v>825</v>
+        <v>960</v>
       </c>
       <c r="C11" s="32">
         <f>(C13*B13)/1000</f>
-        <v>59.999694085136106</v>
+        <v>0.29543542033151998</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5499,621 +5782,671 @@
     <row r="13" spans="1:10">
       <c r="B13" s="27">
         <f>B11*G7</f>
-        <v>8090.4862499999999</v>
-      </c>
-      <c r="C13" s="27">
-        <f>D13/E13</f>
-        <v>7.4160801008883865</v>
+        <v>9414.384</v>
+      </c>
+      <c r="C13" s="74">
+        <f>E13/D13</f>
+        <v>3.1381279999999998E-2</v>
       </c>
       <c r="D13" s="31">
-        <v>242713350</v>
+        <v>2824315200</v>
       </c>
       <c r="E13" s="27">
-        <f>IFERROR((B13^2)/2,0)</f>
-        <v>32727983.880719531</v>
+        <f>IFERROR((B13^2),0)</f>
+        <v>88630626.099455997</v>
       </c>
       <c r="G13"/>
-      <c r="H13"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="62" t="s">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="G14"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="75"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="29">
-        <v>1</v>
-      </c>
-      <c r="C16" s="29">
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="29">
+        <v>1</v>
+      </c>
+      <c r="C17" s="29">
         <v>0</v>
       </c>
-      <c r="D16" s="28">
-        <f>C11/(B16*G7)</f>
-        <v>6.1182660832329194</v>
-      </c>
-      <c r="G16"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="D17" s="28">
+        <f>C11/(B17*G7)</f>
+        <v>3.0126028799999999E-2</v>
+      </c>
       <c r="G17"/>
-      <c r="H17"/>
     </row>
     <row r="18" spans="1:8">
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8" ht="18" thickBot="1">
-      <c r="A19" s="57" t="s">
+    <row r="19" spans="1:8">
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" thickBot="1">
+      <c r="A20" s="56" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" thickTop="1">
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="1:8" ht="16.5" thickTop="1">
+      <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="B21" s="37">
+    <row r="22" spans="1:8">
+      <c r="B22" s="36">
         <v>1000000000</v>
       </c>
-      <c r="C21" s="70">
-        <f>(B21/G4/1000)</f>
+      <c r="C22" s="63">
+        <f>(B22/G4/1000)</f>
         <v>3.3356409519815205E-3</v>
       </c>
-      <c r="D21" s="66">
-        <f>B21/1000</f>
+      <c r="D22" s="59">
+        <f>B22/1000</f>
         <v>1000000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" thickBot="1">
-      <c r="A24" s="57" t="s">
+    <row r="25" spans="1:8" ht="18" thickBot="1">
+      <c r="A25" s="56" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" thickTop="1">
-      <c r="B25" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    <row r="26" spans="1:8" ht="16.5" thickTop="1">
+      <c r="B26" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="35">
-        <f>B28/9.8066</f>
-        <v>906348.21623351518</v>
-      </c>
-      <c r="C26" s="29">
+    <row r="27" spans="1:8">
+      <c r="B27" s="35">
+        <f>B29/G7</f>
+        <v>1357.6450198823377</v>
+      </c>
+      <c r="C27" s="29">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="35">
-        <f>(2*E28)^0.5</f>
-        <v>8888194.4173155893</v>
-      </c>
-      <c r="C28" s="36">
-        <f>IFERROR(C26*1000/B28,0)</f>
-        <v>1.3501054811112287E-2</v>
-      </c>
-      <c r="D28" s="35">
-        <f>C26*B28</f>
-        <v>1066583330.0778707</v>
-      </c>
-      <c r="E28" s="34">
-        <v>39500000000000</v>
-      </c>
-    </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="35">
+        <f>(2*E29)^0.5</f>
+        <v>13313.949534229127</v>
+      </c>
+      <c r="C29" s="74">
+        <f>IFERROR(C27*1000/B29,0)</f>
+        <v>22.532757783760811</v>
+      </c>
+      <c r="D29" s="35">
+        <f>C27*1000*B29</f>
+        <v>3994184860.2687378</v>
+      </c>
+      <c r="E29" s="34">
+        <v>88630626.099999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="38">
-        <f>B28/G4</f>
-        <v>2.9647825287571407E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="18" thickBot="1">
-      <c r="A33" s="57" t="s">
+    <row r="31" spans="1:8">
+      <c r="B31" s="37">
+        <f>B29/G4</f>
+        <v>4.4410555298989967E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18" thickBot="1">
+      <c r="A34" s="56" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A34" s="72"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="B35" s="47" t="s">
+    <row r="35" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A35" s="65"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C36" s="42">
         <v>2130</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="44">
-        <v>8.3144621000000001</v>
-      </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B37" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="48">
-        <f>IFERROR(VLOOKUP(C37,Database!$G$2:$J$58,4,FALSE),"-")</f>
-        <v>2.02</v>
-      </c>
-      <c r="E37" s="49">
-        <f>D37/1000</f>
-        <v>2.0200000000000001E-3</v>
-      </c>
+    <row r="37" spans="1:9">
+      <c r="B37" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="43">
+        <v>8.3144621000000001</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B38" s="47"/>
+    <row r="38" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B38" s="46" t="s">
+        <v>131</v>
+      </c>
       <c r="C38" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="47">
+        <f>IFERROR(VLOOKUP(C38,Database!$G$2:$J$58,4,FALSE),"-")</f>
+        <v>2.02</v>
+      </c>
+      <c r="E38" s="48">
+        <f>D38/1000</f>
+        <v>2.0200000000000001E-3</v>
+      </c>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B39" s="46"/>
+      <c r="C39" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="48">
-        <f>IFERROR(VLOOKUP(C38,Database!$G$2:$J$58,4,FALSE),"-")</f>
+      <c r="D39" s="47">
+        <f>IFERROR(VLOOKUP(C39,Database!$G$2:$J$58,4,FALSE),"-")</f>
         <v>18.02</v>
       </c>
-      <c r="E38" s="49">
-        <f>D38/1000</f>
+      <c r="E39" s="48">
+        <f>D39/1000</f>
         <v>1.8020000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.5" thickTop="1">
-      <c r="B39" s="47" t="s">
+    <row r="40" spans="1:9" ht="16.5" thickTop="1">
+      <c r="B40" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C40" s="17">
         <v>1.3979999999999999</v>
       </c>
-      <c r="D39"/>
-      <c r="E39" s="39"/>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B40" s="47" t="s">
+      <c r="D40"/>
+      <c r="E40" s="38"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B41" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="45">
+      <c r="C41" s="44">
         <v>0</v>
       </c>
-      <c r="D40" s="71">
-        <f>IFERROR(C40*101320,101.32)</f>
+      <c r="D41" s="64">
+        <f>IFERROR(C41*101320,101.32)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="39"/>
-    </row>
-    <row r="41" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B41" s="47" t="s">
+      <c r="E41" s="38"/>
+    </row>
+    <row r="42" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B42" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="45">
+      <c r="C42" s="44">
         <v>500</v>
       </c>
-      <c r="D41" s="71">
-        <f>C41*101320</f>
+      <c r="D42" s="64">
+        <f>C42*101320</f>
         <v>50660000</v>
       </c>
-      <c r="E41" s="39"/>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" thickTop="1">
-      <c r="B42" s="47"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="B43" s="47" t="s">
+      <c r="E42" s="38"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" thickTop="1">
+      <c r="B43" s="46"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="B44" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="46">
-        <f>(C35*C36)/E37</f>
+      <c r="C44" s="45">
+        <f>(C36*C37)/E38</f>
         <v>8767229.8381188121</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="46">
-        <f>(C35*C36)/E38</f>
+      <c r="D44" s="38"/>
+      <c r="E44" s="45">
+        <f>(C36*C37)/E39</f>
         <v>982786.03068812436</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="B44" s="47" t="s">
+    <row r="45" spans="1:9">
+      <c r="B45" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="C44" s="46">
-        <f>(2*C39)/(C39-1)</f>
+      <c r="C45" s="45">
+        <f>(2*C40)/(C40-1)</f>
         <v>7.0251256281407048</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="B45" s="47" t="s">
+      <c r="D45" s="38"/>
+      <c r="E45"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" s="45">
+        <f>(C40-1)/C40</f>
+        <v>0.284692417739628</v>
+      </c>
+      <c r="D46" s="38"/>
+      <c r="E46"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="45">
+        <f>1-((D41/D42)^C46)</f>
+        <v>1</v>
+      </c>
+      <c r="D47" s="38"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:9" customFormat="1" ht="12.75"/>
+    <row r="49" spans="1:7" ht="16.5" thickBot="1">
+      <c r="B49" s="46"/>
+      <c r="C49" s="22" t="str">
+        <f>C38</f>
+        <v>LqdHydrogen</v>
+      </c>
+      <c r="D49" s="38"/>
+      <c r="E49" s="22" t="str">
+        <f>C39</f>
+        <v>Water (CRP)</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16.5" thickTop="1">
+      <c r="B50" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="60">
+        <f>(C44*C45*C47)^0.5</f>
+        <v>7847.9864311534302</v>
+      </c>
+      <c r="D50" s="38"/>
+      <c r="E50" s="60">
+        <f>(E44*C45*C47)^0.5</f>
+        <v>2627.5835536031618</v>
+      </c>
+      <c r="G50" s="50"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="B51" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="60">
+        <f>C50/9.80655</f>
+        <v>800.28006089332439</v>
+      </c>
+      <c r="D51" s="38"/>
+      <c r="E51" s="60">
+        <f>E50/9.80655</f>
+        <v>267.94168730115706</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="E54" s="49"/>
+    </row>
+    <row r="55" spans="1:7" ht="18" thickBot="1">
+      <c r="A55" s="56" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" thickTop="1"/>
+    <row r="57" spans="1:7">
+      <c r="C57" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="D58" s="54">
+        <v>60</v>
+      </c>
+      <c r="E58" s="66">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="B60" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C45" s="46">
-        <f>(C39-1)/C39</f>
-        <v>0.284692417739628</v>
-      </c>
-      <c r="D45" s="39"/>
-      <c r="E45"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="46">
-        <f>1-((D40/D41)^C45)</f>
-        <v>1</v>
-      </c>
-      <c r="D46" s="39"/>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:9" customFormat="1" ht="12.75"/>
-    <row r="48" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B48" s="47"/>
-      <c r="C48" s="22" t="str">
-        <f>C37</f>
-        <v>LqdHydrogen</v>
-      </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="22" t="str">
-        <f>C38</f>
-        <v>Water (CRP)</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="16.5" thickTop="1">
-      <c r="B49" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="67">
-        <f>(C43*C44*C46)^0.5</f>
-        <v>7847.9864311534302</v>
-      </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="67">
-        <f>(E43*C44*C46)^0.5</f>
-        <v>2627.5835536031618</v>
-      </c>
-      <c r="G49" s="51"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="B50" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="C50" s="67">
-        <f>C49/9.80655</f>
-        <v>800.28006089332439</v>
-      </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="67">
-        <f>E49/9.80655</f>
-        <v>267.94168730115706</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="E53" s="50"/>
-    </row>
-    <row r="54" spans="1:7" ht="18" thickBot="1">
-      <c r="A54" s="57" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="16.5" thickTop="1"/>
-    <row r="56" spans="1:7">
-      <c r="C56" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="D57" s="55">
+      <c r="E60" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16.5" thickBot="1">
+      <c r="B61" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="68">
+        <v>800</v>
+      </c>
+      <c r="D61" s="67">
+        <f>D58</f>
         <v>60</v>
       </c>
-      <c r="E57" s="73">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="B59" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B60" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="C60" s="75">
-        <v>800</v>
-      </c>
-      <c r="D60" s="74">
-        <f>D57</f>
-        <v>60</v>
-      </c>
-      <c r="E60" s="56">
-        <f t="shared" ref="E60:E66" si="0">($C$60/C60)^$E$57</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="16.5" thickTop="1">
-      <c r="B61" s="53" t="s">
+      <c r="E61" s="55">
+        <f t="shared" ref="E61:E67" si="0">($C$61/C61)^$E$58</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="16.5" thickTop="1">
+      <c r="B62" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="75">
+      <c r="C62" s="68">
         <v>606</v>
       </c>
-      <c r="D61" s="68">
-        <f t="shared" ref="D61:D66" si="1">$D$57*(($C$60/C61)^$E$57)</f>
+      <c r="D62" s="61">
+        <f t="shared" ref="D62:D67" si="1">$D$58*(($C$61/C62)^$E$58)</f>
         <v>73.894867118770051</v>
       </c>
-      <c r="E61" s="56">
+      <c r="E62" s="55">
         <f t="shared" si="0"/>
         <v>1.2315811186461676</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="B62" s="53" t="s">
+    <row r="63" spans="1:7">
+      <c r="B63" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="75">
+      <c r="C63" s="68">
         <v>400</v>
       </c>
-      <c r="D62" s="68">
+      <c r="D63" s="61">
         <f t="shared" si="1"/>
         <v>100.90756983044574</v>
       </c>
-      <c r="E62" s="56">
+      <c r="E63" s="55">
         <f t="shared" si="0"/>
         <v>1.681792830507429</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="B63" s="53" t="s">
+    <row r="64" spans="1:7">
+      <c r="B64" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="75">
+      <c r="C64" s="68">
         <v>253</v>
       </c>
-      <c r="D63" s="68">
+      <c r="D64" s="61">
         <f t="shared" si="1"/>
         <v>142.27491989040757</v>
       </c>
-      <c r="E63" s="56">
+      <c r="E64" s="55">
         <f t="shared" si="0"/>
         <v>2.3712486648401261</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="B64" s="52" t="s">
+    <row r="65" spans="2:5">
+      <c r="B65" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="C64" s="75">
+      <c r="C65" s="68">
         <v>370</v>
       </c>
-      <c r="D64" s="68">
+      <c r="D65" s="61">
         <f t="shared" si="1"/>
         <v>106.98365906113423</v>
       </c>
-      <c r="E64" s="56">
+      <c r="E65" s="55">
         <f t="shared" si="0"/>
         <v>1.7830609843522371</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="52" t="s">
+    <row r="66" spans="2:5">
+      <c r="B66" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="75">
+      <c r="C66" s="68">
         <v>283</v>
       </c>
-      <c r="D65" s="68">
+      <c r="D66" s="61">
         <f t="shared" si="1"/>
         <v>130.80637609525397</v>
       </c>
-      <c r="E65" s="56">
+      <c r="E66" s="55">
         <f t="shared" si="0"/>
         <v>2.1801062682542329</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="52" t="s">
+    <row r="67" spans="2:5">
+      <c r="B67" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="75">
+      <c r="C67" s="68">
         <v>253</v>
       </c>
-      <c r="D66" s="68">
+      <c r="D67" s="61">
         <f t="shared" si="1"/>
         <v>142.27491989040757</v>
       </c>
-      <c r="E66" s="56">
+      <c r="E67" s="55">
         <f t="shared" si="0"/>
         <v>2.3712486648401261</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
-      <c r="C67" s="75"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="54"/>
-    </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="5" t="s">
+      <c r="C68" s="68"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="53"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="75"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="54"/>
-    </row>
-    <row r="69" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B69" s="53" t="s">
+      <c r="C69" s="68"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="53"/>
+    </row>
+    <row r="70" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B70" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C69" s="75">
+      <c r="C70" s="68">
         <v>800</v>
       </c>
-      <c r="D69" s="74">
-        <f>D57</f>
+      <c r="D70" s="67">
+        <f>D58</f>
         <v>60</v>
       </c>
-      <c r="E69" s="56">
-        <f>($C$60/C69)^$E$57</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="16.5" thickTop="1">
-      <c r="B70" s="53" t="s">
+      <c r="E70" s="55">
+        <f>($C$61/C70)^$E$58</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="16.5" thickTop="1">
+      <c r="B71" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C70" s="75">
+      <c r="C71" s="68">
         <v>606</v>
       </c>
-      <c r="D70" s="68">
-        <f>$D$57*(($C$69/C70)^$E$57)</f>
+      <c r="D71" s="61">
+        <f>$D$58*(($C$70/C71)^$E$58)</f>
         <v>73.894867118770051</v>
       </c>
-      <c r="E70" s="56">
-        <f>($C$69/C70)^$E$57</f>
+      <c r="E71" s="55">
+        <f>($C$70/C71)^$E$58</f>
         <v>1.2315811186461676</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="C71" s="75">
-        <v>253</v>
-      </c>
-      <c r="D71" s="68">
-        <f>$D$57*(($C$69/C71)^$E$57)</f>
-        <v>142.27491989040757</v>
-      </c>
-      <c r="E71" s="56">
-        <f>($C$69/C71)^$E$57</f>
-        <v>2.3712486648401261</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="68">
+        <v>253</v>
+      </c>
+      <c r="D72" s="61">
+        <f>$D$58*(($C$70/C72)^$E$58)</f>
+        <v>142.27491989040757</v>
+      </c>
+      <c r="E72" s="55">
+        <f>($C$70/C72)^$E$58</f>
+        <v>2.3712486648401261</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="C72" s="75">
+      <c r="C73" s="68">
         <v>370</v>
       </c>
-      <c r="D72" s="68">
-        <f>$D$57*(($C$69/C72)^$E$57)</f>
+      <c r="D73" s="61">
+        <f>$D$58*(($C$70/C73)^$E$58)</f>
         <v>106.98365906113423</v>
       </c>
-      <c r="E72" s="56">
-        <f>($C$69/C72)^$E$57</f>
+      <c r="E73" s="55">
+        <f>($C$70/C73)^$E$58</f>
         <v>1.7830609843522371</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
-      <c r="B73" s="52" t="s">
+    <row r="74" spans="2:5">
+      <c r="B74" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="C73" s="75">
+      <c r="C74" s="68">
         <v>283</v>
       </c>
-      <c r="D73" s="68">
-        <f>$D$57*(($C$69/C73)^$E$57)</f>
+      <c r="D74" s="61">
+        <f>$D$58*(($C$70/C74)^$E$58)</f>
         <v>130.80637609525397</v>
       </c>
-      <c r="E73" s="56">
-        <f>($C$69/C73)^$E$57</f>
+      <c r="E74" s="55">
+        <f>($C$70/C74)^$E$58</f>
         <v>2.1801062682542329</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="52" t="s">
+    <row r="75" spans="2:5">
+      <c r="B75" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="75">
+      <c r="C75" s="68">
         <v>253</v>
       </c>
-      <c r="D74" s="68">
-        <f>$D$57*(($C$69/C74)^$E$57)</f>
+      <c r="D75" s="61">
+        <f>$D$58*(($C$70/C75)^$E$58)</f>
         <v>142.27491989040757</v>
       </c>
-      <c r="E74" s="56">
-        <f>($C$69/C74)^$E$57</f>
+      <c r="E75" s="55">
+        <f>($C$70/C75)^$E$58</f>
         <v>2.3712486648401261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18" thickBot="1">
+      <c r="A81" s="56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" thickTop="1">
+      <c r="B82" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" s="76">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="B83" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" s="42">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="B84" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="B85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" s="77">
+        <f>C82*(1-(C84/C83))</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="B86" t="s">
+        <v>239</v>
+      </c>
+      <c r="C86" s="45">
+        <f>C83/C84</f>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6121,12 +6454,12 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Database!$G$2:$G$58</xm:f>
           </x14:formula1>
-          <xm:sqref>C37:C38</xm:sqref>
+          <xm:sqref>C38:C39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="3"/>
+    <workbookView xWindow="17670" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Engine Config Calc" sheetId="2" r:id="rId1"/>
@@ -799,7 +799,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="243">
   <si>
     <t>name</t>
   </si>
@@ -1436,9 +1436,6 @@
     <t>Silicates</t>
   </si>
   <si>
-    <t>Radical Metasilicate (SiO3)</t>
-  </si>
-  <si>
     <t>Silicon</t>
   </si>
   <si>
@@ -1554,6 +1551,15 @@
   </si>
   <si>
     <t>Carnot cycle generator</t>
+  </si>
+  <si>
+    <t>Boron</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Orthosilicate (SiO4)</t>
   </si>
 </sst>
 </file>
@@ -1567,17 +1573,17 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="General\ &quot;J/mol-1 /K-1&quot;"/>
-    <numFmt numFmtId="171" formatCode="0\ &quot;K&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;g/mol&quot;"/>
-    <numFmt numFmtId="173" formatCode="0\ &quot;atm&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00\ &quot;g/mol&quot;"/>
-    <numFmt numFmtId="175" formatCode="0.000\ &quot;kg/mol&quot;"/>
-    <numFmt numFmtId="176" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.00000\ &quot;m/s^2&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,###\ &quot;m/s&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00\ &quot;Pa&quot;"/>
-    <numFmt numFmtId="186" formatCode="#,###\ &quot;kW&quot;"/>
+    <numFmt numFmtId="169" formatCode="General\ &quot;J/mol-1 /K-1&quot;"/>
+    <numFmt numFmtId="170" formatCode="0\ &quot;K&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00\ &quot;g/mol&quot;"/>
+    <numFmt numFmtId="172" formatCode="0\ &quot;atm&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00\ &quot;g/mol&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.000\ &quot;kg/mol&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00&quot;x&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00000\ &quot;m/s^2&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,###\ &quot;m/s&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;Pa&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,###\ &quot;kW&quot;"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1931,39 +1937,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="174" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="13" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="12"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1976,15 +1985,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="186" fontId="3" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -2347,13 +2353,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IQ77"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="5" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.140625" style="2" customWidth="1"/>
@@ -2366,13 +2374,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A1" s="70" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="A1" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickTop="1">
       <c r="A2" s="17" t="s">
@@ -2413,10 +2421,10 @@
         <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2430,7 +2438,7 @@
         <v>800</v>
       </c>
       <c r="C7" s="30">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -2452,10 +2460,10 @@
       <c r="E8" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="69"/>
+      <c r="H8" s="72"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickTop="1">
       <c r="B9" s="27">
@@ -2464,11 +2472,11 @@
       </c>
       <c r="C9" s="9">
         <f>IFERROR(C7*1000/B9,0)</f>
-        <v>15.295743194668924</v>
+        <v>7.6478715973344622</v>
       </c>
       <c r="D9" s="27">
         <f>C7*1000*B9</f>
-        <v>941438400</v>
+        <v>470719200</v>
       </c>
       <c r="E9" s="27">
         <f>IFERROR(D9/C9,0)</f>
@@ -2476,11 +2484,11 @@
       </c>
       <c r="G9" s="15">
         <f>SUM(B21:E21)</f>
-        <v>15.295743194668926</v>
+        <v>0</v>
       </c>
       <c r="H9" s="6" t="str">
         <f>IF($C$9&gt;$G$9,"Input excesive",IF($C$9&lt;$G$9,"Output excessive","Equal"))</f>
-        <v>Equal</v>
+        <v>Input excesive</v>
       </c>
     </row>
     <row r="10" spans="1:15" customFormat="1" ht="12.75"/>
@@ -2493,7 +2501,7 @@
       </c>
       <c r="C11" s="9">
         <f>IFERROR(C7*1000/B11/B9,0)</f>
-        <v>10.197162129779283</v>
+        <v>5.0985810648896415</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -2506,7 +2514,7 @@
       </c>
       <c r="C12" s="9">
         <f>IFERROR(C7*1000/B12/B9,0)</f>
-        <v>12.746452662224103</v>
+        <v>6.3732263311120514</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -2519,7 +2527,7 @@
       </c>
       <c r="C13" s="9">
         <f>IFERROR(C7*1000/B13/B9,0)</f>
-        <v>4.133984647207817</v>
+        <v>2.0669923236039085</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -2532,11 +2540,11 @@
       </c>
       <c r="C14" s="9">
         <f>IFERROR(C7*1000/B14/B9,0)</f>
-        <v>11.500558792984153</v>
+        <v>5.7502793964920764</v>
       </c>
       <c r="E14" s="5"/>
       <c r="K14" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2552,13 +2560,13 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -2568,7 +2576,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="19">
         <v>0</v>
@@ -2577,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="20">
-        <v>13.7705</v>
+        <v>21.60088</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>91</v>
@@ -2608,9 +2616,7 @@
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="17" t="s">
@@ -2618,14 +2624,14 @@
       </c>
       <c r="G18" s="23">
         <f>IFERROR(E20/I18,"-")</f>
-        <v>1.0000001503213618</v>
-      </c>
-      <c r="H18" s="24">
+        <v>0</v>
+      </c>
+      <c r="H18" s="24" t="str">
         <f>IFERROR(E17/G18,"-")</f>
-        <v>13.770497929999999</v>
+        <v>-</v>
       </c>
       <c r="I18" s="62">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>109</v>
@@ -2644,16 +2650,16 @@
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="10">
-        <f>IFERROR(VLOOKUP(B18,Database!$A$2:$B$55,2,0),"-")</f>
-        <v>0.70209999999999995</v>
+      <c r="B19" s="10" t="str">
+        <f>IFERROR(VLOOKUP(B18,Database!$A$2:$B$56,2,0),"-")</f>
+        <v>-</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f>IFERROR(VLOOKUP(C18,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(C18,Database!$A$2:$B$56,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D18,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D18,Database!$A$2:$B$56,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E19" s="11">
@@ -2673,21 +2679,21 @@
       <c r="A20" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="15" t="str">
         <f>IFERROR($C$9*B17/SUM(B22:D22),"-")</f>
-        <v>21.785704592891221</v>
-      </c>
-      <c r="C20" s="15">
+        <v>-</v>
+      </c>
+      <c r="C20" s="15" t="str">
         <f>IFERROR($C$9*C17/SUM(B22:D22),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="15">
+        <v>-</v>
+      </c>
+      <c r="D20" s="15" t="str">
         <f>IFERROR($C$9*D17/SUM(B22:D22),"-")</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="E20" s="15">
         <f>IFERROR($C$9*E17/SUM(B22:D22),0)</f>
-        <v>300.00004509640854</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>94</v>
@@ -2709,9 +2715,9 @@
       <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="6" t="str">
         <f>IFERROR(B19*B20,"-")</f>
-        <v>15.295743194668926</v>
+        <v>-</v>
       </c>
       <c r="C21" s="6" t="str">
         <f t="shared" ref="C21:D21" si="0">IFERROR(C19*C20,"-")</f>
@@ -2725,7 +2731,7 @@
         <f>E19*E20</f>
         <v>0</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="74" t="s">
         <v>95</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -2745,9 +2751,9 @@
       <c r="A22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="6" t="str">
         <f>IFERROR(B17*B19,"-")</f>
-        <v>0.70209999999999995</v>
+        <v>-</v>
       </c>
       <c r="C22" s="6" t="str">
         <f t="shared" ref="C22:D22" si="1">IFERROR(C17*C19,"-")</f>
@@ -2758,7 +2764,7 @@
         <v>-</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="K22" s="71"/>
+      <c r="K22" s="74"/>
       <c r="L22" s="2" t="s">
         <v>100</v>
       </c>
@@ -2777,7 +2783,7 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="K23" s="71"/>
+      <c r="K23" s="74"/>
       <c r="L23" s="2" t="s">
         <v>101</v>
       </c>
@@ -2796,7 +2802,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="K24" s="71"/>
+      <c r="K24" s="74"/>
       <c r="O24" s="26"/>
     </row>
     <row r="25" spans="1:15" ht="16.5" thickBot="1">
@@ -2804,7 +2810,7 @@
         <v>67</v>
       </c>
       <c r="B25" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="19">
         <v>0</v>
@@ -2813,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="20">
-        <v>16.179099999999998</v>
+        <v>20.65934</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>91</v>
@@ -2824,7 +2830,7 @@
       <c r="I25" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K25" s="71"/>
+      <c r="K25" s="74"/>
       <c r="L25" s="2" t="s">
         <v>102</v>
       </c>
@@ -2842,9 +2848,7 @@
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>124</v>
-      </c>
+      <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17" t="s">
@@ -2852,17 +2856,17 @@
       </c>
       <c r="G26" s="23">
         <f>IFERROR(E28/I26,"-")</f>
-        <v>0.99999700459513596</v>
-      </c>
-      <c r="H26" s="24">
+        <v>0</v>
+      </c>
+      <c r="H26" s="24" t="str">
         <f>IFERROR(E25/G26,"-")</f>
-        <v>16.179148463099999</v>
+        <v>-</v>
       </c>
       <c r="I26" s="22">
         <f>I18</f>
-        <v>300</v>
-      </c>
-      <c r="K26" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" s="74" t="s">
         <v>96</v>
       </c>
       <c r="L26" s="2" t="s">
@@ -2882,22 +2886,22 @@
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="10">
-        <f>IFERROR(VLOOKUP(B26,Database!$A$2:$B$55,2,0),"-")</f>
-        <v>0.82490700000000006</v>
+      <c r="B27" s="10" t="str">
+        <f>IFERROR(VLOOKUP(B26,Database!$A$2:$B$56,2,0),"-")</f>
+        <v>-</v>
       </c>
       <c r="C27" s="10" t="str">
-        <f>IFERROR(VLOOKUP(C26,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(C26,Database!$A$2:$B$56,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="D27" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D26,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D26,Database!$A$2:$B$56,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E27" s="11">
         <v>0</v>
       </c>
-      <c r="K27" s="71"/>
+      <c r="K27" s="74"/>
       <c r="L27" s="2" t="s">
         <v>104</v>
       </c>
@@ -2915,30 +2919,30 @@
       <c r="A28" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="15" t="str">
         <f>IFERROR($C$9*B25/SUM(B30:D30),"-")</f>
-        <v>18.542385013909353</v>
-      </c>
-      <c r="C28" s="15">
+        <v>-</v>
+      </c>
+      <c r="C28" s="15" t="str">
         <f>IFERROR($C$9*C25/SUM(B30:D30),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="15">
+        <v>-</v>
+      </c>
+      <c r="D28" s="15" t="str">
         <f>IFERROR($C$9*D25/SUM(B30:D30),"-")</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="E28" s="15">
         <f>IFERROR($C$9*E25/SUM(B30:D30),0)</f>
-        <v>299.99910137854079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="6" t="str">
         <f>IFERROR(B27*B28,"-")</f>
-        <v>15.295743194668924</v>
+        <v>-</v>
       </c>
       <c r="C29" s="6" t="str">
         <f t="shared" ref="C29:D29" si="2">IFERROR(C27*C28,"-")</f>
@@ -2957,9 +2961,9 @@
       <c r="A30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="6" t="str">
         <f>IFERROR(B25*B27,"-")</f>
-        <v>0.82490700000000006</v>
+        <v>-</v>
       </c>
       <c r="C30" s="6" t="str">
         <f t="shared" ref="C30:D30" si="3">IFERROR(C25*C27,"-")</f>
@@ -2986,10 +2990,10 @@
         <v>67</v>
       </c>
       <c r="B33" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="19">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="D33" s="19">
         <v>0</v>
@@ -3011,9 +3015,7 @@
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17" t="s">
@@ -3021,31 +3023,31 @@
       </c>
       <c r="G34" s="23">
         <f>IFERROR(E36/I34,"-")</f>
-        <v>0.99999800985110254</v>
-      </c>
-      <c r="H34" s="24">
+        <v>0</v>
+      </c>
+      <c r="H34" s="24" t="str">
         <f>IFERROR(E33/G34,"-")</f>
-        <v>8.3476166129999978</v>
+        <v>-</v>
       </c>
       <c r="I34" s="22">
         <f>I18</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="10">
-        <f>IFERROR(VLOOKUP(B34,Database!$A$2:$B$55,2,0),"-")</f>
-        <v>0.42560999999999999</v>
+      <c r="B35" s="10" t="str">
+        <f>IFERROR(VLOOKUP(B34,Database!$A$2:$B$56,2,0),"-")</f>
+        <v>-</v>
       </c>
       <c r="C35" s="10" t="str">
-        <f>IFERROR(VLOOKUP(C34,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(C34,Database!$A$2:$B$56,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="D35" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D34,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D34,Database!$A$2:$B$56,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E35" s="11">
@@ -3056,30 +3058,30 @@
       <c r="A36" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="15" t="str">
         <f>IFERROR($C$9*B33/SUM(B38:D38),"-")</f>
-        <v>35.938401810739705</v>
-      </c>
-      <c r="C36" s="15">
+        <v>-</v>
+      </c>
+      <c r="C36" s="15" t="str">
         <f>IFERROR($C$9*C33/SUM(B38:D38),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="15">
+        <v>-</v>
+      </c>
+      <c r="D36" s="15" t="str">
         <f>IFERROR($C$9*D33/SUM(B38:D38),"-")</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="E36" s="15">
         <f>IFERROR($C$9*E33/SUM(B38:D38),0)</f>
-        <v>299.99940295533077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="6" t="str">
         <f>IFERROR(B35*B36,"-")</f>
-        <v>15.295743194668926</v>
+        <v>-</v>
       </c>
       <c r="C37" s="6" t="str">
         <f t="shared" ref="C37:D37" si="4">IFERROR(C35*C36,"-")</f>
@@ -3098,9 +3100,9 @@
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="6" t="str">
         <f>IFERROR(B33*B35,"-")</f>
-        <v>0.42560999999999999</v>
+        <v>-</v>
       </c>
       <c r="C38" s="6" t="str">
         <f t="shared" ref="C38:D38" si="5">IFERROR(C33*C35,"-")</f>
@@ -3127,10 +3129,10 @@
         <v>67</v>
       </c>
       <c r="B41" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="19">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="D41" s="19">
         <v>0</v>
@@ -3152,9 +3154,7 @@
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>79</v>
-      </c>
+      <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
       <c r="E42" s="17" t="s">
@@ -3162,31 +3162,31 @@
       </c>
       <c r="G42" s="23">
         <f>IFERROR(E44/I42,"-")</f>
-        <v>5.0985810648896415E-2</v>
-      </c>
-      <c r="H42" s="24">
+        <v>0</v>
+      </c>
+      <c r="H42" s="24" t="str">
         <f>IFERROR(E41/G42,"-")</f>
-        <v>19.613299999999999</v>
+        <v>-</v>
       </c>
       <c r="I42" s="22">
         <f>I34</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="10">
-        <f>IFERROR(VLOOKUP(B42,Database!$A$2:$B$55,2,0),"-")</f>
-        <v>1</v>
+      <c r="B43" s="10" t="str">
+        <f>IFERROR(VLOOKUP(B42,Database!$A$2:$B$56,2,0),"-")</f>
+        <v>-</v>
       </c>
       <c r="C43" s="10" t="str">
-        <f>IFERROR(VLOOKUP(C42,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(C42,Database!$A$2:$B$56,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="D43" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D42,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D42,Database!$A$2:$B$56,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E43" s="11">
@@ -3197,30 +3197,30 @@
       <c r="A44" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="15" t="str">
         <f>IFERROR($C$9*B41/SUM(B46:D46),"-")</f>
-        <v>15.295743194668924</v>
-      </c>
-      <c r="C44" s="15">
+        <v>-</v>
+      </c>
+      <c r="C44" s="15" t="str">
         <f>IFERROR($C$9*C41/SUM(B46:D46),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="15">
+        <v>-</v>
+      </c>
+      <c r="D44" s="15" t="str">
         <f>IFERROR($C$9*D41/SUM(B46:D46),"-")</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="E44" s="15">
         <f>IFERROR($C$9*E41/SUM(B46:D46),0)</f>
-        <v>15.295743194668924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="6" t="str">
         <f>IFERROR(B43*B44,"-")</f>
-        <v>15.295743194668924</v>
+        <v>-</v>
       </c>
       <c r="C45" s="6" t="str">
         <f t="shared" ref="C45:D45" si="6">IFERROR(C43*C44,"-")</f>
@@ -3239,9 +3239,9 @@
       <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="6" t="str">
         <f>IFERROR(B41*B43,"-")</f>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="C46" s="6" t="str">
         <f t="shared" ref="C46:D46" si="7">IFERROR(C41*C43,"-")</f>
@@ -3303,15 +3303,15 @@
       </c>
       <c r="G50" s="23">
         <f>E52/I50</f>
-        <v>4.3456902321667511E-2</v>
+        <v>3.2592676741250631E-2</v>
       </c>
       <c r="H50" s="24">
         <f>IFERROR(E49/G50,"-")</f>
-        <v>23.011304225000003</v>
+        <v>30.681738966666671</v>
       </c>
       <c r="I50" s="22">
         <f>I34</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -3319,15 +3319,15 @@
         <v>25</v>
       </c>
       <c r="B51" s="10">
-        <f>IFERROR(VLOOKUP(B50,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(B50,Database!$A$2:$B$56,2,0),"-")</f>
         <v>1.1732500000000001</v>
       </c>
       <c r="C51" s="10" t="str">
-        <f>IFERROR(VLOOKUP(C50,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(C50,Database!$A$2:$B$56,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="D51" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D50,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D50,Database!$A$2:$B$56,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E51" s="11">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B52" s="15">
         <f>IFERROR($C$9*B49/SUM(B54:D54),"-")</f>
-        <v>13.037070696500253</v>
+        <v>6.5185353482501265</v>
       </c>
       <c r="C52" s="15">
         <f>IFERROR($C$9*C49/SUM(B54:D54),"-")</f>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="E52" s="15">
         <f>IFERROR($C$9*E49/SUM(B54:D54),0)</f>
-        <v>13.037070696500253</v>
+        <v>6.5185353482501265</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="B53" s="6">
         <f>IFERROR(B51*B52,"-")</f>
-        <v>15.295743194668923</v>
+        <v>7.6478715973344613</v>
       </c>
       <c r="C53" s="6" t="str">
         <f t="shared" ref="C53:D53" si="8">IFERROR(C51*C52,"-")</f>
@@ -3434,15 +3434,15 @@
       </c>
       <c r="G58" s="23">
         <f>E60/I58</f>
-        <v>4.3456902321667511E-2</v>
+        <v>3.2592676741250631E-2</v>
       </c>
       <c r="H58" s="24">
         <f>IFERROR(E57/G58,"-")</f>
-        <v>23.011304225000003</v>
+        <v>30.681738966666671</v>
       </c>
       <c r="I58" s="22">
         <f>I42</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -3450,15 +3450,15 @@
         <v>25</v>
       </c>
       <c r="B59" s="10">
-        <f>IFERROR(VLOOKUP(B58,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(B58,Database!$A$2:$B$56,2,0),"-")</f>
         <v>1.1732500000000001</v>
       </c>
       <c r="C59" s="10" t="str">
-        <f>IFERROR(VLOOKUP(C58,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(C58,Database!$A$2:$B$56,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="D59" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D58,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D58,Database!$A$2:$B$56,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E59" s="11">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B60" s="15">
         <f>IFERROR($C$9*B57/SUM(B62:D62),"-")</f>
-        <v>13.037070696500253</v>
+        <v>6.5185353482501265</v>
       </c>
       <c r="C60" s="15">
         <f>IFERROR($C$9*C57/SUM(B62:D62),"-")</f>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="E60" s="15">
         <f>IFERROR($C$9*E57/SUM(B62:D62),0)</f>
-        <v>13.037070696500253</v>
+        <v>6.5185353482501265</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B61" s="6">
         <f>IFERROR(B59*B60,"-")</f>
-        <v>15.295743194668923</v>
+        <v>7.6478715973344613</v>
       </c>
       <c r="C61" s="6" t="str">
         <f t="shared" ref="C61:D61" si="10">IFERROR(C59*C60,"-")</f>
@@ -3526,13 +3526,13 @@
       <c r="E62" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="18" thickBot="1">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="I66" s="22">
         <f>I26</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -3595,15 +3595,15 @@
         <v>25</v>
       </c>
       <c r="B67" s="10">
-        <f>IFERROR(VLOOKUP(B66,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(B66,Database!$A$2:$B$56,2,0),"-")</f>
         <v>0.35399999999999998</v>
       </c>
       <c r="C67" s="10">
-        <f>IFERROR(VLOOKUP(C66,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(C66,Database!$A$2:$B$56,2,0),"-")</f>
         <v>5</v>
       </c>
       <c r="D67" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D66,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D66,Database!$A$2:$B$56,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E67" s="11">
@@ -3616,11 +3616,11 @@
       </c>
       <c r="B68" s="15">
         <f>IFERROR($C$13*B65/SUM(B70:D70),"-")</f>
-        <v>2.0458518544413478</v>
+        <v>1.0229259272206739</v>
       </c>
       <c r="C68" s="15">
         <f>IFERROR($C$13*C65/SUM(B70:D70),"-")</f>
-        <v>0.68195061814711599</v>
+        <v>0.340975309073558</v>
       </c>
       <c r="D68" s="15">
         <f>IFERROR($C$13*D65/SUM(B70:D70),"-")</f>
@@ -3637,11 +3637,11 @@
       </c>
       <c r="B69" s="6">
         <f>IFERROR(B67*B68,"-")</f>
-        <v>0.72423155647223703</v>
+        <v>0.36211577823611851</v>
       </c>
       <c r="C69" s="6">
         <f t="shared" ref="C69:D69" si="12">IFERROR(C67*C68,"-")</f>
-        <v>3.4097530907355802</v>
+        <v>1.7048765453677901</v>
       </c>
       <c r="D69" s="6" t="str">
         <f t="shared" si="12"/>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="I73" s="22">
         <f>I34</f>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -3733,15 +3733,15 @@
         <v>25</v>
       </c>
       <c r="B74" s="10">
-        <f>IFERROR(VLOOKUP(B73,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(B73,Database!$A$2:$B$56,2,0),"-")</f>
         <v>2.12805</v>
       </c>
       <c r="C74" s="10">
-        <f>IFERROR(VLOOKUP(C73,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(C73,Database!$A$2:$B$56,2,0),"-")</f>
         <v>5</v>
       </c>
       <c r="D74" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D73,Database!$A$2:$B$55,2,0),"-")</f>
+        <f>IFERROR(VLOOKUP(D73,Database!$A$2:$B$56,2,0),"-")</f>
         <v>-</v>
       </c>
       <c r="E74" s="11">
@@ -3754,11 +3754,11 @@
       </c>
       <c r="B75" s="15">
         <f>IFERROR($C$14*B72/SUM(B77:D77),"-")</f>
-        <v>3.0306765440504964</v>
+        <v>1.5153382720252482</v>
       </c>
       <c r="C75" s="15">
         <f>IFERROR($C$14*C72/SUM(B77:D77),"-")</f>
-        <v>1.0102255146834989</v>
+        <v>0.50511275734174943</v>
       </c>
       <c r="D75" s="15">
         <f>IFERROR($C$14*D72/SUM(B77:D77),"-")</f>
@@ -3775,11 +3775,11 @@
       </c>
       <c r="B76" s="6">
         <f>IFERROR(B74*B75,"-")</f>
-        <v>6.4494312195666588</v>
+        <v>3.2247156097833294</v>
       </c>
       <c r="C76" s="6">
         <f t="shared" ref="C76:D76" si="14">IFERROR(C74*C75,"-")</f>
-        <v>5.0511275734174941</v>
+        <v>2.525563786708747</v>
       </c>
       <c r="D76" s="6" t="str">
         <f t="shared" si="14"/>
@@ -3826,12 +3826,54 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$A$2:$A$55</xm:f>
+            <xm:f>Database!$A$2:$A$56</xm:f>
           </x14:formula1>
-          <xm:sqref>B58:D58 B73:D73 B66:D66 B50:D50 B42:D42 B34:D34 B26:D26 B18:D18</xm:sqref>
+          <xm:sqref>B58:D58</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database!$A$2:$A$56</xm:f>
+          </x14:formula1>
+          <xm:sqref>B73:D73</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database!$A$2:$A$56</xm:f>
+          </x14:formula1>
+          <xm:sqref>B66:D66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database!$A$2:$A$56</xm:f>
+          </x14:formula1>
+          <xm:sqref>B50:D50</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database!$A$2:$A$56</xm:f>
+          </x14:formula1>
+          <xm:sqref>B42:D42</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database!$A$2:$A$56</xm:f>
+          </x14:formula1>
+          <xm:sqref>B34:D34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database!$A$2:$A$56</xm:f>
+          </x14:formula1>
+          <xm:sqref>B26:D26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Database!$A$2:$A$56</xm:f>
+          </x14:formula1>
+          <xm:sqref>B18:D18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3843,8 +3885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV78"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3854,7 +3896,7 @@
     <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2"/>
     <col min="7" max="7" width="23.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="2"/>
     <col min="10" max="10" width="15.5703125" style="2" customWidth="1"/>
     <col min="11" max="256" width="9.140625" style="2"/>
@@ -3872,13 +3914,13 @@
         <v>24</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickTop="1">
@@ -3969,16 +4011,16 @@
         <v>10</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
       <c r="I6" s="39">
         <v>1</v>
       </c>
       <c r="J6" s="40">
-        <v>12.01</v>
+        <v>39.950000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3989,16 +4031,16 @@
         <v>7.5</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I7" s="39">
         <v>1</v>
       </c>
       <c r="J7" s="40">
-        <v>44.01</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4009,31 +4051,31 @@
         <v>0.1</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I8" s="39">
         <v>1</v>
       </c>
       <c r="J8" s="40">
-        <v>28.01</v>
+        <v>44.01</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9"/>
       <c r="G9" s="39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I9" s="39">
         <v>1</v>
       </c>
       <c r="J9" s="40">
-        <v>35.450000000000003</v>
+        <v>28.01</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18" thickBot="1">
@@ -4041,16 +4083,16 @@
         <v>62</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I10" s="39">
         <v>1</v>
       </c>
       <c r="J10" s="40">
-        <v>238.03</v>
+        <v>35.450000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1">
@@ -4065,16 +4107,16 @@
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I11" s="39">
         <v>1</v>
       </c>
       <c r="J11" s="40">
-        <v>2.0139999999999998</v>
+        <v>238.03</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4082,23 +4124,23 @@
         <v>43</v>
       </c>
       <c r="B12" s="12">
-        <f t="shared" ref="B12:B51" si="0">C12*1000</f>
+        <f t="shared" ref="B12:B13" si="0">C12*1000</f>
         <v>1.784E-3</v>
       </c>
       <c r="C12" s="13">
         <v>1.784E-6</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I12" s="39">
         <v>1</v>
       </c>
       <c r="J12" s="40">
-        <v>60.08</v>
+        <v>2.0139999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4113,692 +4155,691 @@
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I13" s="39">
         <v>1</v>
       </c>
       <c r="J13" s="40">
-        <v>238.03</v>
+        <v>60.08</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="12">
+        <f t="shared" ref="B14" si="1">C14*1000</f>
+        <v>2.46</v>
+      </c>
+      <c r="C14" s="13">
+        <v>2.4599999999999999E-3</v>
+      </c>
+      <c r="G14" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="12">
-        <f t="shared" si="0"/>
-        <v>10.97</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1.0970000000000001E-2</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>122</v>
-      </c>
       <c r="H14" s="39" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I14" s="39">
         <v>1</v>
       </c>
       <c r="J14" s="40">
-        <v>46.07</v>
+        <v>238.03</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="12">
+        <f t="shared" ref="B15:B25" si="2">C15*1000</f>
+        <v>10.97</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1.0970000000000001E-2</v>
+      </c>
+      <c r="G15" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="12">
-        <f t="shared" si="0"/>
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="C15" s="13">
-        <v>7.8899999999999999E-4</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>123</v>
-      </c>
       <c r="H15" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I15" s="39">
         <v>1</v>
       </c>
       <c r="J15" s="40">
-        <v>61.206800000000001</v>
+        <v>46.07</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="12">
+        <f t="shared" si="2"/>
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="C16" s="13">
+        <v>7.8899999999999999E-4</v>
+      </c>
+      <c r="G16" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="12">
-        <f t="shared" si="0"/>
-        <v>0.84175</v>
-      </c>
-      <c r="C16" s="13">
-        <v>8.4175000000000005E-4</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>157</v>
-      </c>
       <c r="H16" s="39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I16" s="39">
         <v>1</v>
       </c>
       <c r="J16" s="40">
-        <v>183.88</v>
+        <v>61.206800000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="B17" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.84175</v>
       </c>
       <c r="C17" s="13">
-        <v>1E-3</v>
+        <v>8.4175000000000005E-4</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I17" s="39">
         <v>1</v>
       </c>
       <c r="J17" s="40">
-        <v>19</v>
+        <v>183.88</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="39">
+        <v>1</v>
+      </c>
+      <c r="J18" s="40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="12">
-        <f t="shared" si="0"/>
+      <c r="B19" s="12">
+        <f t="shared" si="2"/>
         <v>0.216</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C19" s="13">
         <v>2.1599999999999999E-4</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G19" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H19" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="39">
-        <v>1</v>
-      </c>
-      <c r="J18" s="40">
+      <c r="I19" s="39">
+        <v>1</v>
+      </c>
+      <c r="J19" s="40">
         <f>5.03</f>
         <v>5.03</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="12">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="C19" s="13">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="I19" s="39">
-        <v>1</v>
-      </c>
-      <c r="J19" s="40">
-        <v>92.09</v>
-      </c>
-    </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="12">
-        <f t="shared" si="0"/>
-        <v>5.8</v>
+        <f t="shared" si="2"/>
+        <v>2.5</v>
       </c>
       <c r="C20" s="13">
-        <v>5.7999999999999996E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I20" s="39">
         <v>1</v>
       </c>
       <c r="J20" s="40">
-        <v>172.14</v>
+        <v>92.09</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="B21" s="12">
-        <f t="shared" si="0"/>
-        <v>0.82</v>
+        <f t="shared" si="2"/>
+        <v>5.8</v>
       </c>
       <c r="C21" s="13">
-        <v>8.1999999999999998E-4</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I21" s="39">
         <v>1</v>
       </c>
       <c r="J21" s="40">
-        <v>3.016</v>
+        <v>172.14</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="12">
+        <f t="shared" si="2"/>
+        <v>0.82</v>
+      </c>
+      <c r="C22" s="13">
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="39">
+        <v>1</v>
+      </c>
+      <c r="J22" s="40">
+        <v>3.016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="12">
-        <f t="shared" si="0"/>
+      <c r="B23" s="12">
+        <f t="shared" si="2"/>
         <v>0.53399999999999992</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C23" s="13">
         <v>5.3399999999999997E-4</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G23" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H23" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="39">
-        <v>1</v>
-      </c>
-      <c r="J22" s="40">
+      <c r="I23" s="39">
+        <v>1</v>
+      </c>
+      <c r="J23" s="40">
         <v>4.0019999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="12">
-        <f t="shared" si="0"/>
+      <c r="B24" s="12">
+        <f t="shared" si="2"/>
         <v>0.70209999999999995</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C24" s="13">
         <v>7.0209999999999999E-4</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G24" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H24" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="I23" s="39">
-        <v>1</v>
-      </c>
-      <c r="J23" s="40">
+      <c r="I24" s="39">
+        <v>1</v>
+      </c>
+      <c r="J24" s="40">
         <v>34.01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B24" s="12">
-        <f t="shared" si="0"/>
-        <v>0.79</v>
-      </c>
-      <c r="C24" s="13">
-        <v>7.9000000000000001E-4</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="I24" s="39">
-        <v>1</v>
-      </c>
-      <c r="J24" s="40">
-        <v>168.69</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="12">
+        <f t="shared" si="2"/>
+        <v>0.79</v>
+      </c>
+      <c r="C25" s="13">
+        <v>7.9000000000000001E-4</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25" s="39">
+        <v>1</v>
+      </c>
+      <c r="J25" s="40">
+        <v>168.69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="12">
-        <f>C25*1000</f>
+      <c r="B26" s="12">
+        <f t="shared" ref="B26:B40" si="3">C26*1000</f>
         <v>1.1732500000000001</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C26" s="13">
         <v>1.17325E-3</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G26" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H26" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="I25" s="39">
-        <v>1</v>
-      </c>
-      <c r="J25" s="40">
+      <c r="I26" s="39">
+        <v>1</v>
+      </c>
+      <c r="J26" s="40">
         <f>(14.007*2)+(1.008*4)</f>
         <v>32.045999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="12">
-        <f>C26*1000</f>
-        <v>0.16239999999999999</v>
-      </c>
-      <c r="C26" s="13">
-        <v>1.6239999999999999E-4</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="I26" s="39">
-        <v>1</v>
-      </c>
-      <c r="J26" s="40">
-        <v>2.02</v>
-      </c>
-    </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" s="12">
-        <f>C27*1000</f>
-        <v>5.8999999999999997E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.16239999999999999</v>
       </c>
       <c r="C27" s="13">
-        <v>5.8999999999999998E-5</v>
+        <v>1.6239999999999999E-4</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I27" s="39">
         <v>1</v>
       </c>
       <c r="J27" s="40">
-        <v>170.34</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B28" s="12">
-        <f>C28*1000</f>
-        <v>7.0849999999999996E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C28" s="13">
-        <v>7.0850000000000001E-5</v>
+        <v>5.8999999999999998E-5</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I28" s="39">
         <v>1</v>
       </c>
       <c r="J28" s="40">
-        <v>6.94</v>
+        <v>170.34</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="12">
-        <f>C29*1000</f>
-        <v>0.42560999999999999</v>
+        <f t="shared" si="3"/>
+        <v>7.0849999999999996E-2</v>
       </c>
       <c r="C29" s="13">
-        <v>4.2560999999999999E-4</v>
+        <v>7.0850000000000001E-5</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="I29" s="39">
         <v>1</v>
       </c>
       <c r="J29" s="40">
-        <v>17.03</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="B30" s="12">
-        <f>C30*1000</f>
-        <v>1.141</v>
+        <f t="shared" si="3"/>
+        <v>0.42560999999999999</v>
       </c>
       <c r="C30" s="13">
-        <v>1.1410000000000001E-3</v>
+        <v>4.2560999999999999E-4</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I30" s="39">
         <v>1</v>
       </c>
       <c r="J30" s="40">
-        <v>28.01</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="B31" s="12">
-        <f>C31*1000</f>
-        <v>0.82490700000000006</v>
+        <f t="shared" si="3"/>
+        <v>1.141</v>
       </c>
       <c r="C31" s="13">
-        <v>8.2490700000000005E-4</v>
+        <v>1.1410000000000001E-3</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I31" s="39">
         <v>1</v>
       </c>
       <c r="J31" s="40">
-        <v>44.01</v>
+        <v>28.01</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B32" s="12">
-        <f>C32*1000</f>
-        <v>7.8</v>
+        <f t="shared" si="3"/>
+        <v>0.82490700000000006</v>
       </c>
       <c r="C32" s="13">
-        <v>7.7999999999999996E-3</v>
+        <v>8.2490700000000005E-4</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I32" s="39">
         <v>1</v>
       </c>
       <c r="J32" s="40">
-        <v>2.0139999999999998</v>
+        <v>44.01</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B33" s="12">
-        <f>C33*1000</f>
-        <v>7.085</v>
+        <f t="shared" si="3"/>
+        <v>7.8</v>
       </c>
       <c r="C33" s="13">
-        <v>7.0850000000000002E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="I33" s="39">
         <v>1</v>
       </c>
       <c r="J33" s="40">
-        <v>3.016</v>
+        <v>2.0139999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B34" s="12">
-        <f>C34*1000</f>
-        <v>0.88</v>
+        <f t="shared" si="3"/>
+        <v>7.085</v>
       </c>
       <c r="C34" s="13">
-        <v>8.8000000000000003E-4</v>
+        <v>7.0850000000000002E-3</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I34" s="39">
         <v>1</v>
       </c>
       <c r="J34" s="40">
-        <v>4.0019999999999998</v>
+        <v>3.016</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="12">
+        <f t="shared" si="3"/>
+        <v>0.88</v>
+      </c>
+      <c r="C35" s="13">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="I35" s="39">
+        <v>1</v>
+      </c>
+      <c r="J35" s="40">
+        <v>4.0019999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="12">
-        <f>C35*1000</f>
+      <c r="B36" s="12">
+        <f t="shared" si="3"/>
         <v>1.45</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C36" s="13">
         <v>1.4499999999999999E-3</v>
       </c>
-      <c r="G35" s="39" t="s">
+      <c r="G36" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="39" t="s">
+      <c r="H36" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="I35" s="39">
-        <v>1</v>
-      </c>
-      <c r="J35" s="40">
+      <c r="I36" s="39">
+        <v>1</v>
+      </c>
+      <c r="J36" s="40">
         <v>2.02</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="12">
-        <f>C36*1000</f>
-        <v>1.05</v>
-      </c>
-      <c r="C36" s="13">
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="G36" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="I36" s="39">
-        <v>1</v>
-      </c>
-      <c r="J36" s="40">
-        <v>16.05</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B37" s="12">
-        <f>C37*1000</f>
-        <v>0.79100000000000004</v>
+        <f t="shared" si="3"/>
+        <v>1.05</v>
       </c>
       <c r="C37" s="13">
-        <v>7.9100000000000004E-4</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="I37" s="41">
+        <v>31</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="I37" s="39">
         <v>1</v>
       </c>
       <c r="J37" s="40">
-        <v>32</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="12">
+        <f t="shared" si="3"/>
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="C38" s="13">
+        <v>7.9100000000000004E-4</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="I38" s="41">
+        <v>1</v>
+      </c>
+      <c r="J38" s="40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="12">
-        <f>C38*1000</f>
+      <c r="B39" s="12">
+        <f t="shared" si="3"/>
         <v>0.82899999999999996</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C39" s="13">
         <v>8.2899999999999998E-4</v>
       </c>
-      <c r="G38" s="39" t="s">
+      <c r="G39" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="H38" s="39" t="s">
+      <c r="H39" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="I38" s="39">
-        <v>1</v>
-      </c>
-      <c r="J38" s="40">
+      <c r="I39" s="39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="40">
         <v>28.01</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="12">
-        <f>C39*1000</f>
-        <v>1</v>
-      </c>
-      <c r="C39" s="13">
+      <c r="B40" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C40" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="G40" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="H40" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="I39" s="39">
-        <v>1</v>
-      </c>
-      <c r="J39" s="40">
-        <f>J35</f>
+      <c r="I40" s="39">
+        <v>1</v>
+      </c>
+      <c r="J40" s="40">
+        <f>J36</f>
         <v>2.02</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="G40" s="39" t="s">
+    <row r="41" spans="1:10">
+      <c r="G41" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H41" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="I40" s="39">
-        <v>1</v>
-      </c>
-      <c r="J40" s="40">
+      <c r="I41" s="39">
+        <v>1</v>
+      </c>
+      <c r="J41" s="40">
         <v>159.69</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="18" thickBot="1">
-      <c r="A41" s="7" t="s">
+    <row r="42" spans="1:10" ht="18" thickBot="1">
+      <c r="A42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B41"/>
-      <c r="C41" s="14"/>
-      <c r="G41" s="39" t="s">
+      <c r="B42"/>
+      <c r="C42" s="14"/>
+      <c r="G42" s="39" t="s">
         <v>186</v>
-      </c>
-      <c r="H41" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="I41" s="39">
-        <v>1</v>
-      </c>
-      <c r="J41" s="40">
-        <f>55.845*2</f>
-        <v>111.69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="16.5" thickTop="1">
-      <c r="A42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="12">
-        <f>C42*1000</f>
-        <v>5</v>
-      </c>
-      <c r="C42" s="13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G42" s="39" t="s">
-        <v>44</v>
       </c>
       <c r="H42" s="39" t="s">
         <v>187</v>
@@ -4811,362 +4852,387 @@
         <v>111.69</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" ht="16.5" thickTop="1">
       <c r="A43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="12">
+        <f t="shared" ref="B43:B56" si="4">C43*1000</f>
+        <v>5</v>
+      </c>
+      <c r="C43" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="I43" s="39">
+        <v>1</v>
+      </c>
+      <c r="J43" s="40">
+        <f>55.845*2</f>
+        <v>111.69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="12">
-        <f>C43*1000</f>
+      <c r="B44" s="12">
+        <f t="shared" si="4"/>
         <v>54.4</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C44" s="13">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="G43" s="39" t="s">
+      <c r="G44" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="H43" s="39" t="s">
+      <c r="H44" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="I43" s="39">
-        <v>1</v>
-      </c>
-      <c r="J43" s="40">
+      <c r="I44" s="39">
+        <v>1</v>
+      </c>
+      <c r="J44" s="40">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:10">
+      <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="12">
-        <f>C44*1000</f>
+      <c r="B45" s="12">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C45" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G44" s="39" t="s">
+      <c r="G45" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="H44" s="39" t="s">
+      <c r="H45" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="I44" s="39">
-        <v>1</v>
-      </c>
-      <c r="J44" s="40">
+      <c r="I45" s="39">
+        <v>1</v>
+      </c>
+      <c r="J45" s="40">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="18.75">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:10" ht="18.75">
+      <c r="A46" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="12">
-        <f>C45*1000</f>
+      <c r="B46" s="12">
+        <f t="shared" si="4"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C46" s="13">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="G45" s="39" t="s">
+      <c r="G46" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="H45" s="39" t="s">
+      <c r="H46" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="I45" s="39">
-        <v>1</v>
-      </c>
-      <c r="J45" s="40">
+      <c r="I46" s="39">
+        <v>1</v>
+      </c>
+      <c r="J46" s="40">
         <v>46.07</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="12">
-        <f>C46*1000</f>
-        <v>5.0108799999999993</v>
-      </c>
-      <c r="C46" s="13">
-        <v>5.0108799999999997E-3</v>
-      </c>
-      <c r="G46" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="I46" s="39">
-        <v>1</v>
-      </c>
-      <c r="J46" s="40">
-        <v>233.88</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="12">
+        <f t="shared" si="4"/>
+        <v>5.0108799999999993</v>
+      </c>
+      <c r="C47" s="13">
+        <v>5.0108799999999997E-3</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="I47" s="39">
+        <v>1</v>
+      </c>
+      <c r="J47" s="40">
+        <v>233.88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="12">
-        <f>C47*1000</f>
+      <c r="B48" s="12">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C48" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G47" s="39" t="s">
+      <c r="G48" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="H47" s="39" t="s">
+      <c r="H48" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="I47" s="39">
-        <v>1</v>
-      </c>
-      <c r="J47" s="40">
+      <c r="I48" s="39">
+        <v>1</v>
+      </c>
+      <c r="J48" s="40">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="12">
-        <f>C48*1000</f>
-        <v>8.6</v>
-      </c>
-      <c r="C48" s="13">
-        <v>8.6E-3</v>
-      </c>
-      <c r="G48" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="H48" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="I48" s="39">
-        <v>1</v>
-      </c>
-      <c r="J48" s="40">
-        <v>92.04</v>
-      </c>
-    </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B49" s="12">
-        <f>C49*1000</f>
-        <v>5.7050000000000001</v>
+        <f t="shared" si="4"/>
+        <v>8.6</v>
       </c>
       <c r="C49" s="13">
-        <v>5.705E-3</v>
+        <v>8.6E-3</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="I49" s="39">
         <v>1</v>
       </c>
       <c r="J49" s="40">
-        <v>32</v>
+        <v>92.04</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50" s="12">
-        <f>C50*1000</f>
-        <v>0.35399999999999998</v>
+        <f t="shared" si="4"/>
+        <v>5.7050000000000001</v>
       </c>
       <c r="C50" s="13">
-        <v>3.5399999999999999E-4</v>
+        <v>5.705E-3</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H50" s="39" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="I50" s="39">
         <v>1</v>
       </c>
       <c r="J50" s="40">
-        <v>30.97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="12">
+        <f t="shared" si="4"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C51" s="13">
+        <v>3.5399999999999999E-4</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="I51" s="39">
+        <v>1</v>
+      </c>
+      <c r="J51" s="40">
+        <v>30.97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="12">
-        <f>C51*1000</f>
+      <c r="B52" s="12">
+        <f t="shared" si="4"/>
         <v>2.12805</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C52" s="13">
         <v>2.1280499999999998E-3</v>
       </c>
-      <c r="G51" s="39" t="s">
+      <c r="G52" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="H51" s="39" t="s">
+      <c r="H52" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="I51" s="39">
-        <v>1</v>
-      </c>
-      <c r="J51" s="40">
+      <c r="I52" s="39">
+        <v>1</v>
+      </c>
+      <c r="J52" s="40">
         <f>195.078</f>
         <v>195.078</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="12">
-        <f>C52*1000</f>
-        <v>4.1000000000000005</v>
-      </c>
-      <c r="C52" s="13">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="G52" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="H52" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="I52" s="39">
-        <v>1</v>
-      </c>
-      <c r="J52" s="40">
-        <v>76.08</v>
-      </c>
-    </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B53" s="12">
-        <f>C53*1000</f>
-        <v>12.5</v>
+        <f t="shared" si="4"/>
+        <v>4.1000000000000005</v>
       </c>
       <c r="C53" s="13">
-        <v>1.2500000000000001E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="G53" s="39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="I53" s="39">
         <v>1</v>
       </c>
       <c r="J53" s="40">
-        <v>28.09</v>
+        <v>76.08</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="12">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+      <c r="C54" s="13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G54" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="H54" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="I54" s="39">
+        <v>1</v>
+      </c>
+      <c r="J54" s="40">
+        <v>28.09</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="12">
-        <f>C54*1000</f>
+      <c r="B55" s="12">
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C55" s="13">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G54" s="39" t="s">
+      <c r="G55" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="H55" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="H54" s="39" t="s">
+      <c r="I55" s="39">
+        <v>1</v>
+      </c>
+      <c r="J55" s="40">
+        <v>186.09</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="12">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C56" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G56" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="I54" s="39">
-        <v>1</v>
-      </c>
-      <c r="J54" s="40">
-        <v>186.09</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="12">
-        <f>C55*1000</f>
-        <v>5</v>
-      </c>
-      <c r="C55" s="13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G55" s="39" t="s">
+      <c r="H56" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="H55" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="I55" s="39">
-        <v>1</v>
-      </c>
-      <c r="J55" s="40">
+      <c r="I56" s="39">
+        <v>1</v>
+      </c>
+      <c r="J56" s="40">
         <v>270.02999999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="G56" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="H56" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="I56" s="39">
-        <v>1</v>
-      </c>
-      <c r="J56" s="40">
-        <v>60.1</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="G57" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H57" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="I57" s="39">
+        <v>1</v>
+      </c>
+      <c r="J57" s="40">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="G58" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="H57" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="I57" s="39">
-        <v>1</v>
-      </c>
-      <c r="J57" s="40">
+      <c r="H58" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="I58" s="39">
+        <v>1</v>
+      </c>
+      <c r="J58" s="40">
         <f>SUM(($D$38*0.25)+($D$82*0.75))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="G58" s="39" t="s">
+    <row r="59" spans="1:10">
+      <c r="G59" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="H58" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="I58" s="39">
-        <v>1</v>
-      </c>
-      <c r="J58" s="40">
+      <c r="H59" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="I59" s="39">
+        <v>1</v>
+      </c>
+      <c r="J59" s="40">
         <v>18.02</v>
       </c>
     </row>
@@ -5179,7 +5245,7 @@
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
-      <formula1>$A$11:$A$39</formula1>
+      <formula1>$A$11:$A$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
@@ -5213,15 +5279,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -5644,8 +5710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5659,13 +5725,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1">
-      <c r="A1" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="A1" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickTop="1" thickBot="1">
       <c r="A2" s="56" t="s">
@@ -5674,7 +5740,7 @@
     </row>
     <row r="3" spans="1:10" ht="16.5" thickTop="1">
       <c r="B3" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>114</v>
@@ -5716,7 +5782,7 @@
         <f>B4*G7</f>
         <v>9414.384</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="69">
         <f>IFERROR(C4*1000/B6,0)</f>
         <v>31.866131655560256</v>
       </c>
@@ -5729,7 +5795,7 @@
         <v>88630626.099455997</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5749,7 +5815,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1">
       <c r="B10" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>114</v>
@@ -5784,7 +5850,7 @@
         <f>B11*G7</f>
         <v>9414.384</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="69">
         <f>E13/D13</f>
         <v>3.1381279999999998E-2</v>
       </c>
@@ -5806,21 +5872,21 @@
       <c r="G14"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="75"/>
+      <c r="C15" s="76"/>
       <c r="G15"/>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>118</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G16"/>
     </row>
@@ -5855,7 +5921,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>113</v>
@@ -5881,7 +5947,7 @@
     </row>
     <row r="26" spans="1:8" ht="16.5" thickTop="1">
       <c r="B26" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>114</v>
@@ -5890,10 +5956,10 @@
     <row r="27" spans="1:8">
       <c r="B27" s="35">
         <f>B29/G7</f>
-        <v>1357.6450198823377</v>
+        <v>749335.32127174258</v>
       </c>
       <c r="C27" s="29">
-        <v>300</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -5913,29 +5979,29 @@
     <row r="29" spans="1:8">
       <c r="B29" s="35">
         <f>(2*E29)^0.5</f>
-        <v>13313.949534229127</v>
-      </c>
-      <c r="C29" s="74">
+        <v>7348469.2283495339</v>
+      </c>
+      <c r="C29" s="69">
         <f>IFERROR(C27*1000/B29,0)</f>
-        <v>22.532757783760811</v>
+        <v>0.51711450125422653</v>
       </c>
       <c r="D29" s="35">
         <f>C27*1000*B29</f>
-        <v>3994184860.2687378</v>
+        <v>27924183067728.23</v>
       </c>
       <c r="E29" s="34">
-        <v>88630626.099999994</v>
+        <v>27000000000000</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="37">
         <f>B29/G4</f>
-        <v>4.4410555298989967E-5</v>
+        <v>2.4511854892458749E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" thickBot="1">
@@ -5978,7 +6044,7 @@
         <v>30</v>
       </c>
       <c r="D38" s="47">
-        <f>IFERROR(VLOOKUP(C38,Database!$G$2:$J$58,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C38,Database!$G$2:$J$59,4,FALSE),"-")</f>
         <v>2.02</v>
       </c>
       <c r="E38" s="48">
@@ -5993,7 +6059,7 @@
         <v>79</v>
       </c>
       <c r="D39" s="47">
-        <f>IFERROR(VLOOKUP(C39,Database!$G$2:$J$58,4,FALSE),"-")</f>
+        <f>IFERROR(VLOOKUP(C39,Database!$G$2:$J$59,4,FALSE),"-")</f>
         <v>18.02</v>
       </c>
       <c r="E39" s="48">
@@ -6003,7 +6069,7 @@
     </row>
     <row r="40" spans="1:9" ht="16.5" thickTop="1">
       <c r="B40" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C40" s="17">
         <v>1.3979999999999999</v>
@@ -6059,7 +6125,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C45" s="45">
         <f>(2*C40)/(C40-1)</f>
@@ -6072,7 +6138,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C46" s="45">
         <f>(C40-1)/C40</f>
@@ -6124,7 +6190,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="B51" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C51" s="60">
         <f>C50/9.80655</f>
@@ -6145,19 +6211,19 @@
     </row>
     <row r="55" spans="1:7" ht="18" thickBot="1">
       <c r="A55" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16.5" thickTop="1"/>
     <row r="57" spans="1:7">
       <c r="C57" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -6170,15 +6236,15 @@
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16.5" thickBot="1">
       <c r="B61" s="52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C61" s="68">
         <v>800</v>
@@ -6242,7 +6308,7 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C65" s="68">
         <v>370</v>
@@ -6335,7 +6401,7 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C72" s="68">
         <v>253</v>
@@ -6351,7 +6417,7 @@
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C73" s="68">
         <v>370</v>
@@ -6367,7 +6433,7 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C74" s="68">
         <v>283</v>
@@ -6399,20 +6465,20 @@
     </row>
     <row r="81" spans="1:3" ht="18" thickBot="1">
       <c r="A81" s="56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="16.5" thickTop="1">
       <c r="B82" t="s">
-        <v>236</v>
-      </c>
-      <c r="C82" s="76">
+        <v>235</v>
+      </c>
+      <c r="C82" s="70">
         <v>4000</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="B83" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C83" s="42">
         <v>1600</v>
@@ -6420,7 +6486,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="B84" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C84" s="42">
         <v>1000</v>
@@ -6428,16 +6494,16 @@
     </row>
     <row r="85" spans="1:3">
       <c r="B85" t="s">
-        <v>235</v>
-      </c>
-      <c r="C85" s="77">
+        <v>234</v>
+      </c>
+      <c r="C85" s="71">
         <f>C82*(1-(C84/C83))</f>
         <v>1500</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="B86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C86" s="45">
         <f>C83/C84</f>
@@ -6457,7 +6523,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Database!$G$2:$G$58</xm:f>
+            <xm:f>Database!$G$2:$G$59</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C39</xm:sqref>
         </x14:dataValidation>

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="0" windowWidth="18375" windowHeight="8625"/>
+    <workbookView xWindow="17670" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Engine Config Calc" sheetId="2" r:id="rId1"/>
@@ -360,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0" shapeId="0">
+    <comment ref="A21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0">
+    <comment ref="A26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0" shapeId="0">
+    <comment ref="A35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -458,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0" shapeId="0">
+    <comment ref="B37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -482,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0">
+    <comment ref="B38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -506,7 +506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B38" authorId="0" shapeId="0">
+    <comment ref="B39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -530,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="0" shapeId="0">
+    <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0" shapeId="0">
+    <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -578,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0" shapeId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -799,7 +799,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="243">
   <si>
     <t>name</t>
   </si>
@@ -1973,6 +1973,9 @@
     <xf numFmtId="168" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="3" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1984,9 +1987,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2353,7 +2353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IQ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2374,13 +2374,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickTop="1">
       <c r="A2" s="17" t="s">
@@ -2460,10 +2460,10 @@
       <c r="E8" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="72"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickTop="1">
       <c r="B9" s="27">
@@ -2560,13 +2560,13 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
@@ -2731,7 +2731,7 @@
         <f>E19*E20</f>
         <v>0</v>
       </c>
-      <c r="K21" s="74" t="s">
+      <c r="K21" s="75" t="s">
         <v>95</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -2764,7 +2764,7 @@
         <v>-</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="K22" s="74"/>
+      <c r="K22" s="75"/>
       <c r="L22" s="2" t="s">
         <v>100</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="K23" s="74"/>
+      <c r="K23" s="75"/>
       <c r="L23" s="2" t="s">
         <v>101</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="K24" s="74"/>
+      <c r="K24" s="75"/>
       <c r="O24" s="26"/>
     </row>
     <row r="25" spans="1:15" ht="16.5" thickBot="1">
@@ -2830,7 +2830,7 @@
       <c r="I25" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="K25" s="74"/>
+      <c r="K25" s="75"/>
       <c r="L25" s="2" t="s">
         <v>102</v>
       </c>
@@ -2866,7 +2866,7 @@
         <f>I18</f>
         <v>200</v>
       </c>
-      <c r="K26" s="74" t="s">
+      <c r="K26" s="75" t="s">
         <v>96</v>
       </c>
       <c r="L26" s="2" t="s">
@@ -2901,7 +2901,7 @@
       <c r="E27" s="11">
         <v>0</v>
       </c>
-      <c r="K27" s="74"/>
+      <c r="K27" s="75"/>
       <c r="L27" s="2" t="s">
         <v>104</v>
       </c>
@@ -3526,13 +3526,13 @@
       <c r="E62" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="18" thickBot="1">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="B64" s="72"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
@@ -5279,15 +5279,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -5710,14 +5710,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="22" style="5" customWidth="1"/>
-    <col min="2" max="5" width="20" style="5" customWidth="1"/>
+    <col min="2" max="3" width="20" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20" style="5" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="5" customWidth="1"/>
     <col min="8" max="10" width="9.140625" style="5" customWidth="1"/>
@@ -5752,10 +5754,10 @@
     <row r="4" spans="1:10">
       <c r="A4"/>
       <c r="B4" s="30">
-        <v>960</v>
+        <v>203946</v>
       </c>
       <c r="C4" s="33">
-        <v>300</v>
+        <v>2300</v>
       </c>
       <c r="G4" s="58">
         <v>299792458</v>
@@ -5780,130 +5782,137 @@
       <c r="A6" s="2"/>
       <c r="B6" s="27">
         <f>B4*G7</f>
-        <v>9414.384</v>
+        <v>2000027.0408999999</v>
       </c>
       <c r="C6" s="69">
         <f>IFERROR(C4*1000/B6,0)</f>
-        <v>31.866131655560256</v>
+        <v>1.1499844516927202</v>
       </c>
       <c r="D6" s="27">
         <f>C4*1000*B6</f>
-        <v>2824315200</v>
+        <v>4600062194070</v>
       </c>
       <c r="E6" s="27">
         <f>IFERROR(D6/C6,0)</f>
-        <v>88630626.099455997</v>
+        <v>4000108164331.21</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:10">
+      <c r="B7" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="G7" s="57">
         <v>9.8066499999999994</v>
       </c>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10">
+      <c r="B8" s="37">
+        <f>B6/G4</f>
+        <v>6.671372102696459E-3</v>
+      </c>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10" ht="18" thickBot="1">
-      <c r="A9" s="56" t="s">
+    <row r="9" spans="1:10">
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" thickBot="1">
+      <c r="A10" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" thickTop="1">
-      <c r="B10" s="2" t="s">
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickTop="1">
+      <c r="B11" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="31">
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="31">
         <v>960</v>
       </c>
-      <c r="C11" s="32">
-        <f>(C13*B13)/1000</f>
+      <c r="C12" s="32">
+        <f>(C14*B14)/1000</f>
         <v>0.29543542033151998</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:10">
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="27">
-        <f>B11*G7</f>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="27">
+        <f>B12*G7</f>
         <v>9414.384</v>
       </c>
-      <c r="C13" s="69">
-        <f>E13/D13</f>
+      <c r="C14" s="69">
+        <f>E14/D14</f>
         <v>3.1381279999999998E-2</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D14" s="31">
         <v>2824315200</v>
       </c>
-      <c r="E13" s="27">
-        <f>IFERROR((B13^2),0)</f>
+      <c r="E14" s="27">
+        <f>IFERROR((B14^2),0)</f>
         <v>88630626.099455997</v>
       </c>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
       <c r="G14"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="76" t="s">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="72"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" s="29">
-        <v>1</v>
-      </c>
-      <c r="C17" s="29">
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="29">
+        <v>1</v>
+      </c>
+      <c r="C18" s="29">
         <v>0</v>
       </c>
-      <c r="D17" s="28">
-        <f>C11/(B17*G7)</f>
+      <c r="D18" s="28">
+        <f>C12/(B18*G7)</f>
         <v>3.0126028799999999E-2</v>
       </c>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:8">
       <c r="G18"/>
       <c r="H18"/>
     </row>
@@ -5911,238 +5920,227 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8" ht="18" thickBot="1">
-      <c r="A20" s="56" t="s">
+    <row r="21" spans="1:8" ht="18" thickBot="1">
+      <c r="A21" s="56" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" thickTop="1">
-      <c r="B21" s="5" t="s">
+    <row r="22" spans="1:8" ht="16.5" thickTop="1">
+      <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="36">
+    <row r="23" spans="1:8">
+      <c r="B23" s="36">
         <v>1000000000</v>
       </c>
-      <c r="C22" s="63">
-        <f>(B22/G4/1000)</f>
+      <c r="C23" s="63">
+        <f>(B23/G4/1000)</f>
         <v>3.3356409519815205E-3</v>
       </c>
-      <c r="D22" s="59">
-        <f>B22/1000</f>
+      <c r="D23" s="59">
+        <f>B23/1000</f>
         <v>1000000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" thickBot="1">
-      <c r="A25" s="56" t="s">
+    <row r="26" spans="1:8" ht="18" thickBot="1">
+      <c r="A26" s="56" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" thickTop="1">
-      <c r="B26" s="5" t="s">
+    <row r="27" spans="1:8" ht="16.5" thickTop="1">
+      <c r="B27" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="35">
-        <f>B29/G7</f>
+    <row r="28" spans="1:8">
+      <c r="B28" s="35">
+        <f>B30/G7</f>
         <v>749335.32127174258</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C28" s="29">
         <v>3800</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="5" t="s">
+    <row r="29" spans="1:8">
+      <c r="B29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="35">
-        <f>(2*E29)^0.5</f>
+    <row r="30" spans="1:8">
+      <c r="B30" s="35">
+        <f>(2*E30)^0.5</f>
         <v>7348469.2283495339</v>
       </c>
-      <c r="C29" s="69">
-        <f>IFERROR(C27*1000/B29,0)</f>
+      <c r="C30" s="69">
+        <f>IFERROR(C28*1000/B30,0)</f>
         <v>0.51711450125422653</v>
       </c>
-      <c r="D29" s="35">
-        <f>C27*1000*B29</f>
+      <c r="D30" s="35">
+        <f>C28*1000*B30</f>
         <v>27924183067728.23</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E30" s="34">
         <v>27000000000000</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="5" t="s">
+    <row r="31" spans="1:8">
+      <c r="B31" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="37">
-        <f>B29/G4</f>
+    <row r="32" spans="1:8">
+      <c r="B32" s="37">
+        <f>B30/G4</f>
         <v>2.4511854892458749E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18" thickBot="1">
-      <c r="A34" s="56" t="s">
+    <row r="35" spans="1:9" ht="18" thickBot="1">
+      <c r="A35" s="56" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A35" s="65"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="42">
-        <v>2130</v>
-      </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36"/>
+    <row r="36" spans="1:9" ht="16.5" thickTop="1">
+      <c r="A36" s="65"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="43">
-        <v>8.3144621000000001</v>
+        <v>132</v>
+      </c>
+      <c r="C37" s="42">
+        <v>2130</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1">
+    <row r="38" spans="1:9">
       <c r="B38" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="43">
+        <v>8.3144621000000001</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B39" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="D38" s="47">
-        <f>IFERROR(VLOOKUP(C38,Database!$G$2:$J$59,4,FALSE),"-")</f>
-        <v>2.02</v>
-      </c>
-      <c r="E38" s="48">
-        <f>D38/1000</f>
-        <v>2.0200000000000001E-3</v>
-      </c>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B39" s="46"/>
-      <c r="C39" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="D39" s="47">
         <f>IFERROR(VLOOKUP(C39,Database!$G$2:$J$59,4,FALSE),"-")</f>
-        <v>18.02</v>
+        <v>2.02</v>
       </c>
       <c r="E39" s="48">
         <f>D39/1000</f>
+        <v>2.0200000000000001E-3</v>
+      </c>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B40" s="46"/>
+      <c r="C40" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="47">
+        <f>IFERROR(VLOOKUP(C40,Database!$G$2:$J$59,4,FALSE),"-")</f>
+        <v>18.02</v>
+      </c>
+      <c r="E40" s="48">
+        <f>D40/1000</f>
         <v>1.8020000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5" thickTop="1">
-      <c r="B40" s="46" t="s">
+    <row r="41" spans="1:9" ht="16.5" thickTop="1">
+      <c r="B41" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C41" s="17">
         <v>1.3979999999999999</v>
       </c>
-      <c r="D40"/>
-      <c r="E40" s="38"/>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B41" s="46" t="s">
+      <c r="D41"/>
+      <c r="E41" s="38"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B42" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="44">
+      <c r="C42" s="44">
         <v>0</v>
       </c>
-      <c r="D41" s="64">
-        <f>IFERROR(C41*101320,101.32)</f>
+      <c r="D42" s="64">
+        <f>IFERROR(C42*101320,101.32)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="38"/>
-    </row>
-    <row r="42" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B42" s="46" t="s">
+      <c r="E42" s="38"/>
+    </row>
+    <row r="43" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B43" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="44">
+      <c r="C43" s="44">
         <v>500</v>
       </c>
-      <c r="D42" s="64">
-        <f>C42*101320</f>
+      <c r="D43" s="64">
+        <f>C43*101320</f>
         <v>50660000</v>
       </c>
-      <c r="E42" s="38"/>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" thickTop="1">
-      <c r="B43" s="46"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
       <c r="E43" s="38"/>
     </row>
-    <row r="44" spans="1:9">
-      <c r="B44" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="45">
-        <f>(C36*C37)/E38</f>
-        <v>8767229.8381188121</v>
-      </c>
+    <row r="44" spans="1:9" ht="16.5" thickTop="1">
+      <c r="B44" s="46"/>
+      <c r="C44" s="38"/>
       <c r="D44" s="38"/>
-      <c r="E44" s="45">
-        <f>(C36*C37)/E39</f>
-        <v>982786.03068812436</v>
-      </c>
+      <c r="E44" s="38"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="46" t="s">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="C45" s="45">
-        <f>(2*C40)/(C40-1)</f>
-        <v>7.0251256281407048</v>
+        <f>(C37*C38)/E39</f>
+        <v>8767229.8381188121</v>
       </c>
       <c r="D45" s="38"/>
-      <c r="E45"/>
+      <c r="E45" s="45">
+        <f>(C37*C38)/E40</f>
+        <v>982786.03068812436</v>
+      </c>
       <c r="H45" s="49"/>
       <c r="I45" s="49"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="46" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C46" s="45">
-        <f>(C40-1)/C40</f>
-        <v>0.284692417739628</v>
+        <f>(2*C41)/(C41-1)</f>
+        <v>7.0251256281407048</v>
       </c>
       <c r="D46" s="38"/>
       <c r="E46"/>
@@ -6151,54 +6149,73 @@
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="46" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="C47" s="45">
-        <f>1-((D41/D42)^C46)</f>
-        <v>1</v>
+        <f>(C41-1)/C41</f>
+        <v>0.284692417739628</v>
       </c>
       <c r="D47" s="38"/>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:9" customFormat="1" ht="12.75"/>
-    <row r="49" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B49" s="46"/>
-      <c r="C49" s="22" t="str">
-        <f>C38</f>
+    <row r="48" spans="1:9" customFormat="1">
+      <c r="A48" s="5"/>
+      <c r="B48" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="45">
+        <f>1-((D42/D43)^C47)</f>
+        <v>1</v>
+      </c>
+      <c r="D48" s="38"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="1:7" ht="16.5" thickBot="1">
+      <c r="B50" s="46"/>
+      <c r="C50" s="22" t="str">
+        <f>C39</f>
         <v>LqdHydrogen</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="22" t="str">
-        <f>C39</f>
+      <c r="D50" s="38"/>
+      <c r="E50" s="22" t="str">
+        <f>C40</f>
         <v>Water (CRP)</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="16.5" thickTop="1">
-      <c r="B50" s="46" t="s">
+      <c r="G50" s="50"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" thickTop="1">
+      <c r="B51" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="60">
-        <f>(C44*C45*C47)^0.5</f>
+      <c r="C51" s="60">
+        <f>(C45*C46*C48)^0.5</f>
         <v>7847.9864311534302</v>
-      </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="60">
-        <f>(E44*C45*C47)^0.5</f>
-        <v>2627.5835536031618</v>
-      </c>
-      <c r="G50" s="50"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="B51" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" s="60">
-        <f>C50/9.80655</f>
-        <v>800.28006089332439</v>
       </c>
       <c r="D51" s="38"/>
       <c r="E51" s="60">
-        <f>E50/9.80655</f>
+        <f>(E45*C46*C48)^0.5</f>
+        <v>2627.5835536031618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="B52" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" s="60">
+        <f>C51/9.80655</f>
+        <v>800.28006089332439</v>
+      </c>
+      <c r="D52" s="38"/>
+      <c r="E52" s="60">
+        <f>E51/9.80655</f>
         <v>267.94168730115706</v>
       </c>
     </row>
@@ -6511,8 +6528,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B15:C15"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6525,7 +6541,7 @@
           <x14:formula1>
             <xm:f>Database!$G$2:$G$59</xm:f>
           </x14:formula1>
-          <xm:sqref>C38:C39</xm:sqref>
+          <xm:sqref>C39:C40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17670" yWindow="0" windowWidth="18375" windowHeight="8625" activeTab="3"/>
+    <workbookView xWindow="17670" yWindow="0" windowWidth="18375" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Engine Config Calc" sheetId="2" r:id="rId1"/>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="L9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="M9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0" shapeId="0">
+    <comment ref="G12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0">
+    <comment ref="H12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +254,202 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The in-game value that I want to get</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+[Specific impulse]
+The conventional format for rocket fuel efficiency. "Newton-seconds"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+[Exhaust velocity]
+The speed of the reaction products leaving the engine. This is more important than Ns Isp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Total propellant mass flow into combustion chamber</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Net mass-energy released through the engine. Treat it as thermal mass/energy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+[Specific energy]
+Energy density per unit mass of fuel reacting</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If EC value is not where I want it to be, express its offset as a fraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jadon Wade:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Derived from offset fraction. Put this into input field to cancel the offset</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -799,7 +994,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="233">
   <si>
     <t>name</t>
   </si>
@@ -867,9 +1062,6 @@
     <t>skipper</t>
   </si>
   <si>
-    <t>Isp</t>
-  </si>
-  <si>
     <t>Flow (kg/s)</t>
   </si>
   <si>
@@ -903,9 +1095,6 @@
     <t>ElectricCharge</t>
   </si>
   <si>
-    <t>Propellants</t>
-  </si>
-  <si>
     <t>Power (W)</t>
   </si>
   <si>
@@ -1071,54 +1260,12 @@
     <t>UH25</t>
   </si>
   <si>
-    <t>Target</t>
-  </si>
-  <si>
     <t>Fraction</t>
   </si>
   <si>
     <t>Do not input propellants that have "IgnoreForIsp = True"</t>
   </si>
   <si>
-    <t>Thrust</t>
-  </si>
-  <si>
-    <t>SCOOP LF</t>
-  </si>
-  <si>
-    <t>SCOOP LFO</t>
-  </si>
-  <si>
-    <t>WarpJet</t>
-  </si>
-  <si>
-    <t>SCOOP Jet</t>
-  </si>
-  <si>
-    <t>Nebula</t>
-  </si>
-  <si>
-    <t>J-81</t>
-  </si>
-  <si>
-    <t>Wrapper J</t>
-  </si>
-  <si>
-    <t>Bubble</t>
-  </si>
-  <si>
-    <t>EggDog</t>
-  </si>
-  <si>
-    <t>WJOpen</t>
-  </si>
-  <si>
-    <t>WJClosed</t>
-  </si>
-  <si>
-    <t>EC req</t>
-  </si>
-  <si>
     <t>Classic Stock</t>
   </si>
   <si>
@@ -1126,12 +1273,6 @@
   </si>
   <si>
     <t>EC Target</t>
-  </si>
-  <si>
-    <t>ARI-73</t>
-  </si>
-  <si>
-    <t>ARI-75</t>
   </si>
   <si>
     <t>c</t>
@@ -1517,9 +1658,6 @@
     <t>Engine Spec</t>
   </si>
   <si>
-    <t>OPT stuff…</t>
-  </si>
-  <si>
     <t>γ-1/γ</t>
   </si>
   <si>
@@ -1560,6 +1698,33 @@
   </si>
   <si>
     <t>Orthosilicate (SiO4)</t>
+  </si>
+  <si>
+    <t>New Isp</t>
+  </si>
+  <si>
+    <t>Isp Mult</t>
+  </si>
+  <si>
+    <t>New thrust</t>
+  </si>
+  <si>
+    <t>Isp mult to -3/4 power</t>
+  </si>
+  <si>
+    <t>Base thrust</t>
+  </si>
+  <si>
+    <t>Base Isp</t>
+  </si>
+  <si>
+    <t>Isp</t>
+  </si>
+  <si>
+    <t>Thrust</t>
+  </si>
+  <si>
+    <t>EnrU ratio</t>
   </si>
 </sst>
 </file>
@@ -1585,7 +1750,7 @@
     <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;Pa&quot;"/>
     <numFmt numFmtId="179" formatCode="#,###\ &quot;kW&quot;"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1768,8 +1933,15 @@
       <color theme="10"/>
       <name val="Sans"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1794,12 +1966,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1894,7 +2060,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1904,24 +2070,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="3" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="9" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5"/>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="9"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3"/>
@@ -1963,7 +2122,6 @@
     <xf numFmtId="43" fontId="4" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="13" fillId="3" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="4" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="12"/>
@@ -1976,21 +2134,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="5" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="9" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -2351,13 +2519,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IQ77"/>
+  <dimension ref="A1:IQ80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="19.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="2" customWidth="1"/>
@@ -2369,1511 +2537,1432 @@
     <col min="10" max="10" width="9.140625" style="2"/>
     <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" style="2" customWidth="1"/>
-    <col min="13" max="251" width="9.140625" style="2"/>
+    <col min="13" max="16" width="9.140625" style="2"/>
+    <col min="17" max="17" width="16.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="2" customWidth="1"/>
+    <col min="19" max="251" width="9.140625" style="2"/>
     <col min="252" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A1" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" thickTop="1">
-      <c r="A2" s="17" t="s">
+    <row r="1" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="K2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L2" s="71">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="K3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L3" s="71">
+        <v>800</v>
+      </c>
+      <c r="M3" s="72"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="K4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" s="71">
+        <v>380</v>
+      </c>
+      <c r="M4" s="72"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="K5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L5" s="73">
+        <f>L4/L3</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="M5" s="72"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="30">
-        <v>800</v>
-      </c>
-      <c r="C7" s="30">
-        <v>60</v>
+      <c r="K6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" s="74">
+        <f>L5^-0.75</f>
+        <v>1.7477519396551873</v>
+      </c>
+      <c r="M6" s="72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="23">
+        <v>2080</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2100</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" ht="18" thickBot="1">
+      <c r="K7" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L7" s="76">
+        <f>60*L6</f>
+        <v>104.86511637931123</v>
+      </c>
+      <c r="M7" s="72"/>
+    </row>
+    <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="73"/>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" thickTop="1">
-      <c r="B9" s="27">
+        <v>102</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="77"/>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20">
         <f>B7*9.80665</f>
-        <v>7845.32</v>
-      </c>
-      <c r="C9" s="9">
+        <v>20397.831999999999</v>
+      </c>
+      <c r="C9" s="74">
         <f>IFERROR(C7*1000/B9,0)</f>
-        <v>7.6478715973344622</v>
-      </c>
-      <c r="D9" s="27">
+        <v>102.95211765642546</v>
+      </c>
+      <c r="D9" s="20">
         <f>C7*1000*B9</f>
-        <v>470719200</v>
-      </c>
-      <c r="E9" s="27">
+        <v>42835447200</v>
+      </c>
+      <c r="E9" s="20">
         <f>IFERROR(D9/C9,0)</f>
-        <v>61549045.902399994</v>
-      </c>
-      <c r="G9" s="15">
-        <f>SUM(B21:E21)</f>
+        <v>416071550.30022395</v>
+      </c>
+      <c r="G9" s="78">
+        <f>SUM(B16:E16)</f>
+        <v>102.95211765642546</v>
+      </c>
+      <c r="H9" s="73" t="str">
+        <f>IF($C$9&gt;$G$9,"Input excesive",IF($C$9&lt;$G$9,"Output excessive","Equal"))</f>
+        <v>Equal</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="M9" s="74">
+        <f>IFERROR(C7*1000/L9/B9,0)</f>
+        <v>68.634745104283638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M10" s="74">
+        <f>IFERROR(C7*1000/L10/B9,0)</f>
+        <v>85.793431380354548</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="K11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="M11" s="74">
+        <f>IFERROR(C7*1000/L11/B9,0)</f>
+        <v>27.824896663898773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="G12" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="M12" s="74">
+        <f>IFERROR(C7*1000/L12/B9,0)</f>
+        <v>77.407607260470272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="80">
+        <f>IFERROR(E15/I13,"-")</f>
         <v>0</v>
       </c>
-      <c r="H9" s="6" t="str">
-        <f>IF($C$9&gt;$G$9,"Input excesive",IF($C$9&lt;$G$9,"Output excessive","Equal"))</f>
-        <v>Input excesive</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" customFormat="1" ht="12.75"/>
-    <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C11" s="9">
-        <f>IFERROR(C7*1000/B11/B9,0)</f>
-        <v>5.0985810648896415</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="C12" s="9">
-        <f>IFERROR(C7*1000/B12/B9,0)</f>
-        <v>6.3732263311120514</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="C13" s="9">
-        <f>IFERROR(C7*1000/B13/B9,0)</f>
-        <v>2.0669923236039085</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1.33</v>
+      <c r="H13" s="81" t="str">
+        <f>IFERROR(E12/G13,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I13" s="82">
+        <v>200</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="9">
+        <f>IFERROR(VLOOKUP(B13,Database!$A$2:$B$56,2,0),"-")</f>
+        <v>7.0849999999999996E-2</v>
       </c>
       <c r="C14" s="9">
-        <f>IFERROR(C7*1000/B14/B9,0)</f>
-        <v>5.7502793964920764</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="K14" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="E15" s="5"/>
-      <c r="M15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="20.25" thickBot="1">
-      <c r="A16" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A17" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="19">
+        <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$56,2,0),"-")</f>
+        <v>10.97</v>
+      </c>
+      <c r="D14" s="9" t="str">
+        <f>IFERROR(VLOOKUP(D13,Database!$A$2:$B$56,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E14" s="10">
         <v>0</v>
       </c>
-      <c r="C17" s="19">
+      <c r="K14" s="31"/>
+      <c r="L14" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="78">
+        <f>IFERROR(C9*B12/SUM(B17:D17),"-")</f>
+        <v>1430.9438566781862</v>
+      </c>
+      <c r="C15" s="78">
+        <f>IFERROR(C9*C12/SUM(B17:D17),"-")</f>
+        <v>0.14309438566781862</v>
+      </c>
+      <c r="D15" s="78">
+        <f>IFERROR(C9*D12/SUM(B17:D17),"-")</f>
         <v>0</v>
       </c>
-      <c r="D17" s="19">
+      <c r="E15" s="78">
+        <f>IFERROR(C9*E12/SUM(B17:D17),0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="20">
-        <v>21.60088</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M17" s="2">
-        <v>4000</v>
-      </c>
-      <c r="N17" s="2">
-        <v>420</v>
-      </c>
-      <c r="O17" s="26">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="23">
-        <f>IFERROR(E20/I18,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="24" t="str">
-        <f>IFERROR(E17/G18,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="I18" s="62">
-        <v>200</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M18" s="2">
-        <v>3000</v>
-      </c>
-      <c r="N18" s="2">
-        <v>180</v>
-      </c>
-      <c r="O18" s="26">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="10" t="str">
-        <f>IFERROR(VLOOKUP(B18,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C19" s="10" t="str">
-        <f>IFERROR(VLOOKUP(C18,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D19" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D18,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>900</v>
-      </c>
-      <c r="N19" s="2">
-        <v>180</v>
-      </c>
-      <c r="O19" s="26">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="16.5" thickTop="1">
-      <c r="A20" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="15" t="str">
-        <f>IFERROR($C$9*B17/SUM(B22:D22),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C20" s="15" t="str">
-        <f>IFERROR($C$9*C17/SUM(B22:D22),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D20" s="15" t="str">
-        <f>IFERROR($C$9*D17/SUM(B22:D22),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E20" s="15">
-        <f>IFERROR($C$9*E17/SUM(B22:D22),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20" s="2">
-        <v>3000</v>
-      </c>
-      <c r="N20" s="2">
-        <v>300</v>
-      </c>
-      <c r="O20" s="26">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="6" t="str">
-        <f>IFERROR(B19*B20,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C21" s="6" t="str">
-        <f t="shared" ref="C21:D21" si="0">IFERROR(C19*C20,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D21" s="6" t="str">
+      <c r="K15" s="31"/>
+      <c r="L15" s="22">
+        <v>2080</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="22">
+        <v>2100</v>
+      </c>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="73">
+        <f>IFERROR($B$14*$B$15,"-")</f>
+        <v>101.38237224564949</v>
+      </c>
+      <c r="C16" s="73">
+        <f t="shared" ref="C16:D16" si="0">IFERROR(C14*C15,"-")</f>
+        <v>1.5697454107759703</v>
+      </c>
+      <c r="D16" s="73" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="E21" s="6">
-        <f>E19*E20</f>
+      <c r="E16" s="73">
+        <f>E14*E15</f>
         <v>0</v>
       </c>
-      <c r="K21" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M21" s="2">
-        <v>800</v>
-      </c>
-      <c r="N21" s="2">
-        <v>250</v>
-      </c>
-      <c r="O21" s="26">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="6" t="str">
-        <f>IFERROR(B17*B19,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C22" s="6" t="str">
-        <f t="shared" ref="C22:D22" si="1">IFERROR(C17*C19,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D22" s="6" t="str">
+      <c r="F16" s="2">
+        <f>SUM(B16:D16)</f>
+        <v>102.95211765642546</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="65">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="73">
+        <f>IFERROR(B12*B14,"-")</f>
+        <v>7.0849999999999996E-2</v>
+      </c>
+      <c r="C17" s="73">
+        <f t="shared" ref="C17:D17" si="1">IFERROR(C12*C14,"-")</f>
+        <v>1.0970000000000001E-3</v>
+      </c>
+      <c r="D17" s="73" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="E17" s="73"/>
+      <c r="K17" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" s="83">
+        <f>M17*$N$17</f>
+        <v>2080</v>
+      </c>
+      <c r="M17" s="31">
         <v>800</v>
       </c>
-      <c r="N22" s="2">
-        <v>500</v>
-      </c>
-      <c r="O22" s="26">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="5"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M23" s="2">
-        <v>4000</v>
-      </c>
-      <c r="N23" s="2">
-        <v>210</v>
-      </c>
-      <c r="O23" s="26">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="5"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="K24" s="75"/>
-      <c r="O24" s="26"/>
-    </row>
-    <row r="25" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A25" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="19">
+      <c r="N17" s="21">
+        <f>($L$15/M17)</f>
+        <v>2.6</v>
+      </c>
+      <c r="O17" s="83">
+        <f>$O$15*P17</f>
+        <v>2100</v>
+      </c>
+      <c r="P17" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="31">
+        <v>1E-4</v>
+      </c>
+      <c r="R17" s="19">
+        <f>$R$16*Q17</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="K18" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="83">
+        <f t="shared" ref="L18:L23" si="2">M18*$N$17</f>
+        <v>657.80000000000007</v>
+      </c>
+      <c r="M18" s="31">
+        <v>253</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="83">
+        <f t="shared" ref="O18:O23" si="3">$O$15*P18</f>
+        <v>4977</v>
+      </c>
+      <c r="P18" s="31">
+        <v>2.37</v>
+      </c>
+      <c r="Q18" s="31">
+        <v>1.4672099999999999E-4</v>
+      </c>
+      <c r="R18" s="19">
+        <f t="shared" ref="R18:R23" si="4">$R$16*Q18</f>
+        <v>1.46721E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K19" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19" s="83">
+        <f t="shared" si="2"/>
+        <v>1040</v>
+      </c>
+      <c r="M19" s="31">
+        <v>400</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="83">
+        <f t="shared" si="3"/>
+        <v>3528</v>
+      </c>
+      <c r="P19" s="31">
+        <v>1.68</v>
+      </c>
+      <c r="Q19" s="31">
+        <v>2.9090700000000003E-4</v>
+      </c>
+      <c r="R19" s="19">
+        <f t="shared" si="4"/>
+        <v>2.9090700000000003E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K20" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" s="83">
+        <f t="shared" si="2"/>
+        <v>657.80000000000007</v>
+      </c>
+      <c r="M20" s="31">
+        <v>253</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="83">
+        <f t="shared" si="3"/>
+        <v>4977</v>
+      </c>
+      <c r="P20" s="31">
+        <v>2.37</v>
+      </c>
+      <c r="Q20" s="31">
+        <v>1.53485E-4</v>
+      </c>
+      <c r="R20" s="19">
+        <f t="shared" si="4"/>
+        <v>1.5348500000000001E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="K21" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="83">
+        <f t="shared" si="2"/>
+        <v>1575.6000000000001</v>
+      </c>
+      <c r="M21" s="31">
+        <v>606</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="83">
+        <f t="shared" si="3"/>
+        <v>2583</v>
+      </c>
+      <c r="P21" s="31">
+        <v>1.23</v>
+      </c>
+      <c r="Q21" s="31">
+        <v>3.6680399999999998E-4</v>
+      </c>
+      <c r="R21" s="19">
+        <f t="shared" si="4"/>
+        <v>3.6680400000000002E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="23">
+        <v>2850</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1540</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="K22" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="83">
+        <f t="shared" si="2"/>
+        <v>735.80000000000007</v>
+      </c>
+      <c r="M22" s="31">
+        <v>283</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="83">
+        <f t="shared" si="3"/>
+        <v>4578</v>
+      </c>
+      <c r="P22" s="31">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="Q22" s="31">
+        <v>2.6534900000000001E-4</v>
+      </c>
+      <c r="R22" s="19">
+        <f t="shared" si="4"/>
+        <v>2.6534900000000002E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="77"/>
+      <c r="K23" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" s="83">
+        <f t="shared" si="2"/>
+        <v>962</v>
+      </c>
+      <c r="M23" s="31">
+        <v>370</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="83">
+        <f t="shared" si="3"/>
+        <v>3738</v>
+      </c>
+      <c r="P23" s="31">
+        <v>1.78</v>
+      </c>
+      <c r="Q23" s="31">
+        <v>3.6195500000000001E-4</v>
+      </c>
+      <c r="R23" s="19">
+        <f t="shared" si="4"/>
+        <v>3.6195500000000003E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20">
+        <f>B22*9.80665</f>
+        <v>27948.952499999999</v>
+      </c>
+      <c r="C24" s="74">
+        <f>IFERROR(C22*1000/B24,0)</f>
+        <v>55.100455017052965</v>
+      </c>
+      <c r="D24" s="20">
+        <f>C22*1000*B24</f>
+        <v>43041386850</v>
+      </c>
+      <c r="E24" s="20">
+        <f>IFERROR(D24/C24,0)</f>
+        <v>781143945.84725618</v>
+      </c>
+      <c r="G24" s="78">
+        <f>SUM(B31:E31)</f>
+        <v>102.22250733333497</v>
+      </c>
+      <c r="H24" s="73" t="str">
+        <f>IF($C$9&gt;$G$9,"Input excesive",IF($C$9&lt;$G$9,"Output excessive","Equal"))</f>
+        <v>Equal</v>
+      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+    </row>
+    <row r="27" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="16">
+        <v>1</v>
+      </c>
+      <c r="C27" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="G27" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" s="70"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="80">
+        <f>IFERROR(E30/I28,"-")</f>
         <v>0</v>
       </c>
-      <c r="C25" s="19">
+      <c r="H28" s="81" t="str">
+        <f>IFERROR(E27/G28,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I28" s="82">
+        <v>200</v>
+      </c>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+    </row>
+    <row r="29" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="9">
+        <f>IFERROR(VLOOKUP(B28,Database!$A$2:$B$56,2,0),"-")</f>
+        <v>7.0849999999999996E-2</v>
+      </c>
+      <c r="C29" s="9">
+        <f>IFERROR(VLOOKUP(C28,Database!$A$2:$B$56,2,0),"-")</f>
+        <v>10.97</v>
+      </c>
+      <c r="D29" s="9" t="str">
+        <f>IFERROR(VLOOKUP(D28,Database!$A$2:$B$56,2,0),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E29" s="10">
         <v>0</v>
       </c>
-      <c r="D25" s="19">
+      <c r="J29" s="70"/>
+    </row>
+    <row r="30" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="78">
+        <f>IFERROR(C24*B27/SUM(B32:D32),"-")</f>
+        <v>765.84784656834847</v>
+      </c>
+      <c r="C30" s="78">
+        <f>IFERROR(C24*C27/SUM(B32:D32),"-")</f>
+        <v>7.6584784656834853E-2</v>
+      </c>
+      <c r="D30" s="78">
+        <f>IFERROR(C24*D27/SUM(B32:D32),"-")</f>
         <v>0</v>
       </c>
-      <c r="E25" s="20">
-        <v>20.65934</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="K25" s="75"/>
-      <c r="L25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M25" s="2">
-        <v>450</v>
-      </c>
-      <c r="N25" s="2">
-        <v>1250</v>
-      </c>
-      <c r="O25" s="26">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="23">
-        <f>IFERROR(E28/I26,"-")</f>
+      <c r="E30" s="78">
+        <f>IFERROR(C24*E27/SUM(B32:D32),0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="24" t="str">
-        <f>IFERROR(E25/G26,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="I26" s="22">
-        <f>I18</f>
-        <v>200</v>
-      </c>
-      <c r="K26" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M26" s="2">
-        <v>300</v>
-      </c>
-      <c r="N26" s="2">
-        <v>375</v>
-      </c>
-      <c r="O26" s="26">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="10" t="str">
-        <f>IFERROR(VLOOKUP(B26,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C27" s="10" t="str">
-        <f>IFERROR(VLOOKUP(C26,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D27" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D26,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
-      <c r="K27" s="75"/>
-      <c r="L27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M27" s="2">
-        <v>3000</v>
-      </c>
-      <c r="N27" s="2">
-        <v>375</v>
-      </c>
-      <c r="O27" s="26">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="16.5" thickTop="1">
-      <c r="A28" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="15" t="str">
-        <f>IFERROR($C$9*B25/SUM(B30:D30),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C28" s="15" t="str">
-        <f>IFERROR($C$9*C25/SUM(B30:D30),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D28" s="15" t="str">
-        <f>IFERROR($C$9*D25/SUM(B30:D30),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E28" s="15">
-        <f>IFERROR($C$9*E25/SUM(B30:D30),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="6" t="str">
-        <f>IFERROR(B27*B28,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C29" s="6" t="str">
-        <f t="shared" ref="C29:D29" si="2">IFERROR(C27*C28,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D29" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="E29" s="6">
-        <f>E27*E28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="6" t="str">
-        <f>IFERROR(B25*B27,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C30" s="6" t="str">
-        <f t="shared" ref="C30:D30" si="3">IFERROR(C25*C27,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D30" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A33" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="19">
-        <v>0</v>
-      </c>
-      <c r="C33" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="D33" s="19">
-        <v>0</v>
-      </c>
-      <c r="E33" s="20">
-        <v>8.3475999999999999</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I33" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="23">
-        <f>IFERROR(E36/I34,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="24" t="str">
-        <f>IFERROR(E33/G34,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="I34" s="22">
-        <f>I18</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="10" t="str">
-        <f>IFERROR(VLOOKUP(B34,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C35" s="10" t="str">
-        <f>IFERROR(VLOOKUP(C34,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D35" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D34,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A36" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="15" t="str">
-        <f>IFERROR($C$9*B33/SUM(B38:D38),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C36" s="15" t="str">
-        <f>IFERROR($C$9*C33/SUM(B38:D38),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D36" s="15" t="str">
-        <f>IFERROR($C$9*D33/SUM(B38:D38),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E36" s="15">
-        <f>IFERROR($C$9*E33/SUM(B38:D38),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="6" t="str">
-        <f>IFERROR(B35*B36,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C37" s="6" t="str">
-        <f t="shared" ref="C37:D37" si="4">IFERROR(C35*C36,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D37" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="E37" s="6">
-        <f>E35*E36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="6" t="str">
-        <f>IFERROR(B33*B35,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C38" s="6" t="str">
-        <f t="shared" ref="C38:D38" si="5">IFERROR(C33*C35,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D38" s="6" t="str">
+      <c r="J30" s="70"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="73">
+        <f>IFERROR($B$14*$B$15,"-")</f>
+        <v>101.38237224564949</v>
+      </c>
+      <c r="C31" s="73">
+        <f t="shared" ref="C31:D31" si="5">IFERROR(C29*C30,"-")</f>
+        <v>0.8401350876854784</v>
+      </c>
+      <c r="D31" s="73" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A41" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="19">
+      <c r="E31" s="73">
+        <f>E29*E30</f>
         <v>0</v>
       </c>
-      <c r="C41" s="19">
-        <v>1E-4</v>
-      </c>
-      <c r="D41" s="19">
-        <v>0</v>
-      </c>
-      <c r="E41" s="20">
-        <v>1</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I41" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="23">
-        <f>IFERROR(E44/I42,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="24" t="str">
-        <f>IFERROR(E41/G42,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="I42" s="22">
-        <f>I34</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="10" t="str">
-        <f>IFERROR(VLOOKUP(B42,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C43" s="10" t="str">
-        <f>IFERROR(VLOOKUP(C42,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D43" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D42,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E43" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A44" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="15" t="str">
-        <f>IFERROR($C$9*B41/SUM(B46:D46),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C44" s="15" t="str">
-        <f>IFERROR($C$9*C41/SUM(B46:D46),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D44" s="15" t="str">
-        <f>IFERROR($C$9*D41/SUM(B46:D46),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E44" s="15">
-        <f>IFERROR($C$9*E41/SUM(B46:D46),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="6" t="str">
-        <f>IFERROR(B43*B44,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C45" s="6" t="str">
-        <f t="shared" ref="C45:D45" si="6">IFERROR(C43*C44,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D45" s="6" t="str">
+      <c r="F31" s="2">
+        <f>SUM(B31:D31)</f>
+        <v>102.22250733333497</v>
+      </c>
+      <c r="J31" s="70"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="73">
+        <f>IFERROR(B27*B29,"-")</f>
+        <v>7.0849999999999996E-2</v>
+      </c>
+      <c r="C32" s="73">
+        <f t="shared" ref="C32:D32" si="6">IFERROR(C27*C29,"-")</f>
+        <v>1.0970000000000001E-3</v>
+      </c>
+      <c r="D32" s="73" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="E45" s="6">
-        <f>E43*E44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="6" t="str">
-        <f>IFERROR(B41*B43,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C46" s="6" t="str">
-        <f t="shared" ref="C46:D46" si="7">IFERROR(C41*C43,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D46" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A49" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="19">
-        <v>1</v>
-      </c>
-      <c r="C49" s="19">
-        <v>0</v>
-      </c>
-      <c r="D49" s="19">
-        <v>0</v>
-      </c>
-      <c r="E49" s="20">
-        <v>1</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" s="23">
-        <f>E52/I50</f>
-        <v>3.2592676741250631E-2</v>
-      </c>
-      <c r="H50" s="24">
-        <f>IFERROR(E49/G50,"-")</f>
-        <v>30.681738966666671</v>
-      </c>
-      <c r="I50" s="22">
-        <f>I34</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="10">
-        <f>IFERROR(VLOOKUP(B50,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>1.1732500000000001</v>
-      </c>
-      <c r="C51" s="10" t="str">
-        <f>IFERROR(VLOOKUP(C50,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D51" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D50,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E51" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A52" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="15">
-        <f>IFERROR($C$9*B49/SUM(B54:D54),"-")</f>
-        <v>6.5185353482501265</v>
-      </c>
-      <c r="C52" s="15">
-        <f>IFERROR($C$9*C49/SUM(B54:D54),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="15">
-        <f>IFERROR($C$9*D49/SUM(B54:D54),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="15">
-        <f>IFERROR($C$9*E49/SUM(B54:D54),0)</f>
-        <v>6.5185353482501265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="6">
-        <f>IFERROR(B51*B52,"-")</f>
-        <v>7.6478715973344613</v>
-      </c>
-      <c r="C53" s="6" t="str">
-        <f t="shared" ref="C53:D53" si="8">IFERROR(C51*C52,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D53" s="6" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="E53" s="6">
-        <f>E51*E52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="6">
-        <f>IFERROR(B49*B51,"-")</f>
-        <v>1.1732500000000001</v>
-      </c>
-      <c r="C54" s="6" t="str">
-        <f t="shared" ref="C54:D54" si="9">IFERROR(C49*C51,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
-      </c>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A57" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="19">
-        <v>1</v>
-      </c>
-      <c r="C57" s="19">
-        <v>0</v>
-      </c>
-      <c r="D57" s="19">
-        <v>0</v>
-      </c>
-      <c r="E57" s="20">
-        <v>1</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H57" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I57" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G58" s="23">
-        <f>E60/I58</f>
-        <v>3.2592676741250631E-2</v>
-      </c>
-      <c r="H58" s="24">
-        <f>IFERROR(E57/G58,"-")</f>
-        <v>30.681738966666671</v>
-      </c>
-      <c r="I58" s="22">
-        <f>I42</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="10">
-        <f>IFERROR(VLOOKUP(B58,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>1.1732500000000001</v>
-      </c>
-      <c r="C59" s="10" t="str">
-        <f>IFERROR(VLOOKUP(C58,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D59" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D58,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E59" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A60" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="15">
-        <f>IFERROR($C$9*B57/SUM(B62:D62),"-")</f>
-        <v>6.5185353482501265</v>
-      </c>
-      <c r="C60" s="15">
-        <f>IFERROR($C$9*C57/SUM(B62:D62),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="D60" s="15">
-        <f>IFERROR($C$9*D57/SUM(B62:D62),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="15">
-        <f>IFERROR($C$9*E57/SUM(B62:D62),0)</f>
-        <v>6.5185353482501265</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="6">
-        <f>IFERROR(B59*B60,"-")</f>
-        <v>7.6478715973344613</v>
-      </c>
-      <c r="C61" s="6" t="str">
-        <f t="shared" ref="C61:D61" si="10">IFERROR(C59*C60,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D61" s="6" t="str">
-        <f t="shared" si="10"/>
-        <v>-</v>
-      </c>
-      <c r="E61" s="6">
-        <f>E59*E60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="6">
-        <f>IFERROR(B57*B59,"-")</f>
-        <v>1.1732500000000001</v>
-      </c>
-      <c r="C62" s="6" t="str">
-        <f t="shared" ref="C62:D62" si="11">IFERROR(C57*C59,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D62" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>-</v>
-      </c>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="64" spans="1:9" ht="18" thickBot="1">
-      <c r="A64" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="B64" s="73"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-    </row>
-    <row r="65" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A65" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="19">
-        <v>3</v>
-      </c>
-      <c r="C65" s="19">
-        <v>1</v>
-      </c>
-      <c r="D65" s="19">
-        <v>0</v>
-      </c>
-      <c r="E65" s="20">
-        <v>0</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I65" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G66" s="23">
-        <f>IFERROR(E68/I66,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="24" t="str">
-        <f>IFERROR(E65/G66,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="I66" s="22">
-        <f>I26</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B67" s="10">
-        <f>IFERROR(VLOOKUP(B66,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="C67" s="10">
-        <f>IFERROR(VLOOKUP(C66,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>5</v>
-      </c>
-      <c r="D67" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D66,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E67" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A68" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="15">
-        <f>IFERROR($C$13*B65/SUM(B70:D70),"-")</f>
-        <v>1.0229259272206739</v>
-      </c>
-      <c r="C68" s="15">
-        <f>IFERROR($C$13*C65/SUM(B70:D70),"-")</f>
-        <v>0.340975309073558</v>
-      </c>
-      <c r="D68" s="15">
-        <f>IFERROR($C$13*D65/SUM(B70:D70),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="15">
-        <f>IFERROR($C$13*E65/SUM(B70:D70),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="6">
-        <f>IFERROR(B67*B68,"-")</f>
-        <v>0.36211577823611851</v>
-      </c>
-      <c r="C69" s="6">
-        <f t="shared" ref="C69:D69" si="12">IFERROR(C67*C68,"-")</f>
-        <v>1.7048765453677901</v>
-      </c>
-      <c r="D69" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>-</v>
-      </c>
-      <c r="E69" s="6">
-        <f>E67*E68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="6">
-        <f>IFERROR(B65*B67,"-")</f>
-        <v>1.0619999999999998</v>
-      </c>
-      <c r="C70" s="6">
-        <f t="shared" ref="C70:D70" si="13">IFERROR(C65*C67,"-")</f>
-        <v>5</v>
-      </c>
-      <c r="D70" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-    </row>
-    <row r="72" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A72" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="19">
-        <v>3</v>
-      </c>
-      <c r="C72" s="19">
-        <v>1</v>
-      </c>
-      <c r="D72" s="19">
-        <v>0</v>
-      </c>
-      <c r="E72" s="20">
-        <v>0</v>
-      </c>
-      <c r="G72" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="I72" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A73" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G73" s="23">
-        <f>IFERROR(E75/I73,"-")</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="24" t="str">
-        <f>IFERROR(E72/G73,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="I73" s="22">
-        <f>I34</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A74" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" s="10">
-        <f>IFERROR(VLOOKUP(B73,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>2.12805</v>
-      </c>
-      <c r="C74" s="10">
-        <f>IFERROR(VLOOKUP(C73,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>5</v>
-      </c>
-      <c r="D74" s="10" t="str">
-        <f>IFERROR(VLOOKUP(D73,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E74" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A75" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" s="15">
-        <f>IFERROR($C$14*B72/SUM(B77:D77),"-")</f>
-        <v>1.5153382720252482</v>
-      </c>
-      <c r="C75" s="15">
-        <f>IFERROR($C$14*C72/SUM(B77:D77),"-")</f>
-        <v>0.50511275734174943</v>
-      </c>
-      <c r="D75" s="15">
-        <f>IFERROR($C$14*D72/SUM(B77:D77),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="15">
-        <f>IFERROR($C$14*E72/SUM(B77:D77),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B76" s="6">
-        <f>IFERROR(B74*B75,"-")</f>
-        <v>3.2247156097833294</v>
-      </c>
-      <c r="C76" s="6">
-        <f t="shared" ref="C76:D76" si="14">IFERROR(C74*C75,"-")</f>
-        <v>2.525563786708747</v>
-      </c>
-      <c r="D76" s="6" t="str">
-        <f t="shared" si="14"/>
-        <v>-</v>
-      </c>
-      <c r="E76" s="6">
-        <f>E74*E75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B77" s="6">
-        <f>IFERROR(B72*B74,"-")</f>
-        <v>6.38415</v>
-      </c>
-      <c r="C77" s="6">
-        <f t="shared" ref="C77:D77" si="15">IFERROR(C72*C74,"-")</f>
-        <v>5</v>
-      </c>
-      <c r="D77" s="6" t="str">
-        <f t="shared" si="15"/>
-        <v>-</v>
-      </c>
-      <c r="E77" s="6"/>
+      <c r="E32" s="73"/>
+      <c r="J32" s="70"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="2">
+        <f>0.143/C30</f>
+        <v>1.8672116222662496</v>
+      </c>
+      <c r="J34" s="70"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="6">
+        <f>C27*D34</f>
+        <v>1.8672116222662497E-4</v>
+      </c>
+      <c r="J35" s="70"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="70"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="70"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="70"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="70"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="70"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="70"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="70"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="70"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="70"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="70"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="70"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="70"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="70"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="70"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="70"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="70"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="70"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="70"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="70"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="70"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="70"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="70"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="70"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="70"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="70"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="70"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="70"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="70"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="70"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="70"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="70"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="70"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="70"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="70"/>
+      <c r="J66" s="70"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="70"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="70"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="70"/>
+      <c r="J67" s="70"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="70"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="70"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="70"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
+      <c r="J69" s="70"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="70"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="70"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="70"/>
+      <c r="J70" s="70"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="70"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="70"/>
+      <c r="J71" s="70"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="70"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="70"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="70"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="70"/>
+      <c r="I73" s="70"/>
+      <c r="J73" s="70"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="70"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="70"/>
+      <c r="J74" s="70"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="70"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="70"/>
+      <c r="H76" s="70"/>
+      <c r="I76" s="70"/>
+      <c r="J76" s="70"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="70"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="70"/>
+      <c r="J77" s="70"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="70"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="70"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="70"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="70"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="70"/>
+      <c r="J79" s="70"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="70"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="70"/>
+      <c r="I80" s="70"/>
+      <c r="J80" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="K21:K25"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="K26:K27"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
-  <pageSetup firstPageNumber="4294967295" fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed" copies="0"/>
+  <pageSetup firstPageNumber="4294967295" fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Database!$A$2:$A$56</xm:f>
           </x14:formula1>
-          <xm:sqref>B58:D58</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Database!$A$2:$A$56</xm:f>
-          </x14:formula1>
-          <xm:sqref>B73:D73</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Database!$A$2:$A$56</xm:f>
-          </x14:formula1>
-          <xm:sqref>B66:D66</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Database!$A$2:$A$56</xm:f>
-          </x14:formula1>
-          <xm:sqref>B50:D50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Database!$A$2:$A$56</xm:f>
-          </x14:formula1>
-          <xm:sqref>B42:D42</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Database!$A$2:$A$56</xm:f>
-          </x14:formula1>
-          <xm:sqref>B34:D34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Database!$A$2:$A$56</xm:f>
-          </x14:formula1>
-          <xm:sqref>B26:D26</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Database!$A$2:$A$56</xm:f>
-          </x14:formula1>
-          <xm:sqref>B18:D18</xm:sqref>
+          <xm:sqref>B13:D13 B28:D28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3889,7 +3978,7 @@
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="23.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
@@ -3903,1344 +3992,1344 @@
     <col min="257" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1">
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
       </c>
-      <c r="G2" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="39">
-        <v>1</v>
-      </c>
-      <c r="J2" s="40">
+      <c r="G2" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="32">
+        <v>1</v>
+      </c>
+      <c r="J2" s="33">
         <v>101.96</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="G3" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3" s="39">
-        <v>1</v>
-      </c>
-      <c r="J3" s="40">
+      <c r="G3" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="32">
+        <v>1</v>
+      </c>
+      <c r="J3" s="33">
         <v>26.98</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="I4" s="39">
-        <v>1</v>
-      </c>
-      <c r="J4" s="40">
+      <c r="G4" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="32">
+        <v>1</v>
+      </c>
+      <c r="J4" s="33">
         <v>17.03</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="39">
-        <v>1</v>
-      </c>
-      <c r="J5" s="40">
+      <c r="G5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="32">
+        <v>1</v>
+      </c>
+      <c r="J5" s="33">
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2">
         <v>10</v>
       </c>
-      <c r="G6" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="I6" s="39">
-        <v>1</v>
-      </c>
-      <c r="J6" s="40">
+      <c r="G6" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" s="32">
+        <v>1</v>
+      </c>
+      <c r="J6" s="33">
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2">
         <v>7.5</v>
       </c>
-      <c r="G7" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="39">
-        <v>1</v>
-      </c>
-      <c r="J7" s="40">
+      <c r="G7" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="32">
+        <v>1</v>
+      </c>
+      <c r="J7" s="33">
         <v>12.01</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2">
         <v>0.1</v>
       </c>
-      <c r="G8" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="39">
-        <v>1</v>
-      </c>
-      <c r="J8" s="40">
+      <c r="G8" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="32">
+        <v>1</v>
+      </c>
+      <c r="J8" s="33">
         <v>44.01</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9"/>
-      <c r="G9" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9" s="39">
-        <v>1</v>
-      </c>
-      <c r="J9" s="40">
+      <c r="G9" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="32">
+        <v>1</v>
+      </c>
+      <c r="J9" s="33">
         <v>28.01</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" thickBot="1">
+    <row r="10" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" s="39">
-        <v>1</v>
-      </c>
-      <c r="J10" s="40">
+        <v>60</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="32">
+        <v>1</v>
+      </c>
+      <c r="J10" s="33">
         <v>35.450000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="12">
+        <v>40</v>
+      </c>
+      <c r="B11" s="11">
         <f>C11*1000</f>
         <v>1.0000000000000002E-6</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="G11" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="39">
-        <v>1</v>
-      </c>
-      <c r="J11" s="40">
+      <c r="G11" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="32">
+        <v>1</v>
+      </c>
+      <c r="J11" s="33">
         <v>238.03</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="12">
+        <v>41</v>
+      </c>
+      <c r="B12" s="11">
         <f t="shared" ref="B12:B13" si="0">C12*1000</f>
         <v>1.784E-3</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>1.784E-6</v>
       </c>
-      <c r="G12" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" s="39">
-        <v>1</v>
-      </c>
-      <c r="J12" s="40">
+      <c r="G12" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="32">
+        <v>1</v>
+      </c>
+      <c r="J12" s="33">
         <v>2.0139999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="12">
+        <v>84</v>
+      </c>
+      <c r="B13" s="11">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="G13" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1</v>
-      </c>
-      <c r="J13" s="40">
+      <c r="G13" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="32">
+        <v>1</v>
+      </c>
+      <c r="J13" s="33">
         <v>60.08</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" s="12">
+        <v>221</v>
+      </c>
+      <c r="B14" s="11">
         <f t="shared" ref="B14" si="1">C14*1000</f>
         <v>2.46</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>2.4599999999999999E-3</v>
       </c>
-      <c r="G14" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" s="39">
-        <v>1</v>
-      </c>
-      <c r="J14" s="40">
+      <c r="G14" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="32">
+        <v>1</v>
+      </c>
+      <c r="J14" s="33">
         <v>238.03</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="12">
+        <v>39</v>
+      </c>
+      <c r="B15" s="11">
         <f t="shared" ref="B15:B25" si="2">C15*1000</f>
         <v>10.97</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>1.0970000000000001E-2</v>
       </c>
-      <c r="G15" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="I15" s="39">
-        <v>1</v>
-      </c>
-      <c r="J15" s="40">
+      <c r="G15" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="32">
+        <v>1</v>
+      </c>
+      <c r="J15" s="33">
         <v>46.07</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="12">
+        <v>104</v>
+      </c>
+      <c r="B16" s="11">
         <f t="shared" si="2"/>
         <v>0.78900000000000003</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>7.8899999999999999E-4</v>
       </c>
-      <c r="G16" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="39">
-        <v>1</v>
-      </c>
-      <c r="J16" s="40">
+      <c r="G16" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="32">
+        <v>1</v>
+      </c>
+      <c r="J16" s="33">
         <v>61.206800000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="12">
+        <v>105</v>
+      </c>
+      <c r="B17" s="11">
         <f t="shared" si="2"/>
         <v>0.84175</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>8.4175000000000005E-4</v>
       </c>
-      <c r="G17" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="I17" s="39">
-        <v>1</v>
-      </c>
-      <c r="J17" s="40">
+      <c r="G17" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" s="32">
+        <v>1</v>
+      </c>
+      <c r="J17" s="33">
         <v>183.88</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="12">
+        <v>81</v>
+      </c>
+      <c r="B18" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>1E-3</v>
       </c>
-      <c r="G18" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="I18" s="39">
-        <v>1</v>
-      </c>
-      <c r="J18" s="40">
+      <c r="G18" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="32">
+        <v>1</v>
+      </c>
+      <c r="J18" s="33">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="12">
+        <v>76</v>
+      </c>
+      <c r="B19" s="11">
         <f t="shared" si="2"/>
         <v>0.216</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>2.1599999999999999E-4</v>
       </c>
-      <c r="G19" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="I19" s="39">
-        <v>1</v>
-      </c>
-      <c r="J19" s="40">
+      <c r="G19" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="32">
+        <v>1</v>
+      </c>
+      <c r="J19" s="33">
         <f>5.03</f>
         <v>5.03</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="12">
+        <v>47</v>
+      </c>
+      <c r="B20" s="11">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G20" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="I20" s="39">
-        <v>1</v>
-      </c>
-      <c r="J20" s="40">
+      <c r="G20" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="32">
+        <v>1</v>
+      </c>
+      <c r="J20" s="33">
         <v>92.09</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="12">
+        <v>48</v>
+      </c>
+      <c r="B21" s="11">
         <f t="shared" si="2"/>
         <v>5.8</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="G21" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="I21" s="39">
-        <v>1</v>
-      </c>
-      <c r="J21" s="40">
+      <c r="G21" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" s="32">
+        <v>1</v>
+      </c>
+      <c r="J21" s="33">
         <v>172.14</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="12">
+        <v>103</v>
+      </c>
+      <c r="B22" s="11">
         <f t="shared" si="2"/>
         <v>0.82</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>8.1999999999999998E-4</v>
       </c>
-      <c r="G22" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="I22" s="39">
-        <v>1</v>
-      </c>
-      <c r="J22" s="40">
+      <c r="G22" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="32">
+        <v>1</v>
+      </c>
+      <c r="J22" s="33">
         <v>3.016</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="12">
+        <v>38</v>
+      </c>
+      <c r="B23" s="11">
         <f t="shared" si="2"/>
         <v>0.53399999999999992</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>5.3399999999999997E-4</v>
       </c>
-      <c r="G23" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="I23" s="39">
-        <v>1</v>
-      </c>
-      <c r="J23" s="40">
+      <c r="G23" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="32">
+        <v>1</v>
+      </c>
+      <c r="J23" s="33">
         <v>4.0019999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="12">
+        <v>45</v>
+      </c>
+      <c r="B24" s="11">
         <f t="shared" si="2"/>
         <v>0.70209999999999995</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>7.0209999999999999E-4</v>
       </c>
-      <c r="G24" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="I24" s="39">
-        <v>1</v>
-      </c>
-      <c r="J24" s="40">
+      <c r="G24" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" s="32">
+        <v>1</v>
+      </c>
+      <c r="J24" s="33">
         <v>34.01</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" s="12">
+        <v>161</v>
+      </c>
+      <c r="B25" s="11">
         <f t="shared" si="2"/>
         <v>0.79</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>7.9000000000000001E-4</v>
       </c>
-      <c r="G25" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="I25" s="39">
-        <v>1</v>
-      </c>
-      <c r="J25" s="40">
+      <c r="G25" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="I25" s="32">
+        <v>1</v>
+      </c>
+      <c r="J25" s="33">
         <v>168.69</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="12">
+        <v>44</v>
+      </c>
+      <c r="B26" s="11">
         <f t="shared" ref="B26:B40" si="3">C26*1000</f>
         <v>1.1732500000000001</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>1.17325E-3</v>
       </c>
-      <c r="G26" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="I26" s="39">
-        <v>1</v>
-      </c>
-      <c r="J26" s="40">
+      <c r="G26" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="32">
+        <v>1</v>
+      </c>
+      <c r="J26" s="33">
         <f>(14.007*2)+(1.008*4)</f>
         <v>32.045999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="12">
+        <v>43</v>
+      </c>
+      <c r="B27" s="11">
         <f t="shared" si="3"/>
         <v>0.16239999999999999</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>1.6239999999999999E-4</v>
       </c>
-      <c r="G27" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="I27" s="39">
-        <v>1</v>
-      </c>
-      <c r="J27" s="40">
+      <c r="G27" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" s="32">
+        <v>1</v>
+      </c>
+      <c r="J27" s="33">
         <v>2.02</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="12">
+        <v>46</v>
+      </c>
+      <c r="B28" s="11">
         <f t="shared" si="3"/>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>5.8999999999999998E-5</v>
       </c>
-      <c r="G28" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="I28" s="39">
-        <v>1</v>
-      </c>
-      <c r="J28" s="40">
+      <c r="G28" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" s="32">
+        <v>1</v>
+      </c>
+      <c r="J28" s="33">
         <v>170.34</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="12">
+        <v>29</v>
+      </c>
+      <c r="B29" s="11">
         <f t="shared" si="3"/>
         <v>7.0849999999999996E-2</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>7.0850000000000001E-5</v>
       </c>
-      <c r="G29" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="I29" s="39">
-        <v>1</v>
-      </c>
-      <c r="J29" s="40">
+      <c r="G29" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" s="32">
+        <v>1</v>
+      </c>
+      <c r="J29" s="33">
         <v>6.94</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="12">
+        <v>30</v>
+      </c>
+      <c r="B30" s="11">
         <f t="shared" si="3"/>
         <v>0.42560999999999999</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>4.2560999999999999E-4</v>
       </c>
-      <c r="G30" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="I30" s="39">
-        <v>1</v>
-      </c>
-      <c r="J30" s="40">
+      <c r="G30" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="32">
+        <v>1</v>
+      </c>
+      <c r="J30" s="33">
         <v>17.03</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="12">
+        <v>85</v>
+      </c>
+      <c r="B31" s="11">
         <f t="shared" si="3"/>
         <v>1.141</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>1.1410000000000001E-3</v>
       </c>
-      <c r="G31" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" s="39">
-        <v>1</v>
-      </c>
-      <c r="J31" s="40">
+      <c r="G31" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="I31" s="32">
+        <v>1</v>
+      </c>
+      <c r="J31" s="33">
         <v>28.01</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="12">
+        <v>106</v>
+      </c>
+      <c r="B32" s="11">
         <f t="shared" si="3"/>
         <v>0.82490700000000006</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>8.2490700000000005E-4</v>
       </c>
-      <c r="G32" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="I32" s="39">
-        <v>1</v>
-      </c>
-      <c r="J32" s="40">
+      <c r="G32" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="32">
+        <v>1</v>
+      </c>
+      <c r="J32" s="33">
         <v>44.01</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="12">
+        <v>42</v>
+      </c>
+      <c r="B33" s="11">
         <f t="shared" si="3"/>
         <v>7.8</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="G33" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="I33" s="39">
-        <v>1</v>
-      </c>
-      <c r="J33" s="40">
+      <c r="G33" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="I33" s="32">
+        <v>1</v>
+      </c>
+      <c r="J33" s="33">
         <v>2.0139999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="12">
+        <v>79</v>
+      </c>
+      <c r="B34" s="11">
         <f t="shared" si="3"/>
         <v>7.085</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <v>7.0850000000000002E-3</v>
       </c>
-      <c r="G34" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H34" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="I34" s="39">
-        <v>1</v>
-      </c>
-      <c r="J34" s="40">
+      <c r="G34" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" s="32">
+        <v>1</v>
+      </c>
+      <c r="J34" s="33">
         <v>3.016</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="12">
+        <v>82</v>
+      </c>
+      <c r="B35" s="11">
         <f t="shared" si="3"/>
         <v>0.88</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>8.8000000000000003E-4</v>
       </c>
-      <c r="G35" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="H35" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="I35" s="39">
-        <v>1</v>
-      </c>
-      <c r="J35" s="40">
+      <c r="G35" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" s="32">
+        <v>1</v>
+      </c>
+      <c r="J35" s="33">
         <v>4.0019999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="12">
+        <v>83</v>
+      </c>
+      <c r="B36" s="11">
         <f t="shared" si="3"/>
         <v>1.45</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="12">
         <v>1.4499999999999999E-3</v>
       </c>
-      <c r="G36" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="I36" s="39">
-        <v>1</v>
-      </c>
-      <c r="J36" s="40">
+      <c r="G36" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I36" s="32">
+        <v>1</v>
+      </c>
+      <c r="J36" s="33">
         <v>2.02</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="12">
+        <v>80</v>
+      </c>
+      <c r="B37" s="11">
         <f t="shared" si="3"/>
         <v>1.05</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="G37" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="I37" s="39">
-        <v>1</v>
-      </c>
-      <c r="J37" s="40">
+      <c r="G37" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="I37" s="32">
+        <v>1</v>
+      </c>
+      <c r="J37" s="33">
         <v>16.05</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="12">
+        <v>86</v>
+      </c>
+      <c r="B38" s="11">
         <f t="shared" si="3"/>
         <v>0.79100000000000004</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="12">
         <v>7.9100000000000004E-4</v>
       </c>
-      <c r="G38" s="39" t="s">
+      <c r="G38" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" s="34">
+        <v>1</v>
+      </c>
+      <c r="J38" s="33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H38" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="I38" s="41">
-        <v>1</v>
-      </c>
-      <c r="J38" s="40">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <f t="shared" si="3"/>
         <v>0.82899999999999996</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>8.2899999999999998E-4</v>
       </c>
-      <c r="G39" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="I39" s="39">
-        <v>1</v>
-      </c>
-      <c r="J39" s="40">
+      <c r="G39" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="I39" s="32">
+        <v>1</v>
+      </c>
+      <c r="J39" s="33">
         <v>28.01</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C40" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="G40" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C40" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="G40" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="I40" s="39">
-        <v>1</v>
-      </c>
-      <c r="J40" s="40">
+      <c r="H40" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I40" s="32">
+        <v>1</v>
+      </c>
+      <c r="J40" s="33">
         <f>J36</f>
         <v>2.02</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="G41" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="H41" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="I41" s="39">
-        <v>1</v>
-      </c>
-      <c r="J41" s="40">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="I41" s="32">
+        <v>1</v>
+      </c>
+      <c r="J41" s="33">
         <v>159.69</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="18" thickBot="1">
+    <row r="42" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42"/>
-      <c r="C42" s="14"/>
-      <c r="G42" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="H42" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="I42" s="39">
-        <v>1</v>
-      </c>
-      <c r="J42" s="40">
+      <c r="C42" s="13"/>
+      <c r="G42" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="I42" s="32">
+        <v>1</v>
+      </c>
+      <c r="J42" s="33">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16.5" thickTop="1">
+    <row r="43" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="12">
+        <v>49</v>
+      </c>
+      <c r="B43" s="11">
         <f t="shared" ref="B43:B56" si="4">C43*1000</f>
         <v>5</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G43" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="I43" s="39">
-        <v>1</v>
-      </c>
-      <c r="J43" s="40">
+      <c r="G43" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="I43" s="32">
+        <v>1</v>
+      </c>
+      <c r="J43" s="33">
         <f>55.845*2</f>
         <v>111.69</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="12">
+        <v>56</v>
+      </c>
+      <c r="B44" s="11">
         <f t="shared" si="4"/>
         <v>54.4</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="12">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="G44" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="H44" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="I44" s="39">
-        <v>1</v>
-      </c>
-      <c r="J44" s="40">
+      <c r="G44" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="I44" s="32">
+        <v>1</v>
+      </c>
+      <c r="J44" s="33">
         <f>12.02+4*1.008</f>
         <v>16.052</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="12">
+        <v>50</v>
+      </c>
+      <c r="B45" s="11">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G45" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="I45" s="39">
-        <v>1</v>
-      </c>
-      <c r="J45" s="40">
+      <c r="G45" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="I45" s="32">
+        <v>1</v>
+      </c>
+      <c r="J45" s="33">
         <f>(28.086*2)+(16*2)</f>
         <v>88.171999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="18.75">
+    <row r="46" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="12">
+        <v>59</v>
+      </c>
+      <c r="B46" s="11">
         <f t="shared" si="4"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="12">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="G46" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="I46" s="39">
-        <v>1</v>
-      </c>
-      <c r="J46" s="40">
+      <c r="G46" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="I46" s="32">
+        <v>1</v>
+      </c>
+      <c r="J46" s="33">
         <v>46.07</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="12">
+        <v>54</v>
+      </c>
+      <c r="B47" s="11">
         <f t="shared" si="4"/>
         <v>5.0108799999999993</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="12">
         <v>5.0108799999999997E-3</v>
       </c>
-      <c r="G47" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="H47" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="I47" s="39">
-        <v>1</v>
-      </c>
-      <c r="J47" s="40">
+      <c r="G47" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="I47" s="32">
+        <v>1</v>
+      </c>
+      <c r="J47" s="33">
         <v>233.88</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="12">
+        <v>57</v>
+      </c>
+      <c r="B48" s="11">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G48" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="H48" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="I48" s="39">
-        <v>1</v>
-      </c>
-      <c r="J48" s="40">
+      <c r="G48" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="I48" s="32">
+        <v>1</v>
+      </c>
+      <c r="J48" s="33">
         <f>14.007*2</f>
         <v>28.013999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="12">
+        <v>51</v>
+      </c>
+      <c r="B49" s="11">
         <f t="shared" si="4"/>
         <v>8.6</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="12">
         <v>8.6E-3</v>
       </c>
-      <c r="G49" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="H49" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="I49" s="39">
-        <v>1</v>
-      </c>
-      <c r="J49" s="40">
+      <c r="G49" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="I49" s="32">
+        <v>1</v>
+      </c>
+      <c r="J49" s="33">
         <v>92.04</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="12">
+        <v>55</v>
+      </c>
+      <c r="B50" s="11">
         <f t="shared" si="4"/>
         <v>5.7050000000000001</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="12">
         <v>5.705E-3</v>
       </c>
-      <c r="G50" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="H50" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="I50" s="39">
-        <v>1</v>
-      </c>
-      <c r="J50" s="40">
+      <c r="G50" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="I50" s="32">
+        <v>1</v>
+      </c>
+      <c r="J50" s="33">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="12">
+        <v>52</v>
+      </c>
+      <c r="B51" s="11">
         <f t="shared" si="4"/>
         <v>0.35399999999999998</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="12">
         <v>3.5399999999999999E-4</v>
       </c>
-      <c r="G51" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="H51" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="I51" s="39">
-        <v>1</v>
-      </c>
-      <c r="J51" s="40">
+      <c r="G51" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51" s="32">
+        <v>1</v>
+      </c>
+      <c r="J51" s="33">
         <v>30.97</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="12">
+        <v>53</v>
+      </c>
+      <c r="B52" s="11">
         <f t="shared" si="4"/>
         <v>2.12805</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="12">
         <v>2.1280499999999998E-3</v>
       </c>
-      <c r="G52" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="H52" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="I52" s="39">
-        <v>1</v>
-      </c>
-      <c r="J52" s="40">
+      <c r="G52" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H52" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="I52" s="32">
+        <v>1</v>
+      </c>
+      <c r="J52" s="33">
         <f>195.078</f>
         <v>195.078</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="12">
+        <v>58</v>
+      </c>
+      <c r="B53" s="11">
         <f t="shared" si="4"/>
         <v>4.1000000000000005</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="12">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="G53" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="H53" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="I53" s="39">
-        <v>1</v>
-      </c>
-      <c r="J53" s="40">
+      <c r="G53" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="I53" s="32">
+        <v>1</v>
+      </c>
+      <c r="J53" s="33">
         <v>76.08</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B54" s="12">
+        <v>74</v>
+      </c>
+      <c r="B54" s="11">
         <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="12">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G54" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="H54" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="I54" s="39">
-        <v>1</v>
-      </c>
-      <c r="J54" s="40">
+      <c r="G54" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="I54" s="32">
+        <v>1</v>
+      </c>
+      <c r="J54" s="33">
         <v>28.09</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="12">
+        <v>68</v>
+      </c>
+      <c r="B55" s="11">
         <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="12">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G55" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="H55" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="I55" s="39">
-        <v>1</v>
-      </c>
-      <c r="J55" s="40">
+      <c r="G55" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="I55" s="32">
+        <v>1</v>
+      </c>
+      <c r="J55" s="33">
         <v>186.09</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" s="12">
+        <v>78</v>
+      </c>
+      <c r="B56" s="11">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G56" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="H56" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="I56" s="39">
-        <v>1</v>
-      </c>
-      <c r="J56" s="40">
+      <c r="G56" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="H56" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="I56" s="32">
+        <v>1</v>
+      </c>
+      <c r="J56" s="33">
         <v>270.02999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="G57" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="H57" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="I57" s="39">
-        <v>1</v>
-      </c>
-      <c r="J57" s="40">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="I57" s="32">
+        <v>1</v>
+      </c>
+      <c r="J57" s="33">
         <v>60.1</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="G58" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="H58" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="I58" s="39">
-        <v>1</v>
-      </c>
-      <c r="J58" s="40">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H58" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="I58" s="32">
+        <v>1</v>
+      </c>
+      <c r="J58" s="33">
         <f>SUM(($D$38*0.25)+($D$82*0.75))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="G59" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="H59" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="I59" s="39">
-        <v>1</v>
-      </c>
-      <c r="J59" s="40">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="I59" s="32">
+        <v>1</v>
+      </c>
+      <c r="J59" s="33">
         <v>18.02</v>
       </c>
     </row>
-    <row r="78" spans="7:10">
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="40"/>
+    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="33"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
@@ -5265,7 +5354,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
@@ -5278,18 +5367,18 @@
     <col min="257" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-    </row>
-    <row r="2" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5312,7 +5401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -5339,7 +5428,7 @@
         <v>4043923.419697999</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5366,7 +5455,7 @@
         <v>4923873.4622719996</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -5393,7 +5482,7 @@
         <v>5558591.5257679988</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -5420,7 +5509,7 @@
         <v>4771204.5341204992</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -5447,7 +5536,7 @@
         <v>4043923.419697999</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -5474,7 +5563,7 @@
         <v>5723281.6293645008</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -5504,7 +5593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -5531,7 +5620,7 @@
         <v>4620939.8410579991</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -5558,7 +5647,7 @@
         <v>4923873.4622719996</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -5585,7 +5674,7 @@
         <v>4620939.841058</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -5612,7 +5701,7 @@
         <v>4473079.3830845002</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -5639,7 +5728,7 @@
         <v>5890375.9680500003</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -5666,7 +5755,7 @@
         <v>4771204.5341204992</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -5710,11 +5799,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="5" customWidth="1"/>
     <col min="2" max="3" width="20" style="5" customWidth="1"/>
@@ -5726,156 +5815,156 @@
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1">
-      <c r="A1" s="77" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A2" s="56" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" thickTop="1">
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4"/>
-      <c r="B4" s="30">
+      <c r="B4" s="23">
         <v>203946</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="26">
         <v>2300</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="51">
         <v>299792458</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="27">
+      <c r="B6" s="20">
         <f>B4*G7</f>
         <v>2000027.0408999999</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="61">
         <f>IFERROR(C4*1000/B6,0)</f>
         <v>1.1499844516927202</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="20">
         <f>C4*1000*B6</f>
         <v>4600062194070</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="20">
         <f>IFERROR(D6/C6,0)</f>
         <v>4000108164331.21</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G7" s="57">
+        <v>202</v>
+      </c>
+      <c r="G7" s="50">
         <v>9.8066499999999994</v>
       </c>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="37">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="30">
         <f>B6/G4</f>
         <v>6.671372102696459E-3</v>
       </c>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" ht="18" thickBot="1">
-      <c r="A10" s="56" t="s">
-        <v>117</v>
+    <row r="10" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="49" t="s">
+        <v>99</v>
       </c>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1">
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="31">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="24">
         <v>960</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="25">
         <f>(C14*B14)/1000</f>
         <v>0.29543542033151998</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="27">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
         <f>B12*G7</f>
         <v>9414.384</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="61">
         <f>E14/D14</f>
         <v>3.1381279999999998E-2</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="24">
         <v>2824315200</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="20">
         <f>IFERROR((B14^2),0)</f>
         <v>88630626.099455997</v>
       </c>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -5883,294 +5972,294 @@
       <c r="E15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="72"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="64"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="B18" s="29">
-        <v>1</v>
-      </c>
-      <c r="C18" s="29">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="22">
+        <v>1</v>
+      </c>
+      <c r="C18" s="22">
         <v>0</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="21">
         <f>C12/(B18*G7)</f>
         <v>3.0126028799999999E-2</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="21" spans="1:8" ht="18" thickBot="1">
-      <c r="A21" s="56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" thickTop="1">
+    <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" s="36">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="29">
         <v>1000000000</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="55">
         <f>(B23/G4/1000)</f>
         <v>3.3356409519815205E-3</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="52">
         <f>B23/1000</f>
         <v>1000000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" thickBot="1">
-      <c r="A26" s="56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" thickTop="1">
+    <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="28">
         <f>B30/G7</f>
         <v>749335.32127174258</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="22">
         <v>3800</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="28">
         <f>(2*E30)^0.5</f>
         <v>7348469.2283495339</v>
       </c>
-      <c r="C30" s="69">
+      <c r="C30" s="61">
         <f>IFERROR(C28*1000/B30,0)</f>
         <v>0.51711450125422653</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="28">
         <f>C28*1000*B30</f>
         <v>27924183067728.23</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="27">
         <v>27000000000000</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="37">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="30">
         <f>B30/G4</f>
         <v>2.4511854892458749E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18" thickBot="1">
-      <c r="A35" s="56" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" thickTop="1">
-      <c r="A36" s="65"/>
+    <row r="35" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="57"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="42">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="35">
         <v>2130</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:9">
-      <c r="B38" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="43">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="36">
         <v>8.3144621000000001</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B39" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="47">
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="40">
         <f>IFERROR(VLOOKUP(C39,Database!$G$2:$J$59,4,FALSE),"-")</f>
         <v>2.02</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="41">
         <f>D39/1000</f>
         <v>2.0200000000000001E-3</v>
       </c>
       <c r="F39"/>
     </row>
-    <row r="40" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B40" s="46"/>
-      <c r="C40" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="47">
+    <row r="40" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="39"/>
+      <c r="C40" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="40">
         <f>IFERROR(VLOOKUP(C40,Database!$G$2:$J$59,4,FALSE),"-")</f>
         <v>18.02</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="41">
         <f>D40/1000</f>
         <v>1.8020000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" thickTop="1">
-      <c r="B41" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="C41" s="17">
+    <row r="41" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="15">
         <v>1.3979999999999999</v>
       </c>
       <c r="D41"/>
-      <c r="E41" s="38"/>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B42" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="44">
+      <c r="E41" s="31"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="37">
         <v>0</v>
       </c>
-      <c r="D42" s="64">
+      <c r="D42" s="56">
         <f>IFERROR(C42*101320,101.32)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="38"/>
-    </row>
-    <row r="43" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="B43" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="44">
+      <c r="E42" s="31"/>
+    </row>
+    <row r="43" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="37">
         <v>500</v>
       </c>
-      <c r="D43" s="64">
+      <c r="D43" s="56">
         <f>C43*101320</f>
         <v>50660000</v>
       </c>
-      <c r="E43" s="38"/>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" thickTop="1">
-      <c r="B44" s="46"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="B45" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="45">
+      <c r="E43" s="31"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="39"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="38">
         <f>(C37*C38)/E39</f>
         <v>8767229.8381188121</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="45">
+      <c r="D45" s="31"/>
+      <c r="E45" s="38">
         <f>(C37*C38)/E40</f>
         <v>982786.03068812436</v>
       </c>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="B46" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="C46" s="45">
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="38">
         <f>(2*C41)/(C41-1)</f>
         <v>7.0251256281407048</v>
       </c>
-      <c r="D46" s="38"/>
+      <c r="D46" s="31"/>
       <c r="E46"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="B47" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="C47" s="45">
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="38">
         <f>(C41-1)/C41</f>
         <v>0.284692417739628</v>
       </c>
-      <c r="D47" s="38"/>
+      <c r="D47" s="31"/>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:9" customFormat="1">
+    <row r="48" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="45">
+      <c r="B48" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="38">
         <f>1-((D42/D43)^C47)</f>
         <v>1</v>
       </c>
-      <c r="D48" s="38"/>
+      <c r="D48" s="31"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -6178,351 +6267,351 @@
       <c r="E49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B50" s="46"/>
-      <c r="C50" s="22" t="str">
+    <row r="50" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="39"/>
+      <c r="C50" s="18" t="str">
         <f>C39</f>
         <v>LqdHydrogen</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="22" t="str">
+      <c r="D50" s="31"/>
+      <c r="E50" s="18" t="str">
         <f>C40</f>
         <v>Water (CRP)</v>
       </c>
-      <c r="G50" s="50"/>
-    </row>
-    <row r="51" spans="1:7" ht="16.5" thickTop="1">
-      <c r="B51" s="46" t="s">
+      <c r="G50" s="43"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="60">
+      <c r="C51" s="53">
         <f>(C45*C46*C48)^0.5</f>
         <v>7847.9864311534302</v>
       </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="60">
+      <c r="D51" s="31"/>
+      <c r="E51" s="53">
         <f>(E45*C46*C48)^0.5</f>
         <v>2627.5835536031618</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="B52" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="C52" s="60">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="53">
         <f>C51/9.80655</f>
         <v>800.28006089332439</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="60">
+      <c r="D52" s="31"/>
+      <c r="E52" s="53">
         <f>E51/9.80655</f>
         <v>267.94168730115706</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="E54" s="49"/>
-    </row>
-    <row r="55" spans="1:7" ht="18" thickBot="1">
-      <c r="A55" s="56" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="16.5" thickTop="1"/>
-    <row r="57" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C57" s="5" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="D58" s="54">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="47">
         <v>60</v>
       </c>
-      <c r="E58" s="66">
+      <c r="E58" s="58">
         <v>0.75</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="16.5" thickBot="1">
-      <c r="B61" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="C61" s="68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="60">
         <v>800</v>
       </c>
-      <c r="D61" s="67">
+      <c r="D61" s="59">
         <f>D58</f>
         <v>60</v>
       </c>
-      <c r="E61" s="55">
+      <c r="E61" s="48">
         <f t="shared" ref="E61:E67" si="0">($C$61/C61)^$E$58</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16.5" thickTop="1">
-      <c r="B62" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="C62" s="68">
+    <row r="62" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="60">
         <v>606</v>
       </c>
-      <c r="D62" s="61">
+      <c r="D62" s="54">
         <f t="shared" ref="D62:D67" si="1">$D$58*(($C$61/C62)^$E$58)</f>
         <v>73.894867118770051</v>
       </c>
-      <c r="E62" s="55">
+      <c r="E62" s="48">
         <f t="shared" si="0"/>
         <v>1.2315811186461676</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="B63" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" s="68">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="60">
         <v>400</v>
       </c>
-      <c r="D63" s="61">
+      <c r="D63" s="54">
         <f t="shared" si="1"/>
         <v>100.90756983044574</v>
       </c>
-      <c r="E63" s="55">
+      <c r="E63" s="48">
         <f t="shared" si="0"/>
         <v>1.681792830507429</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="B64" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="C64" s="68">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="60">
         <v>253</v>
       </c>
-      <c r="D64" s="61">
+      <c r="D64" s="54">
         <f t="shared" si="1"/>
         <v>142.27491989040757</v>
       </c>
-      <c r="E64" s="55">
+      <c r="E64" s="48">
         <f t="shared" si="0"/>
         <v>2.3712486648401261</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="C65" s="68">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="60">
         <v>370</v>
       </c>
-      <c r="D65" s="61">
+      <c r="D65" s="54">
         <f t="shared" si="1"/>
         <v>106.98365906113423</v>
       </c>
-      <c r="E65" s="55">
+      <c r="E65" s="48">
         <f t="shared" si="0"/>
         <v>1.7830609843522371</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="68">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="60">
         <v>283</v>
       </c>
-      <c r="D66" s="61">
+      <c r="D66" s="54">
         <f t="shared" si="1"/>
         <v>130.80637609525397</v>
       </c>
-      <c r="E66" s="55">
+      <c r="E66" s="48">
         <f t="shared" si="0"/>
         <v>2.1801062682542329</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
-      <c r="B67" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="68">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="60">
         <v>253</v>
       </c>
-      <c r="D67" s="61">
+      <c r="D67" s="54">
         <f t="shared" si="1"/>
         <v>142.27491989040757</v>
       </c>
-      <c r="E67" s="55">
+      <c r="E67" s="48">
         <f t="shared" si="0"/>
         <v>2.3712486648401261</v>
       </c>
     </row>
-    <row r="68" spans="2:5">
-      <c r="C68" s="68"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="53"/>
-    </row>
-    <row r="69" spans="2:5">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="60"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="46"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C69" s="68"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="53"/>
-    </row>
-    <row r="70" spans="2:5" ht="16.5" thickBot="1">
-      <c r="B70" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="68">
+        <v>90</v>
+      </c>
+      <c r="C69" s="60"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="46"/>
+    </row>
+    <row r="70" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="60">
         <v>800</v>
       </c>
-      <c r="D70" s="67">
+      <c r="D70" s="59">
         <f>D58</f>
         <v>60</v>
       </c>
-      <c r="E70" s="55">
+      <c r="E70" s="48">
         <f>($C$61/C70)^$E$58</f>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="16.5" thickTop="1">
-      <c r="B71" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="68">
+    <row r="71" spans="2:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="60">
         <v>606</v>
       </c>
-      <c r="D71" s="61">
+      <c r="D71" s="54">
         <f>$D$58*(($C$70/C71)^$E$58)</f>
         <v>73.894867118770051</v>
       </c>
-      <c r="E71" s="55">
+      <c r="E71" s="48">
         <f>($C$70/C71)^$E$58</f>
         <v>1.2315811186461676</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="C72" s="68">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="60">
         <v>253</v>
       </c>
-      <c r="D72" s="61">
+      <c r="D72" s="54">
         <f>$D$58*(($C$70/C72)^$E$58)</f>
         <v>142.27491989040757</v>
       </c>
-      <c r="E72" s="55">
+      <c r="E72" s="48">
         <f>($C$70/C72)^$E$58</f>
         <v>2.3712486648401261</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
-      <c r="B73" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="C73" s="68">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="60">
         <v>370</v>
       </c>
-      <c r="D73" s="61">
+      <c r="D73" s="54">
         <f>$D$58*(($C$70/C73)^$E$58)</f>
         <v>106.98365906113423</v>
       </c>
-      <c r="E73" s="55">
+      <c r="E73" s="48">
         <f>($C$70/C73)^$E$58</f>
         <v>1.7830609843522371</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="C74" s="68">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="60">
         <v>283</v>
       </c>
-      <c r="D74" s="61">
+      <c r="D74" s="54">
         <f>$D$58*(($C$70/C74)^$E$58)</f>
         <v>130.80637609525397</v>
       </c>
-      <c r="E74" s="55">
+      <c r="E74" s="48">
         <f>($C$70/C74)^$E$58</f>
         <v>2.1801062682542329</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" s="68">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="60">
         <v>253</v>
       </c>
-      <c r="D75" s="61">
+      <c r="D75" s="54">
         <f>$D$58*(($C$70/C75)^$E$58)</f>
         <v>142.27491989040757</v>
       </c>
-      <c r="E75" s="55">
+      <c r="E75" s="48">
         <f>($C$70/C75)^$E$58</f>
         <v>2.3712486648401261</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="18" thickBot="1">
-      <c r="A81" s="56" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16.5" thickTop="1">
+    <row r="81" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>235</v>
-      </c>
-      <c r="C82" s="70">
+        <v>216</v>
+      </c>
+      <c r="C82" s="62">
         <v>4000</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>237</v>
-      </c>
-      <c r="C83" s="42">
+        <v>218</v>
+      </c>
+      <c r="C83" s="35">
         <v>1600</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>236</v>
-      </c>
-      <c r="C84" s="42">
+        <v>217</v>
+      </c>
+      <c r="C84" s="35">
         <v>1000</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>234</v>
-      </c>
-      <c r="C85" s="71">
+        <v>215</v>
+      </c>
+      <c r="C85" s="63">
         <f>C82*(1-(C84/C83))</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>238</v>
-      </c>
-      <c r="C86" s="45">
+        <v>219</v>
+      </c>
+      <c r="C86" s="38">
         <f>C83/C84</f>
         <v>1.6</v>
       </c>

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0">
+    <comment ref="M9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0" shapeId="0">
+    <comment ref="N9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +994,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="237">
   <si>
     <t>name</t>
   </si>
@@ -1726,12 +1726,24 @@
   <si>
     <t>EnrU ratio</t>
   </si>
+  <si>
+    <t>Gear</t>
+  </si>
+  <si>
+    <t>B Ratio</t>
+  </si>
+  <si>
+    <t>W Ratio</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="17">
+  <numFmts count="18">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1749,6 +1761,7 @@
     <numFmt numFmtId="177" formatCode="#,###\ &quot;m/s&quot;"/>
     <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;Pa&quot;"/>
     <numFmt numFmtId="179" formatCode="#,###\ &quot;kW&quot;"/>
+    <numFmt numFmtId="182" formatCode="0.00000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -2060,7 +2073,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2135,15 +2148,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyFont="1" applyAlignment="1"/>
@@ -2159,6 +2163,18 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -2522,7 +2538,7 @@
   <dimension ref="A1:IQ80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2535,87 +2551,127 @@
     <col min="8" max="8" width="14.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="2" customWidth="1"/>
     <col min="13" max="16" width="9.140625" style="2"/>
-    <col min="17" max="17" width="16.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="2" customWidth="1"/>
     <col min="19" max="251" width="9.140625" style="2"/>
     <col min="252" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+    </row>
+    <row r="2" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="K2" s="2" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="L2" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="L2" s="71">
+      <c r="M2" s="68">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="V2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="K3" s="2" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="L3" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="L3" s="71">
+      <c r="M3" s="68">
         <v>800</v>
       </c>
-      <c r="M3" s="72"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="N3" s="69"/>
+      <c r="W3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="K4" s="2" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="L4" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="L4" s="71">
+      <c r="M4" s="68">
         <v>380</v>
       </c>
-      <c r="M4" s="72"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="K5" s="2" t="s">
+      <c r="N4" s="69"/>
+      <c r="X4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="L5" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L5" s="73">
-        <f>L4/L3</f>
+      <c r="M5" s="70">
+        <f>M4/M3</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="M5" s="72"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N5" s="69"/>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2628,40 +2684,72 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="L6" s="74">
-        <f>L5^-0.75</f>
+      <c r="M6" s="71">
+        <f>M5^-0.75</f>
         <v>1.7477519396551873</v>
       </c>
-      <c r="M6" s="72" t="s">
+      <c r="N6" s="69" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="V6" s="2">
+        <v>2</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1.1086</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>3.38</v>
+      </c>
+      <c r="AB6" s="5"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="23">
-        <v>2080</v>
+        <v>35000</v>
       </c>
       <c r="C7" s="23">
-        <v>2100</v>
+        <v>343.3</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="L7" s="76">
-        <f>60*L6</f>
+      <c r="M7" s="73">
+        <f>60*M6</f>
         <v>104.86511637931123</v>
       </c>
-      <c r="M7" s="72"/>
-    </row>
-    <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N7" s="69"/>
+      <c r="V7" s="2">
+        <v>3</v>
+      </c>
+      <c r="W7" s="2">
+        <v>2.9537</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5">
+        <v>2.95208</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -2677,156 +2765,232 @@
       <c r="E8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="77"/>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="74"/>
+      <c r="V8" s="5">
+        <v>4</v>
+      </c>
+      <c r="W8" s="5">
+        <v>5.5324099999999996</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>5.53024</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20">
         <f>B7*9.80665</f>
-        <v>20397.831999999999</v>
-      </c>
-      <c r="C9" s="74">
+        <v>343232.75</v>
+      </c>
+      <c r="C9" s="71">
         <f>IFERROR(C7*1000/B9,0)</f>
-        <v>102.95211765642546</v>
+        <v>1.0001959311866364</v>
       </c>
       <c r="D9" s="20">
         <f>C7*1000*B9</f>
-        <v>42835447200</v>
+        <v>117831803075</v>
       </c>
       <c r="E9" s="20">
         <f>IFERROR(D9/C9,0)</f>
-        <v>416071550.30022395</v>
-      </c>
-      <c r="G9" s="78">
+        <v>117808720672.5625</v>
+      </c>
+      <c r="G9" s="75">
         <f>SUM(B16:E16)</f>
-        <v>102.95211765642546</v>
-      </c>
-      <c r="H9" s="73" t="str">
+        <v>1.0001959311866364</v>
+      </c>
+      <c r="H9" s="70" t="str">
         <f>IF($C$9&gt;$G$9,"Input excesive",IF($C$9&lt;$G$9,"Output excessive","Equal"))</f>
         <v>Equal</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>1.5</v>
       </c>
-      <c r="M9" s="74">
-        <f>IFERROR(C7*1000/L9/B9,0)</f>
-        <v>68.634745104283638</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K10" s="2" t="s">
+      <c r="N9" s="71">
+        <f>IFERROR(C7*1000/M9/B9,0)</f>
+        <v>0.66679728745775757</v>
+      </c>
+      <c r="V9" s="2">
+        <v>5</v>
+      </c>
+      <c r="W9" s="2">
+        <v>8.86111</v>
+      </c>
+      <c r="X9" s="5">
+        <v>1.9139999999999999</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>8.8562499999999993</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>1.2</v>
       </c>
-      <c r="M10" s="74">
-        <f>IFERROR(C7*1000/L10/B9,0)</f>
-        <v>85.793431380354548</v>
-      </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="K11" s="2" t="s">
+      <c r="N10" s="71">
+        <f>IFERROR(C7*1000/M10/B9,0)</f>
+        <v>0.83349660932219716</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="T10" s="5"/>
+      <c r="V10" s="2">
+        <v>6</v>
+      </c>
+      <c r="W10" s="2">
+        <v>12.9213</v>
+      </c>
+      <c r="X10" s="2">
+        <v>2.7909999999999999</v>
+      </c>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2">
+        <v>12.9236</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="AB10" s="2"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="L11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>3.7</v>
       </c>
-      <c r="M11" s="74">
-        <f>IFERROR(C7*1000/L11/B9,0)</f>
-        <v>27.824896663898773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75" t="s">
+      <c r="N11" s="71">
+        <f>IFERROR(C7*1000/M11/B9,0)</f>
+        <v>0.27032322464503683</v>
+      </c>
+      <c r="V11" s="2">
+        <v>7</v>
+      </c>
+      <c r="W11" s="2">
+        <v>17.708300000000001</v>
+      </c>
+      <c r="X11" s="2">
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>17.712499999999999</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="16">
-        <v>1</v>
-      </c>
+      <c r="B12" s="17"/>
       <c r="C12" s="17">
-        <v>1E-4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="79" t="s">
+      <c r="I12" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>1.33</v>
       </c>
-      <c r="M12" s="74">
-        <f>IFERROR(C7*1000/L12/B9,0)</f>
-        <v>77.407607260470272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N12" s="71">
+        <f>IFERROR(C7*1000/M12/B9,0)</f>
+        <v>0.75202701592980181</v>
+      </c>
+      <c r="V12" s="2">
+        <v>8</v>
+      </c>
+      <c r="W12" s="2">
+        <v>23.25</v>
+      </c>
+      <c r="X12" s="2">
+        <v>5.0220000000000002</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>23.2559</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D13" s="14"/>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="80">
+      <c r="G13" s="77">
         <f>IFERROR(E15/I13,"-")</f>
         <v>0</v>
       </c>
-      <c r="H13" s="81" t="str">
+      <c r="H13" s="78" t="str">
         <f>IFERROR(E12/G13,"-")</f>
         <v>-</v>
       </c>
-      <c r="I13" s="82">
+      <c r="I13" s="79">
         <v>200</v>
       </c>
-      <c r="K13" s="31"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
       <c r="P13" s="31"/>
       <c r="Q13" s="31"/>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="31"/>
+    </row>
+    <row r="14" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="9">
         <f>IFERROR(VLOOKUP(B13,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>7.0849999999999996E-2</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="C14" s="9">
         <f>IFERROR(VLOOKUP(C13,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>10.97</v>
+        <v>0.216</v>
       </c>
       <c r="D14" s="9" t="str">
         <f>IFERROR(VLOOKUP(D13,Database!$A$2:$B$56,2,0),"-")</f>
@@ -2835,219 +2999,309 @@
       <c r="E14" s="10">
         <v>0</v>
       </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="31"/>
+      <c r="M14" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="M14" s="31"/>
       <c r="N14" s="31"/>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="31"/>
+      <c r="P14" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31" t="s">
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+    <row r="15" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="78">
+      <c r="B15" s="75">
         <f>IFERROR(C9*B12/SUM(B17:D17),"-")</f>
-        <v>1430.9438566781862</v>
-      </c>
-      <c r="C15" s="78">
+        <v>0</v>
+      </c>
+      <c r="C15" s="75">
         <f>IFERROR(C9*C12/SUM(B17:D17),"-")</f>
-        <v>0.14309438566781862</v>
-      </c>
-      <c r="D15" s="78">
+        <v>4.6305367184566499</v>
+      </c>
+      <c r="D15" s="75">
         <f>IFERROR(C9*D12/SUM(B17:D17),"-")</f>
         <v>0</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="75">
         <f>IFERROR(C9*E12/SUM(B17:D17),0)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="22">
+      <c r="L15" s="31"/>
+      <c r="M15" s="22">
         <v>2080</v>
       </c>
-      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="22">
+      <c r="O15" s="5"/>
+      <c r="P15" s="22">
         <v>2100</v>
       </c>
-      <c r="P15" s="31"/>
       <c r="Q15" s="31"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R15" s="31"/>
+      <c r="W15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="73">
+      <c r="B16" s="70">
         <f>IFERROR($B$14*$B$15,"-")</f>
-        <v>101.38237224564949</v>
-      </c>
-      <c r="C16" s="73">
+        <v>0</v>
+      </c>
+      <c r="C16" s="70">
         <f t="shared" ref="C16:D16" si="0">IFERROR(C14*C15,"-")</f>
-        <v>1.5697454107759703</v>
-      </c>
-      <c r="D16" s="73" t="str">
+        <v>1.0001959311866364</v>
+      </c>
+      <c r="D16" s="70" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="70">
         <f>E14*E15</f>
         <v>0</v>
       </c>
       <c r="F16" s="2">
         <f>SUM(B16:D16)</f>
-        <v>102.95211765642546</v>
-      </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="5"/>
+        <v>1.0001959311866364</v>
+      </c>
+      <c r="L16" s="31"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="31"/>
+      <c r="P16" s="5"/>
       <c r="Q16" s="31"/>
-      <c r="R16" s="65">
+      <c r="R16" s="31"/>
+      <c r="S16" s="65">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="73">
+      <c r="B17" s="70">
         <f>IFERROR(B12*B14,"-")</f>
-        <v>7.0849999999999996E-2</v>
-      </c>
-      <c r="C17" s="73">
+        <v>0</v>
+      </c>
+      <c r="C17" s="70">
         <f t="shared" ref="C17:D17" si="1">IFERROR(C12*C14,"-")</f>
-        <v>1.0970000000000001E-3</v>
-      </c>
-      <c r="D17" s="73" t="str">
+        <v>0.216</v>
+      </c>
+      <c r="D17" s="70" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="K17" s="31" t="s">
+      <c r="E17" s="70"/>
+      <c r="F17" s="2">
+        <f>B16/C16</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="L17" s="83">
-        <f>M17*$N$17</f>
+      <c r="M17" s="80">
+        <f>N17*$O$17</f>
         <v>2080</v>
       </c>
-      <c r="M17" s="31">
+      <c r="N17" s="31">
         <v>800</v>
       </c>
-      <c r="N17" s="21">
-        <f>($L$15/M17)</f>
+      <c r="O17" s="21">
+        <f>($M$15/N17)</f>
         <v>2.6</v>
       </c>
-      <c r="O17" s="83">
-        <f>$O$15*P17</f>
+      <c r="P17" s="80">
+        <f>$P$15*Q17</f>
         <v>2100</v>
       </c>
-      <c r="P17" s="31">
-        <v>1</v>
-      </c>
       <c r="Q17" s="31">
+        <v>1</v>
+      </c>
+      <c r="R17" s="31">
         <v>1E-4</v>
       </c>
-      <c r="R17" s="19">
-        <f>$R$16*Q17</f>
+      <c r="S17" s="19">
+        <f>$S$16*R17</f>
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V17" s="2">
+        <v>1</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="K18" s="31" t="s">
+      <c r="F18" s="2" t="e">
+        <f>B12/F17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="L18" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="L18" s="83">
-        <f t="shared" ref="L18:L23" si="2">M18*$N$17</f>
+      <c r="M18" s="80">
+        <f>N18*$O$17</f>
         <v>657.80000000000007</v>
       </c>
-      <c r="M18" s="31">
+      <c r="N18" s="31">
         <v>253</v>
       </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="83">
-        <f t="shared" ref="O18:O23" si="3">$O$15*P18</f>
+      <c r="O18" s="5"/>
+      <c r="P18" s="80">
+        <f>$P$15*Q18</f>
         <v>4977</v>
       </c>
-      <c r="P18" s="31">
+      <c r="Q18" s="31">
         <v>2.37</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="R18" s="31">
         <v>1.4672099999999999E-4</v>
       </c>
-      <c r="R18" s="19">
-        <f t="shared" ref="R18:R23" si="4">$R$16*Q18</f>
+      <c r="S18" s="19">
+        <f>$S$16*R18</f>
         <v>1.46721E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K19" s="31" t="s">
+      <c r="V18" s="2">
+        <v>2</v>
+      </c>
+      <c r="W18" s="2">
+        <v>1</v>
+      </c>
+      <c r="X18" s="84">
+        <v>0.61019999999999996</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="84">
+        <v>4.3200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L19" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="L19" s="83">
-        <f t="shared" si="2"/>
+      <c r="M19" s="80">
+        <f>N19*$O$17</f>
         <v>1040</v>
       </c>
-      <c r="M19" s="31">
+      <c r="N19" s="31">
         <v>400</v>
       </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="83">
-        <f t="shared" si="3"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="80">
+        <f>$P$15*Q19</f>
         <v>3528</v>
       </c>
-      <c r="P19" s="31">
+      <c r="Q19" s="31">
         <v>1.68</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="R19" s="31">
         <v>2.9090700000000003E-4</v>
       </c>
-      <c r="R19" s="19">
-        <f t="shared" si="4"/>
+      <c r="S19" s="19">
+        <f>$S$16*R19</f>
         <v>2.9090700000000003E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K20" s="31" t="s">
+      <c r="V19" s="2">
+        <v>3</v>
+      </c>
+      <c r="W19" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="X19" s="84">
+        <f>$X$18*W19</f>
+        <v>1.80009</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="AA19" s="84">
+        <f>$AA$18*W19</f>
+        <v>0.12744000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L20" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="L20" s="83">
-        <f t="shared" si="2"/>
+      <c r="M20" s="80">
+        <f>N20*$O$17</f>
         <v>657.80000000000007</v>
       </c>
-      <c r="M20" s="31">
+      <c r="N20" s="31">
         <v>253</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="83">
-        <f t="shared" si="3"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="80">
+        <f>$P$15*Q20</f>
         <v>4977</v>
       </c>
-      <c r="P20" s="31">
+      <c r="Q20" s="31">
         <v>2.37</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="R20" s="31">
         <v>1.53485E-4</v>
       </c>
-      <c r="R20" s="19">
-        <f t="shared" si="4"/>
+      <c r="S20" s="19">
+        <f>$S$16*R20</f>
         <v>1.5348500000000001E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V20" s="5">
+        <v>4</v>
+      </c>
+      <c r="W20" s="39">
+        <v>5.53</v>
+      </c>
+      <c r="X20" s="84">
+        <f>$X$18*W20</f>
+        <v>3.374406</v>
+      </c>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="84">
+        <f>$AA$18*W20</f>
+        <v>0.23889600000000002</v>
+      </c>
+      <c r="AB20" s="39"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
@@ -3060,72 +3314,106 @@
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="K21" s="31" t="s">
+      <c r="L21" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="L21" s="83">
-        <f t="shared" si="2"/>
+      <c r="M21" s="80">
+        <f>N21*$O$17</f>
         <v>1575.6000000000001</v>
       </c>
-      <c r="M21" s="31">
+      <c r="N21" s="31">
         <v>606</v>
       </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="83">
-        <f t="shared" si="3"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="80">
+        <f>$P$15*Q21</f>
         <v>2583</v>
       </c>
-      <c r="P21" s="31">
+      <c r="Q21" s="31">
         <v>1.23</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="R21" s="31">
         <v>3.6680399999999998E-4</v>
       </c>
-      <c r="R21" s="19">
-        <f t="shared" si="4"/>
+      <c r="S21" s="19">
+        <f>$S$16*R21</f>
         <v>3.6680400000000002E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
+      <c r="V21" s="2">
+        <v>5</v>
+      </c>
+      <c r="W21" s="31">
+        <v>8.86</v>
+      </c>
+      <c r="X21" s="84">
+        <f>$X$18*W21</f>
+        <v>5.4063719999999993</v>
+      </c>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="84">
+        <f>$AA$18*W21</f>
+        <v>0.38275199999999998</v>
+      </c>
+      <c r="AB21" s="31"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="72" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="23">
-        <v>2850</v>
+        <v>35000</v>
       </c>
       <c r="C22" s="23">
-        <v>1540</v>
+        <v>350</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="K22" s="31" t="s">
+      <c r="L22" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="L22" s="83">
-        <f t="shared" si="2"/>
+      <c r="M22" s="80">
+        <f>N22*$O$17</f>
         <v>735.80000000000007</v>
       </c>
-      <c r="M22" s="31">
+      <c r="N22" s="31">
         <v>283</v>
       </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="83">
-        <f t="shared" si="3"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="80">
+        <f>$P$15*Q22</f>
         <v>4578</v>
       </c>
-      <c r="P22" s="31">
+      <c r="Q22" s="31">
         <v>2.1800000000000002</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="R22" s="31">
         <v>2.6534900000000001E-4</v>
       </c>
-      <c r="R22" s="19">
-        <f t="shared" si="4"/>
+      <c r="S22" s="19">
+        <f>$S$16*R22</f>
         <v>2.6534900000000002E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V22" s="2">
+        <v>6</v>
+      </c>
+      <c r="W22" s="31">
+        <v>12.92</v>
+      </c>
+      <c r="X22" s="84">
+        <f>$X$18*W22</f>
+        <v>7.8837839999999995</v>
+      </c>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="84">
+        <f>$AA$18*W22</f>
+        <v>0.55814399999999997</v>
+      </c>
+      <c r="AB22" s="31"/>
+    </row>
+    <row r="23" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -3141,808 +3429,822 @@
       <c r="E23" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="77" t="s">
+      <c r="G23" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="77"/>
-      <c r="K23" s="31" t="s">
+      <c r="H23" s="74"/>
+      <c r="L23" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="L23" s="83">
-        <f t="shared" si="2"/>
+      <c r="M23" s="80">
+        <f>N23*$O$17</f>
         <v>962</v>
       </c>
-      <c r="M23" s="31">
+      <c r="N23" s="31">
         <v>370</v>
       </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="83">
-        <f t="shared" si="3"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="80">
+        <f>$P$15*Q23</f>
         <v>3738</v>
       </c>
-      <c r="P23" s="31">
+      <c r="Q23" s="31">
         <v>1.78</v>
       </c>
-      <c r="Q23" s="31">
+      <c r="R23" s="31">
         <v>3.6195500000000001E-4</v>
       </c>
-      <c r="R23" s="19">
-        <f t="shared" si="4"/>
+      <c r="S23" s="19">
+        <f>$S$16*R23</f>
         <v>3.6195500000000003E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="V23" s="2">
+        <v>7</v>
+      </c>
+      <c r="W23" s="31">
+        <v>17.7</v>
+      </c>
+      <c r="X23" s="84">
+        <f>$X$18*W23</f>
+        <v>10.80054</v>
+      </c>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="84">
+        <f>$AA$18*W23</f>
+        <v>0.76463999999999999</v>
+      </c>
+      <c r="AB23" s="31"/>
+    </row>
+    <row r="24" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20">
         <f>B22*9.80665</f>
-        <v>27948.952499999999</v>
-      </c>
-      <c r="C24" s="74">
+        <v>343232.75</v>
+      </c>
+      <c r="C24" s="71">
         <f>IFERROR(C22*1000/B24,0)</f>
-        <v>55.100455017052965</v>
+        <v>1.0197162129779282</v>
       </c>
       <c r="D24" s="20">
         <f>C22*1000*B24</f>
-        <v>43041386850</v>
+        <v>120131462500</v>
       </c>
       <c r="E24" s="20">
         <f>IFERROR(D24/C24,0)</f>
-        <v>781143945.84725618</v>
-      </c>
-      <c r="G24" s="78">
+        <v>117808720672.5625</v>
+      </c>
+      <c r="G24" s="75">
         <f>SUM(B31:E31)</f>
-        <v>102.22250733333497</v>
-      </c>
-      <c r="H24" s="73" t="str">
+        <v>1.0197162129779282</v>
+      </c>
+      <c r="H24" s="70" t="str">
         <f>IF($C$9&gt;$G$9,"Input excesive",IF($C$9&lt;$G$9,"Output excessive","Equal"))</f>
         <v>Equal</v>
       </c>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-    </row>
-    <row r="27" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="75" t="s">
+      <c r="V24" s="2">
+        <v>8</v>
+      </c>
+      <c r="W24" s="5">
+        <v>23.25</v>
+      </c>
+      <c r="X24" s="84">
+        <f>$X$18*W24</f>
+        <v>14.187149999999999</v>
+      </c>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="84">
+        <f>$AA$18*W24</f>
+        <v>1.0044</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+    </row>
+    <row r="27" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="16">
-        <v>1</v>
-      </c>
+      <c r="B27" s="17"/>
       <c r="C27" s="17">
-        <v>1E-4</v>
-      </c>
-      <c r="D27" s="16"/>
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="D27" s="86">
+        <f>C27/10</f>
+        <v>9.0950000000000003E-2</v>
+      </c>
       <c r="E27" s="17"/>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="79" t="s">
+      <c r="H27" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="79" t="s">
+      <c r="I27" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="J27" s="70"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J27" s="67"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="80">
+      <c r="G28" s="77">
         <f>IFERROR(E30/I28,"-")</f>
         <v>0</v>
       </c>
-      <c r="H28" s="81" t="str">
+      <c r="H28" s="78" t="str">
         <f>IFERROR(E27/G28,"-")</f>
         <v>-</v>
       </c>
-      <c r="I28" s="82">
+      <c r="I28" s="79">
         <v>200</v>
       </c>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="70"/>
-    </row>
-    <row r="29" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="67"/>
+    </row>
+    <row r="29" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="9">
         <f>IFERROR(VLOOKUP(B28,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>7.0849999999999996E-2</v>
+        <v>5</v>
       </c>
       <c r="C29" s="9">
         <f>IFERROR(VLOOKUP(C28,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>10.97</v>
-      </c>
-      <c r="D29" s="9" t="str">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="D29" s="9">
         <f>IFERROR(VLOOKUP(D28,Database!$A$2:$B$56,2,0),"-")</f>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="E29" s="10">
         <v>0</v>
       </c>
-      <c r="J29" s="70"/>
-    </row>
-    <row r="30" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
+      <c r="J29" s="67"/>
+    </row>
+    <row r="30" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="78">
+      <c r="B30" s="75">
         <f>IFERROR(C24*B27/SUM(B32:D32),"-")</f>
-        <v>765.84784656834847</v>
-      </c>
-      <c r="C30" s="78">
+        <v>0</v>
+      </c>
+      <c r="C30" s="75">
         <f>IFERROR(C24*C27/SUM(B32:D32),"-")</f>
-        <v>7.6584784656834853E-2</v>
-      </c>
-      <c r="D30" s="78">
+        <v>1.1940470877961689</v>
+      </c>
+      <c r="D30" s="75">
         <f>IFERROR(C24*D27/SUM(B32:D32),"-")</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="78">
+        <v>0.1194047087796169</v>
+      </c>
+      <c r="E30" s="75">
         <f>IFERROR(C24*E27/SUM(B32:D32),0)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="70"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J30" s="67"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="73">
-        <f>IFERROR($B$14*$B$15,"-")</f>
-        <v>101.38237224564949</v>
-      </c>
-      <c r="C31" s="73">
-        <f t="shared" ref="C31:D31" si="5">IFERROR(C29*C30,"-")</f>
-        <v>0.8401350876854784</v>
-      </c>
-      <c r="D31" s="73" t="str">
-        <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="E31" s="73">
+      <c r="B31" s="70">
+        <f>IFERROR($B$29*$B$30,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="70">
+        <f t="shared" ref="C31:D31" si="2">IFERROR(C29*C30,"-")</f>
+        <v>0.42269266907984376</v>
+      </c>
+      <c r="D31" s="70">
+        <f t="shared" si="2"/>
+        <v>0.59702354389808443</v>
+      </c>
+      <c r="E31" s="70">
         <f>E29*E30</f>
         <v>0</v>
       </c>
       <c r="F31" s="2">
         <f>SUM(B31:D31)</f>
-        <v>102.22250733333497</v>
-      </c>
-      <c r="J31" s="70"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.0197162129779282</v>
+      </c>
+      <c r="J31" s="67"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="73">
+      <c r="B32" s="70">
         <f>IFERROR(B27*B29,"-")</f>
-        <v>7.0849999999999996E-2</v>
-      </c>
-      <c r="C32" s="73">
-        <f t="shared" ref="C32:D32" si="6">IFERROR(C27*C29,"-")</f>
-        <v>1.0970000000000001E-3</v>
-      </c>
-      <c r="D32" s="73" t="str">
-        <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="E32" s="73"/>
-      <c r="J32" s="70"/>
+        <v>0</v>
+      </c>
+      <c r="C32" s="70">
+        <f t="shared" ref="C32:D32" si="3">IFERROR(C27*C29,"-")</f>
+        <v>0.321963</v>
+      </c>
+      <c r="D32" s="70">
+        <f t="shared" si="3"/>
+        <v>0.45474999999999999</v>
+      </c>
+      <c r="E32" s="70"/>
+      <c r="F32" s="2">
+        <f>B31/C31</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="85">
+        <f>C27+D27</f>
+        <v>1.0004500000000001</v>
+      </c>
+      <c r="J32" s="67"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
+      <c r="F33" s="2" t="e">
+        <f>B27/F32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D34" s="2">
         <f>0.143/C30</f>
-        <v>1.8672116222662496</v>
-      </c>
-      <c r="J34" s="70"/>
+        <v>0.11976077113</v>
+      </c>
+      <c r="J34" s="67"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D35" s="6">
         <f>C27*D34</f>
-        <v>1.8672116222662497E-4</v>
-      </c>
-      <c r="J35" s="70"/>
+        <v>0.108922421342735</v>
+      </c>
+      <c r="J35" s="67"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J36" s="70"/>
+      <c r="J36" s="67"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="70"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="70"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="70"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="70"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="70"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="70"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="70"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="70"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
+      <c r="A58" s="67"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="70"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
-      <c r="B61" s="70"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="70"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="67"/>
+      <c r="J61" s="67"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="70"/>
-      <c r="B62" s="70"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="70"/>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
+      <c r="A63" s="67"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="70"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="67"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="70"/>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70"/>
-      <c r="J65" s="70"/>
+      <c r="A65" s="67"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="67"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="70"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
-      <c r="I66" s="70"/>
-      <c r="J66" s="70"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="70"/>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="70"/>
-      <c r="I67" s="70"/>
-      <c r="J67" s="70"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="67"/>
+      <c r="J67" s="67"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="70"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="70"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="67"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="70"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
-      <c r="J69" s="70"/>
+      <c r="A69" s="67"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="70"/>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="70"/>
-      <c r="J70" s="70"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="70"/>
-      <c r="J71" s="70"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="67"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="70"/>
-      <c r="B72" s="70"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-      <c r="J72" s="70"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="67"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="70"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
+      <c r="A73" s="67"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="70"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="70"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="67"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="70"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="70"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
+      <c r="J75" s="67"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="70"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="70"/>
+      <c r="A76" s="67"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="67"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="70"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="70"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="67"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="70"/>
-      <c r="B78" s="70"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="67"/>
+      <c r="I78" s="67"/>
+      <c r="J78" s="67"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="70"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="70"/>
-      <c r="J79" s="70"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
+      <c r="H79" s="67"/>
+      <c r="I79" s="67"/>
+      <c r="J79" s="67"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="70"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="70"/>
-      <c r="I80" s="70"/>
-      <c r="J80" s="70"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67"/>
+      <c r="J80" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5368,15 +5670,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5816,13 +6118,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">

--- a/RR_fuelflow.xlsx
+++ b/RR_fuelflow.xlsx
@@ -1761,7 +1761,7 @@
     <numFmt numFmtId="177" formatCode="#,###\ &quot;m/s&quot;"/>
     <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;Pa&quot;"/>
     <numFmt numFmtId="179" formatCode="#,###\ &quot;kW&quot;"/>
-    <numFmt numFmtId="182" formatCode="0.00000"/>
+    <numFmt numFmtId="180" formatCode="0.00000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -2163,6 +2163,9 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2172,9 +2175,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -2537,8 +2537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IQ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2559,13 +2559,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
     </row>
     <row r="2" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
@@ -2635,10 +2635,10 @@
       </c>
       <c r="N4" s="69"/>
       <c r="X4" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -3123,7 +3123,7 @@
         <v>158</v>
       </c>
       <c r="M17" s="80">
-        <f>N17*$O$17</f>
+        <f t="shared" ref="M17:M23" si="2">N17*$O$17</f>
         <v>2080</v>
       </c>
       <c r="N17" s="31">
@@ -3134,7 +3134,7 @@
         <v>2.6</v>
       </c>
       <c r="P17" s="80">
-        <f>$P$15*Q17</f>
+        <f t="shared" ref="P17:P23" si="3">$P$15*Q17</f>
         <v>2100</v>
       </c>
       <c r="Q17" s="31">
@@ -3144,7 +3144,7 @@
         <v>1E-4</v>
       </c>
       <c r="S17" s="19">
-        <f>$S$16*R17</f>
+        <f t="shared" ref="S17:S23" si="4">$S$16*R17</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="V17" s="2">
@@ -3176,7 +3176,7 @@
         <v>128</v>
       </c>
       <c r="M18" s="80">
-        <f>N18*$O$17</f>
+        <f t="shared" si="2"/>
         <v>657.80000000000007</v>
       </c>
       <c r="N18" s="31">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="80">
-        <f>$P$15*Q18</f>
+        <f t="shared" si="3"/>
         <v>4977</v>
       </c>
       <c r="Q18" s="31">
@@ -3194,7 +3194,7 @@
         <v>1.4672099999999999E-4</v>
       </c>
       <c r="S18" s="19">
-        <f>$S$16*R18</f>
+        <f t="shared" si="4"/>
         <v>1.46721E-5</v>
       </c>
       <c r="V18" s="2">
@@ -3203,13 +3203,13 @@
       <c r="W18" s="2">
         <v>1</v>
       </c>
-      <c r="X18" s="84">
+      <c r="X18" s="81">
         <v>0.61019999999999996</v>
       </c>
       <c r="Z18" s="2">
         <v>1</v>
       </c>
-      <c r="AA18" s="84">
+      <c r="AA18" s="81">
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
         <v>121</v>
       </c>
       <c r="M19" s="80">
-        <f>N19*$O$17</f>
+        <f t="shared" si="2"/>
         <v>1040</v>
       </c>
       <c r="N19" s="31">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="80">
-        <f>$P$15*Q19</f>
+        <f t="shared" si="3"/>
         <v>3528</v>
       </c>
       <c r="Q19" s="31">
@@ -3236,7 +3236,7 @@
         <v>2.9090700000000003E-4</v>
       </c>
       <c r="S19" s="19">
-        <f>$S$16*R19</f>
+        <f t="shared" si="4"/>
         <v>2.9090700000000003E-5</v>
       </c>
       <c r="V19" s="2">
@@ -3245,15 +3245,15 @@
       <c r="W19" s="2">
         <v>2.95</v>
       </c>
-      <c r="X19" s="84">
-        <f>$X$18*W19</f>
+      <c r="X19" s="81">
+        <f t="shared" ref="X19:X24" si="5">$X$18*W19</f>
         <v>1.80009</v>
       </c>
       <c r="Z19" s="2">
         <v>2.95</v>
       </c>
-      <c r="AA19" s="84">
-        <f>$AA$18*W19</f>
+      <c r="AA19" s="81">
+        <f t="shared" ref="AA19:AA24" si="6">$AA$18*W19</f>
         <v>0.12744000000000003</v>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
         <v>165</v>
       </c>
       <c r="M20" s="80">
-        <f>N20*$O$17</f>
+        <f t="shared" si="2"/>
         <v>657.80000000000007</v>
       </c>
       <c r="N20" s="31">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="80">
-        <f>$P$15*Q20</f>
+        <f t="shared" si="3"/>
         <v>4977</v>
       </c>
       <c r="Q20" s="31">
@@ -3280,7 +3280,7 @@
         <v>1.53485E-4</v>
       </c>
       <c r="S20" s="19">
-        <f>$S$16*R20</f>
+        <f t="shared" si="4"/>
         <v>1.5348500000000001E-5</v>
       </c>
       <c r="V20" s="5">
@@ -3289,14 +3289,14 @@
       <c r="W20" s="39">
         <v>5.53</v>
       </c>
-      <c r="X20" s="84">
-        <f>$X$18*W20</f>
+      <c r="X20" s="81">
+        <f t="shared" si="5"/>
         <v>3.374406</v>
       </c>
       <c r="Y20" s="39"/>
       <c r="Z20" s="39"/>
-      <c r="AA20" s="84">
-        <f>$AA$18*W20</f>
+      <c r="AA20" s="81">
+        <f t="shared" si="6"/>
         <v>0.23889600000000002</v>
       </c>
       <c r="AB20" s="39"/>
@@ -3318,7 +3318,7 @@
         <v>163</v>
       </c>
       <c r="M21" s="80">
-        <f>N21*$O$17</f>
+        <f t="shared" si="2"/>
         <v>1575.6000000000001</v>
       </c>
       <c r="N21" s="31">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="80">
-        <f>$P$15*Q21</f>
+        <f t="shared" si="3"/>
         <v>2583</v>
       </c>
       <c r="Q21" s="31">
@@ -3336,7 +3336,7 @@
         <v>3.6680399999999998E-4</v>
       </c>
       <c r="S21" s="19">
-        <f>$S$16*R21</f>
+        <f t="shared" si="4"/>
         <v>3.6680400000000002E-5</v>
       </c>
       <c r="V21" s="2">
@@ -3345,14 +3345,14 @@
       <c r="W21" s="31">
         <v>8.86</v>
       </c>
-      <c r="X21" s="84">
-        <f>$X$18*W21</f>
+      <c r="X21" s="81">
+        <f t="shared" si="5"/>
         <v>5.4063719999999993</v>
       </c>
       <c r="Y21" s="31"/>
       <c r="Z21" s="31"/>
-      <c r="AA21" s="84">
-        <f>$AA$18*W21</f>
+      <c r="AA21" s="81">
+        <f t="shared" si="6"/>
         <v>0.38275199999999998</v>
       </c>
       <c r="AB21" s="31"/>
@@ -3374,7 +3374,7 @@
         <v>126</v>
       </c>
       <c r="M22" s="80">
-        <f>N22*$O$17</f>
+        <f t="shared" si="2"/>
         <v>735.80000000000007</v>
       </c>
       <c r="N22" s="31">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="80">
-        <f>$P$15*Q22</f>
+        <f t="shared" si="3"/>
         <v>4578</v>
       </c>
       <c r="Q22" s="31">
@@ -3392,7 +3392,7 @@
         <v>2.6534900000000001E-4</v>
       </c>
       <c r="S22" s="19">
-        <f>$S$16*R22</f>
+        <f t="shared" si="4"/>
         <v>2.6534900000000002E-5</v>
       </c>
       <c r="V22" s="2">
@@ -3401,14 +3401,14 @@
       <c r="W22" s="31">
         <v>12.92</v>
       </c>
-      <c r="X22" s="84">
-        <f>$X$18*W22</f>
+      <c r="X22" s="81">
+        <f t="shared" si="5"/>
         <v>7.8837839999999995</v>
       </c>
       <c r="Y22" s="31"/>
       <c r="Z22" s="31"/>
-      <c r="AA22" s="84">
-        <f>$AA$18*W22</f>
+      <c r="AA22" s="81">
+        <f t="shared" si="6"/>
         <v>0.55814399999999997</v>
       </c>
       <c r="AB22" s="31"/>
@@ -3437,7 +3437,7 @@
         <v>191</v>
       </c>
       <c r="M23" s="80">
-        <f>N23*$O$17</f>
+        <f t="shared" si="2"/>
         <v>962</v>
       </c>
       <c r="N23" s="31">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="80">
-        <f>$P$15*Q23</f>
+        <f t="shared" si="3"/>
         <v>3738</v>
       </c>
       <c r="Q23" s="31">
@@ -3455,7 +3455,7 @@
         <v>3.6195500000000001E-4</v>
       </c>
       <c r="S23" s="19">
-        <f>$S$16*R23</f>
+        <f t="shared" si="4"/>
         <v>3.6195500000000003E-5</v>
       </c>
       <c r="V23" s="2">
@@ -3464,14 +3464,14 @@
       <c r="W23" s="31">
         <v>17.7</v>
       </c>
-      <c r="X23" s="84">
-        <f>$X$18*W23</f>
+      <c r="X23" s="81">
+        <f t="shared" si="5"/>
         <v>10.80054</v>
       </c>
       <c r="Y23" s="31"/>
       <c r="Z23" s="31"/>
-      <c r="AA23" s="84">
-        <f>$AA$18*W23</f>
+      <c r="AA23" s="81">
+        <f t="shared" si="6"/>
         <v>0.76463999999999999</v>
       </c>
       <c r="AB23" s="31"/>
@@ -3507,14 +3507,14 @@
       <c r="W24" s="5">
         <v>23.25</v>
       </c>
-      <c r="X24" s="84">
-        <f>$X$18*W24</f>
+      <c r="X24" s="81">
+        <f t="shared" si="5"/>
         <v>14.187149999999999</v>
       </c>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
-      <c r="AA24" s="84">
-        <f>$AA$18*W24</f>
+      <c r="AA24" s="81">
+        <f t="shared" si="6"/>
         <v>1.0044</v>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       <c r="C27" s="17">
         <v>0.90949999999999998</v>
       </c>
-      <c r="D27" s="86">
+      <c r="D27" s="83">
         <f>C27/10</f>
         <v>9.0950000000000003E-2</v>
       </c>
@@ -3646,11 +3646,11 @@
         <v>0</v>
       </c>
       <c r="C31" s="70">
-        <f t="shared" ref="C31:D31" si="2">IFERROR(C29*C30,"-")</f>
+        <f t="shared" ref="C31:D31" si="7">IFERROR(C29*C30,"-")</f>
         <v>0.42269266907984376</v>
       </c>
       <c r="D31" s="70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.59702354389808443</v>
       </c>
       <c r="E31" s="70">
@@ -3672,11 +3672,11 @@
         <v>0</v>
       </c>
       <c r="C32" s="70">
-        <f t="shared" ref="C32:D32" si="3">IFERROR(C27*C29,"-")</f>
+        <f t="shared" ref="C32:D32" si="8">IFERROR(C27*C29,"-")</f>
         <v>0.321963</v>
       </c>
       <c r="D32" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.45474999999999999</v>
       </c>
       <c r="E32" s="70"/>
@@ -3684,7 +3684,7 @@
         <f>B31/C31</f>
         <v>0</v>
       </c>
-      <c r="H32" s="85">
+      <c r="H32" s="82">
         <f>C27+D27</f>
         <v>1.0004500000000001</v>
       </c>
@@ -4259,7 +4259,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Database!$A$2:$A$56</xm:f>
@@ -5670,15 +5670,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6118,13 +6118,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
